--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -190,13 +190,13 @@
     <t>Atlante Xalapa</t>
   </si>
   <si>
-    <t>San Pedro 710 FC</t>
+    <t>Cantera Venados FC</t>
   </si>
   <si>
     <t>CD Muxes</t>
   </si>
   <si>
-    <t>Cantera Venados FC</t>
+    <t>San Pedro 710 FC</t>
   </si>
   <si>
     <t>Oceana FC</t>
@@ -226,10 +226,10 @@
     <t>Bhos UNISON FC</t>
   </si>
   <si>
-    <t>Len GEN</t>
+    <t>Hroes de Zaci FC</t>
   </si>
   <si>
-    <t>Hroes de Zaci FC</t>
+    <t>Len GEN</t>
   </si>
   <si>
     <t>Guerreros DD</t>
@@ -637,10 +637,10 @@
     <t>Fuerza Mazahua FC</t>
   </si>
   <si>
-    <t>Atltico Cuernavaca</t>
+    <t>guilas UAGro</t>
   </si>
   <si>
-    <t>guilas UAGro</t>
+    <t>Atltico Cuernavaca</t>
   </si>
   <si>
     <t>Aguacateros de Peribn FC</t>
@@ -1107,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC692"/>
+  <dimension ref="A1:AC700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2198,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6225298</v>
+        <v>6225236</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -4067,52 +4067,52 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>241</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N34">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -4121,16 +4121,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="AC34">
         <v>-0.5</v>
@@ -4230,7 +4230,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6225236</v>
+        <v>6225298</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4245,52 +4245,52 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>241</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
+        <v>2.75</v>
+      </c>
+      <c r="N36">
+        <v>3.1</v>
+      </c>
+      <c r="O36">
         <v>3.5</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>6</v>
-      </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
       <c r="P36">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -4299,16 +4299,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
       <c r="AC36">
         <v>-0.5</v>
@@ -5565,7 +5565,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6253891</v>
+        <v>6253889</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5580,53 +5580,53 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
         <v>241</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>1.363</v>
+      </c>
+      <c r="N51">
+        <v>5.25</v>
+      </c>
+      <c r="O51">
+        <v>4.2</v>
+      </c>
+      <c r="P51">
+        <v>1.45</v>
+      </c>
+      <c r="Q51">
+        <v>1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.775</v>
+      </c>
+      <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
         <v>3.75</v>
       </c>
-      <c r="M51">
-        <v>2.5</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>3.6</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
       <c r="U51">
+        <v>1.85</v>
+      </c>
+      <c r="V51">
         <v>1.95</v>
       </c>
-      <c r="V51">
-        <v>1.85</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
@@ -5634,19 +5634,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5654,7 +5654,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6253889</v>
+        <v>6253891</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5669,73 +5669,73 @@
         <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>241</v>
       </c>
       <c r="K52">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O52">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>1.975</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1.95</v>
+      </c>
+      <c r="V52">
+        <v>1.85</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
         <v>1.5</v>
       </c>
-      <c r="R52">
-        <v>1.775</v>
-      </c>
-      <c r="S52">
-        <v>1.925</v>
-      </c>
-      <c r="T52">
-        <v>3.75</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
-      <c r="V52">
-        <v>1.95</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
-      <c r="Y52">
-        <v>0.45</v>
-      </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
+        <v>-1</v>
+      </c>
+      <c r="AC52">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5936,7 +5936,7 @@
         <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -7357,7 +7357,7 @@
         <v>44975.79166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>47</v>
@@ -7535,7 +7535,7 @@
         <v>44975.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
         <v>172</v>
@@ -8146,7 +8146,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6318467</v>
+        <v>6318375</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -8158,40 +8158,40 @@
         <v>44981.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>241</v>
       </c>
       <c r="K80">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N80">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R80">
         <v>1.925</v>
@@ -8200,13 +8200,13 @@
         <v>1.875</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -8215,7 +8215,7 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.875</v>
+        <v>0.444</v>
       </c>
       <c r="Z80">
         <v>-1</v>
@@ -8224,10 +8224,10 @@
         <v>0.875</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8235,7 +8235,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6318375</v>
+        <v>6318467</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8247,40 +8247,40 @@
         <v>44981.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
         <v>241</v>
       </c>
       <c r="K81">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="L81">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
         <v>1.925</v>
@@ -8289,13 +8289,13 @@
         <v>1.875</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -8304,7 +8304,7 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.444</v>
+        <v>1.875</v>
       </c>
       <c r="Z81">
         <v>-1</v>
@@ -8313,10 +8313,10 @@
         <v>0.875</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8769,7 +8769,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6318373</v>
+        <v>6318462</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8781,40 +8781,40 @@
         <v>44981.75</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K87">
-        <v>1.025</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>41</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="O87">
-        <v>29</v>
+        <v>3.2</v>
       </c>
       <c r="P87">
-        <v>51</v>
+        <v>1.8</v>
       </c>
       <c r="Q87">
-        <v>-5.75</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
         <v>1.95</v>
@@ -8823,7 +8823,7 @@
         <v>1.85</v>
       </c>
       <c r="T87">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8832,19 +8832,19 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.01000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>0.825</v>
@@ -8858,7 +8858,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6318462</v>
+        <v>6318373</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8870,40 +8870,40 @@
         <v>44981.75</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>1.025</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="M88">
-        <v>1.8</v>
+        <v>41</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="P88">
-        <v>1.8</v>
+        <v>51</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-5.75</v>
       </c>
       <c r="R88">
         <v>1.95</v>
@@ -8912,7 +8912,7 @@
         <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8921,19 +8921,19 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
         <v>0.825</v>
@@ -8947,7 +8947,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6318469</v>
+        <v>6318463</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8959,76 +8959,76 @@
         <v>44981.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
       <c r="J89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L89">
         <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O89">
         <v>3.5</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9036,7 +9036,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6318463</v>
+        <v>6318469</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -9048,76 +9048,76 @@
         <v>44981.79166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K90">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L90">
         <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O90">
         <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>0.8</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.95</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0.825</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9404,7 +9404,7 @@
         <v>44982.58333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G94" t="s">
         <v>185</v>
@@ -10193,7 +10193,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6343190</v>
+        <v>6345263</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10205,34 +10205,34 @@
         <v>44988.54930555556</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <v>2</v>
       </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
       <c r="J103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K103">
         <v>4.5</v>
       </c>
       <c r="L103">
+        <v>4.5</v>
+      </c>
+      <c r="M103">
+        <v>1.5</v>
+      </c>
+      <c r="N103">
         <v>3.75</v>
       </c>
-      <c r="M103">
-        <v>1.6</v>
-      </c>
-      <c r="N103">
-        <v>4.5</v>
-      </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
         <v>1.615</v>
@@ -10247,34 +10247,34 @@
         <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB103">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10282,7 +10282,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6345263</v>
+        <v>6343190</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10294,34 +10294,34 @@
         <v>44988.54930555556</v>
       </c>
       <c r="F104" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
       <c r="J104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K104">
         <v>4.5</v>
       </c>
       <c r="L104">
+        <v>3.75</v>
+      </c>
+      <c r="M104">
+        <v>1.6</v>
+      </c>
+      <c r="N104">
         <v>4.5</v>
       </c>
-      <c r="M104">
-        <v>1.5</v>
-      </c>
-      <c r="N104">
+      <c r="O104">
         <v>3.75</v>
-      </c>
-      <c r="O104">
-        <v>4.333</v>
       </c>
       <c r="P104">
         <v>1.615</v>
@@ -10336,34 +10336,34 @@
         <v>1.8</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
+        <v>0.45</v>
+      </c>
+      <c r="AC104">
         <v>-0.5</v>
-      </c>
-      <c r="AA104">
-        <v>0.4</v>
-      </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
-      <c r="AC104">
-        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11095,7 +11095,7 @@
         <v>44989.79166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G113" t="s">
         <v>168</v>
@@ -11973,7 +11973,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6377734</v>
+        <v>6377733</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11985,76 +11985,76 @@
         <v>44995.75</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K123">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>1.166</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12062,7 +12062,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6377733</v>
+        <v>6377734</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -12074,76 +12074,76 @@
         <v>44995.75</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>1.166</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12611,7 +12611,7 @@
         <v>55</v>
       </c>
       <c r="G130" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12697,7 +12697,7 @@
         <v>44996.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G131" t="s">
         <v>167</v>
@@ -13854,7 +13854,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G144" t="s">
         <v>156</v>
@@ -15637,7 +15637,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -16079,7 +16079,7 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G169" t="s">
         <v>160</v>
@@ -17862,7 +17862,7 @@
         <v>106</v>
       </c>
       <c r="G189" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H189">
         <v>3</v>
@@ -18393,7 +18393,7 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G195" t="s">
         <v>83</v>
@@ -19286,7 +19286,7 @@
         <v>80</v>
       </c>
       <c r="G205" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -19372,7 +19372,7 @@
         <v>45021.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G206" t="s">
         <v>187</v>
@@ -19538,7 +19538,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6495818</v>
+        <v>6495817</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19550,49 +19550,49 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J208" t="s">
         <v>241</v>
       </c>
       <c r="K208">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M208">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N208">
+        <v>9.5</v>
+      </c>
+      <c r="O208">
         <v>7</v>
       </c>
-      <c r="O208">
-        <v>4.75</v>
-      </c>
       <c r="P208">
-        <v>1.333</v>
+        <v>1.181</v>
       </c>
       <c r="Q208">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19607,13 +19607,13 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.333</v>
+        <v>0.181</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB208">
         <v>0.8999999999999999</v>
@@ -19627,7 +19627,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6495817</v>
+        <v>6495818</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19639,49 +19639,49 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="G209" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J209" t="s">
         <v>241</v>
       </c>
       <c r="K209">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L209">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="N209">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="O209">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P209">
-        <v>1.181</v>
+        <v>1.333</v>
       </c>
       <c r="Q209">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19696,13 +19696,13 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.181</v>
+        <v>0.333</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB209">
         <v>0.8999999999999999</v>
@@ -20618,7 +20618,7 @@
         <v>45024.79166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G220" t="s">
         <v>191</v>
@@ -20888,7 +20888,7 @@
         <v>102</v>
       </c>
       <c r="G223" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -22398,7 +22398,7 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G240" t="s">
         <v>72</v>
@@ -22487,7 +22487,7 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G241" t="s">
         <v>76</v>
@@ -23733,7 +23733,7 @@
         <v>45035.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G255" t="s">
         <v>125</v>
@@ -24522,7 +24522,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6554540</v>
+        <v>6554538</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -24534,58 +24534,58 @@
         <v>45038.79166666666</v>
       </c>
       <c r="F264" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="G264" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
         <v>242</v>
       </c>
       <c r="K264">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M264">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N264">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O264">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P264">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q264">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24594,16 +24594,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB264">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24611,7 +24611,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6554538</v>
+        <v>6554540</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24623,58 +24623,58 @@
         <v>45038.79166666666</v>
       </c>
       <c r="F265" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G265" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>242</v>
       </c>
       <c r="K265">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L265">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N265">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O265">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P265">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q265">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R265">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T265">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24683,16 +24683,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA265">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
+        <v>0.375</v>
+      </c>
+      <c r="AC265">
         <v>-0.5</v>
-      </c>
-      <c r="AC265">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -25234,7 +25234,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6571954</v>
+        <v>6575303</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -25246,7 +25246,7 @@
         <v>45042.79166666666</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G272" t="s">
         <v>207</v>
@@ -25255,40 +25255,40 @@
         <v>0</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K272">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L272">
         <v>3</v>
       </c>
       <c r="M272">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N272">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O272">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P272">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q272">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R272">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T272">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
         <v>1.9</v>
@@ -25300,16 +25300,16 @@
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB272">
         <v>-1</v>
@@ -25323,7 +25323,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6575303</v>
+        <v>6571954</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -25335,7 +25335,7 @@
         <v>45042.79166666666</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G273" t="s">
         <v>208</v>
@@ -25344,40 +25344,40 @@
         <v>0</v>
       </c>
       <c r="I273">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K273">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L273">
         <v>3</v>
       </c>
       <c r="M273">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N273">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O273">
+        <v>3.4</v>
+      </c>
+      <c r="P273">
+        <v>3.6</v>
+      </c>
+      <c r="Q273">
+        <v>-0.5</v>
+      </c>
+      <c r="R273">
+        <v>1.95</v>
+      </c>
+      <c r="S273">
+        <v>1.85</v>
+      </c>
+      <c r="T273">
         <v>3</v>
-      </c>
-      <c r="P273">
-        <v>2.375</v>
-      </c>
-      <c r="Q273">
-        <v>0</v>
-      </c>
-      <c r="R273">
-        <v>2</v>
-      </c>
-      <c r="S273">
-        <v>1.8</v>
-      </c>
-      <c r="T273">
-        <v>2.75</v>
       </c>
       <c r="U273">
         <v>1.9</v>
@@ -25389,16 +25389,16 @@
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y273">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
         <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB273">
         <v>-1</v>
@@ -29429,7 +29429,7 @@
         <v>45185.66666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G319" t="s">
         <v>137</v>
@@ -29595,7 +29595,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7219268</v>
+        <v>7219332</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29607,28 +29607,28 @@
         <v>45185.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G321" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K321">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L321">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M321">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N321">
         <v>2.2</v>
@@ -29637,46 +29637,46 @@
         <v>3.2</v>
       </c>
       <c r="P321">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q321">
         <v>-0.25</v>
       </c>
       <c r="R321">
+        <v>2</v>
+      </c>
+      <c r="S321">
+        <v>1.8</v>
+      </c>
+      <c r="T321">
+        <v>2.75</v>
+      </c>
+      <c r="U321">
+        <v>1.825</v>
+      </c>
+      <c r="V321">
         <v>1.975</v>
       </c>
-      <c r="S321">
-        <v>1.825</v>
-      </c>
-      <c r="T321">
-        <v>2.25</v>
-      </c>
-      <c r="U321">
-        <v>1.85</v>
-      </c>
-      <c r="V321">
-        <v>1.95</v>
-      </c>
       <c r="W321">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
+        <v>-0.5</v>
+      </c>
+      <c r="AA321">
+        <v>0.4</v>
+      </c>
+      <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA321">
-        <v>-1</v>
-      </c>
-      <c r="AB321">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC321">
-        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29684,7 +29684,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7219332</v>
+        <v>7219268</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29696,28 +29696,28 @@
         <v>45185.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G322" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I322">
         <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K322">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L322">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N322">
         <v>2.2</v>
@@ -29726,46 +29726,46 @@
         <v>3.2</v>
       </c>
       <c r="P322">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q322">
         <v>-0.25</v>
       </c>
       <c r="R322">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S322">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T322">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V322">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X322">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA322">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -30218,7 +30218,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7242660</v>
+        <v>7242479</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -30230,76 +30230,76 @@
         <v>45191.75</v>
       </c>
       <c r="F328" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G328" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J328" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K328">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L328">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M328">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N328">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O328">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P328">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q328">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S328">
+        <v>1.975</v>
+      </c>
+      <c r="T328">
+        <v>2.75</v>
+      </c>
+      <c r="U328">
+        <v>1.75</v>
+      </c>
+      <c r="V328">
         <v>1.95</v>
       </c>
-      <c r="T328">
-        <v>3</v>
-      </c>
-      <c r="U328">
-        <v>1.925</v>
-      </c>
-      <c r="V328">
-        <v>1.875</v>
-      </c>
       <c r="W328">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X328">
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z328">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB328">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC328">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -30307,7 +30307,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7242479</v>
+        <v>7242660</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -30319,76 +30319,76 @@
         <v>45191.75</v>
       </c>
       <c r="F329" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G329" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329" t="s">
+        <v>242</v>
+      </c>
+      <c r="K329">
+        <v>1.571</v>
+      </c>
+      <c r="L329">
+        <v>4.2</v>
+      </c>
+      <c r="M329">
+        <v>4.333</v>
+      </c>
+      <c r="N329">
+        <v>1.666</v>
+      </c>
+      <c r="O329">
+        <v>4</v>
+      </c>
+      <c r="P329">
+        <v>4</v>
+      </c>
+      <c r="Q329">
+        <v>-0.75</v>
+      </c>
+      <c r="R329">
+        <v>1.85</v>
+      </c>
+      <c r="S329">
+        <v>1.95</v>
+      </c>
+      <c r="T329">
+        <v>3</v>
+      </c>
+      <c r="U329">
+        <v>1.925</v>
+      </c>
+      <c r="V329">
+        <v>1.875</v>
+      </c>
+      <c r="W329">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X329">
+        <v>-1</v>
+      </c>
+      <c r="Y329">
+        <v>-1</v>
+      </c>
+      <c r="Z329">
+        <v>0.425</v>
+      </c>
+      <c r="AA329">
+        <v>-0.5</v>
+      </c>
+      <c r="AB329">
         <v>0</v>
       </c>
-      <c r="I329">
-        <v>5</v>
-      </c>
-      <c r="J329" t="s">
-        <v>241</v>
-      </c>
-      <c r="K329">
-        <v>3.1</v>
-      </c>
-      <c r="L329">
-        <v>3.75</v>
-      </c>
-      <c r="M329">
-        <v>1.909</v>
-      </c>
-      <c r="N329">
-        <v>3.1</v>
-      </c>
-      <c r="O329">
-        <v>3.75</v>
-      </c>
-      <c r="P329">
-        <v>1.909</v>
-      </c>
-      <c r="Q329">
-        <v>0.5</v>
-      </c>
-      <c r="R329">
-        <v>1.825</v>
-      </c>
-      <c r="S329">
-        <v>1.975</v>
-      </c>
-      <c r="T329">
-        <v>2.75</v>
-      </c>
-      <c r="U329">
-        <v>1.75</v>
-      </c>
-      <c r="V329">
-        <v>1.95</v>
-      </c>
-      <c r="W329">
-        <v>-1</v>
-      </c>
-      <c r="X329">
-        <v>-1</v>
-      </c>
-      <c r="Y329">
-        <v>0.909</v>
-      </c>
-      <c r="Z329">
-        <v>-1</v>
-      </c>
-      <c r="AA329">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB329">
-        <v>0.75</v>
-      </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -31464,7 +31464,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7249464</v>
+        <v>7249463</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -31476,76 +31476,76 @@
         <v>45193.625</v>
       </c>
       <c r="F342" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="G342" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="H342">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J342" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K342">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L342">
         <v>3.6</v>
       </c>
       <c r="M342">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N342">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O342">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P342">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R342">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S342">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T342">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U342">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V342">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W342">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z342">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB342">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC342">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31553,7 +31553,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7249463</v>
+        <v>7249464</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31565,76 +31565,76 @@
         <v>45193.625</v>
       </c>
       <c r="F343" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G343" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H343">
+        <v>6</v>
+      </c>
+      <c r="I343">
         <v>0</v>
       </c>
-      <c r="I343">
-        <v>3</v>
-      </c>
       <c r="J343" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K343">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L343">
         <v>3.6</v>
       </c>
       <c r="M343">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N343">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O343">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P343">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q343">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R343">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S343">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T343">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V343">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA343">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC343">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -32369,7 +32369,7 @@
         <v>76</v>
       </c>
       <c r="G352" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -32633,7 +32633,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F355" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G355" t="s">
         <v>160</v>
@@ -33600,7 +33600,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7301074</v>
+        <v>7301882</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33612,76 +33612,76 @@
         <v>45205.75</v>
       </c>
       <c r="F366" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G366" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K366">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L366">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M366">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N366">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="O366">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P366">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q366">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R366">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T366">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U366">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V366">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W366">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z366">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC366">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33689,7 +33689,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7301882</v>
+        <v>7301074</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33701,76 +33701,76 @@
         <v>45205.75</v>
       </c>
       <c r="F367" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G367" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
         <v>0</v>
       </c>
-      <c r="I367">
-        <v>6</v>
-      </c>
       <c r="J367" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K367">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L367">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M367">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N367">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O367">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P367">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>1.9</v>
+      </c>
+      <c r="S367">
+        <v>1.9</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
+        <v>2</v>
+      </c>
+      <c r="V367">
+        <v>1.8</v>
+      </c>
+      <c r="W367">
         <v>1.5</v>
       </c>
-      <c r="R367">
-        <v>1.85</v>
-      </c>
-      <c r="S367">
-        <v>1.95</v>
-      </c>
-      <c r="T367">
-        <v>3</v>
-      </c>
-      <c r="U367">
-        <v>1.825</v>
-      </c>
-      <c r="V367">
-        <v>1.975</v>
-      </c>
-      <c r="W367">
-        <v>-1</v>
-      </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -34223,7 +34223,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7306065</v>
+        <v>7309557</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -34235,58 +34235,58 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G373" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H373">
+        <v>2</v>
+      </c>
+      <c r="I373">
         <v>1</v>
-      </c>
-      <c r="I373">
-        <v>0</v>
       </c>
       <c r="J373" t="s">
         <v>242</v>
       </c>
       <c r="K373">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M373">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N373">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O373">
+        <v>3.2</v>
+      </c>
+      <c r="P373">
         <v>4</v>
       </c>
-      <c r="P373">
-        <v>9</v>
-      </c>
       <c r="Q373">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S373">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V373">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W373">
-        <v>0.333</v>
+        <v>0.8</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -34295,16 +34295,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA373">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC373">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -34312,7 +34312,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7309557</v>
+        <v>7307198</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -34324,76 +34324,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F374" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G374" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K374">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L374">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M374">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N374">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P374">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q374">
+        <v>-0.25</v>
+      </c>
+      <c r="R374">
+        <v>1.9</v>
+      </c>
+      <c r="S374">
+        <v>1.9</v>
+      </c>
+      <c r="T374">
+        <v>2.75</v>
+      </c>
+      <c r="U374">
+        <v>1.875</v>
+      </c>
+      <c r="V374">
+        <v>1.925</v>
+      </c>
+      <c r="W374">
+        <v>-1</v>
+      </c>
+      <c r="X374">
+        <v>2.4</v>
+      </c>
+      <c r="Y374">
+        <v>-1</v>
+      </c>
+      <c r="Z374">
         <v>-0.5</v>
       </c>
-      <c r="R374">
-        <v>1.85</v>
-      </c>
-      <c r="S374">
-        <v>1.95</v>
-      </c>
-      <c r="T374">
-        <v>2.5</v>
-      </c>
-      <c r="U374">
-        <v>1.9</v>
-      </c>
-      <c r="V374">
-        <v>1.9</v>
-      </c>
-      <c r="W374">
-        <v>0.8</v>
-      </c>
-      <c r="X374">
-        <v>-1</v>
-      </c>
-      <c r="Y374">
-        <v>-1</v>
-      </c>
-      <c r="Z374">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB374">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -34490,7 +34490,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7307198</v>
+        <v>7306065</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -34502,76 +34502,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F376" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G376" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376">
         <v>0</v>
       </c>
       <c r="J376" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K376">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L376">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M376">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O376">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P376">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R376">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S376">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T376">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V376">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W376">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X376">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB376">
         <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34861,7 +34861,7 @@
         <v>83</v>
       </c>
       <c r="G380" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H380">
         <v>1</v>
@@ -35837,7 +35837,7 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F391" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G391" t="s">
         <v>140</v>
@@ -36282,7 +36282,7 @@
         <v>45213.66666666666</v>
       </c>
       <c r="F396" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G396" t="s">
         <v>152</v>
@@ -37338,7 +37338,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7367734</v>
+        <v>7364143</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -37350,58 +37350,58 @@
         <v>45219.75</v>
       </c>
       <c r="F408" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="G408" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H408">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J408" t="s">
         <v>242</v>
       </c>
       <c r="K408">
-        <v>1.035</v>
+        <v>2.75</v>
       </c>
       <c r="L408">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="M408">
-        <v>34</v>
+        <v>2.2</v>
       </c>
       <c r="N408">
-        <v>1.035</v>
+        <v>3.8</v>
       </c>
       <c r="O408">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="P408">
-        <v>34</v>
+        <v>1.8</v>
       </c>
       <c r="Q408">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="R408">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S408">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T408">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V408">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W408">
-        <v>0.03499999999999992</v>
+        <v>2.8</v>
       </c>
       <c r="X408">
         <v>-1</v>
@@ -37410,16 +37410,16 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA408">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC408">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -37427,7 +37427,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7364143</v>
+        <v>7367734</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -37439,58 +37439,58 @@
         <v>45219.75</v>
       </c>
       <c r="F409" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G409" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J409" t="s">
         <v>242</v>
       </c>
       <c r="K409">
-        <v>2.75</v>
+        <v>1.035</v>
       </c>
       <c r="L409">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="M409">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="N409">
-        <v>3.8</v>
+        <v>1.035</v>
       </c>
       <c r="O409">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P409">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="Q409">
-        <v>0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="R409">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S409">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T409">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U409">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V409">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W409">
-        <v>2.8</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X409">
         <v>-1</v>
@@ -37499,16 +37499,16 @@
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB409">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37531,7 +37531,7 @@
         <v>139</v>
       </c>
       <c r="G410" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H410">
         <v>2</v>
@@ -37783,7 +37783,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7369117</v>
+        <v>7369154</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37795,58 +37795,58 @@
         <v>45220.75</v>
       </c>
       <c r="F413" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="G413" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
         <v>242</v>
       </c>
       <c r="K413">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L413">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M413">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N413">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O413">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P413">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q413">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R413">
+        <v>2</v>
+      </c>
+      <c r="S413">
         <v>1.8</v>
       </c>
-      <c r="S413">
+      <c r="T413">
+        <v>3</v>
+      </c>
+      <c r="U413">
+        <v>1.8</v>
+      </c>
+      <c r="V413">
         <v>2</v>
       </c>
-      <c r="T413">
-        <v>2.5</v>
-      </c>
-      <c r="U413">
-        <v>1.85</v>
-      </c>
-      <c r="V413">
-        <v>1.95</v>
-      </c>
       <c r="W413">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37855,16 +37855,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA413">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37872,7 +37872,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7369154</v>
+        <v>7369105</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37884,49 +37884,49 @@
         <v>45220.75</v>
       </c>
       <c r="F414" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G414" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
         <v>2</v>
       </c>
-      <c r="I414">
-        <v>0</v>
-      </c>
       <c r="J414" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K414">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L414">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M414">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N414">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O414">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P414">
+        <v>1.363</v>
+      </c>
+      <c r="Q414">
+        <v>1.5</v>
+      </c>
+      <c r="R414">
+        <v>1.75</v>
+      </c>
+      <c r="S414">
+        <v>1.95</v>
+      </c>
+      <c r="T414">
         <v>2.75</v>
-      </c>
-      <c r="Q414">
-        <v>-0.25</v>
-      </c>
-      <c r="R414">
-        <v>2</v>
-      </c>
-      <c r="S414">
-        <v>1.8</v>
-      </c>
-      <c r="T414">
-        <v>3</v>
       </c>
       <c r="U414">
         <v>1.8</v>
@@ -37935,19 +37935,19 @@
         <v>2</v>
       </c>
       <c r="W414">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X414">
         <v>-1</v>
       </c>
       <c r="Y414">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z414">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA414">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB414">
         <v>-1</v>
@@ -37961,7 +37961,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7369105</v>
+        <v>7369117</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37973,76 +37973,76 @@
         <v>45220.75</v>
       </c>
       <c r="F415" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="G415" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415">
+        <v>1</v>
+      </c>
+      <c r="J415" t="s">
+        <v>242</v>
+      </c>
+      <c r="K415">
+        <v>1.615</v>
+      </c>
+      <c r="L415">
+        <v>3.6</v>
+      </c>
+      <c r="M415">
+        <v>5</v>
+      </c>
+      <c r="N415">
+        <v>1.615</v>
+      </c>
+      <c r="O415">
+        <v>3.6</v>
+      </c>
+      <c r="P415">
+        <v>5</v>
+      </c>
+      <c r="Q415">
+        <v>-0.75</v>
+      </c>
+      <c r="R415">
+        <v>1.8</v>
+      </c>
+      <c r="S415">
         <v>2</v>
       </c>
-      <c r="J415" t="s">
-        <v>241</v>
-      </c>
-      <c r="K415">
-        <v>5</v>
-      </c>
-      <c r="L415">
-        <v>4</v>
-      </c>
-      <c r="M415">
-        <v>1.533</v>
-      </c>
-      <c r="N415">
-        <v>7.5</v>
-      </c>
-      <c r="O415">
-        <v>4.5</v>
-      </c>
-      <c r="P415">
-        <v>1.363</v>
-      </c>
-      <c r="Q415">
-        <v>1.5</v>
-      </c>
-      <c r="R415">
-        <v>1.75</v>
-      </c>
-      <c r="S415">
+      <c r="T415">
+        <v>2.5</v>
+      </c>
+      <c r="U415">
+        <v>1.85</v>
+      </c>
+      <c r="V415">
         <v>1.95</v>
       </c>
-      <c r="T415">
-        <v>2.75</v>
-      </c>
-      <c r="U415">
-        <v>1.8</v>
-      </c>
-      <c r="V415">
-        <v>2</v>
-      </c>
       <c r="W415">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X415">
         <v>-1</v>
       </c>
       <c r="Y415">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA415">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC415">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -39219,7 +39219,7 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F429" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G429" t="s">
         <v>55</v>
@@ -40465,7 +40465,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F443" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G443" t="s">
         <v>126</v>
@@ -41076,7 +41076,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>7425963</v>
+        <v>7425470</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -41088,40 +41088,40 @@
         <v>45233.75</v>
       </c>
       <c r="F450" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G450" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I450">
         <v>1</v>
       </c>
       <c r="J450" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K450">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L450">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M450">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N450">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O450">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P450">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q450">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R450">
         <v>1.8</v>
@@ -41130,34 +41130,34 @@
         <v>2</v>
       </c>
       <c r="T450">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U450">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V450">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W450">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X450">
         <v>-1</v>
       </c>
       <c r="Y450">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z450">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA450">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB450">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC450">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -41165,7 +41165,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7425470</v>
+        <v>7425936</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -41177,76 +41177,76 @@
         <v>45233.75</v>
       </c>
       <c r="F451" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="G451" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H451">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451">
+        <v>2</v>
+      </c>
+      <c r="J451" t="s">
+        <v>241</v>
+      </c>
+      <c r="K451">
+        <v>3.3</v>
+      </c>
+      <c r="L451">
+        <v>3.5</v>
+      </c>
+      <c r="M451">
+        <v>1.909</v>
+      </c>
+      <c r="N451">
+        <v>3.3</v>
+      </c>
+      <c r="O451">
+        <v>3.5</v>
+      </c>
+      <c r="P451">
+        <v>1.909</v>
+      </c>
+      <c r="Q451">
+        <v>0.25</v>
+      </c>
+      <c r="R451">
+        <v>2</v>
+      </c>
+      <c r="S451">
+        <v>1.8</v>
+      </c>
+      <c r="T451">
+        <v>2.75</v>
+      </c>
+      <c r="U451">
+        <v>1.8</v>
+      </c>
+      <c r="V451">
+        <v>2</v>
+      </c>
+      <c r="W451">
+        <v>-1</v>
+      </c>
+      <c r="X451">
+        <v>-1</v>
+      </c>
+      <c r="Y451">
+        <v>0.909</v>
+      </c>
+      <c r="Z451">
+        <v>-1</v>
+      </c>
+      <c r="AA451">
+        <v>0.8</v>
+      </c>
+      <c r="AB451">
+        <v>-1</v>
+      </c>
+      <c r="AC451">
         <v>1</v>
-      </c>
-      <c r="J451" t="s">
-        <v>242</v>
-      </c>
-      <c r="K451">
-        <v>1.727</v>
-      </c>
-      <c r="L451">
-        <v>3.75</v>
-      </c>
-      <c r="M451">
-        <v>4</v>
-      </c>
-      <c r="N451">
-        <v>1.45</v>
-      </c>
-      <c r="O451">
-        <v>4</v>
-      </c>
-      <c r="P451">
-        <v>5.5</v>
-      </c>
-      <c r="Q451">
-        <v>-1</v>
-      </c>
-      <c r="R451">
-        <v>1.8</v>
-      </c>
-      <c r="S451">
-        <v>2</v>
-      </c>
-      <c r="T451">
-        <v>3</v>
-      </c>
-      <c r="U451">
-        <v>1.85</v>
-      </c>
-      <c r="V451">
-        <v>1.95</v>
-      </c>
-      <c r="W451">
-        <v>0.45</v>
-      </c>
-      <c r="X451">
-        <v>-1</v>
-      </c>
-      <c r="Y451">
-        <v>-1</v>
-      </c>
-      <c r="Z451">
-        <v>0.8</v>
-      </c>
-      <c r="AA451">
-        <v>-1</v>
-      </c>
-      <c r="AB451">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC451">
-        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -41254,7 +41254,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7425936</v>
+        <v>7425963</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -41266,55 +41266,55 @@
         <v>45233.75</v>
       </c>
       <c r="F452" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G452" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="H452">
         <v>0</v>
       </c>
       <c r="I452">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J452" t="s">
         <v>241</v>
       </c>
       <c r="K452">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L452">
         <v>3.5</v>
       </c>
       <c r="M452">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N452">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O452">
         <v>3.5</v>
       </c>
       <c r="P452">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q452">
         <v>0.25</v>
       </c>
       <c r="R452">
+        <v>1.8</v>
+      </c>
+      <c r="S452">
         <v>2</v>
-      </c>
-      <c r="S452">
-        <v>1.8</v>
       </c>
       <c r="T452">
         <v>2.75</v>
       </c>
       <c r="U452">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V452">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W452">
         <v>-1</v>
@@ -41323,19 +41323,19 @@
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="Z452">
         <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB452">
         <v>-1</v>
       </c>
       <c r="AC452">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41877,7 +41877,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7425472</v>
+        <v>7432107</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41889,73 +41889,73 @@
         <v>45234.75</v>
       </c>
       <c r="F459" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="G459" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="H459">
+        <v>3</v>
+      </c>
+      <c r="I459">
         <v>1</v>
       </c>
-      <c r="I459">
-        <v>6</v>
-      </c>
       <c r="J459" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K459">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L459">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M459">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N459">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O459">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P459">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q459">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R459">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S459">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T459">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U459">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V459">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W459">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X459">
         <v>-1</v>
       </c>
       <c r="Y459">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z459">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA459">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB459">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC459">
         <v>-1</v>
@@ -41966,7 +41966,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7432107</v>
+        <v>7425472</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41978,73 +41978,73 @@
         <v>45234.75</v>
       </c>
       <c r="F460" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="G460" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I460">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J460" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K460">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L460">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M460">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N460">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O460">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P460">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q460">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R460">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S460">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T460">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U460">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W460">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z460">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB460">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC460">
         <v>-1</v>
@@ -42070,7 +42070,7 @@
         <v>72</v>
       </c>
       <c r="G461" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H461">
         <v>1</v>
@@ -42233,7 +42233,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -42245,76 +42245,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F463" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G463" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H463">
+        <v>4</v>
+      </c>
+      <c r="I463">
         <v>0</v>
       </c>
-      <c r="I463">
-        <v>1</v>
-      </c>
       <c r="J463" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K463">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L463">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M463">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N463">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O463">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P463">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q463">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R463">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S463">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T463">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V463">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA463">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC463">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -42322,7 +42322,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -42334,76 +42334,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G464" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464">
+        <v>1</v>
+      </c>
+      <c r="J464" t="s">
+        <v>241</v>
+      </c>
+      <c r="K464">
         <v>4</v>
       </c>
-      <c r="I464">
-        <v>0</v>
-      </c>
-      <c r="J464" t="s">
-        <v>242</v>
-      </c>
-      <c r="K464">
-        <v>1.3</v>
-      </c>
       <c r="L464">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M464">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N464">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="O464">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P464">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q464">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S464">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T464">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U464">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V464">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W464">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z464">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB464">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC464">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42945,7 +42945,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7447277</v>
+        <v>7447275</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42957,13 +42957,13 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F471" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="G471" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I471">
         <v>0</v>
@@ -42972,43 +42972,43 @@
         <v>242</v>
       </c>
       <c r="K471">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L471">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="M471">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N471">
-        <v>1.333</v>
+        <v>1.035</v>
       </c>
       <c r="O471">
-        <v>4.333</v>
+        <v>19</v>
       </c>
       <c r="P471">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Q471">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="R471">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S471">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T471">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U471">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V471">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W471">
-        <v>0.333</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -43017,16 +43017,16 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA471">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB471">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC471">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -43123,7 +43123,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7447275</v>
+        <v>7447277</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -43135,13 +43135,13 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F473" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G473" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="H473">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I473">
         <v>0</v>
@@ -43150,43 +43150,43 @@
         <v>242</v>
       </c>
       <c r="K473">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L473">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="M473">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N473">
-        <v>1.035</v>
+        <v>1.333</v>
       </c>
       <c r="O473">
-        <v>19</v>
+        <v>4.333</v>
       </c>
       <c r="P473">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Q473">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="R473">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S473">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T473">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U473">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V473">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W473">
-        <v>0.03499999999999992</v>
+        <v>0.333</v>
       </c>
       <c r="X473">
         <v>-1</v>
@@ -43195,16 +43195,16 @@
         <v>-1</v>
       </c>
       <c r="Z473">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA473">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB473">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC473">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -43313,7 +43313,7 @@
         <v>45237.66666666666</v>
       </c>
       <c r="F475" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G475" t="s">
         <v>29</v>
@@ -43657,7 +43657,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>7447316</v>
+        <v>7448982</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43669,13 +43669,13 @@
         <v>45237.79166666666</v>
       </c>
       <c r="F479" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="G479" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I479">
         <v>0</v>
@@ -43684,43 +43684,43 @@
         <v>242</v>
       </c>
       <c r="K479">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L479">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M479">
+        <v>3.1</v>
+      </c>
+      <c r="N479">
+        <v>1.142</v>
+      </c>
+      <c r="O479">
         <v>7</v>
       </c>
-      <c r="N479">
-        <v>1.125</v>
-      </c>
-      <c r="O479">
-        <v>7.5</v>
-      </c>
       <c r="P479">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q479">
         <v>-2.25</v>
       </c>
       <c r="R479">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S479">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T479">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U479">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V479">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W479">
-        <v>0.125</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43729,16 +43729,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA479">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC479">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43746,7 +43746,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>7448982</v>
+        <v>7447316</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43758,13 +43758,13 @@
         <v>45237.79166666666</v>
       </c>
       <c r="F480" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="G480" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="H480">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I480">
         <v>0</v>
@@ -43773,43 +43773,43 @@
         <v>242</v>
       </c>
       <c r="K480">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L480">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M480">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N480">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O480">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P480">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q480">
         <v>-2.25</v>
       </c>
       <c r="R480">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S480">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T480">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U480">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V480">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W480">
-        <v>0.1419999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="X480">
         <v>-1</v>
@@ -43818,16 +43818,16 @@
         <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA480">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB480">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC480">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -44740,7 +44740,7 @@
         <v>38</v>
       </c>
       <c r="G491" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H491">
         <v>1</v>
@@ -45615,7 +45615,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>7462376</v>
+        <v>7457559</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45627,76 +45627,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F501" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G501" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="H501">
+        <v>1</v>
+      </c>
+      <c r="I501">
+        <v>1</v>
+      </c>
+      <c r="J501" t="s">
+        <v>243</v>
+      </c>
+      <c r="K501">
+        <v>3.25</v>
+      </c>
+      <c r="L501">
+        <v>3.5</v>
+      </c>
+      <c r="M501">
+        <v>1.909</v>
+      </c>
+      <c r="N501">
+        <v>2.3</v>
+      </c>
+      <c r="O501">
+        <v>3.4</v>
+      </c>
+      <c r="P501">
+        <v>2.6</v>
+      </c>
+      <c r="Q501">
+        <v>0</v>
+      </c>
+      <c r="R501">
+        <v>1.825</v>
+      </c>
+      <c r="S501">
+        <v>1.975</v>
+      </c>
+      <c r="T501">
+        <v>2.75</v>
+      </c>
+      <c r="U501">
+        <v>1.8</v>
+      </c>
+      <c r="V501">
         <v>2</v>
       </c>
-      <c r="I501">
+      <c r="W501">
+        <v>-1</v>
+      </c>
+      <c r="X501">
+        <v>2.4</v>
+      </c>
+      <c r="Y501">
+        <v>-1</v>
+      </c>
+      <c r="Z501">
         <v>0</v>
       </c>
-      <c r="J501" t="s">
-        <v>242</v>
-      </c>
-      <c r="K501">
-        <v>1.333</v>
-      </c>
-      <c r="L501">
-        <v>4.75</v>
-      </c>
-      <c r="M501">
-        <v>6.5</v>
-      </c>
-      <c r="N501">
-        <v>1.333</v>
-      </c>
-      <c r="O501">
-        <v>4.5</v>
-      </c>
-      <c r="P501">
-        <v>7</v>
-      </c>
-      <c r="Q501">
-        <v>-1.5</v>
-      </c>
-      <c r="R501">
-        <v>1.9</v>
-      </c>
-      <c r="S501">
-        <v>1.9</v>
-      </c>
-      <c r="T501">
-        <v>3</v>
-      </c>
-      <c r="U501">
-        <v>1.775</v>
-      </c>
-      <c r="V501">
-        <v>2.025</v>
-      </c>
-      <c r="W501">
-        <v>0.333</v>
-      </c>
-      <c r="X501">
-        <v>-1</v>
-      </c>
-      <c r="Y501">
-        <v>-1</v>
-      </c>
-      <c r="Z501">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA501">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB501">
         <v>-1</v>
       </c>
       <c r="AC501">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45704,7 +45704,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>7457559</v>
+        <v>7462376</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45716,76 +45716,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F502" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G502" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J502" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K502">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L502">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M502">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N502">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O502">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P502">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q502">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R502">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S502">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T502">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U502">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V502">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W502">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X502">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y502">
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA502">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB502">
         <v>-1</v>
       </c>
       <c r="AC502">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -48030,7 +48030,7 @@
         <v>45248.67569444444</v>
       </c>
       <c r="F528" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G528" t="s">
         <v>106</v>
@@ -48107,7 +48107,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -48119,55 +48119,55 @@
         <v>45248.75</v>
       </c>
       <c r="F529" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="G529" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="H529">
         <v>0</v>
       </c>
       <c r="I529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J529" t="s">
         <v>241</v>
       </c>
       <c r="K529">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L529">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M529">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N529">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O529">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P529">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q529">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R529">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S529">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T529">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U529">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V529">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W529">
         <v>-1</v>
@@ -48176,19 +48176,19 @@
         <v>-1</v>
       </c>
       <c r="Y529">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z529">
         <v>-1</v>
       </c>
       <c r="AA529">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB529">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC529">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -48196,7 +48196,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C530" t="s">
         <v>28</v>
@@ -48208,55 +48208,55 @@
         <v>45248.75</v>
       </c>
       <c r="F530" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="G530" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="H530">
         <v>0</v>
       </c>
       <c r="I530">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J530" t="s">
         <v>241</v>
       </c>
       <c r="K530">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L530">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M530">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N530">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O530">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P530">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q530">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R530">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S530">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T530">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U530">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V530">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W530">
         <v>-1</v>
@@ -48265,19 +48265,19 @@
         <v>-1</v>
       </c>
       <c r="Y530">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z530">
         <v>-1</v>
       </c>
       <c r="AA530">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB530">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC530">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="531" spans="1:29">
@@ -48374,7 +48374,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>7491749</v>
+        <v>7491751</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -48386,76 +48386,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F532" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="G532" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I532">
         <v>0</v>
       </c>
       <c r="J532" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K532">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L532">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M532">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N532">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O532">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P532">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q532">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R532">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S532">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T532">
         <v>2.75</v>
       </c>
       <c r="U532">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V532">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W532">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X532">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y532">
         <v>-1</v>
       </c>
       <c r="Z532">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA532">
+        <v>-1</v>
+      </c>
+      <c r="AB532">
+        <v>0.475</v>
+      </c>
+      <c r="AC532">
         <v>-0.5</v>
-      </c>
-      <c r="AB532">
-        <v>-1</v>
-      </c>
-      <c r="AC532">
-        <v>0.8</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -48552,7 +48552,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7491751</v>
+        <v>7491749</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -48564,76 +48564,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="G534" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="H534">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534">
         <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K534">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L534">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M534">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N534">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O534">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P534">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q534">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R534">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S534">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V534">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W534">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y534">
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA534">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB534">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC534">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -48730,7 +48730,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7495766</v>
+        <v>7486115</v>
       </c>
       <c r="C536" t="s">
         <v>28</v>
@@ -48742,76 +48742,76 @@
         <v>45249.625</v>
       </c>
       <c r="F536" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G536" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="H536">
+        <v>1</v>
+      </c>
+      <c r="I536">
+        <v>2</v>
+      </c>
+      <c r="J536" t="s">
+        <v>241</v>
+      </c>
+      <c r="K536">
+        <v>1.5</v>
+      </c>
+      <c r="L536">
+        <v>4.2</v>
+      </c>
+      <c r="M536">
+        <v>4.75</v>
+      </c>
+      <c r="N536">
+        <v>1.4</v>
+      </c>
+      <c r="O536">
+        <v>4.333</v>
+      </c>
+      <c r="P536">
+        <v>5.75</v>
+      </c>
+      <c r="Q536">
+        <v>-1.25</v>
+      </c>
+      <c r="R536">
+        <v>1.9</v>
+      </c>
+      <c r="S536">
+        <v>1.9</v>
+      </c>
+      <c r="T536">
         <v>3</v>
       </c>
-      <c r="I536">
-        <v>1</v>
-      </c>
-      <c r="J536" t="s">
-        <v>242</v>
-      </c>
-      <c r="K536">
-        <v>2.2</v>
-      </c>
-      <c r="L536">
-        <v>3.2</v>
-      </c>
-      <c r="M536">
-        <v>3</v>
-      </c>
-      <c r="N536">
-        <v>2.2</v>
-      </c>
-      <c r="O536">
-        <v>3.3</v>
-      </c>
-      <c r="P536">
-        <v>2.9</v>
-      </c>
-      <c r="Q536">
-        <v>-0.25</v>
-      </c>
-      <c r="R536">
-        <v>1.975</v>
-      </c>
-      <c r="S536">
-        <v>1.825</v>
-      </c>
-      <c r="T536">
-        <v>2.25</v>
-      </c>
       <c r="U536">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V536">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W536">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X536">
         <v>-1</v>
       </c>
       <c r="Y536">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z536">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA536">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB536">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC536">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="537" spans="1:29">
@@ -48819,7 +48819,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7486115</v>
+        <v>7495766</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48831,76 +48831,76 @@
         <v>45249.625</v>
       </c>
       <c r="F537" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G537" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="H537">
+        <v>3</v>
+      </c>
+      <c r="I537">
         <v>1</v>
       </c>
-      <c r="I537">
-        <v>2</v>
-      </c>
       <c r="J537" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K537">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L537">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M537">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N537">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O537">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P537">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q537">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R537">
+        <v>1.975</v>
+      </c>
+      <c r="S537">
+        <v>1.825</v>
+      </c>
+      <c r="T537">
+        <v>2.25</v>
+      </c>
+      <c r="U537">
         <v>1.9</v>
       </c>
-      <c r="S537">
+      <c r="V537">
         <v>1.9</v>
       </c>
-      <c r="T537">
-        <v>3</v>
-      </c>
-      <c r="U537">
-        <v>1.95</v>
-      </c>
-      <c r="V537">
-        <v>1.85</v>
-      </c>
       <c r="W537">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X537">
         <v>-1</v>
       </c>
       <c r="Y537">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z537">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA537">
+        <v>-1</v>
+      </c>
+      <c r="AB537">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB537">
-        <v>0</v>
-      </c>
       <c r="AC537">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -52557,7 +52557,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7542357</v>
+        <v>7542355</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52569,10 +52569,10 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F579" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="G579" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="H579">
         <v>1</v>
@@ -52584,40 +52584,40 @@
         <v>241</v>
       </c>
       <c r="K579">
+        <v>3.4</v>
+      </c>
+      <c r="L579">
+        <v>3.4</v>
+      </c>
+      <c r="M579">
+        <v>1.909</v>
+      </c>
+      <c r="N579">
+        <v>4</v>
+      </c>
+      <c r="O579">
         <v>3.5</v>
       </c>
-      <c r="L579">
-        <v>3.75</v>
-      </c>
-      <c r="M579">
-        <v>1.8</v>
-      </c>
-      <c r="N579">
-        <v>4.5</v>
-      </c>
-      <c r="O579">
-        <v>4.333</v>
-      </c>
       <c r="P579">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="Q579">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R579">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S579">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T579">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U579">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V579">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W579">
         <v>-1</v>
@@ -52626,16 +52626,16 @@
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>0.55</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z579">
         <v>-1</v>
       </c>
       <c r="AA579">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB579">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC579">
         <v>-1</v>
@@ -52735,7 +52735,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>7542355</v>
+        <v>7542357</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52747,10 +52747,10 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F581" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="G581" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="H581">
         <v>1</v>
@@ -52762,40 +52762,40 @@
         <v>241</v>
       </c>
       <c r="K581">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L581">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M581">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N581">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O581">
+        <v>4.333</v>
+      </c>
+      <c r="P581">
+        <v>1.55</v>
+      </c>
+      <c r="Q581">
+        <v>1</v>
+      </c>
+      <c r="R581">
+        <v>1.9</v>
+      </c>
+      <c r="S581">
+        <v>1.9</v>
+      </c>
+      <c r="T581">
         <v>3.5</v>
       </c>
-      <c r="P581">
-        <v>1.727</v>
-      </c>
-      <c r="Q581">
-        <v>0.75</v>
-      </c>
-      <c r="R581">
-        <v>1.775</v>
-      </c>
-      <c r="S581">
-        <v>1.925</v>
-      </c>
-      <c r="T581">
-        <v>2.75</v>
-      </c>
       <c r="U581">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V581">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W581">
         <v>-1</v>
@@ -52804,16 +52804,16 @@
         <v>-1</v>
       </c>
       <c r="Y581">
-        <v>0.7270000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Z581">
         <v>-1</v>
       </c>
       <c r="AA581">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB581">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC581">
         <v>-1</v>
@@ -54248,7 +54248,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>7571981</v>
+        <v>7568070</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -54260,40 +54260,40 @@
         <v>45269.75</v>
       </c>
       <c r="F598" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G598" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H598">
+        <v>2</v>
+      </c>
+      <c r="I598">
+        <v>2</v>
+      </c>
+      <c r="J598" t="s">
+        <v>243</v>
+      </c>
+      <c r="K598">
+        <v>5</v>
+      </c>
+      <c r="L598">
         <v>4</v>
       </c>
-      <c r="I598">
-        <v>0</v>
-      </c>
-      <c r="J598" t="s">
-        <v>242</v>
-      </c>
-      <c r="K598">
-        <v>1.062</v>
-      </c>
-      <c r="L598">
-        <v>11</v>
-      </c>
       <c r="M598">
-        <v>20</v>
+        <v>1.533</v>
       </c>
       <c r="N598">
-        <v>1.071</v>
+        <v>6.5</v>
       </c>
       <c r="O598">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P598">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="Q598">
-        <v>-3.25</v>
+        <v>1.5</v>
       </c>
       <c r="R598">
         <v>1.9</v>
@@ -54302,19 +54302,19 @@
         <v>1.9</v>
       </c>
       <c r="T598">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U598">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V598">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W598">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X598">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y598">
         <v>-1</v>
@@ -54326,10 +54326,10 @@
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC598">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54337,7 +54337,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>7568070</v>
+        <v>7571981</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -54349,40 +54349,40 @@
         <v>45269.75</v>
       </c>
       <c r="F599" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G599" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I599">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J599" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K599">
-        <v>5</v>
+        <v>1.062</v>
       </c>
       <c r="L599">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M599">
-        <v>1.533</v>
+        <v>20</v>
       </c>
       <c r="N599">
-        <v>6.5</v>
+        <v>1.071</v>
       </c>
       <c r="O599">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P599">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="Q599">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R599">
         <v>1.9</v>
@@ -54391,19 +54391,19 @@
         <v>1.9</v>
       </c>
       <c r="T599">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U599">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V599">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W599">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X599">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y599">
         <v>-1</v>
@@ -54415,10 +54415,10 @@
         <v>-1</v>
       </c>
       <c r="AB599">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -55239,7 +55239,7 @@
         <v>45311.66666666666</v>
       </c>
       <c r="F609" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G609" t="s">
         <v>167</v>
@@ -55405,7 +55405,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -55417,13 +55417,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F611" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G611" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="H611">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611">
         <v>1</v>
@@ -55432,43 +55432,43 @@
         <v>242</v>
       </c>
       <c r="K611">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L611">
+        <v>3.3</v>
+      </c>
+      <c r="M611">
         <v>4</v>
       </c>
-      <c r="M611">
-        <v>7</v>
-      </c>
       <c r="N611">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O611">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P611">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q611">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R611">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S611">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T611">
         <v>3.25</v>
       </c>
       <c r="U611">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V611">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W611">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X611">
         <v>-1</v>
@@ -55477,16 +55477,16 @@
         <v>-1</v>
       </c>
       <c r="Z611">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA611">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB611">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC611">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -55494,7 +55494,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -55506,13 +55506,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F612" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G612" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I612">
         <v>1</v>
@@ -55521,43 +55521,43 @@
         <v>242</v>
       </c>
       <c r="K612">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L612">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M612">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N612">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O612">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P612">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q612">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R612">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S612">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T612">
         <v>3.25</v>
       </c>
       <c r="U612">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V612">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W612">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X612">
         <v>-1</v>
@@ -55566,16 +55566,16 @@
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA612">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB612">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC612">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -56755,7 +56755,7 @@
         <v>137</v>
       </c>
       <c r="G626" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H626">
         <v>1</v>
@@ -58342,7 +58342,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -58354,59 +58354,59 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F644" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G644" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H644">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J644" t="s">
         <v>242</v>
       </c>
       <c r="K644">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L644">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M644">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N644">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O644">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P644">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q644">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R644">
+        <v>1.9</v>
+      </c>
+      <c r="S644">
+        <v>1.9</v>
+      </c>
+      <c r="T644">
+        <v>2.75</v>
+      </c>
+      <c r="U644">
         <v>1.875</v>
       </c>
-      <c r="S644">
+      <c r="V644">
         <v>1.925</v>
       </c>
-      <c r="T644">
-        <v>3</v>
-      </c>
-      <c r="U644">
+      <c r="W644">
         <v>2</v>
       </c>
-      <c r="V644">
-        <v>1.8</v>
-      </c>
-      <c r="W644">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="X644">
         <v>-1</v>
       </c>
@@ -58414,16 +58414,16 @@
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA644">
         <v>-1</v>
       </c>
       <c r="AB644">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC644">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -58431,7 +58431,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -58443,58 +58443,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F645" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G645" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J645" t="s">
         <v>242</v>
       </c>
       <c r="K645">
+        <v>1.533</v>
+      </c>
+      <c r="L645">
+        <v>3.75</v>
+      </c>
+      <c r="M645">
+        <v>5</v>
+      </c>
+      <c r="N645">
+        <v>1.533</v>
+      </c>
+      <c r="O645">
+        <v>3.8</v>
+      </c>
+      <c r="P645">
+        <v>5</v>
+      </c>
+      <c r="Q645">
+        <v>-1</v>
+      </c>
+      <c r="R645">
+        <v>1.875</v>
+      </c>
+      <c r="S645">
+        <v>1.925</v>
+      </c>
+      <c r="T645">
         <v>3</v>
       </c>
-      <c r="L645">
-        <v>3.4</v>
-      </c>
-      <c r="M645">
-        <v>2.1</v>
-      </c>
-      <c r="N645">
-        <v>3</v>
-      </c>
-      <c r="O645">
-        <v>3.4</v>
-      </c>
-      <c r="P645">
-        <v>2.1</v>
-      </c>
-      <c r="Q645">
-        <v>0.25</v>
-      </c>
-      <c r="R645">
-        <v>1.9</v>
-      </c>
-      <c r="S645">
-        <v>1.9</v>
-      </c>
-      <c r="T645">
-        <v>2.75</v>
-      </c>
       <c r="U645">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V645">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W645">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X645">
         <v>-1</v>
@@ -58503,16 +58503,16 @@
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA645">
         <v>-1</v>
       </c>
       <c r="AB645">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC645">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -59066,7 +59066,7 @@
         <v>45326.81319444445</v>
       </c>
       <c r="F652" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G652" t="s">
         <v>30</v>
@@ -59321,7 +59321,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -59333,76 +59333,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F655" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G655" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="H655">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I655">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J655" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K655">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="L655">
         <v>4</v>
       </c>
       <c r="M655">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N655">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="O655">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P655">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q655">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R655">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S655">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T655">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U655">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V655">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W655">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z655">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB655">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC655">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -59410,7 +59410,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -59422,76 +59422,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F656" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G656" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I656">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J656" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K656">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="L656">
         <v>4</v>
       </c>
       <c r="M656">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="N656">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="O656">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P656">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="Q656">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R656">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S656">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T656">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U656">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V656">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W656">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X656">
         <v>-1</v>
       </c>
       <c r="Y656">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z656">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA656">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB656">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC656">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -60404,7 +60404,7 @@
         <v>50</v>
       </c>
       <c r="G667" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H667">
         <v>3</v>
@@ -61101,7 +61101,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -61113,73 +61113,73 @@
         <v>45338.75</v>
       </c>
       <c r="F675" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="G675" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="H675">
+        <v>3</v>
+      </c>
+      <c r="I675">
+        <v>1</v>
+      </c>
+      <c r="J675" t="s">
+        <v>242</v>
+      </c>
+      <c r="K675">
+        <v>1.615</v>
+      </c>
+      <c r="L675">
+        <v>3.5</v>
+      </c>
+      <c r="M675">
+        <v>5</v>
+      </c>
+      <c r="N675">
+        <v>1.363</v>
+      </c>
+      <c r="O675">
+        <v>4.333</v>
+      </c>
+      <c r="P675">
+        <v>7.5</v>
+      </c>
+      <c r="Q675">
+        <v>-1.25</v>
+      </c>
+      <c r="R675">
+        <v>1.75</v>
+      </c>
+      <c r="S675">
+        <v>2.05</v>
+      </c>
+      <c r="T675">
+        <v>3</v>
+      </c>
+      <c r="U675">
+        <v>1.8</v>
+      </c>
+      <c r="V675">
         <v>2</v>
       </c>
-      <c r="I675">
-        <v>5</v>
-      </c>
-      <c r="J675" t="s">
-        <v>241</v>
-      </c>
-      <c r="K675">
-        <v>1.8</v>
-      </c>
-      <c r="L675">
-        <v>3.3</v>
-      </c>
-      <c r="M675">
-        <v>4</v>
-      </c>
-      <c r="N675">
-        <v>1.615</v>
-      </c>
-      <c r="O675">
-        <v>3.5</v>
-      </c>
-      <c r="P675">
-        <v>4.75</v>
-      </c>
-      <c r="Q675">
-        <v>-0.75</v>
-      </c>
-      <c r="R675">
-        <v>1.8</v>
-      </c>
-      <c r="S675">
-        <v>2</v>
-      </c>
-      <c r="T675">
-        <v>2.75</v>
-      </c>
-      <c r="U675">
-        <v>1.75</v>
-      </c>
-      <c r="V675">
-        <v>1.95</v>
-      </c>
       <c r="W675">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X675">
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z675">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA675">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC675">
         <v>-1</v>
@@ -61190,7 +61190,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -61202,73 +61202,73 @@
         <v>45338.75</v>
       </c>
       <c r="F676" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G676" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="H676">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676">
+        <v>5</v>
+      </c>
+      <c r="J676" t="s">
+        <v>241</v>
+      </c>
+      <c r="K676">
+        <v>1.8</v>
+      </c>
+      <c r="L676">
+        <v>3.3</v>
+      </c>
+      <c r="M676">
+        <v>4</v>
+      </c>
+      <c r="N676">
+        <v>1.615</v>
+      </c>
+      <c r="O676">
+        <v>3.5</v>
+      </c>
+      <c r="P676">
+        <v>4.75</v>
+      </c>
+      <c r="Q676">
+        <v>-0.75</v>
+      </c>
+      <c r="R676">
+        <v>1.8</v>
+      </c>
+      <c r="S676">
+        <v>2</v>
+      </c>
+      <c r="T676">
+        <v>2.75</v>
+      </c>
+      <c r="U676">
+        <v>1.75</v>
+      </c>
+      <c r="V676">
+        <v>1.95</v>
+      </c>
+      <c r="W676">
+        <v>-1</v>
+      </c>
+      <c r="X676">
+        <v>-1</v>
+      </c>
+      <c r="Y676">
+        <v>3.75</v>
+      </c>
+      <c r="Z676">
+        <v>-1</v>
+      </c>
+      <c r="AA676">
         <v>1</v>
       </c>
-      <c r="J676" t="s">
-        <v>242</v>
-      </c>
-      <c r="K676">
-        <v>1.615</v>
-      </c>
-      <c r="L676">
-        <v>3.5</v>
-      </c>
-      <c r="M676">
-        <v>5</v>
-      </c>
-      <c r="N676">
-        <v>1.363</v>
-      </c>
-      <c r="O676">
-        <v>4.333</v>
-      </c>
-      <c r="P676">
-        <v>7.5</v>
-      </c>
-      <c r="Q676">
-        <v>-1.25</v>
-      </c>
-      <c r="R676">
-        <v>1.75</v>
-      </c>
-      <c r="S676">
-        <v>2.05</v>
-      </c>
-      <c r="T676">
-        <v>3</v>
-      </c>
-      <c r="U676">
-        <v>1.8</v>
-      </c>
-      <c r="V676">
-        <v>2</v>
-      </c>
-      <c r="W676">
-        <v>0.363</v>
-      </c>
-      <c r="X676">
-        <v>-1</v>
-      </c>
-      <c r="Y676">
-        <v>-1</v>
-      </c>
-      <c r="Z676">
+      <c r="AB676">
         <v>0.75</v>
-      </c>
-      <c r="AA676">
-        <v>-1</v>
-      </c>
-      <c r="AB676">
-        <v>0.8</v>
       </c>
       <c r="AC676">
         <v>-1</v>
@@ -61457,7 +61457,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>7846856</v>
+        <v>7847106</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -61469,76 +61469,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F679" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="G679" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J679" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K679">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L679">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M679">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N679">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O679">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P679">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="Q679">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R679">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S679">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T679">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U679">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V679">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y679">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z679">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA679">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB679">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC679">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61546,7 +61546,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>7847106</v>
+        <v>7846856</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61558,76 +61558,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F680" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="G680" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
+        <v>1</v>
+      </c>
+      <c r="J680" t="s">
+        <v>241</v>
+      </c>
+      <c r="K680">
+        <v>2.375</v>
+      </c>
+      <c r="L680">
+        <v>3.3</v>
+      </c>
+      <c r="M680">
+        <v>2.625</v>
+      </c>
+      <c r="N680">
+        <v>3</v>
+      </c>
+      <c r="O680">
+        <v>3.3</v>
+      </c>
+      <c r="P680">
+        <v>2.15</v>
+      </c>
+      <c r="Q680">
+        <v>0.25</v>
+      </c>
+      <c r="R680">
+        <v>1.875</v>
+      </c>
+      <c r="S680">
+        <v>1.925</v>
+      </c>
+      <c r="T680">
         <v>2</v>
       </c>
-      <c r="I680">
+      <c r="U680">
+        <v>1.8</v>
+      </c>
+      <c r="V680">
         <v>2</v>
       </c>
-      <c r="J680" t="s">
-        <v>243</v>
-      </c>
-      <c r="K680">
-        <v>4</v>
-      </c>
-      <c r="L680">
-        <v>3.2</v>
-      </c>
-      <c r="M680">
-        <v>1.8</v>
-      </c>
-      <c r="N680">
-        <v>4</v>
-      </c>
-      <c r="O680">
-        <v>3.2</v>
-      </c>
-      <c r="P680">
-        <v>1.8</v>
-      </c>
-      <c r="Q680">
-        <v>0.5</v>
-      </c>
-      <c r="R680">
-        <v>1.95</v>
-      </c>
-      <c r="S680">
-        <v>1.85</v>
-      </c>
-      <c r="T680">
-        <v>2.75</v>
-      </c>
-      <c r="U680">
-        <v>1.95</v>
-      </c>
-      <c r="V680">
-        <v>1.85</v>
-      </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y680">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z680">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA680">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB680">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -62095,7 +62095,7 @@
         <v>152</v>
       </c>
       <c r="G686" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H686">
         <v>0</v>
@@ -62436,7 +62436,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -62448,76 +62448,76 @@
         <v>45345.75</v>
       </c>
       <c r="F690" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G690" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J690" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K690">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L690">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M690">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N690">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O690">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P690">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q690">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R690">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S690">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T690">
         <v>2.75</v>
       </c>
       <c r="U690">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V690">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W690">
         <v>-1</v>
       </c>
       <c r="X690">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y690">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z690">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA690">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB690">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC690">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:29">
@@ -62525,7 +62525,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -62537,76 +62537,76 @@
         <v>45345.75</v>
       </c>
       <c r="F691" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G691" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I691">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J691" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K691">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L691">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M691">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N691">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O691">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P691">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q691">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R691">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S691">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T691">
         <v>2.75</v>
       </c>
       <c r="U691">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V691">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W691">
         <v>-1</v>
       </c>
       <c r="X691">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y691">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z691">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA691">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB691">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC691">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="692" spans="1:29">
@@ -62696,6 +62696,598 @@
       </c>
       <c r="AC692">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:29">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>7877576</v>
+      </c>
+      <c r="C693" t="s">
+        <v>28</v>
+      </c>
+      <c r="D693" t="s">
+        <v>28</v>
+      </c>
+      <c r="E693" s="2">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F693" t="s">
+        <v>45</v>
+      </c>
+      <c r="G693" t="s">
+        <v>32</v>
+      </c>
+      <c r="K693">
+        <v>5</v>
+      </c>
+      <c r="L693">
+        <v>4</v>
+      </c>
+      <c r="M693">
+        <v>1.533</v>
+      </c>
+      <c r="N693">
+        <v>7</v>
+      </c>
+      <c r="O693">
+        <v>4.333</v>
+      </c>
+      <c r="P693">
+        <v>1.363</v>
+      </c>
+      <c r="Q693">
+        <v>1.25</v>
+      </c>
+      <c r="R693">
+        <v>2</v>
+      </c>
+      <c r="S693">
+        <v>1.8</v>
+      </c>
+      <c r="T693">
+        <v>3.25</v>
+      </c>
+      <c r="U693">
+        <v>1.9</v>
+      </c>
+      <c r="V693">
+        <v>1.9</v>
+      </c>
+      <c r="W693">
+        <v>0</v>
+      </c>
+      <c r="X693">
+        <v>0</v>
+      </c>
+      <c r="Y693">
+        <v>0</v>
+      </c>
+      <c r="Z693">
+        <v>0</v>
+      </c>
+      <c r="AA693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:29">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>7877573</v>
+      </c>
+      <c r="C694" t="s">
+        <v>28</v>
+      </c>
+      <c r="D694" t="s">
+        <v>28</v>
+      </c>
+      <c r="E694" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F694" t="s">
+        <v>55</v>
+      </c>
+      <c r="G694" t="s">
+        <v>171</v>
+      </c>
+      <c r="K694">
+        <v>12</v>
+      </c>
+      <c r="L694">
+        <v>5</v>
+      </c>
+      <c r="M694">
+        <v>1.2</v>
+      </c>
+      <c r="N694">
+        <v>13</v>
+      </c>
+      <c r="O694">
+        <v>5</v>
+      </c>
+      <c r="P694">
+        <v>1.2</v>
+      </c>
+      <c r="Q694">
+        <v>2</v>
+      </c>
+      <c r="R694">
+        <v>1.75</v>
+      </c>
+      <c r="S694">
+        <v>2.05</v>
+      </c>
+      <c r="T694">
+        <v>2.5</v>
+      </c>
+      <c r="U694">
+        <v>1.85</v>
+      </c>
+      <c r="V694">
+        <v>1.95</v>
+      </c>
+      <c r="W694">
+        <v>0</v>
+      </c>
+      <c r="X694">
+        <v>0</v>
+      </c>
+      <c r="Y694">
+        <v>0</v>
+      </c>
+      <c r="Z694">
+        <v>0</v>
+      </c>
+      <c r="AA694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:29">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>7877571</v>
+      </c>
+      <c r="C695" t="s">
+        <v>28</v>
+      </c>
+      <c r="D695" t="s">
+        <v>28</v>
+      </c>
+      <c r="E695" s="2">
+        <v>45346.625</v>
+      </c>
+      <c r="F695" t="s">
+        <v>120</v>
+      </c>
+      <c r="G695" t="s">
+        <v>178</v>
+      </c>
+      <c r="K695">
+        <v>1.333</v>
+      </c>
+      <c r="L695">
+        <v>4</v>
+      </c>
+      <c r="M695">
+        <v>9</v>
+      </c>
+      <c r="N695">
+        <v>1.333</v>
+      </c>
+      <c r="O695">
+        <v>4.333</v>
+      </c>
+      <c r="P695">
+        <v>8</v>
+      </c>
+      <c r="Q695">
+        <v>-1.5</v>
+      </c>
+      <c r="R695">
+        <v>1.85</v>
+      </c>
+      <c r="S695">
+        <v>1.95</v>
+      </c>
+      <c r="T695">
+        <v>3</v>
+      </c>
+      <c r="U695">
+        <v>1.775</v>
+      </c>
+      <c r="V695">
+        <v>2.025</v>
+      </c>
+      <c r="W695">
+        <v>0</v>
+      </c>
+      <c r="X695">
+        <v>0</v>
+      </c>
+      <c r="Y695">
+        <v>0</v>
+      </c>
+      <c r="Z695">
+        <v>0</v>
+      </c>
+      <c r="AA695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:29">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>7877575</v>
+      </c>
+      <c r="C696" t="s">
+        <v>28</v>
+      </c>
+      <c r="D696" t="s">
+        <v>28</v>
+      </c>
+      <c r="E696" s="2">
+        <v>45346.79166666666</v>
+      </c>
+      <c r="F696" t="s">
+        <v>83</v>
+      </c>
+      <c r="G696" t="s">
+        <v>164</v>
+      </c>
+      <c r="K696">
+        <v>2.1</v>
+      </c>
+      <c r="L696">
+        <v>3.5</v>
+      </c>
+      <c r="M696">
+        <v>2.9</v>
+      </c>
+      <c r="N696">
+        <v>2.1</v>
+      </c>
+      <c r="O696">
+        <v>3.5</v>
+      </c>
+      <c r="P696">
+        <v>2.9</v>
+      </c>
+      <c r="Q696">
+        <v>-0.25</v>
+      </c>
+      <c r="R696">
+        <v>1.9</v>
+      </c>
+      <c r="S696">
+        <v>1.9</v>
+      </c>
+      <c r="T696">
+        <v>3.5</v>
+      </c>
+      <c r="U696">
+        <v>2</v>
+      </c>
+      <c r="V696">
+        <v>1.8</v>
+      </c>
+      <c r="W696">
+        <v>0</v>
+      </c>
+      <c r="X696">
+        <v>0</v>
+      </c>
+      <c r="Y696">
+        <v>0</v>
+      </c>
+      <c r="Z696">
+        <v>0</v>
+      </c>
+      <c r="AA696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:29">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>7877574</v>
+      </c>
+      <c r="C697" t="s">
+        <v>28</v>
+      </c>
+      <c r="D697" t="s">
+        <v>28</v>
+      </c>
+      <c r="E697" s="2">
+        <v>45346.79166666666</v>
+      </c>
+      <c r="F697" t="s">
+        <v>110</v>
+      </c>
+      <c r="G697" t="s">
+        <v>52</v>
+      </c>
+      <c r="K697">
+        <v>7</v>
+      </c>
+      <c r="L697">
+        <v>4</v>
+      </c>
+      <c r="M697">
+        <v>1.4</v>
+      </c>
+      <c r="N697">
+        <v>7</v>
+      </c>
+      <c r="O697">
+        <v>4</v>
+      </c>
+      <c r="P697">
+        <v>1.4</v>
+      </c>
+      <c r="Q697">
+        <v>1.25</v>
+      </c>
+      <c r="R697">
+        <v>1.9</v>
+      </c>
+      <c r="S697">
+        <v>1.9</v>
+      </c>
+      <c r="T697">
+        <v>2.5</v>
+      </c>
+      <c r="U697">
+        <v>1.85</v>
+      </c>
+      <c r="V697">
+        <v>1.95</v>
+      </c>
+      <c r="W697">
+        <v>0</v>
+      </c>
+      <c r="X697">
+        <v>0</v>
+      </c>
+      <c r="Y697">
+        <v>0</v>
+      </c>
+      <c r="Z697">
+        <v>0</v>
+      </c>
+      <c r="AA697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:29">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>7877572</v>
+      </c>
+      <c r="C698" t="s">
+        <v>28</v>
+      </c>
+      <c r="D698" t="s">
+        <v>28</v>
+      </c>
+      <c r="E698" s="2">
+        <v>45346.79166666666</v>
+      </c>
+      <c r="F698" t="s">
+        <v>92</v>
+      </c>
+      <c r="G698" t="s">
+        <v>79</v>
+      </c>
+      <c r="K698">
+        <v>1.727</v>
+      </c>
+      <c r="L698">
+        <v>3.5</v>
+      </c>
+      <c r="M698">
+        <v>4</v>
+      </c>
+      <c r="N698">
+        <v>1.7</v>
+      </c>
+      <c r="O698">
+        <v>3.5</v>
+      </c>
+      <c r="P698">
+        <v>4</v>
+      </c>
+      <c r="Q698">
+        <v>-0.5</v>
+      </c>
+      <c r="R698">
+        <v>1.75</v>
+      </c>
+      <c r="S698">
+        <v>2.05</v>
+      </c>
+      <c r="T698">
+        <v>2.75</v>
+      </c>
+      <c r="U698">
+        <v>1.925</v>
+      </c>
+      <c r="V698">
+        <v>1.875</v>
+      </c>
+      <c r="W698">
+        <v>0</v>
+      </c>
+      <c r="X698">
+        <v>0</v>
+      </c>
+      <c r="Y698">
+        <v>0</v>
+      </c>
+      <c r="Z698">
+        <v>0</v>
+      </c>
+      <c r="AA698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:29">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>7877570</v>
+      </c>
+      <c r="C699" t="s">
+        <v>28</v>
+      </c>
+      <c r="D699" t="s">
+        <v>28</v>
+      </c>
+      <c r="E699" s="2">
+        <v>45346.79166666666</v>
+      </c>
+      <c r="F699" t="s">
+        <v>72</v>
+      </c>
+      <c r="G699" t="s">
+        <v>38</v>
+      </c>
+      <c r="K699">
+        <v>2.1</v>
+      </c>
+      <c r="L699">
+        <v>3.3</v>
+      </c>
+      <c r="M699">
+        <v>3</v>
+      </c>
+      <c r="N699">
+        <v>2.1</v>
+      </c>
+      <c r="O699">
+        <v>3.3</v>
+      </c>
+      <c r="P699">
+        <v>3</v>
+      </c>
+      <c r="Q699">
+        <v>-0.25</v>
+      </c>
+      <c r="R699">
+        <v>1.9</v>
+      </c>
+      <c r="S699">
+        <v>1.9</v>
+      </c>
+      <c r="T699">
+        <v>2.75</v>
+      </c>
+      <c r="U699">
+        <v>1.825</v>
+      </c>
+      <c r="V699">
+        <v>1.975</v>
+      </c>
+      <c r="W699">
+        <v>0</v>
+      </c>
+      <c r="X699">
+        <v>0</v>
+      </c>
+      <c r="Y699">
+        <v>0</v>
+      </c>
+      <c r="Z699">
+        <v>0</v>
+      </c>
+      <c r="AA699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:29">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>7877577</v>
+      </c>
+      <c r="C700" t="s">
+        <v>28</v>
+      </c>
+      <c r="D700" t="s">
+        <v>28</v>
+      </c>
+      <c r="E700" s="2">
+        <v>45346.95833333334</v>
+      </c>
+      <c r="F700" t="s">
+        <v>166</v>
+      </c>
+      <c r="G700" t="s">
+        <v>34</v>
+      </c>
+      <c r="K700">
+        <v>5</v>
+      </c>
+      <c r="L700">
+        <v>4</v>
+      </c>
+      <c r="M700">
+        <v>1.533</v>
+      </c>
+      <c r="N700">
+        <v>5</v>
+      </c>
+      <c r="O700">
+        <v>4</v>
+      </c>
+      <c r="P700">
+        <v>1.533</v>
+      </c>
+      <c r="Q700">
+        <v>1</v>
+      </c>
+      <c r="R700">
+        <v>2</v>
+      </c>
+      <c r="S700">
+        <v>1.8</v>
+      </c>
+      <c r="T700">
+        <v>3.5</v>
+      </c>
+      <c r="U700">
+        <v>1.825</v>
+      </c>
+      <c r="V700">
+        <v>1.975</v>
+      </c>
+      <c r="W700">
+        <v>0</v>
+      </c>
+      <c r="X700">
+        <v>0</v>
+      </c>
+      <c r="Y700">
+        <v>0</v>
+      </c>
+      <c r="Z700">
+        <v>0</v>
+      </c>
+      <c r="AA700">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -52557,7 +52557,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52569,73 +52569,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F579" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G579" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I579">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J579" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K579">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L579">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M579">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N579">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O579">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P579">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q579">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R579">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S579">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T579">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U579">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V579">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W579">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X579">
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA579">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB579">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC579">
         <v>-1</v>
@@ -52735,7 +52735,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52747,73 +52747,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F581" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G581" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="H581">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I581">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J581" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K581">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L581">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M581">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N581">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O581">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P581">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q581">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R581">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S581">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T581">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U581">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V581">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W581">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X581">
         <v>-1</v>
       </c>
       <c r="Y581">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z581">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA581">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB581">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC581">
         <v>-1</v>
@@ -54248,7 +54248,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>7568070</v>
+        <v>7571981</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -54260,40 +54260,40 @@
         <v>45269.75</v>
       </c>
       <c r="F598" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G598" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I598">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J598" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K598">
-        <v>5</v>
+        <v>1.062</v>
       </c>
       <c r="L598">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M598">
-        <v>1.533</v>
+        <v>20</v>
       </c>
       <c r="N598">
-        <v>6.5</v>
+        <v>1.071</v>
       </c>
       <c r="O598">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P598">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="Q598">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R598">
         <v>1.9</v>
@@ -54302,19 +54302,19 @@
         <v>1.9</v>
       </c>
       <c r="T598">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U598">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V598">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W598">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X598">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y598">
         <v>-1</v>
@@ -54326,10 +54326,10 @@
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC598">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54337,7 +54337,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>7571981</v>
+        <v>7568070</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -54349,40 +54349,40 @@
         <v>45269.75</v>
       </c>
       <c r="F599" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G599" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H599">
+        <v>2</v>
+      </c>
+      <c r="I599">
+        <v>2</v>
+      </c>
+      <c r="J599" t="s">
+        <v>243</v>
+      </c>
+      <c r="K599">
+        <v>5</v>
+      </c>
+      <c r="L599">
         <v>4</v>
       </c>
-      <c r="I599">
-        <v>0</v>
-      </c>
-      <c r="J599" t="s">
-        <v>242</v>
-      </c>
-      <c r="K599">
-        <v>1.062</v>
-      </c>
-      <c r="L599">
-        <v>11</v>
-      </c>
       <c r="M599">
-        <v>20</v>
+        <v>1.533</v>
       </c>
       <c r="N599">
-        <v>1.071</v>
+        <v>6.5</v>
       </c>
       <c r="O599">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P599">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="Q599">
-        <v>-3.25</v>
+        <v>1.5</v>
       </c>
       <c r="R599">
         <v>1.9</v>
@@ -54391,19 +54391,19 @@
         <v>1.9</v>
       </c>
       <c r="T599">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U599">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V599">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W599">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X599">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y599">
         <v>-1</v>
@@ -54415,10 +54415,10 @@
         <v>-1</v>
       </c>
       <c r="AB599">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC599">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -57363,7 +57363,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -57375,34 +57375,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F633" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G633" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H633">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J633" t="s">
         <v>242</v>
       </c>
       <c r="K633">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L633">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M633">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N633">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O633">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P633">
         <v>1.5</v>
@@ -57411,22 +57411,22 @@
         <v>1</v>
       </c>
       <c r="R633">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S633">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T633">
         <v>3</v>
       </c>
       <c r="U633">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V633">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W633">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X633">
         <v>-1</v>
@@ -57435,16 +57435,16 @@
         <v>-1</v>
       </c>
       <c r="Z633">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA633">
         <v>-1</v>
       </c>
       <c r="AB633">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC633">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57452,7 +57452,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -57464,34 +57464,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F634" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="G634" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H634">
+        <v>3</v>
+      </c>
+      <c r="I634">
         <v>1</v>
-      </c>
-      <c r="I634">
-        <v>0</v>
       </c>
       <c r="J634" t="s">
         <v>242</v>
       </c>
       <c r="K634">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="L634">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M634">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N634">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O634">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P634">
         <v>1.5</v>
@@ -57500,22 +57500,22 @@
         <v>1</v>
       </c>
       <c r="R634">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S634">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T634">
         <v>3</v>
       </c>
       <c r="U634">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V634">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W634">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X634">
         <v>-1</v>
@@ -57524,16 +57524,16 @@
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA634">
         <v>-1</v>
       </c>
       <c r="AB634">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC634">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -57630,7 +57630,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57642,58 +57642,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F636" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="G636" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H636">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J636" t="s">
         <v>242</v>
       </c>
       <c r="K636">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="L636">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M636">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N636">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="O636">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P636">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="Q636">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R636">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S636">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T636">
         <v>3</v>
       </c>
       <c r="U636">
+        <v>1.975</v>
+      </c>
+      <c r="V636">
         <v>1.825</v>
       </c>
-      <c r="V636">
-        <v>1.975</v>
-      </c>
       <c r="W636">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="X636">
         <v>-1</v>
@@ -57702,13 +57702,13 @@
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA636">
         <v>-1</v>
       </c>
       <c r="AB636">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC636">
         <v>-1</v>
@@ -57719,7 +57719,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>7776770</v>
+        <v>7776619</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57731,76 +57731,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F637" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="G637" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H637">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I637">
         <v>1</v>
       </c>
       <c r="J637" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K637">
+        <v>1.5</v>
+      </c>
+      <c r="L637">
+        <v>4</v>
+      </c>
+      <c r="M637">
+        <v>5</v>
+      </c>
+      <c r="N637">
+        <v>1.533</v>
+      </c>
+      <c r="O637">
+        <v>3.6</v>
+      </c>
+      <c r="P637">
+        <v>5.25</v>
+      </c>
+      <c r="Q637">
+        <v>-1</v>
+      </c>
+      <c r="R637">
+        <v>1.975</v>
+      </c>
+      <c r="S637">
+        <v>1.825</v>
+      </c>
+      <c r="T637">
+        <v>2.25</v>
+      </c>
+      <c r="U637">
+        <v>1.875</v>
+      </c>
+      <c r="V637">
+        <v>1.925</v>
+      </c>
+      <c r="W637">
+        <v>-1</v>
+      </c>
+      <c r="X637">
         <v>2.6</v>
       </c>
-      <c r="L637">
-        <v>3.75</v>
-      </c>
-      <c r="M637">
-        <v>2.2</v>
-      </c>
-      <c r="N637">
-        <v>2.625</v>
-      </c>
-      <c r="O637">
-        <v>3.75</v>
-      </c>
-      <c r="P637">
-        <v>2.2</v>
-      </c>
-      <c r="Q637">
-        <v>0.25</v>
-      </c>
-      <c r="R637">
-        <v>1.8</v>
-      </c>
-      <c r="S637">
-        <v>2</v>
-      </c>
-      <c r="T637">
-        <v>3</v>
-      </c>
-      <c r="U637">
-        <v>1.975</v>
-      </c>
-      <c r="V637">
-        <v>1.825</v>
-      </c>
-      <c r="W637">
-        <v>1.625</v>
-      </c>
-      <c r="X637">
-        <v>-1</v>
-      </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA637">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB637">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC637">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="638" spans="1:29">
@@ -57808,7 +57808,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>7776619</v>
+        <v>7776618</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57820,76 +57820,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F638" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G638" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J638" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K638">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L638">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M638">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N638">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="O638">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P638">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q638">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R638">
+        <v>1.95</v>
+      </c>
+      <c r="S638">
+        <v>1.85</v>
+      </c>
+      <c r="T638">
+        <v>3</v>
+      </c>
+      <c r="U638">
+        <v>1.825</v>
+      </c>
+      <c r="V638">
         <v>1.975</v>
       </c>
-      <c r="S638">
-        <v>1.825</v>
-      </c>
-      <c r="T638">
-        <v>2.25</v>
-      </c>
-      <c r="U638">
-        <v>1.875</v>
-      </c>
-      <c r="V638">
-        <v>1.925</v>
-      </c>
       <c r="W638">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X638">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA638">
+        <v>-1</v>
+      </c>
+      <c r="AB638">
         <v>0.825</v>
       </c>
-      <c r="AB638">
-        <v>-0.5</v>
-      </c>
       <c r="AC638">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="639" spans="1:29">
@@ -58609,7 +58609,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>7781781</v>
+        <v>7781782</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58621,76 +58621,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F647" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="G647" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I647">
         <v>2</v>
       </c>
       <c r="J647" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K647">
+        <v>1.333</v>
+      </c>
+      <c r="L647">
         <v>4.5</v>
       </c>
-      <c r="L647">
-        <v>3.6</v>
-      </c>
       <c r="M647">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N647">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="O647">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P647">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q647">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R647">
+        <v>1.9</v>
+      </c>
+      <c r="S647">
+        <v>1.9</v>
+      </c>
+      <c r="T647">
+        <v>3</v>
+      </c>
+      <c r="U647">
+        <v>1.825</v>
+      </c>
+      <c r="V647">
         <v>1.975</v>
       </c>
-      <c r="S647">
-        <v>1.825</v>
-      </c>
-      <c r="T647">
-        <v>2.75</v>
-      </c>
-      <c r="U647">
-        <v>1.95</v>
-      </c>
-      <c r="V647">
-        <v>1.85</v>
-      </c>
       <c r="W647">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z647">
         <v>-1</v>
       </c>
       <c r="AA647">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB647">
         <v>0.825</v>
       </c>
-      <c r="AB647">
-        <v>-1</v>
-      </c>
       <c r="AC647">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58698,7 +58698,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>7781782</v>
+        <v>7781781</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58710,76 +58710,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F648" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="G648" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="H648">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648">
         <v>2</v>
       </c>
       <c r="J648" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K648">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="L648">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M648">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N648">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="O648">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P648">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q648">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R648">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S648">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T648">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U648">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V648">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W648">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X648">
         <v>-1</v>
       </c>
       <c r="Y648">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z648">
         <v>-1</v>
       </c>
       <c r="AA648">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB648">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC648">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -60122,7 +60122,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>7809267</v>
+        <v>7809266</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -60134,55 +60134,55 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F664" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G664" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J664" t="s">
         <v>241</v>
       </c>
       <c r="K664">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L664">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M664">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="N664">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="O664">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P664">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q664">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R664">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S664">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T664">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U664">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V664">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="W664">
         <v>-1</v>
@@ -60191,19 +60191,19 @@
         <v>-1</v>
       </c>
       <c r="Y664">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="Z664">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA664">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB664">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC664">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -60211,7 +60211,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>7809266</v>
+        <v>7809267</v>
       </c>
       <c r="C665" t="s">
         <v>28</v>
@@ -60223,55 +60223,55 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F665" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G665" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I665">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J665" t="s">
         <v>241</v>
       </c>
       <c r="K665">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L665">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M665">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="N665">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="O665">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P665">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q665">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R665">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S665">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T665">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U665">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V665">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="W665">
         <v>-1</v>
@@ -60280,19 +60280,19 @@
         <v>-1</v>
       </c>
       <c r="Y665">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z665">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA665">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB665">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC665">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="666" spans="1:29">
@@ -62997,31 +62997,31 @@
         <v>1.533</v>
       </c>
       <c r="N696">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O696">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P696">
+        <v>1.363</v>
+      </c>
+      <c r="Q696">
         <v>1.5</v>
       </c>
-      <c r="Q696">
-        <v>1.25</v>
-      </c>
       <c r="R696">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S696">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T696">
         <v>3.5</v>
       </c>
       <c r="U696">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V696">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W696">
         <v>0</v>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -7210,7 +7210,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7307198</v>
+        <v>7306066</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7222,49 +7222,49 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="N71">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>1.875</v>
@@ -7276,22 +7276,22 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7299,7 +7299,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7306066</v>
+        <v>7306065</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7311,76 +7311,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>196</v>
+      </c>
+      <c r="K72">
+        <v>1.615</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <v>1.333</v>
+      </c>
+      <c r="O72">
         <v>4</v>
       </c>
-      <c r="J72" t="s">
-        <v>198</v>
-      </c>
-      <c r="K72">
-        <v>11</v>
-      </c>
-      <c r="L72">
-        <v>5.5</v>
-      </c>
-      <c r="M72">
-        <v>1.2</v>
-      </c>
-      <c r="N72">
-        <v>11</v>
-      </c>
-      <c r="O72">
-        <v>5.5</v>
-      </c>
       <c r="P72">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="Q72">
+        <v>-1.5</v>
+      </c>
+      <c r="R72">
         <v>2</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7388,7 +7388,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7306065</v>
+        <v>7307198</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7400,76 +7400,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N73">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q73">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -8367,7 +8367,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8379,76 +8379,76 @@
         <v>45212.75</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
         <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.825</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
       </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>1.05</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>0.4125</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="AA84">
-        <v>0.4625</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8456,7 +8456,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8468,76 +8468,76 @@
         <v>45212.75</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8990,7 +8990,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7339733</v>
+        <v>7339731</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -9002,40 +9002,40 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K91">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N91">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>1.975</v>
@@ -9044,34 +9044,34 @@
         <v>1.825</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9079,7 +9079,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7339731</v>
+        <v>7339733</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9091,40 +9091,40 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K92">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
         <v>4</v>
       </c>
-      <c r="M92">
-        <v>1.363</v>
-      </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
         <v>1.975</v>
@@ -9133,34 +9133,34 @@
         <v>1.825</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -10236,7 +10236,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7364143</v>
+        <v>7367734</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10248,58 +10248,58 @@
         <v>45219.75</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>196</v>
       </c>
       <c r="K105">
-        <v>2.75</v>
+        <v>1.035</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="M105">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>1.035</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P105">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>2.8</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10308,16 +10308,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10325,7 +10325,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7367734</v>
+        <v>7364143</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10337,58 +10337,58 @@
         <v>45219.75</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>196</v>
       </c>
       <c r="K106">
-        <v>1.035</v>
+        <v>2.75</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>34</v>
+        <v>2.2</v>
       </c>
       <c r="N106">
-        <v>1.035</v>
+        <v>3.8</v>
       </c>
       <c r="O106">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>34</v>
+        <v>1.8</v>
       </c>
       <c r="Q106">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.03499999999999992</v>
+        <v>2.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -10397,16 +10397,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10770,7 +10770,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7369105</v>
+        <v>7369154</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10782,49 +10782,49 @@
         <v>45220.75</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
+      <c r="J111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K111">
         <v>2</v>
       </c>
-      <c r="J111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K111">
-        <v>5</v>
-      </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q111">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10833,19 +10833,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
@@ -10859,7 +10859,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7369154</v>
+        <v>7369105</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10871,49 +10871,49 @@
         <v>45220.75</v>
       </c>
       <c r="F112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G112" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>2</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
+        <v>1.363</v>
+      </c>
+      <c r="Q112">
+        <v>1.5</v>
+      </c>
+      <c r="R112">
+        <v>1.75</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>2.75</v>
-      </c>
-      <c r="Q112">
-        <v>-0.25</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>3</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10922,19 +10922,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -10948,7 +10948,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7369107</v>
+        <v>7369152</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10960,49 +10960,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113" t="s">
+        <v>198</v>
+      </c>
+      <c r="K113">
+        <v>2.2</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>2.4</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.6</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
         <v>2</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>196</v>
-      </c>
-      <c r="K113">
-        <v>1.909</v>
-      </c>
-      <c r="L113">
-        <v>3.3</v>
-      </c>
-      <c r="M113">
-        <v>3.5</v>
-      </c>
-      <c r="N113">
-        <v>1.666</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>4.333</v>
-      </c>
-      <c r="Q113">
-        <v>-0.75</v>
-      </c>
-      <c r="R113">
-        <v>1.875</v>
-      </c>
-      <c r="S113">
-        <v>1.925</v>
-      </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
         <v>1.8</v>
@@ -11011,25 +11011,25 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11037,7 +11037,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7369152</v>
+        <v>7369107</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11049,49 +11049,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
+        <v>3.5</v>
+      </c>
+      <c r="N114">
+        <v>1.666</v>
+      </c>
+      <c r="O114">
+        <v>3.5</v>
+      </c>
+      <c r="P114">
+        <v>4.333</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
         <v>3</v>
-      </c>
-      <c r="N114">
-        <v>2.4</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>2.6</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1.8</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
       </c>
       <c r="U114">
         <v>1.8</v>
@@ -11100,25 +11100,25 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>1</v>
-      </c>
-      <c r="AB114">
-        <v>0.8</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -13618,7 +13618,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7425467</v>
+        <v>7425469</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13630,10 +13630,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13645,58 +13645,58 @@
         <v>198</v>
       </c>
       <c r="K143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>1.375</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.75</v>
+      </c>
+      <c r="AB143">
         <v>1</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.75</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z143">
-        <v>-1</v>
-      </c>
-      <c r="AA143">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB143">
-        <v>0.75</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13707,7 +13707,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7425469</v>
+        <v>7425467</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13719,10 +13719,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13734,40 +13734,40 @@
         <v>198</v>
       </c>
       <c r="K144">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N144">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
+        <v>1.85</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
         <v>1.75</v>
       </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
-      <c r="U144">
-        <v>2</v>
-      </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13776,16 +13776,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB144">
         <v>0.75</v>
-      </c>
-      <c r="AB144">
-        <v>1</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13974,7 +13974,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425470</v>
+        <v>7425963</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13986,40 +13986,40 @@
         <v>45233.75</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -14028,34 +14028,34 @@
         <v>2</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14063,7 +14063,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7425963</v>
+        <v>7425470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14075,40 +14075,40 @@
         <v>45233.75</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G148" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N148">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
         <v>1.8</v>
@@ -14117,34 +14117,34 @@
         <v>2</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14508,7 +14508,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7430741</v>
+        <v>7425997</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14520,10 +14520,10 @@
         <v>45233.95833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G153" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14535,46 +14535,46 @@
         <v>197</v>
       </c>
       <c r="K153">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q153">
         <v>0</v>
       </c>
       <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
         <v>2</v>
       </c>
-      <c r="S153">
-        <v>1.8</v>
-      </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14589,7 +14589,7 @@
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14597,7 +14597,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7425997</v>
+        <v>7430741</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14609,10 +14609,10 @@
         <v>45233.95833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G154" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14624,46 +14624,46 @@
         <v>197</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N154">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14678,7 +14678,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14775,7 +14775,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7432107</v>
+        <v>7425472</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14787,73 +14787,73 @@
         <v>45234.75</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J156" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14864,7 +14864,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7425472</v>
+        <v>7432107</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14876,73 +14876,73 @@
         <v>45234.75</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G157" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>6</v>
-      </c>
       <c r="J157" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K157">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -15131,7 +15131,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15143,76 +15143,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
       <c r="J160" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N160">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q160">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15220,7 +15220,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15232,76 +15232,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>198</v>
+      </c>
+      <c r="K161">
         <v>4</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>196</v>
-      </c>
-      <c r="K161">
-        <v>1.3</v>
-      </c>
       <c r="L161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N161">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="O161">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q161">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z161">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -16377,7 +16377,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7448459</v>
+        <v>7447276</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16389,59 +16389,59 @@
         <v>45237.75</v>
       </c>
       <c r="F174" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>196</v>
       </c>
       <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>3.5</v>
+      </c>
+      <c r="M174">
         <v>1.727</v>
       </c>
-      <c r="L174">
-        <v>3.75</v>
-      </c>
-      <c r="M174">
-        <v>3.75</v>
-      </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.95</v>
+      </c>
+      <c r="V174">
+        <v>1.85</v>
+      </c>
+      <c r="W174">
         <v>3</v>
       </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.9</v>
-      </c>
-      <c r="W174">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="X174">
         <v>-1</v>
       </c>
@@ -16449,16 +16449,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16466,7 +16466,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7447276</v>
+        <v>7448459</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16478,58 +16478,58 @@
         <v>45237.75</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
+        <v>4</v>
+      </c>
+      <c r="I175">
         <v>2</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>196</v>
       </c>
       <c r="K175">
+        <v>1.727</v>
+      </c>
+      <c r="L175">
+        <v>3.75</v>
+      </c>
+      <c r="M175">
+        <v>3.75</v>
+      </c>
+      <c r="N175">
+        <v>1.666</v>
+      </c>
+      <c r="O175">
+        <v>3.8</v>
+      </c>
+      <c r="P175">
         <v>4</v>
       </c>
-      <c r="L175">
-        <v>3.5</v>
-      </c>
-      <c r="M175">
-        <v>1.727</v>
-      </c>
-      <c r="N175">
-        <v>4</v>
-      </c>
-      <c r="O175">
-        <v>3.5</v>
-      </c>
-      <c r="P175">
-        <v>1.727</v>
-      </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16538,16 +16538,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -19759,7 +19759,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486567</v>
+        <v>7486046</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19771,10 +19771,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G212" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19786,43 +19786,43 @@
         <v>196</v>
       </c>
       <c r="K212">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L212">
         <v>5</v>
       </c>
       <c r="M212">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N212">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P212">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q212">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="S212">
-        <v>1.825</v>
-      </c>
-      <c r="T212">
-        <v>3.25</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
-      <c r="V212">
-        <v>1.775</v>
-      </c>
       <c r="W212">
-        <v>0.363</v>
+        <v>0.2</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19834,13 +19834,13 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19937,7 +19937,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486046</v>
+        <v>7486567</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19949,10 +19949,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19964,43 +19964,43 @@
         <v>196</v>
       </c>
       <c r="K214">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L214">
         <v>5</v>
       </c>
       <c r="M214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W214">
-        <v>0.2</v>
+        <v>0.363</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -20012,13 +20012,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20204,7 +20204,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7486519</v>
+        <v>7486319</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -20216,46 +20216,46 @@
         <v>45247.75</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G217" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K217">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
+        <v>2.9</v>
+      </c>
+      <c r="N217">
         <v>1.833</v>
       </c>
-      <c r="N217">
-        <v>3.3</v>
-      </c>
       <c r="O217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P217">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q217">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -20267,25 +20267,25 @@
         <v>1.9</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20293,7 +20293,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7486319</v>
+        <v>7486578</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -20305,76 +20305,76 @@
         <v>45247.75</v>
       </c>
       <c r="F218" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K218">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L218">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M218">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N218">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="O218">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P218">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R218">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S218">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB218">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20382,7 +20382,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7486578</v>
+        <v>7486519</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -20394,55 +20394,55 @@
         <v>45247.75</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
         <v>198</v>
       </c>
       <c r="K219">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="L219">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>10</v>
+        <v>1.833</v>
       </c>
       <c r="N219">
-        <v>1.142</v>
+        <v>3.3</v>
       </c>
       <c r="O219">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q219">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -20451,19 +20451,19 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>11</v>
+        <v>0.833</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC219">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -21272,7 +21272,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491752</v>
+        <v>7491749</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21284,76 +21284,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G229" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>197</v>
+      </c>
+      <c r="K229">
+        <v>2.5</v>
+      </c>
+      <c r="L229">
+        <v>3.2</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
+        <v>2.75</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
+        <v>2.15</v>
+      </c>
+      <c r="Q229">
+        <v>0.25</v>
+      </c>
+      <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
         <v>2</v>
       </c>
-      <c r="I229">
-        <v>5</v>
-      </c>
-      <c r="J229" t="s">
-        <v>198</v>
-      </c>
-      <c r="K229">
-        <v>3.5</v>
-      </c>
-      <c r="L229">
-        <v>3.75</v>
-      </c>
-      <c r="M229">
+      <c r="V229">
         <v>1.8</v>
       </c>
-      <c r="N229">
-        <v>3.5</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>1.8</v>
-      </c>
-      <c r="Q229">
-        <v>0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.95</v>
-      </c>
-      <c r="S229">
-        <v>1.85</v>
-      </c>
-      <c r="T229">
-        <v>3.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.825</v>
-      </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.4125</v>
+      </c>
+      <c r="AA229">
+        <v>-0.5</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>0.8</v>
-      </c>
-      <c r="Z229">
-        <v>-1</v>
-      </c>
-      <c r="AA229">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB229">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21361,7 +21361,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7491751</v>
+        <v>7491752</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21373,76 +21373,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G230" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K230">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M230">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N230">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O230">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z230">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21450,7 +21450,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7491749</v>
+        <v>7491751</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21462,76 +21462,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I231">
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K231">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M231">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N231">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T231">
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X231">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>0.475</v>
+      </c>
+      <c r="AC231">
         <v>-0.5</v>
-      </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
-      <c r="AC231">
-        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21628,7 +21628,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7495766</v>
+        <v>7486115</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21640,76 +21640,76 @@
         <v>45249.625</v>
       </c>
       <c r="F233" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>198</v>
+      </c>
+      <c r="K233">
+        <v>1.5</v>
+      </c>
+      <c r="L233">
+        <v>4.2</v>
+      </c>
+      <c r="M233">
+        <v>4.75</v>
+      </c>
+      <c r="N233">
+        <v>1.4</v>
+      </c>
+      <c r="O233">
+        <v>4.333</v>
+      </c>
+      <c r="P233">
+        <v>5.75</v>
+      </c>
+      <c r="Q233">
+        <v>-1.25</v>
+      </c>
+      <c r="R233">
+        <v>1.9</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
         <v>3</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
-      <c r="J233" t="s">
-        <v>196</v>
-      </c>
-      <c r="K233">
-        <v>2.2</v>
-      </c>
-      <c r="L233">
-        <v>3.2</v>
-      </c>
-      <c r="M233">
-        <v>3</v>
-      </c>
-      <c r="N233">
-        <v>2.2</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>2.9</v>
-      </c>
-      <c r="Q233">
-        <v>-0.25</v>
-      </c>
-      <c r="R233">
-        <v>1.975</v>
-      </c>
-      <c r="S233">
-        <v>1.825</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
-      </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z233">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB233">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21717,7 +21717,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7486115</v>
+        <v>7495766</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21729,76 +21729,76 @@
         <v>45249.625</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G234" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
         <v>1</v>
       </c>
-      <c r="I234">
-        <v>2</v>
-      </c>
       <c r="J234" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K234">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L234">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N234">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P234">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q234">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.825</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
         <v>1.9</v>
       </c>
-      <c r="S234">
+      <c r="V234">
         <v>1.9</v>
       </c>
-      <c r="T234">
-        <v>3</v>
-      </c>
-      <c r="U234">
-        <v>1.95</v>
-      </c>
-      <c r="V234">
-        <v>1.85</v>
-      </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB234">
-        <v>0</v>
-      </c>
       <c r="AC234">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -23497,7 +23497,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7519169</v>
+        <v>7515314</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23509,58 +23509,58 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>196</v>
       </c>
       <c r="K254">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L254">
+        <v>3.2</v>
+      </c>
+      <c r="M254">
         <v>4</v>
       </c>
-      <c r="M254">
-        <v>7</v>
-      </c>
       <c r="N254">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O254">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P254">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q254">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R254">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S254">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23569,16 +23569,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23586,7 +23586,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7515314</v>
+        <v>7519169</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23598,58 +23598,58 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="G255" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="H255">
+        <v>4</v>
+      </c>
+      <c r="I255">
         <v>1</v>
-      </c>
-      <c r="I255">
-        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>196</v>
       </c>
       <c r="K255">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L255">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N255">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O255">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P255">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0.6659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23658,16 +23658,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -24298,7 +24298,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7541553</v>
+        <v>7541521</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -24310,76 +24310,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K263">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L263">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N263">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O263">
         <v>3.75</v>
       </c>
       <c r="P263">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q263">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
+        <v>1.9</v>
+      </c>
+      <c r="S263">
+        <v>1.9</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
         <v>1.95</v>
       </c>
-      <c r="S263">
+      <c r="V263">
         <v>1.85</v>
       </c>
-      <c r="T263">
-        <v>3.5</v>
-      </c>
-      <c r="U263">
-        <v>1.85</v>
-      </c>
-      <c r="V263">
-        <v>1.95</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X263">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
+        <v>-1</v>
+      </c>
+      <c r="AC263">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC263">
-        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24387,7 +24387,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7541521</v>
+        <v>7541553</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -24399,76 +24399,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K264">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N264">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O264">
         <v>3.75</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R264">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
+        <v>3.5</v>
+      </c>
+      <c r="U264">
+        <v>1.85</v>
+      </c>
+      <c r="V264">
+        <v>1.95</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
         <v>2.75</v>
       </c>
-      <c r="U264">
-        <v>1.95</v>
-      </c>
-      <c r="V264">
-        <v>1.85</v>
-      </c>
-      <c r="W264">
-        <v>0.7</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -25455,7 +25455,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25467,73 +25467,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G276" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="H276">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K276">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L276">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M276">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N276">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O276">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P276">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q276">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T276">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB276">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25544,7 +25544,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25556,73 +25556,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F277" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G277" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K277">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L277">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M277">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N277">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O277">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P277">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q277">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U277">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -26256,7 +26256,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7568058</v>
+        <v>7568060</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -26268,40 +26268,40 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F285" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G285" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K285">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L285">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M285">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N285">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O285">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P285">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q285">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R285">
         <v>1.8</v>
@@ -26313,31 +26313,31 @@
         <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X285">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA285">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26345,7 +26345,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7568060</v>
+        <v>7568058</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26357,40 +26357,40 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F286" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G286" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K286">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L286">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M286">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O286">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
         <v>1.8</v>
@@ -26402,31 +26402,31 @@
         <v>2.5</v>
       </c>
       <c r="U286">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V286">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W286">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB286">
         <v>-1</v>
       </c>
       <c r="AC286">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26523,7 +26523,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7568067</v>
+        <v>7568061</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26535,76 +26535,76 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K288">
+        <v>3.6</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
         <v>1.727</v>
       </c>
-      <c r="L288">
+      <c r="N288">
+        <v>4.75</v>
+      </c>
+      <c r="O288">
+        <v>4.75</v>
+      </c>
+      <c r="P288">
+        <v>1.45</v>
+      </c>
+      <c r="Q288">
+        <v>1.25</v>
+      </c>
+      <c r="R288">
+        <v>1.875</v>
+      </c>
+      <c r="S288">
+        <v>1.925</v>
+      </c>
+      <c r="T288">
         <v>3.5</v>
       </c>
-      <c r="M288">
-        <v>4</v>
-      </c>
-      <c r="N288">
-        <v>1.6</v>
-      </c>
-      <c r="O288">
-        <v>4</v>
-      </c>
-      <c r="P288">
-        <v>4.333</v>
-      </c>
-      <c r="Q288">
-        <v>-1</v>
-      </c>
-      <c r="R288">
-        <v>1.975</v>
-      </c>
-      <c r="S288">
-        <v>1.825</v>
-      </c>
-      <c r="T288">
-        <v>3</v>
-      </c>
       <c r="U288">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X288">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26612,7 +26612,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7568061</v>
+        <v>7568067</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26624,76 +26624,76 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G289" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K289">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L289">
+        <v>3.5</v>
+      </c>
+      <c r="M289">
         <v>4</v>
       </c>
-      <c r="M289">
-        <v>1.727</v>
-      </c>
       <c r="N289">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O289">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P289">
-        <v>1.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q289">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R289">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T289">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U289">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V289">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -27146,7 +27146,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7571981</v>
+        <v>7568070</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -27158,40 +27158,40 @@
         <v>45269.75</v>
       </c>
       <c r="F295" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="G295" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295" t="s">
+        <v>197</v>
+      </c>
+      <c r="K295">
+        <v>5</v>
+      </c>
+      <c r="L295">
         <v>4</v>
       </c>
-      <c r="I295">
-        <v>0</v>
-      </c>
-      <c r="J295" t="s">
-        <v>196</v>
-      </c>
-      <c r="K295">
-        <v>1.062</v>
-      </c>
-      <c r="L295">
-        <v>11</v>
-      </c>
       <c r="M295">
-        <v>20</v>
+        <v>1.533</v>
       </c>
       <c r="N295">
-        <v>1.071</v>
+        <v>6.5</v>
       </c>
       <c r="O295">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P295">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="Q295">
-        <v>-3.25</v>
+        <v>1.5</v>
       </c>
       <c r="R295">
         <v>1.9</v>
@@ -27200,19 +27200,19 @@
         <v>1.9</v>
       </c>
       <c r="T295">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y295">
         <v>-1</v>
@@ -27224,10 +27224,10 @@
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC295">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27235,7 +27235,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7568070</v>
+        <v>7571981</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -27247,40 +27247,40 @@
         <v>45269.75</v>
       </c>
       <c r="F296" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G296" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K296">
-        <v>5</v>
+        <v>1.062</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M296">
-        <v>1.533</v>
+        <v>20</v>
       </c>
       <c r="N296">
-        <v>6.5</v>
+        <v>1.071</v>
       </c>
       <c r="O296">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P296">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="Q296">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R296">
         <v>1.9</v>
@@ -27289,19 +27289,19 @@
         <v>1.9</v>
       </c>
       <c r="T296">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U296">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X296">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
@@ -27313,10 +27313,10 @@
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -29282,7 +29282,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7749257</v>
+        <v>7749009</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -29294,40 +29294,40 @@
         <v>45318.75</v>
       </c>
       <c r="F319" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="H319">
+        <v>3</v>
+      </c>
+      <c r="I319">
         <v>1</v>
-      </c>
-      <c r="I319">
-        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>196</v>
       </c>
       <c r="K319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="L319">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="M319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="O319">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q319">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R319">
         <v>1.8</v>
@@ -29336,16 +29336,16 @@
         <v>2</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U319">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="X319">
         <v>-1</v>
@@ -29354,16 +29354,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29371,7 +29371,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749009</v>
+        <v>7749257</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29383,40 +29383,40 @@
         <v>45318.75</v>
       </c>
       <c r="F320" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>196</v>
       </c>
       <c r="K320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="L320">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="M320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="O320">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q320">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R320">
         <v>1.8</v>
@@ -29425,16 +29425,16 @@
         <v>2</v>
       </c>
       <c r="T320">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
-        <v>0.181</v>
+        <v>3</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -29443,16 +29443,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29460,7 +29460,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7749164</v>
+        <v>7749064</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29472,58 +29472,58 @@
         <v>45318.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="H321">
+        <v>2</v>
+      </c>
+      <c r="I321">
         <v>1</v>
-      </c>
-      <c r="I321">
-        <v>0</v>
       </c>
       <c r="J321" t="s">
         <v>196</v>
       </c>
       <c r="K321">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L321">
         <v>4</v>
       </c>
       <c r="M321">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N321">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O321">
         <v>4</v>
       </c>
       <c r="P321">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q321">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S321">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T321">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="X321">
         <v>-1</v>
@@ -29532,16 +29532,16 @@
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC321">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29638,7 +29638,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7749064</v>
+        <v>7749164</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29650,58 +29650,58 @@
         <v>45318.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G323" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>196</v>
       </c>
       <c r="K323">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L323">
         <v>4</v>
       </c>
       <c r="M323">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N323">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O323">
         <v>4</v>
       </c>
       <c r="P323">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q323">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R323">
+        <v>1.925</v>
+      </c>
+      <c r="S323">
+        <v>1.875</v>
+      </c>
+      <c r="T323">
+        <v>3.25</v>
+      </c>
+      <c r="U323">
+        <v>1.975</v>
+      </c>
+      <c r="V323">
         <v>1.825</v>
       </c>
-      <c r="S323">
-        <v>1.975</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.9</v>
-      </c>
       <c r="W323">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29710,16 +29710,16 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -30261,7 +30261,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -30273,34 +30273,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F330" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G330" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="H330">
+        <v>3</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>196</v>
       </c>
       <c r="K330">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="L330">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M330">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N330">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O330">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P330">
         <v>1.5</v>
@@ -30309,22 +30309,22 @@
         <v>1</v>
       </c>
       <c r="R330">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T330">
         <v>3</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -30333,16 +30333,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30350,7 +30350,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -30362,34 +30362,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F331" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G331" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>196</v>
       </c>
       <c r="K331">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L331">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M331">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N331">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O331">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P331">
         <v>1.5</v>
@@ -30398,22 +30398,22 @@
         <v>1</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T331">
         <v>3</v>
       </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -30422,16 +30422,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -31240,7 +31240,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -31252,59 +31252,59 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G341" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H341">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
         <v>196</v>
       </c>
       <c r="K341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L341">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O341">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q341">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.9</v>
+      </c>
+      <c r="T341">
+        <v>2.75</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.925</v>
       </c>
-      <c r="T341">
-        <v>3</v>
-      </c>
-      <c r="U341">
+      <c r="W341">
         <v>2</v>
       </c>
-      <c r="V341">
-        <v>1.8</v>
-      </c>
-      <c r="W341">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="X341">
         <v>-1</v>
       </c>
@@ -31312,16 +31312,16 @@
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA341">
         <v>-1</v>
       </c>
       <c r="AB341">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31329,7 +31329,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -31341,58 +31341,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G342" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
         <v>196</v>
       </c>
       <c r="K342">
+        <v>1.533</v>
+      </c>
+      <c r="L342">
+        <v>3.75</v>
+      </c>
+      <c r="M342">
+        <v>5</v>
+      </c>
+      <c r="N342">
+        <v>1.533</v>
+      </c>
+      <c r="O342">
+        <v>3.8</v>
+      </c>
+      <c r="P342">
+        <v>5</v>
+      </c>
+      <c r="Q342">
+        <v>-1</v>
+      </c>
+      <c r="R342">
+        <v>1.875</v>
+      </c>
+      <c r="S342">
+        <v>1.925</v>
+      </c>
+      <c r="T342">
         <v>3</v>
       </c>
-      <c r="L342">
-        <v>3.4</v>
-      </c>
-      <c r="M342">
-        <v>2.1</v>
-      </c>
-      <c r="N342">
-        <v>3</v>
-      </c>
-      <c r="O342">
-        <v>3.4</v>
-      </c>
-      <c r="P342">
-        <v>2.1</v>
-      </c>
-      <c r="Q342">
-        <v>0.25</v>
-      </c>
-      <c r="R342">
-        <v>1.9</v>
-      </c>
-      <c r="S342">
-        <v>1.9</v>
-      </c>
-      <c r="T342">
-        <v>2.75</v>
-      </c>
       <c r="U342">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V342">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W342">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X342">
         <v>-1</v>
@@ -31401,16 +31401,16 @@
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA342">
         <v>-1</v>
       </c>
       <c r="AB342">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31507,7 +31507,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7781782</v>
+        <v>7781781</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31519,76 +31519,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F344" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G344" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H344">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344">
         <v>2</v>
       </c>
       <c r="J344" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K344">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="L344">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M344">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N344">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="O344">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P344">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q344">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R344">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T344">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U344">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W344">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z344">
         <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB344">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31596,7 +31596,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7781781</v>
+        <v>7781782</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31608,76 +31608,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I345">
         <v>2</v>
       </c>
       <c r="J345" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K345">
+        <v>1.333</v>
+      </c>
+      <c r="L345">
         <v>4.5</v>
       </c>
-      <c r="L345">
-        <v>3.6</v>
-      </c>
       <c r="M345">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N345">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="O345">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P345">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q345">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R345">
+        <v>1.9</v>
+      </c>
+      <c r="S345">
+        <v>1.9</v>
+      </c>
+      <c r="T345">
+        <v>3</v>
+      </c>
+      <c r="U345">
+        <v>1.825</v>
+      </c>
+      <c r="V345">
         <v>1.975</v>
       </c>
-      <c r="S345">
-        <v>1.825</v>
-      </c>
-      <c r="T345">
-        <v>2.75</v>
-      </c>
-      <c r="U345">
-        <v>1.95</v>
-      </c>
-      <c r="V345">
-        <v>1.85</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
         <v>-1</v>
       </c>
       <c r="AA345">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB345">
         <v>0.825</v>
       </c>
-      <c r="AB345">
-        <v>-1</v>
-      </c>
       <c r="AC345">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31774,7 +31774,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31786,76 +31786,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G347" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K347">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M347">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N347">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O347">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q347">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31863,7 +31863,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31875,76 +31875,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G348" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K348">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L348">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M348">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N348">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O348">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P348">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R348">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S348">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V348">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X348">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA348">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32931,7 +32931,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809187</v>
+        <v>7809266</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32943,76 +32943,76 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F360" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G360" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>2</v>
+      </c>
+      <c r="J360" t="s">
+        <v>198</v>
+      </c>
+      <c r="K360">
+        <v>4.2</v>
+      </c>
+      <c r="L360">
         <v>4</v>
       </c>
-      <c r="I360">
-        <v>1</v>
-      </c>
-      <c r="J360" t="s">
-        <v>196</v>
-      </c>
-      <c r="K360">
-        <v>1.181</v>
-      </c>
-      <c r="L360">
+      <c r="M360">
+        <v>1.6</v>
+      </c>
+      <c r="N360">
+        <v>7.5</v>
+      </c>
+      <c r="O360">
         <v>5.5</v>
       </c>
-      <c r="M360">
-        <v>13</v>
-      </c>
-      <c r="N360">
-        <v>1.166</v>
-      </c>
-      <c r="O360">
-        <v>6</v>
-      </c>
       <c r="P360">
-        <v>13</v>
+        <v>1.25</v>
       </c>
       <c r="Q360">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R360">
+        <v>1.825</v>
+      </c>
+      <c r="S360">
         <v>1.975</v>
       </c>
-      <c r="S360">
-        <v>1.825</v>
-      </c>
       <c r="T360">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W360">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z360">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB360">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -33020,7 +33020,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809267</v>
+        <v>7809187</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -33032,73 +33032,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F361" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G361" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H361">
+        <v>4</v>
+      </c>
+      <c r="I361">
         <v>1</v>
       </c>
-      <c r="I361">
-        <v>4</v>
-      </c>
       <c r="J361" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K361">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L361">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M361">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="N361">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O361">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P361">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R361">
+        <v>1.975</v>
+      </c>
+      <c r="S361">
+        <v>1.825</v>
+      </c>
+      <c r="T361">
+        <v>3.25</v>
+      </c>
+      <c r="U361">
+        <v>1.875</v>
+      </c>
+      <c r="V361">
         <v>1.925</v>
       </c>
-      <c r="S361">
-        <v>1.875</v>
-      </c>
-      <c r="T361">
-        <v>3.5</v>
-      </c>
-      <c r="U361">
-        <v>1.925</v>
-      </c>
-      <c r="V361">
-        <v>1.775</v>
-      </c>
       <c r="W361">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA361">
+        <v>-1</v>
+      </c>
+      <c r="AB361">
         <v>0.875</v>
-      </c>
-      <c r="AB361">
-        <v>0.925</v>
       </c>
       <c r="AC361">
         <v>-1</v>
@@ -33109,7 +33109,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7809266</v>
+        <v>7809267</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -33121,55 +33121,55 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G362" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J362" t="s">
         <v>198</v>
       </c>
       <c r="K362">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="N362">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="O362">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P362">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q362">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R362">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T362">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U362">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V362">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -33178,19 +33178,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z362">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC362">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -34355,7 +34355,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7847106</v>
+        <v>7846856</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -34367,76 +34367,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="G376" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376" t="s">
+        <v>198</v>
+      </c>
+      <c r="K376">
+        <v>2.375</v>
+      </c>
+      <c r="L376">
+        <v>3.3</v>
+      </c>
+      <c r="M376">
+        <v>2.625</v>
+      </c>
+      <c r="N376">
+        <v>3</v>
+      </c>
+      <c r="O376">
+        <v>3.3</v>
+      </c>
+      <c r="P376">
+        <v>2.15</v>
+      </c>
+      <c r="Q376">
+        <v>0.25</v>
+      </c>
+      <c r="R376">
+        <v>1.875</v>
+      </c>
+      <c r="S376">
+        <v>1.925</v>
+      </c>
+      <c r="T376">
         <v>2</v>
       </c>
-      <c r="I376">
+      <c r="U376">
+        <v>1.8</v>
+      </c>
+      <c r="V376">
         <v>2</v>
       </c>
-      <c r="J376" t="s">
-        <v>197</v>
-      </c>
-      <c r="K376">
-        <v>4</v>
-      </c>
-      <c r="L376">
-        <v>3.2</v>
-      </c>
-      <c r="M376">
-        <v>1.8</v>
-      </c>
-      <c r="N376">
-        <v>4</v>
-      </c>
-      <c r="O376">
-        <v>3.2</v>
-      </c>
-      <c r="P376">
-        <v>1.8</v>
-      </c>
-      <c r="Q376">
-        <v>0.5</v>
-      </c>
-      <c r="R376">
-        <v>1.95</v>
-      </c>
-      <c r="S376">
-        <v>1.85</v>
-      </c>
-      <c r="T376">
-        <v>2.75</v>
-      </c>
-      <c r="U376">
-        <v>1.95</v>
-      </c>
-      <c r="V376">
-        <v>1.85</v>
-      </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34444,7 +34444,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7846856</v>
+        <v>7847106</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34456,76 +34456,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G377" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J377" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K377">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L377">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M377">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O377">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P377">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="Q377">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R377">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S377">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T377">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U377">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V377">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y377">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA377">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC377">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34622,7 +34622,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7847110</v>
+        <v>7847203</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34634,73 +34634,73 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="G379" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379">
+        <v>4</v>
+      </c>
+      <c r="J379" t="s">
+        <v>198</v>
+      </c>
+      <c r="K379">
+        <v>2.75</v>
+      </c>
+      <c r="L379">
+        <v>3.2</v>
+      </c>
+      <c r="M379">
+        <v>2.3</v>
+      </c>
+      <c r="N379">
+        <v>3.25</v>
+      </c>
+      <c r="O379">
+        <v>3.4</v>
+      </c>
+      <c r="P379">
+        <v>2.1</v>
+      </c>
+      <c r="Q379">
+        <v>0.25</v>
+      </c>
+      <c r="R379">
+        <v>1.975</v>
+      </c>
+      <c r="S379">
+        <v>1.825</v>
+      </c>
+      <c r="T379">
+        <v>2.25</v>
+      </c>
+      <c r="U379">
+        <v>1.8</v>
+      </c>
+      <c r="V379">
         <v>2</v>
       </c>
-      <c r="J379" t="s">
-        <v>196</v>
-      </c>
-      <c r="K379">
-        <v>4</v>
-      </c>
-      <c r="L379">
-        <v>3.3</v>
-      </c>
-      <c r="M379">
-        <v>1.8</v>
-      </c>
-      <c r="N379">
-        <v>4</v>
-      </c>
-      <c r="O379">
-        <v>3.3</v>
-      </c>
-      <c r="P379">
-        <v>1.8</v>
-      </c>
-      <c r="Q379">
-        <v>0.75</v>
-      </c>
-      <c r="R379">
-        <v>1.775</v>
-      </c>
-      <c r="S379">
-        <v>1.925</v>
-      </c>
-      <c r="T379">
-        <v>2.75</v>
-      </c>
-      <c r="U379">
-        <v>1.85</v>
-      </c>
-      <c r="V379">
-        <v>1.95</v>
-      </c>
       <c r="W379">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z379">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB379">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34711,7 +34711,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7847203</v>
+        <v>7847110</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34723,73 +34723,73 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F380" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="G380" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I380">
+        <v>2</v>
+      </c>
+      <c r="J380" t="s">
+        <v>196</v>
+      </c>
+      <c r="K380">
         <v>4</v>
       </c>
-      <c r="J380" t="s">
-        <v>198</v>
-      </c>
-      <c r="K380">
+      <c r="L380">
+        <v>3.3</v>
+      </c>
+      <c r="M380">
+        <v>1.8</v>
+      </c>
+      <c r="N380">
+        <v>4</v>
+      </c>
+      <c r="O380">
+        <v>3.3</v>
+      </c>
+      <c r="P380">
+        <v>1.8</v>
+      </c>
+      <c r="Q380">
+        <v>0.75</v>
+      </c>
+      <c r="R380">
+        <v>1.775</v>
+      </c>
+      <c r="S380">
+        <v>1.925</v>
+      </c>
+      <c r="T380">
         <v>2.75</v>
       </c>
-      <c r="L380">
-        <v>3.2</v>
-      </c>
-      <c r="M380">
-        <v>2.3</v>
-      </c>
-      <c r="N380">
-        <v>3.25</v>
-      </c>
-      <c r="O380">
-        <v>3.4</v>
-      </c>
-      <c r="P380">
-        <v>2.1</v>
-      </c>
-      <c r="Q380">
-        <v>0.25</v>
-      </c>
-      <c r="R380">
-        <v>1.975</v>
-      </c>
-      <c r="S380">
-        <v>1.825</v>
-      </c>
-      <c r="T380">
-        <v>2.25</v>
-      </c>
       <c r="U380">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA380">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -35957,7 +35957,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7877575</v>
+        <v>7877570</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35969,16 +35969,16 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F394" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G394" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="s">
         <v>196</v>
@@ -35987,40 +35987,40 @@
         <v>2.1</v>
       </c>
       <c r="L394">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M394">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N394">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O394">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P394">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q394">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R394">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S394">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T394">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V394">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W394">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="X394">
         <v>-1</v>
@@ -36029,16 +36029,16 @@
         <v>-1</v>
       </c>
       <c r="Z394">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA394">
         <v>-1</v>
       </c>
       <c r="AB394">
+        <v>0.5</v>
+      </c>
+      <c r="AC394">
         <v>-0.5</v>
-      </c>
-      <c r="AC394">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -36046,7 +36046,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7877572</v>
+        <v>7877575</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -36058,76 +36058,76 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G395" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H395">
         <v>2</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="s">
         <v>196</v>
       </c>
       <c r="K395">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L395">
         <v>3.5</v>
       </c>
       <c r="M395">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N395">
+        <v>2.8</v>
+      </c>
+      <c r="O395">
+        <v>3.5</v>
+      </c>
+      <c r="P395">
+        <v>2.15</v>
+      </c>
+      <c r="Q395">
+        <v>0.25</v>
+      </c>
+      <c r="R395">
         <v>1.85</v>
       </c>
-      <c r="O395">
-        <v>3.4</v>
-      </c>
-      <c r="P395">
-        <v>3.5</v>
-      </c>
-      <c r="Q395">
+      <c r="S395">
+        <v>1.95</v>
+      </c>
+      <c r="T395">
+        <v>3.25</v>
+      </c>
+      <c r="U395">
+        <v>1.825</v>
+      </c>
+      <c r="V395">
+        <v>1.975</v>
+      </c>
+      <c r="W395">
+        <v>1.8</v>
+      </c>
+      <c r="X395">
+        <v>-1</v>
+      </c>
+      <c r="Y395">
+        <v>-1</v>
+      </c>
+      <c r="Z395">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA395">
+        <v>-1</v>
+      </c>
+      <c r="AB395">
         <v>-0.5</v>
       </c>
-      <c r="R395">
-        <v>1.9</v>
-      </c>
-      <c r="S395">
-        <v>1.9</v>
-      </c>
-      <c r="T395">
-        <v>2.5</v>
-      </c>
-      <c r="U395">
-        <v>1.925</v>
-      </c>
-      <c r="V395">
-        <v>1.875</v>
-      </c>
-      <c r="W395">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X395">
-        <v>-1</v>
-      </c>
-      <c r="Y395">
-        <v>-1</v>
-      </c>
-      <c r="Z395">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA395">
-        <v>-1</v>
-      </c>
-      <c r="AB395">
-        <v>-1</v>
-      </c>
       <c r="AC395">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -36135,7 +36135,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7877570</v>
+        <v>7877572</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -36147,13 +36147,13 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G396" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -36162,25 +36162,25 @@
         <v>196</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L396">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N396">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O396">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P396">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q396">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R396">
         <v>1.9</v>
@@ -36189,16 +36189,16 @@
         <v>1.9</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U396">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V396">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W396">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -36213,10 +36213,10 @@
         <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36508,6 +36508,15 @@
       <c r="G400" t="s">
         <v>36</v>
       </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400" t="s">
+        <v>198</v>
+      </c>
       <c r="K400">
         <v>1.4</v>
       </c>
@@ -36530,10 +36539,10 @@
         <v>-1.5</v>
       </c>
       <c r="R400">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S400">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T400">
         <v>2.5</v>
@@ -36545,19 +36554,25 @@
         <v>1.95</v>
       </c>
       <c r="W400">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X400">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y400">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z400">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA400">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB400">
+        <v>-1</v>
+      </c>
+      <c r="AC400">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Mons Calpe SC Yucatan</t>
   </si>
   <si>
-    <t>Chetumal</t>
+    <t>Guerreros DD</t>
   </si>
   <si>
-    <t>Guerreros DD</t>
+    <t>Chetumal</t>
   </si>
   <si>
     <t>Coras Tepic II</t>
@@ -187,10 +187,10 @@
     <t>Campeche FC Nueva Generacin</t>
   </si>
   <si>
-    <t>FC San Jos del Arenal</t>
+    <t>Promodep Central AC</t>
   </si>
   <si>
-    <t>Promodep Central AC</t>
+    <t>FC San Jos del Arenal</t>
   </si>
   <si>
     <t>Real San Cosme</t>
@@ -328,10 +328,10 @@
     <t>Titanes de Queretaro</t>
   </si>
   <si>
-    <t>Club Deportivo guila Azteca</t>
+    <t>Delfines UGM</t>
   </si>
   <si>
-    <t>Delfines UGM</t>
+    <t>Club Deportivo guila Azteca</t>
   </si>
   <si>
     <t>Mineros Queretaro</t>
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -2152,7 +2152,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -2493,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7219268</v>
+        <v>7219332</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2508,25 +2508,25 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
         <v>2.2</v>
@@ -2535,46 +2535,46 @@
         <v>3.2</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.4</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2582,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7219332</v>
+        <v>7219268</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2597,25 +2597,25 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>2.2</v>
@@ -2624,46 +2624,46 @@
         <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -4006,7 +4006,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7246963</v>
+        <v>7246962</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -4021,52 +4021,52 @@
         <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>198</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="N35">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -4075,19 +4075,19 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4095,7 +4095,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7246962</v>
+        <v>7246963</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4110,53 +4110,53 @@
         <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>198</v>
       </c>
       <c r="K36">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="N36">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q36">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
+        <v>1.85</v>
+      </c>
+      <c r="T36">
+        <v>3.25</v>
+      </c>
+      <c r="U36">
         <v>1.9</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.9</v>
       </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>1.975</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
@@ -4164,19 +4164,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4807,7 +4807,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7275940</v>
+        <v>7273610</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4819,40 +4819,40 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K44">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L44">
         <v>4</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R44">
         <v>1.8</v>
@@ -4861,34 +4861,34 @@
         <v>2</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z44">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4896,7 +4896,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7273610</v>
+        <v>7275940</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4908,40 +4908,40 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N45">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q45">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
         <v>1.8</v>
@@ -4950,34 +4950,34 @@
         <v>2</v>
       </c>
       <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
+        <v>1.925</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>3</v>
       </c>
-      <c r="U45">
-        <v>1.75</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
       <c r="Y45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5000,7 +5000,7 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -5798,7 +5798,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>153</v>
@@ -6424,7 +6424,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6513,7 +6513,7 @@
         <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -7047,7 +7047,7 @@
         <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7306066</v>
+        <v>7309557</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7133,40 +7133,40 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>196</v>
+      </c>
+      <c r="K70">
+        <v>1.8</v>
+      </c>
+      <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
         <v>4</v>
       </c>
-      <c r="J70" t="s">
-        <v>198</v>
-      </c>
-      <c r="K70">
-        <v>11</v>
-      </c>
-      <c r="L70">
-        <v>5.5</v>
-      </c>
-      <c r="M70">
-        <v>1.2</v>
-      </c>
       <c r="N70">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -7175,31 +7175,31 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -7210,7 +7210,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7307198</v>
+        <v>7306066</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7222,49 +7222,49 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="N71">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
         <v>1.875</v>
@@ -7276,22 +7276,22 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7299,7 +7299,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7306065</v>
+        <v>7307198</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7311,76 +7311,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q72">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7388,7 +7388,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7309557</v>
+        <v>7306065</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7400,76 +7400,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>196</v>
       </c>
       <c r="K73">
+        <v>1.615</v>
+      </c>
+      <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>1.333</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <v>-1.5</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
         <v>1.8</v>
       </c>
-      <c r="L73">
-        <v>3.2</v>
-      </c>
-      <c r="M73">
-        <v>4</v>
-      </c>
-      <c r="N73">
-        <v>1.8</v>
-      </c>
-      <c r="O73">
-        <v>3.2</v>
-      </c>
-      <c r="P73">
-        <v>4</v>
-      </c>
-      <c r="Q73">
-        <v>-0.5</v>
-      </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>1.95</v>
-      </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
+        <v>0.333</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>0.8</v>
       </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7756,7 +7756,7 @@
         <v>45207.67361111111</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -8382,7 +8382,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8634,7 +8634,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7336547</v>
+        <v>7336548</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8646,76 +8646,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K87">
+        <v>2.15</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
+        <v>2.7</v>
+      </c>
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
         <v>2</v>
       </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>2.875</v>
-      </c>
-      <c r="N87">
-        <v>1.6</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.75</v>
-      </c>
-      <c r="R87">
+      <c r="S87">
         <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.8</v>
+      </c>
+      <c r="AB87">
+        <v>0.45</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8723,7 +8723,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7336548</v>
+        <v>7336547</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8735,76 +8735,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>196</v>
+      </c>
+      <c r="K88">
         <v>2</v>
       </c>
-      <c r="J88" t="s">
-        <v>198</v>
-      </c>
-      <c r="K88">
-        <v>2.15</v>
-      </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1.8</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9524,7 +9524,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7339938</v>
+        <v>7339937</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9536,46 +9536,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K97">
+        <v>1.363</v>
+      </c>
+      <c r="L97">
         <v>5</v>
       </c>
-      <c r="L97">
-        <v>4.5</v>
-      </c>
       <c r="M97">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
+        <v>1.25</v>
+      </c>
+      <c r="O97">
         <v>5</v>
       </c>
-      <c r="O97">
-        <v>4.5</v>
-      </c>
       <c r="P97">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q97">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9587,19 +9587,19 @@
         <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>0.9750000000000001</v>
@@ -9613,7 +9613,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7339937</v>
+        <v>7339938</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9625,46 +9625,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="L98">
+        <v>4.5</v>
+      </c>
+      <c r="M98">
+        <v>1.444</v>
+      </c>
+      <c r="N98">
         <v>5</v>
       </c>
-      <c r="M98">
-        <v>5.5</v>
-      </c>
-      <c r="N98">
+      <c r="O98">
+        <v>4.5</v>
+      </c>
+      <c r="P98">
+        <v>1.444</v>
+      </c>
+      <c r="Q98">
         <v>1.25</v>
       </c>
-      <c r="O98">
-        <v>5</v>
-      </c>
-      <c r="P98">
-        <v>9</v>
-      </c>
-      <c r="Q98">
-        <v>-1.5</v>
-      </c>
       <c r="R98">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9676,19 +9676,19 @@
         <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>0.9750000000000001</v>
@@ -9984,7 +9984,7 @@
         <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H102">
         <v>5</v>
@@ -10681,7 +10681,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7369117</v>
+        <v>7369105</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10693,76 +10693,76 @@
         <v>45220.75</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>2</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>198</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>1.533</v>
+      </c>
+      <c r="N110">
+        <v>7.5</v>
+      </c>
+      <c r="O110">
+        <v>4.5</v>
+      </c>
+      <c r="P110">
+        <v>1.363</v>
+      </c>
+      <c r="Q110">
+        <v>1.5</v>
+      </c>
+      <c r="R110">
+        <v>1.75</v>
+      </c>
+      <c r="S110">
+        <v>1.95</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.8</v>
+      </c>
+      <c r="V110">
+        <v>2</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>0.363</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.95</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>1</v>
-      </c>
-      <c r="J110" t="s">
-        <v>196</v>
-      </c>
-      <c r="K110">
-        <v>1.615</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>5</v>
-      </c>
-      <c r="N110">
-        <v>1.615</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>5</v>
-      </c>
-      <c r="Q110">
-        <v>-0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.8</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
-      <c r="W110">
-        <v>0.615</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.4</v>
-      </c>
-      <c r="AA110">
-        <v>-0.5</v>
-      </c>
-      <c r="AB110">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10770,7 +10770,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7369105</v>
+        <v>7369117</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10782,76 +10782,76 @@
         <v>45220.75</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K111">
+        <v>1.615</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>1.615</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
+        <v>5</v>
+      </c>
+      <c r="Q111">
+        <v>-0.75</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
         <v>2</v>
       </c>
-      <c r="J111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K111">
-        <v>5</v>
-      </c>
-      <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>1.533</v>
-      </c>
-      <c r="N111">
-        <v>7.5</v>
-      </c>
-      <c r="O111">
-        <v>4.5</v>
-      </c>
-      <c r="P111">
-        <v>1.363</v>
-      </c>
-      <c r="Q111">
-        <v>1.5</v>
-      </c>
-      <c r="R111">
-        <v>1.75</v>
-      </c>
-      <c r="S111">
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.8</v>
-      </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11660,7 +11660,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7393702</v>
+        <v>7393703</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11672,76 +11672,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11749,7 +11749,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7393703</v>
+        <v>7393702</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11761,76 +11761,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K122">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>0.875</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>0.4375</v>
+      </c>
+      <c r="AC122">
         <v>-0.5</v>
-      </c>
-      <c r="AA122">
-        <v>0.3625</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
-      <c r="AC122">
-        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12016,7 +12016,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7394137</v>
+        <v>7394136</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -12028,13 +12028,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -12043,43 +12043,43 @@
         <v>196</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N125">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -12088,16 +12088,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12105,7 +12105,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7394136</v>
+        <v>7394137</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12117,13 +12117,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -12132,43 +12132,43 @@
         <v>196</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -12177,16 +12177,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12476,7 +12476,7 @@
         <v>92</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12654,7 +12654,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12728,7 +12728,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7397714</v>
+        <v>7393845</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12740,16 +12740,16 @@
         <v>45227.79166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G133" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>197</v>
@@ -12758,34 +12758,34 @@
         <v>1.727</v>
       </c>
       <c r="L133">
+        <v>3.6</v>
+      </c>
+      <c r="M133">
         <v>4</v>
       </c>
-      <c r="M133">
-        <v>3.5</v>
-      </c>
       <c r="N133">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
         <v>1.925</v>
       </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V133">
         <v>1.95</v>
@@ -12794,22 +12794,22 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12817,7 +12817,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7393845</v>
+        <v>7397714</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12829,16 +12829,16 @@
         <v>45227.79166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>197</v>
@@ -12847,34 +12847,34 @@
         <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N134">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
         <v>1.95</v>
@@ -12883,22 +12883,22 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13618,7 +13618,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7425469</v>
+        <v>7425467</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13630,10 +13630,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13645,40 +13645,40 @@
         <v>198</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N143">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
+        <v>1.85</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
         <v>1.75</v>
       </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13687,16 +13687,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB143">
         <v>0.75</v>
-      </c>
-      <c r="AB143">
-        <v>1</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13707,7 +13707,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7425467</v>
+        <v>7425469</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13719,10 +13719,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13734,58 +13734,58 @@
         <v>198</v>
       </c>
       <c r="K144">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>1.375</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.75</v>
+      </c>
+      <c r="AB144">
         <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.75</v>
-      </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB144">
-        <v>0.75</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13974,7 +13974,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425470</v>
+        <v>7425963</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13986,40 +13986,40 @@
         <v>45233.75</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -14028,34 +14028,34 @@
         <v>2</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14063,7 +14063,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7425963</v>
+        <v>7425470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14075,40 +14075,40 @@
         <v>45233.75</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G148" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N148">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
         <v>1.8</v>
@@ -14117,34 +14117,34 @@
         <v>2</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14787,7 +14787,7 @@
         <v>45234.75</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
         <v>69</v>
@@ -14953,7 +14953,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14965,76 +14965,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15042,7 +15042,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15054,76 +15054,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>197</v>
+      </c>
+      <c r="K159">
+        <v>2.2</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>2.2</v>
+      </c>
+      <c r="O159">
+        <v>3.4</v>
+      </c>
+      <c r="P159">
+        <v>2.75</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
         <v>2</v>
       </c>
-      <c r="J159" t="s">
-        <v>198</v>
-      </c>
-      <c r="K159">
-        <v>2.375</v>
-      </c>
-      <c r="L159">
-        <v>3.75</v>
-      </c>
-      <c r="M159">
-        <v>2.375</v>
-      </c>
-      <c r="N159">
-        <v>2.375</v>
-      </c>
-      <c r="O159">
-        <v>3.75</v>
-      </c>
-      <c r="P159">
-        <v>2.375</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>1.9</v>
-      </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y159">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15131,7 +15131,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15143,76 +15143,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
       <c r="J160" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N160">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q160">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15220,7 +15220,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15232,76 +15232,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>198</v>
+      </c>
+      <c r="K161">
         <v>4</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>196</v>
-      </c>
-      <c r="K161">
-        <v>1.3</v>
-      </c>
       <c r="L161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N161">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="O161">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q161">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z161">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15769,7 +15769,7 @@
         <v>76</v>
       </c>
       <c r="G167" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -16288,7 +16288,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7447276</v>
+        <v>7450086</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -16300,13 +16300,13 @@
         <v>45237.75</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -16315,43 +16315,43 @@
         <v>196</v>
       </c>
       <c r="K173">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="M173">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N173">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P173">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W173">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16377,7 +16377,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7448459</v>
+        <v>7447276</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16389,59 +16389,59 @@
         <v>45237.75</v>
       </c>
       <c r="F174" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>196</v>
       </c>
       <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>3.5</v>
+      </c>
+      <c r="M174">
         <v>1.727</v>
       </c>
-      <c r="L174">
-        <v>3.75</v>
-      </c>
-      <c r="M174">
-        <v>3.75</v>
-      </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.95</v>
+      </c>
+      <c r="V174">
+        <v>1.85</v>
+      </c>
+      <c r="W174">
         <v>3</v>
       </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.9</v>
-      </c>
-      <c r="W174">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="X174">
         <v>-1</v>
       </c>
@@ -16449,16 +16449,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16466,7 +16466,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7450086</v>
+        <v>7448459</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16481,55 +16481,55 @@
         <v>105</v>
       </c>
       <c r="G175" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>196</v>
       </c>
       <c r="K175">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N175">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
         <v>1.9</v>
       </c>
-      <c r="S175">
+      <c r="V175">
         <v>1.9</v>
       </c>
-      <c r="T175">
-        <v>3.75</v>
-      </c>
-      <c r="U175">
-        <v>1.825</v>
-      </c>
-      <c r="V175">
-        <v>1.975</v>
-      </c>
       <c r="W175">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16538,16 +16538,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
+        <v>0.875</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
       <c r="AC175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16555,7 +16555,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7447316</v>
+        <v>7448982</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16567,13 +16567,13 @@
         <v>45237.79166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="G176" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16582,43 +16582,43 @@
         <v>196</v>
       </c>
       <c r="K176">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
+        <v>3.1</v>
+      </c>
+      <c r="N176">
+        <v>1.142</v>
+      </c>
+      <c r="O176">
         <v>7</v>
       </c>
-      <c r="N176">
-        <v>1.125</v>
-      </c>
-      <c r="O176">
-        <v>7.5</v>
-      </c>
       <c r="P176">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q176">
         <v>-2.25</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>0.125</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16627,16 +16627,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16644,7 +16644,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7448982</v>
+        <v>7447316</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16656,13 +16656,13 @@
         <v>45237.79166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16671,43 +16671,43 @@
         <v>196</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O177">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P177">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q177">
         <v>-2.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>0.1419999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16716,16 +16716,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17000,7 +17000,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7452364</v>
+        <v>7451099</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -17012,16 +17012,16 @@
         <v>45238.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G181" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>198</v>
@@ -17039,29 +17039,29 @@
         <v>5.25</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P181">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>3.5</v>
+      </c>
+      <c r="U181">
+        <v>1.775</v>
+      </c>
+      <c r="V181">
         <v>1.925</v>
       </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.8</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
@@ -17069,16 +17069,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -17089,7 +17089,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7451099</v>
+        <v>7452364</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -17101,16 +17101,16 @@
         <v>45238.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
         <v>198</v>
@@ -17128,28 +17128,28 @@
         <v>5.25</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="Q182">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -17158,16 +17158,16 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB182">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -18068,7 +18068,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7459225</v>
+        <v>7462590</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -18080,56 +18080,56 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G193" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
         <v>198</v>
       </c>
       <c r="K193">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="L193">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="N193">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="O193">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>1.9</v>
+      </c>
+      <c r="S193">
+        <v>1.9</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>1.8</v>
+      </c>
+      <c r="V193">
         <v>2</v>
       </c>
-      <c r="R193">
-        <v>1.95</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>3.75</v>
-      </c>
-      <c r="U193">
-        <v>1.875</v>
-      </c>
-      <c r="V193">
-        <v>1.925</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -18137,19 +18137,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.222</v>
+        <v>1.375</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB193">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18157,7 +18157,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7462590</v>
+        <v>7459225</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -18169,55 +18169,55 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="G194" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J194" t="s">
         <v>198</v>
       </c>
       <c r="K194">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="L194">
+        <v>7.5</v>
+      </c>
+      <c r="M194">
+        <v>1.142</v>
+      </c>
+      <c r="N194">
+        <v>9</v>
+      </c>
+      <c r="O194">
+        <v>6.5</v>
+      </c>
+      <c r="P194">
+        <v>1.222</v>
+      </c>
+      <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
+        <v>1.85</v>
+      </c>
+      <c r="T194">
         <v>3.75</v>
       </c>
-      <c r="M194">
-        <v>2.15</v>
-      </c>
-      <c r="N194">
-        <v>2.375</v>
-      </c>
-      <c r="O194">
-        <v>3.6</v>
-      </c>
-      <c r="P194">
-        <v>2.375</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194">
-        <v>1.9</v>
-      </c>
-      <c r="S194">
-        <v>1.9</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -18226,19 +18226,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.375</v>
+        <v>0.222</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB194">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18525,7 +18525,7 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
         <v>171</v>
@@ -19593,7 +19593,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G210" t="s">
         <v>126</v>
@@ -19759,7 +19759,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486113</v>
+        <v>7486046</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19771,10 +19771,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G212" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19786,43 +19786,43 @@
         <v>196</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M212">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N212">
+        <v>1.2</v>
+      </c>
+      <c r="O212">
+        <v>5.25</v>
+      </c>
+      <c r="P212">
+        <v>11</v>
+      </c>
+      <c r="Q212">
+        <v>-2</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
         <v>3</v>
       </c>
-      <c r="O212">
-        <v>3.25</v>
-      </c>
-      <c r="P212">
-        <v>2.1</v>
-      </c>
-      <c r="Q212">
-        <v>0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.875</v>
-      </c>
-      <c r="S212">
-        <v>1.925</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19831,16 +19831,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19848,7 +19848,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7486046</v>
+        <v>7486567</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19860,10 +19860,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19875,43 +19875,43 @@
         <v>196</v>
       </c>
       <c r="K213">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L213">
         <v>5</v>
       </c>
       <c r="M213">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N213">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O213">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q213">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W213">
-        <v>0.2</v>
+        <v>0.363</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19923,13 +19923,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19937,7 +19937,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486567</v>
+        <v>7486113</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19949,10 +19949,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G214" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19964,43 +19964,43 @@
         <v>196</v>
       </c>
       <c r="K214">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -20009,16 +20009,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20204,7 +20204,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7486319</v>
+        <v>7486578</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -20216,76 +20216,76 @@
         <v>45247.75</v>
       </c>
       <c r="F217" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K217">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M217">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N217">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="O217">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P217">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R217">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U217">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20382,7 +20382,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7486578</v>
+        <v>7486319</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -20394,76 +20394,76 @@
         <v>45247.75</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G219" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K219">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="L219">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M219">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N219">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O219">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P219">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="Q219">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC219">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -21005,7 +21005,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -21017,55 +21017,55 @@
         <v>45248.75</v>
       </c>
       <c r="F226" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G226" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J226" t="s">
         <v>198</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N226">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P226">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S226">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -21074,19 +21074,19 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21094,7 +21094,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -21106,55 +21106,55 @@
         <v>45248.75</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="G227" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>198</v>
       </c>
       <c r="K227">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N227">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -21163,19 +21163,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21195,7 +21195,7 @@
         <v>45248.75972222222</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
         <v>128</v>
@@ -21272,7 +21272,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491749</v>
+        <v>7491752</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21284,76 +21284,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O229">
+        <v>3.75</v>
+      </c>
+      <c r="P229">
+        <v>1.8</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.95</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
         <v>3.5</v>
       </c>
-      <c r="P229">
-        <v>2.15</v>
-      </c>
-      <c r="Q229">
-        <v>0.25</v>
-      </c>
-      <c r="R229">
+      <c r="U229">
+        <v>1.975</v>
+      </c>
+      <c r="V229">
         <v>1.825</v>
       </c>
-      <c r="S229">
-        <v>1.975</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
-      <c r="V229">
-        <v>1.8</v>
-      </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z229">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21361,7 +21361,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7491751</v>
+        <v>7491749</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21373,76 +21373,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G230" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K230">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N230">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O230">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21450,7 +21450,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7491752</v>
+        <v>7491751</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21462,76 +21462,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K231">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M231">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N231">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O231">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>2.05</v>
+      </c>
+      <c r="S231">
+        <v>1.75</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.95</v>
+      </c>
+      <c r="V231">
+        <v>1.85</v>
+      </c>
+      <c r="W231">
         <v>0.5</v>
       </c>
-      <c r="R231">
-        <v>1.95</v>
-      </c>
-      <c r="S231">
-        <v>1.85</v>
-      </c>
-      <c r="T231">
-        <v>3.5</v>
-      </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -23509,7 +23509,7 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
         <v>150</v>
@@ -23601,7 +23601,7 @@
         <v>115</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H255">
         <v>4</v>
@@ -23687,7 +23687,7 @@
         <v>45255.79861111111</v>
       </c>
       <c r="F256" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G256" t="s">
         <v>48</v>
@@ -24387,7 +24387,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7541553</v>
+        <v>7541521</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -24399,76 +24399,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F264" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K264">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L264">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N264">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O264">
         <v>3.75</v>
       </c>
       <c r="P264">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q264">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
+        <v>1.9</v>
+      </c>
+      <c r="S264">
+        <v>1.9</v>
+      </c>
+      <c r="T264">
+        <v>2.75</v>
+      </c>
+      <c r="U264">
         <v>1.95</v>
       </c>
-      <c r="S264">
+      <c r="V264">
         <v>1.85</v>
       </c>
-      <c r="T264">
-        <v>3.5</v>
-      </c>
-      <c r="U264">
-        <v>1.85</v>
-      </c>
-      <c r="V264">
-        <v>1.95</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X264">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
+        <v>-1</v>
+      </c>
+      <c r="AC264">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC264">
-        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24476,7 +24476,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7541521</v>
+        <v>7541553</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24488,76 +24488,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G265" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K265">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M265">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N265">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O265">
         <v>3.75</v>
       </c>
       <c r="P265">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R265">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
+        <v>3.5</v>
+      </c>
+      <c r="U265">
+        <v>1.85</v>
+      </c>
+      <c r="V265">
+        <v>1.95</v>
+      </c>
+      <c r="W265">
+        <v>-1</v>
+      </c>
+      <c r="X265">
         <v>2.75</v>
       </c>
-      <c r="U265">
-        <v>1.95</v>
-      </c>
-      <c r="V265">
-        <v>1.85</v>
-      </c>
-      <c r="W265">
-        <v>0.7</v>
-      </c>
-      <c r="X265">
-        <v>-1</v>
-      </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC265">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24743,7 +24743,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24755,76 +24755,76 @@
         <v>45261.75</v>
       </c>
       <c r="F268" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
         <v>197</v>
       </c>
       <c r="K268">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L268">
+        <v>4.5</v>
+      </c>
+      <c r="M268">
+        <v>6</v>
+      </c>
+      <c r="N268">
+        <v>1.4</v>
+      </c>
+      <c r="O268">
+        <v>4.5</v>
+      </c>
+      <c r="P268">
+        <v>6</v>
+      </c>
+      <c r="Q268">
+        <v>-1.25</v>
+      </c>
+      <c r="R268">
+        <v>1.85</v>
+      </c>
+      <c r="S268">
+        <v>1.95</v>
+      </c>
+      <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
+        <v>1.8</v>
+      </c>
+      <c r="V268">
+        <v>2</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
         <v>3.5</v>
       </c>
-      <c r="M268">
-        <v>3.4</v>
-      </c>
-      <c r="N268">
-        <v>2.25</v>
-      </c>
-      <c r="O268">
-        <v>3.3</v>
-      </c>
-      <c r="P268">
-        <v>2.75</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>2</v>
-      </c>
-      <c r="S268">
-        <v>1.8</v>
-      </c>
-      <c r="T268">
-        <v>3</v>
-      </c>
-      <c r="U268">
-        <v>1.95</v>
-      </c>
-      <c r="V268">
-        <v>1.85</v>
-      </c>
-      <c r="W268">
-        <v>-1</v>
-      </c>
-      <c r="X268">
-        <v>2.3</v>
-      </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24832,7 +24832,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24844,76 +24844,76 @@
         <v>45261.75</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G269" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>197</v>
       </c>
       <c r="K269">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N269">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O269">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q269">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
+        <v>2</v>
+      </c>
+      <c r="S269">
+        <v>1.8</v>
+      </c>
+      <c r="T269">
+        <v>3</v>
+      </c>
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>1.95</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.8</v>
-      </c>
-      <c r="V269">
-        <v>2</v>
-      </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25292,7 +25292,7 @@
         <v>122</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -25556,7 +25556,7 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F277" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G277" t="s">
         <v>75</v>
@@ -26538,7 +26538,7 @@
         <v>96</v>
       </c>
       <c r="G288" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -27324,7 +27324,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27336,40 +27336,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G297" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M297">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P297">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R297">
         <v>1.9</v>
@@ -27378,34 +27378,34 @@
         <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27413,7 +27413,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27425,40 +27425,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G298" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="H298">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I298">
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P298">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q298">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>1.9</v>
@@ -27467,34 +27467,34 @@
         <v>1.9</v>
       </c>
       <c r="T298">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W298">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
       <c r="AB298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28315,7 +28315,7 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
         <v>109</v>
@@ -28407,7 +28407,7 @@
         <v>126</v>
       </c>
       <c r="G309" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H309">
         <v>3</v>
@@ -29119,7 +29119,7 @@
         <v>98</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29282,7 +29282,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7749257</v>
+        <v>7749009</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -29294,40 +29294,40 @@
         <v>45318.75</v>
       </c>
       <c r="F319" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="H319">
+        <v>3</v>
+      </c>
+      <c r="I319">
         <v>1</v>
-      </c>
-      <c r="I319">
-        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>196</v>
       </c>
       <c r="K319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="L319">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="M319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="O319">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q319">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R319">
         <v>1.8</v>
@@ -29336,16 +29336,16 @@
         <v>2</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U319">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="X319">
         <v>-1</v>
@@ -29354,16 +29354,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29371,7 +29371,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749009</v>
+        <v>7749257</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29383,40 +29383,40 @@
         <v>45318.75</v>
       </c>
       <c r="F320" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>196</v>
       </c>
       <c r="K320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="L320">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="M320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="O320">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q320">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R320">
         <v>1.8</v>
@@ -29425,16 +29425,16 @@
         <v>2</v>
       </c>
       <c r="T320">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
-        <v>0.181</v>
+        <v>3</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -29443,16 +29443,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29460,7 +29460,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7749064</v>
+        <v>7749164</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29472,58 +29472,58 @@
         <v>45318.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G321" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
         <v>196</v>
       </c>
       <c r="K321">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L321">
         <v>4</v>
       </c>
       <c r="M321">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N321">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O321">
         <v>4</v>
       </c>
       <c r="P321">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R321">
+        <v>1.925</v>
+      </c>
+      <c r="S321">
+        <v>1.875</v>
+      </c>
+      <c r="T321">
+        <v>3.25</v>
+      </c>
+      <c r="U321">
+        <v>1.975</v>
+      </c>
+      <c r="V321">
         <v>1.825</v>
       </c>
-      <c r="S321">
-        <v>1.975</v>
-      </c>
-      <c r="T321">
-        <v>3</v>
-      </c>
-      <c r="U321">
-        <v>1.9</v>
-      </c>
-      <c r="V321">
-        <v>1.9</v>
-      </c>
       <c r="W321">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X321">
         <v>-1</v>
@@ -29532,16 +29532,16 @@
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29549,7 +29549,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7749258</v>
+        <v>7749064</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29561,76 +29561,76 @@
         <v>45318.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G322" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="H322">
+        <v>2</v>
+      </c>
+      <c r="I322">
         <v>1</v>
       </c>
-      <c r="I322">
-        <v>2</v>
-      </c>
       <c r="J322" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K322">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L322">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M322">
+        <v>5</v>
+      </c>
+      <c r="N322">
         <v>1.5</v>
       </c>
-      <c r="N322">
-        <v>5.25</v>
-      </c>
       <c r="O322">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P322">
-        <v>1.333</v>
+        <v>5</v>
       </c>
       <c r="Q322">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R322">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC322">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29638,7 +29638,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7749164</v>
+        <v>7749258</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29650,67 +29650,67 @@
         <v>45318.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G323" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K323">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M323">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N323">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O323">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P323">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q323">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R323">
+        <v>1.95</v>
+      </c>
+      <c r="S323">
+        <v>1.85</v>
+      </c>
+      <c r="T323">
+        <v>3.5</v>
+      </c>
+      <c r="U323">
         <v>1.925</v>
       </c>
-      <c r="S323">
+      <c r="V323">
         <v>1.875</v>
       </c>
-      <c r="T323">
-        <v>3.25</v>
-      </c>
-      <c r="U323">
-        <v>1.975</v>
-      </c>
-      <c r="V323">
-        <v>1.825</v>
-      </c>
       <c r="W323">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z323">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA323">
         <v>-1</v>
@@ -29719,7 +29719,7 @@
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -30528,7 +30528,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30540,58 +30540,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G333" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>196</v>
       </c>
       <c r="K333">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="L333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M333">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N333">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="O333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P333">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R333">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T333">
         <v>3</v>
       </c>
       <c r="U333">
+        <v>1.975</v>
+      </c>
+      <c r="V333">
         <v>1.825</v>
       </c>
-      <c r="V333">
-        <v>1.975</v>
-      </c>
       <c r="W333">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30600,13 +30600,13 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -30706,7 +30706,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776770</v>
+        <v>7776618</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30718,58 +30718,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G335" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>196</v>
       </c>
       <c r="K335">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L335">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M335">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="N335">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="O335">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P335">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="Q335">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R335">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S335">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T335">
         <v>3</v>
       </c>
       <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
         <v>1.975</v>
       </c>
-      <c r="V335">
-        <v>1.825</v>
-      </c>
       <c r="W335">
-        <v>1.625</v>
+        <v>0.2</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30778,13 +30778,13 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -31240,7 +31240,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -31252,58 +31252,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G341" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341" t="s">
         <v>196</v>
       </c>
       <c r="K341">
+        <v>1.533</v>
+      </c>
+      <c r="L341">
+        <v>3.75</v>
+      </c>
+      <c r="M341">
+        <v>5</v>
+      </c>
+      <c r="N341">
+        <v>1.533</v>
+      </c>
+      <c r="O341">
+        <v>3.8</v>
+      </c>
+      <c r="P341">
+        <v>5</v>
+      </c>
+      <c r="Q341">
+        <v>-1</v>
+      </c>
+      <c r="R341">
+        <v>1.875</v>
+      </c>
+      <c r="S341">
+        <v>1.925</v>
+      </c>
+      <c r="T341">
         <v>3</v>
       </c>
-      <c r="L341">
-        <v>3.4</v>
-      </c>
-      <c r="M341">
-        <v>2.1</v>
-      </c>
-      <c r="N341">
-        <v>3</v>
-      </c>
-      <c r="O341">
-        <v>3.4</v>
-      </c>
-      <c r="P341">
-        <v>2.1</v>
-      </c>
-      <c r="Q341">
-        <v>0.25</v>
-      </c>
-      <c r="R341">
-        <v>1.9</v>
-      </c>
-      <c r="S341">
-        <v>1.9</v>
-      </c>
-      <c r="T341">
-        <v>2.75</v>
-      </c>
       <c r="U341">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V341">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W341">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X341">
         <v>-1</v>
@@ -31312,16 +31312,16 @@
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA341">
         <v>-1</v>
       </c>
       <c r="AB341">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC341">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31329,7 +31329,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -31341,59 +31341,59 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G342" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H342">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" t="s">
         <v>196</v>
       </c>
       <c r="K342">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L342">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M342">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N342">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O342">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P342">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q342">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R342">
+        <v>1.9</v>
+      </c>
+      <c r="S342">
+        <v>1.9</v>
+      </c>
+      <c r="T342">
+        <v>2.75</v>
+      </c>
+      <c r="U342">
         <v>1.875</v>
       </c>
-      <c r="S342">
+      <c r="V342">
         <v>1.925</v>
       </c>
-      <c r="T342">
-        <v>3</v>
-      </c>
-      <c r="U342">
+      <c r="W342">
         <v>2</v>
       </c>
-      <c r="V342">
-        <v>1.8</v>
-      </c>
-      <c r="W342">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="X342">
         <v>-1</v>
       </c>
@@ -31401,16 +31401,16 @@
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA342">
         <v>-1</v>
       </c>
       <c r="AB342">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC342">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31774,7 +31774,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31786,76 +31786,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G347" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P347">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X347">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA347">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31863,7 +31863,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31875,76 +31875,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G348" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M348">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O348">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P348">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q348">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W348">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32679,7 +32679,7 @@
         <v>56</v>
       </c>
       <c r="G357" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32931,7 +32931,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809187</v>
+        <v>7809267</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32943,73 +32943,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F360" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G360" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
         <v>4</v>
       </c>
-      <c r="I360">
-        <v>1</v>
-      </c>
       <c r="J360" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K360">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L360">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M360">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="N360">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="O360">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P360">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q360">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R360">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T360">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W360">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB360">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC360">
         <v>-1</v>
@@ -33020,7 +33020,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809267</v>
+        <v>7809187</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -33032,73 +33032,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F361" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G361" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H361">
+        <v>4</v>
+      </c>
+      <c r="I361">
         <v>1</v>
       </c>
-      <c r="I361">
-        <v>4</v>
-      </c>
       <c r="J361" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K361">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L361">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M361">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="N361">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O361">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P361">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R361">
+        <v>1.975</v>
+      </c>
+      <c r="S361">
+        <v>1.825</v>
+      </c>
+      <c r="T361">
+        <v>3.25</v>
+      </c>
+      <c r="U361">
+        <v>1.875</v>
+      </c>
+      <c r="V361">
         <v>1.925</v>
       </c>
-      <c r="S361">
-        <v>1.875</v>
-      </c>
-      <c r="T361">
-        <v>3.5</v>
-      </c>
-      <c r="U361">
-        <v>1.925</v>
-      </c>
-      <c r="V361">
-        <v>1.775</v>
-      </c>
       <c r="W361">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA361">
+        <v>-1</v>
+      </c>
+      <c r="AB361">
         <v>0.875</v>
-      </c>
-      <c r="AB361">
-        <v>0.925</v>
       </c>
       <c r="AC361">
         <v>-1</v>
@@ -33121,7 +33121,7 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G362" t="s">
         <v>64</v>
@@ -34355,7 +34355,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7846856</v>
+        <v>7847106</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -34367,76 +34367,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G376" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K376">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L376">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M376">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O376">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P376">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="Q376">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R376">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T376">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U376">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y376">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA376">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC376">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34444,7 +34444,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7847106</v>
+        <v>7846856</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34456,76 +34456,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="G377" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>198</v>
+      </c>
+      <c r="K377">
+        <v>2.375</v>
+      </c>
+      <c r="L377">
+        <v>3.3</v>
+      </c>
+      <c r="M377">
+        <v>2.625</v>
+      </c>
+      <c r="N377">
+        <v>3</v>
+      </c>
+      <c r="O377">
+        <v>3.3</v>
+      </c>
+      <c r="P377">
+        <v>2.15</v>
+      </c>
+      <c r="Q377">
+        <v>0.25</v>
+      </c>
+      <c r="R377">
+        <v>1.875</v>
+      </c>
+      <c r="S377">
+        <v>1.925</v>
+      </c>
+      <c r="T377">
         <v>2</v>
       </c>
-      <c r="I377">
+      <c r="U377">
+        <v>1.8</v>
+      </c>
+      <c r="V377">
         <v>2</v>
       </c>
-      <c r="J377" t="s">
-        <v>197</v>
-      </c>
-      <c r="K377">
-        <v>4</v>
-      </c>
-      <c r="L377">
-        <v>3.2</v>
-      </c>
-      <c r="M377">
-        <v>1.8</v>
-      </c>
-      <c r="N377">
-        <v>4</v>
-      </c>
-      <c r="O377">
-        <v>3.2</v>
-      </c>
-      <c r="P377">
-        <v>1.8</v>
-      </c>
-      <c r="Q377">
-        <v>0.5</v>
-      </c>
-      <c r="R377">
-        <v>1.95</v>
-      </c>
-      <c r="S377">
-        <v>1.85</v>
-      </c>
-      <c r="T377">
-        <v>2.75</v>
-      </c>
-      <c r="U377">
-        <v>1.95</v>
-      </c>
-      <c r="V377">
-        <v>1.85</v>
-      </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34622,7 +34622,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7847203</v>
+        <v>7847110</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34634,73 +34634,73 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="G379" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I379">
+        <v>2</v>
+      </c>
+      <c r="J379" t="s">
+        <v>196</v>
+      </c>
+      <c r="K379">
         <v>4</v>
       </c>
-      <c r="J379" t="s">
-        <v>198</v>
-      </c>
-      <c r="K379">
+      <c r="L379">
+        <v>3.3</v>
+      </c>
+      <c r="M379">
+        <v>1.8</v>
+      </c>
+      <c r="N379">
+        <v>4</v>
+      </c>
+      <c r="O379">
+        <v>3.3</v>
+      </c>
+      <c r="P379">
+        <v>1.8</v>
+      </c>
+      <c r="Q379">
+        <v>0.75</v>
+      </c>
+      <c r="R379">
+        <v>1.775</v>
+      </c>
+      <c r="S379">
+        <v>1.925</v>
+      </c>
+      <c r="T379">
         <v>2.75</v>
       </c>
-      <c r="L379">
-        <v>3.2</v>
-      </c>
-      <c r="M379">
-        <v>2.3</v>
-      </c>
-      <c r="N379">
-        <v>3.25</v>
-      </c>
-      <c r="O379">
-        <v>3.4</v>
-      </c>
-      <c r="P379">
-        <v>2.1</v>
-      </c>
-      <c r="Q379">
-        <v>0.25</v>
-      </c>
-      <c r="R379">
-        <v>1.975</v>
-      </c>
-      <c r="S379">
-        <v>1.825</v>
-      </c>
-      <c r="T379">
-        <v>2.25</v>
-      </c>
       <c r="U379">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V379">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA379">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34711,7 +34711,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7847110</v>
+        <v>7847203</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34723,73 +34723,73 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F380" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="G380" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380">
+        <v>4</v>
+      </c>
+      <c r="J380" t="s">
+        <v>198</v>
+      </c>
+      <c r="K380">
+        <v>2.75</v>
+      </c>
+      <c r="L380">
+        <v>3.2</v>
+      </c>
+      <c r="M380">
+        <v>2.3</v>
+      </c>
+      <c r="N380">
+        <v>3.25</v>
+      </c>
+      <c r="O380">
+        <v>3.4</v>
+      </c>
+      <c r="P380">
+        <v>2.1</v>
+      </c>
+      <c r="Q380">
+        <v>0.25</v>
+      </c>
+      <c r="R380">
+        <v>1.975</v>
+      </c>
+      <c r="S380">
+        <v>1.825</v>
+      </c>
+      <c r="T380">
+        <v>2.25</v>
+      </c>
+      <c r="U380">
+        <v>1.8</v>
+      </c>
+      <c r="V380">
         <v>2</v>
       </c>
-      <c r="J380" t="s">
-        <v>196</v>
-      </c>
-      <c r="K380">
-        <v>4</v>
-      </c>
-      <c r="L380">
-        <v>3.3</v>
-      </c>
-      <c r="M380">
-        <v>1.8</v>
-      </c>
-      <c r="N380">
-        <v>4</v>
-      </c>
-      <c r="O380">
-        <v>3.3</v>
-      </c>
-      <c r="P380">
-        <v>1.8</v>
-      </c>
-      <c r="Q380">
-        <v>0.75</v>
-      </c>
-      <c r="R380">
-        <v>1.775</v>
-      </c>
-      <c r="S380">
-        <v>1.925</v>
-      </c>
-      <c r="T380">
-        <v>2.75</v>
-      </c>
-      <c r="U380">
-        <v>1.85</v>
-      </c>
-      <c r="V380">
-        <v>1.95</v>
-      </c>
       <c r="W380">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z380">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB380">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -35957,7 +35957,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7877572</v>
+        <v>7877575</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35969,76 +35969,76 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F394" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G394" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H394">
         <v>2</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" t="s">
         <v>196</v>
       </c>
       <c r="K394">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L394">
         <v>3.5</v>
       </c>
       <c r="M394">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N394">
+        <v>2.8</v>
+      </c>
+      <c r="O394">
+        <v>3.5</v>
+      </c>
+      <c r="P394">
+        <v>2.15</v>
+      </c>
+      <c r="Q394">
+        <v>0.25</v>
+      </c>
+      <c r="R394">
         <v>1.85</v>
       </c>
-      <c r="O394">
-        <v>3.4</v>
-      </c>
-      <c r="P394">
-        <v>3.5</v>
-      </c>
-      <c r="Q394">
+      <c r="S394">
+        <v>1.95</v>
+      </c>
+      <c r="T394">
+        <v>3.25</v>
+      </c>
+      <c r="U394">
+        <v>1.825</v>
+      </c>
+      <c r="V394">
+        <v>1.975</v>
+      </c>
+      <c r="W394">
+        <v>1.8</v>
+      </c>
+      <c r="X394">
+        <v>-1</v>
+      </c>
+      <c r="Y394">
+        <v>-1</v>
+      </c>
+      <c r="Z394">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA394">
+        <v>-1</v>
+      </c>
+      <c r="AB394">
         <v>-0.5</v>
       </c>
-      <c r="R394">
-        <v>1.9</v>
-      </c>
-      <c r="S394">
-        <v>1.9</v>
-      </c>
-      <c r="T394">
-        <v>2.5</v>
-      </c>
-      <c r="U394">
-        <v>1.925</v>
-      </c>
-      <c r="V394">
-        <v>1.875</v>
-      </c>
-      <c r="W394">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X394">
-        <v>-1</v>
-      </c>
-      <c r="Y394">
-        <v>-1</v>
-      </c>
-      <c r="Z394">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
-      <c r="AB394">
-        <v>-1</v>
-      </c>
       <c r="AC394">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -36058,7 +36058,7 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G395" t="s">
         <v>41</v>
@@ -36135,7 +36135,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7877575</v>
+        <v>7877572</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -36147,58 +36147,58 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G396" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H396">
         <v>2</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
         <v>196</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L396">
         <v>3.5</v>
       </c>
       <c r="M396">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N396">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O396">
+        <v>3.4</v>
+      </c>
+      <c r="P396">
         <v>3.5</v>
       </c>
-      <c r="P396">
-        <v>2.15</v>
-      </c>
       <c r="Q396">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R396">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S396">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T396">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U396">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V396">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W396">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -36207,16 +36207,16 @@
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA396">
         <v>-1</v>
       </c>
       <c r="AB396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -37040,7 +37040,7 @@
         <v>124</v>
       </c>
       <c r="G406" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -37220,6 +37220,15 @@
       <c r="G408" t="s">
         <v>70</v>
       </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408" t="s">
+        <v>196</v>
+      </c>
       <c r="K408">
         <v>2.375</v>
       </c>
@@ -37257,19 +37266,25 @@
         <v>2</v>
       </c>
       <c r="W408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA408">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB408">
+        <v>-1</v>
+      </c>
+      <c r="AC408">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="209">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Mons Calpe SC Yucatan</t>
   </si>
   <si>
-    <t>Chetumal</t>
+    <t>Guerreros DD</t>
   </si>
   <si>
-    <t>Guerreros DD</t>
+    <t>Chetumal</t>
   </si>
   <si>
     <t>Coras Tepic II</t>
@@ -199,10 +199,10 @@
     <t>SK Sport Street Soccer FC</t>
   </si>
   <si>
-    <t>CF Pachuca III</t>
+    <t>CD FC Cuervos Blancos</t>
   </si>
   <si>
-    <t>CD FC Cuervos Blancos</t>
+    <t>CF Pachuca III</t>
   </si>
   <si>
     <t>CEFOR Cuauhtmoc Blanco</t>
@@ -532,10 +532,10 @@
     <t>Aragon FC</t>
   </si>
   <si>
-    <t>Boston Cancun FC</t>
+    <t>Fuerza Mazahua FC</t>
   </si>
   <si>
-    <t>Fuerza Mazahua FC</t>
+    <t>Boston Cancun FC</t>
   </si>
   <si>
     <t>Tigres UANL II</t>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC485"/>
+  <dimension ref="A1:AC484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7219268</v>
+        <v>7219332</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2538,25 +2538,25 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
         <v>2.2</v>
@@ -2565,46 +2565,46 @@
         <v>3.2</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.4</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2612,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7219332</v>
+        <v>7219268</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2627,25 +2627,25 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>2.2</v>
@@ -2654,46 +2654,46 @@
         <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -3695,7 +3695,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4659,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7273614</v>
+        <v>7273616</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4674,73 +4674,73 @@
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>3.5</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
+        <v>1.615</v>
+      </c>
+      <c r="O42">
+        <v>3.6</v>
+      </c>
+      <c r="P42">
+        <v>4.75</v>
+      </c>
+      <c r="Q42">
+        <v>-0.75</v>
+      </c>
+      <c r="R42">
         <v>1.8</v>
       </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>3.75</v>
-      </c>
-      <c r="Q42">
-        <v>-0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4748,7 +4748,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7273616</v>
+        <v>7273614</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4763,73 +4763,73 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
         <v>3.5</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5727,7 +5727,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7278040</v>
+        <v>7278041</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5739,76 +5739,76 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54">
+        <v>2.1</v>
+      </c>
+      <c r="L54">
+        <v>3.3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>2.7</v>
+      </c>
+      <c r="O54">
+        <v>3.3</v>
+      </c>
+      <c r="P54">
+        <v>2.25</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>2.075</v>
+      </c>
+      <c r="S54">
+        <v>1.725</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>1.8</v>
+      </c>
+      <c r="V54">
         <v>2</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>206</v>
-      </c>
-      <c r="K54">
-        <v>1.8</v>
-      </c>
-      <c r="L54">
-        <v>3.2</v>
-      </c>
-      <c r="M54">
-        <v>4</v>
-      </c>
-      <c r="N54">
-        <v>1.8</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>4</v>
-      </c>
-      <c r="Q54">
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>1.25</v>
+      </c>
+      <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB54">
+        <v>0.4</v>
+      </c>
+      <c r="AC54">
         <v>-0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.85</v>
-      </c>
-      <c r="S54">
-        <v>1.95</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.85</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
-      <c r="W54">
-        <v>0.8</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5816,7 +5816,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7278041</v>
+        <v>7278040</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5828,76 +5828,76 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
       <c r="J55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6098,7 +6098,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6632,7 +6632,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7306065</v>
+        <v>7307198</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7163,76 +7163,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K70">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7240,7 +7240,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7307198</v>
+        <v>7306065</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7252,76 +7252,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8142,7 +8142,7 @@
         <v>45212.55208333334</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G81" t="s">
         <v>60</v>
@@ -8397,7 +8397,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8409,76 +8409,76 @@
         <v>45212.75</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
         <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.825</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
       </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>1.05</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>0.4125</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="AA84">
-        <v>0.4625</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8486,7 +8486,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8498,76 +8498,76 @@
         <v>45212.75</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8664,7 +8664,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7336547</v>
+        <v>7336548</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8676,76 +8676,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K87">
+        <v>2.15</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
+        <v>2.7</v>
+      </c>
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
         <v>2</v>
       </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>2.875</v>
-      </c>
-      <c r="N87">
-        <v>1.6</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.75</v>
-      </c>
-      <c r="R87">
+      <c r="S87">
         <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.8</v>
+      </c>
+      <c r="AB87">
+        <v>0.45</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8753,7 +8753,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7336548</v>
+        <v>7336547</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8765,76 +8765,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>206</v>
+      </c>
+      <c r="K88">
         <v>2</v>
       </c>
-      <c r="J88" t="s">
-        <v>208</v>
-      </c>
-      <c r="K88">
-        <v>2.15</v>
-      </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1.8</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9020,7 +9020,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7339731</v>
+        <v>7339733</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -9032,40 +9032,40 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K91">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="L91">
+        <v>3.6</v>
+      </c>
+      <c r="M91">
         <v>4</v>
       </c>
-      <c r="M91">
-        <v>1.363</v>
-      </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
         <v>1.975</v>
@@ -9074,34 +9074,34 @@
         <v>1.825</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9109,7 +9109,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7339733</v>
+        <v>7339731</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9121,40 +9121,40 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>1.975</v>
@@ -9163,34 +9163,34 @@
         <v>1.825</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9554,7 +9554,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7339937</v>
+        <v>7339938</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9566,46 +9566,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="L97">
+        <v>4.5</v>
+      </c>
+      <c r="M97">
+        <v>1.444</v>
+      </c>
+      <c r="N97">
         <v>5</v>
       </c>
-      <c r="M97">
-        <v>5.5</v>
-      </c>
-      <c r="N97">
+      <c r="O97">
+        <v>4.5</v>
+      </c>
+      <c r="P97">
+        <v>1.444</v>
+      </c>
+      <c r="Q97">
         <v>1.25</v>
       </c>
-      <c r="O97">
-        <v>5</v>
-      </c>
-      <c r="P97">
-        <v>9</v>
-      </c>
-      <c r="Q97">
-        <v>-1.5</v>
-      </c>
       <c r="R97">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9617,19 +9617,19 @@
         <v>1.825</v>
       </c>
       <c r="W97">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>0.9750000000000001</v>
@@ -9643,7 +9643,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7339938</v>
+        <v>7339937</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9655,46 +9655,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K98">
+        <v>1.363</v>
+      </c>
+      <c r="L98">
         <v>5</v>
       </c>
-      <c r="L98">
-        <v>4.5</v>
-      </c>
       <c r="M98">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
+        <v>1.25</v>
+      </c>
+      <c r="O98">
         <v>5</v>
       </c>
-      <c r="O98">
-        <v>4.5</v>
-      </c>
       <c r="P98">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q98">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9706,19 +9706,19 @@
         <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>0.9750000000000001</v>
@@ -10266,7 +10266,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7367734</v>
+        <v>7364143</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10278,58 +10278,58 @@
         <v>45219.75</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>206</v>
       </c>
       <c r="K105">
-        <v>1.035</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>34</v>
+        <v>2.2</v>
       </c>
       <c r="N105">
-        <v>1.035</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>34</v>
+        <v>1.8</v>
       </c>
       <c r="Q105">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.03499999999999992</v>
+        <v>2.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10338,16 +10338,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10355,7 +10355,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7364143</v>
+        <v>7367734</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10367,58 +10367,58 @@
         <v>45219.75</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>206</v>
       </c>
       <c r="K106">
-        <v>2.75</v>
+        <v>1.035</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="N106">
-        <v>3.8</v>
+        <v>1.035</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P106">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>2.8</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -10427,16 +10427,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10978,7 +10978,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7369107</v>
+        <v>7369152</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10990,49 +10990,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113" t="s">
+        <v>208</v>
+      </c>
+      <c r="K113">
+        <v>2.2</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>2.4</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.6</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
         <v>2</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K113">
-        <v>1.909</v>
-      </c>
-      <c r="L113">
-        <v>3.3</v>
-      </c>
-      <c r="M113">
-        <v>3.5</v>
-      </c>
-      <c r="N113">
-        <v>1.666</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>4.333</v>
-      </c>
-      <c r="Q113">
-        <v>-0.75</v>
-      </c>
-      <c r="R113">
-        <v>1.875</v>
-      </c>
-      <c r="S113">
-        <v>1.925</v>
-      </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
         <v>1.8</v>
@@ -11041,25 +11041,25 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11067,7 +11067,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7369152</v>
+        <v>7369107</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11079,49 +11079,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
+        <v>3.5</v>
+      </c>
+      <c r="N114">
+        <v>1.666</v>
+      </c>
+      <c r="O114">
+        <v>3.5</v>
+      </c>
+      <c r="P114">
+        <v>4.333</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
         <v>3</v>
-      </c>
-      <c r="N114">
-        <v>2.4</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>2.6</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1.8</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
       </c>
       <c r="U114">
         <v>1.8</v>
@@ -11130,25 +11130,25 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>1</v>
-      </c>
-      <c r="AB114">
-        <v>0.8</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11702,7 +11702,7 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11880,7 +11880,7 @@
         <v>45226.55902777778</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G123" t="s">
         <v>99</v>
@@ -12506,7 +12506,7 @@
         <v>92</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12684,7 +12684,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -14004,7 +14004,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425936</v>
+        <v>7425470</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -14016,76 +14016,76 @@
         <v>45233.75</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G147" t="s">
         <v>172</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>206</v>
+      </c>
+      <c r="K147">
+        <v>1.727</v>
+      </c>
+      <c r="L147">
+        <v>3.75</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>1.45</v>
+      </c>
+      <c r="O147">
+        <v>4</v>
+      </c>
+      <c r="P147">
+        <v>5.5</v>
+      </c>
+      <c r="Q147">
+        <v>-1</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
         <v>2</v>
       </c>
-      <c r="J147" t="s">
-        <v>208</v>
-      </c>
-      <c r="K147">
-        <v>3.3</v>
-      </c>
-      <c r="L147">
-        <v>3.5</v>
-      </c>
-      <c r="M147">
-        <v>1.909</v>
-      </c>
-      <c r="N147">
-        <v>3.3</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>1.909</v>
-      </c>
-      <c r="Q147">
-        <v>0.25</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>1.8</v>
-      </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14182,7 +14182,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7425470</v>
+        <v>7425936</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -14194,76 +14194,76 @@
         <v>45233.75</v>
       </c>
       <c r="F149" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
         <v>173</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>208</v>
+      </c>
+      <c r="K149">
+        <v>3.3</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>1.909</v>
+      </c>
+      <c r="N149">
+        <v>3.3</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
+        <v>1.909</v>
+      </c>
+      <c r="Q149">
+        <v>0.25</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
+        <v>1.8</v>
+      </c>
+      <c r="V149">
+        <v>2</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.909</v>
+      </c>
+      <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.8</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>1</v>
-      </c>
-      <c r="J149" t="s">
-        <v>206</v>
-      </c>
-      <c r="K149">
-        <v>1.727</v>
-      </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-      <c r="N149">
-        <v>1.45</v>
-      </c>
-      <c r="O149">
-        <v>4</v>
-      </c>
-      <c r="P149">
-        <v>5.5</v>
-      </c>
-      <c r="Q149">
-        <v>-1</v>
-      </c>
-      <c r="R149">
-        <v>1.8</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.85</v>
-      </c>
-      <c r="V149">
-        <v>1.95</v>
-      </c>
-      <c r="W149">
-        <v>0.45</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>0.8</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14805,7 +14805,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7432107</v>
+        <v>7425472</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14817,73 +14817,73 @@
         <v>45234.75</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J156" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14894,7 +14894,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7425472</v>
+        <v>7432107</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14906,73 +14906,73 @@
         <v>45234.75</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G157" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>6</v>
-      </c>
       <c r="J157" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K157">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14983,7 +14983,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14995,76 +14995,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>207</v>
+      </c>
+      <c r="K158">
+        <v>2.2</v>
+      </c>
+      <c r="L158">
+        <v>3.4</v>
+      </c>
+      <c r="M158">
+        <v>2.75</v>
+      </c>
+      <c r="N158">
+        <v>2.2</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>2.75</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
         <v>2</v>
       </c>
-      <c r="J158" t="s">
-        <v>208</v>
-      </c>
-      <c r="K158">
-        <v>2.375</v>
-      </c>
-      <c r="L158">
-        <v>3.75</v>
-      </c>
-      <c r="M158">
-        <v>2.375</v>
-      </c>
-      <c r="N158">
-        <v>2.375</v>
-      </c>
-      <c r="O158">
-        <v>3.75</v>
-      </c>
-      <c r="P158">
-        <v>2.375</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15072,7 +15072,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15084,76 +15084,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K159">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P159">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15161,7 +15161,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15173,76 +15173,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G160" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+      <c r="K160">
         <v>4</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>206</v>
-      </c>
-      <c r="K160">
-        <v>1.3</v>
-      </c>
       <c r="L160">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N160">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="O160">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q160">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z160">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15250,7 +15250,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15262,76 +15262,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H161">
+        <v>4</v>
+      </c>
+      <c r="I161">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
       <c r="J161" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K161">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M161">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N161">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P161">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q161">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -16407,7 +16407,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7450086</v>
+        <v>7447276</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16419,13 +16419,13 @@
         <v>45237.75</v>
       </c>
       <c r="F174" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -16434,43 +16434,43 @@
         <v>206</v>
       </c>
       <c r="K174">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="L174">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N174">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="O174">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="Q174">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>0.1419999999999999</v>
+        <v>3</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA174">
         <v>-1</v>
@@ -16488,7 +16488,7 @@
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16496,7 +16496,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7447276</v>
+        <v>7450086</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16508,13 +16508,13 @@
         <v>45237.75</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16523,43 +16523,43 @@
         <v>206</v>
       </c>
       <c r="K175">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="M175">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N175">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P175">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -16577,7 +16577,7 @@
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17309,7 +17309,7 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G184" t="s">
         <v>70</v>
@@ -17579,7 +17579,7 @@
         <v>97</v>
       </c>
       <c r="G187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -18543,7 +18543,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7462376</v>
+        <v>7457559</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18555,76 +18555,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>207</v>
+      </c>
+      <c r="K198">
+        <v>3.25</v>
+      </c>
+      <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
+        <v>1.909</v>
+      </c>
+      <c r="N198">
+        <v>2.3</v>
+      </c>
+      <c r="O198">
+        <v>3.4</v>
+      </c>
+      <c r="P198">
+        <v>2.6</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
+        <v>1.975</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
         <v>2</v>
       </c>
-      <c r="I198">
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>2.4</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
         <v>0</v>
       </c>
-      <c r="J198" t="s">
-        <v>206</v>
-      </c>
-      <c r="K198">
-        <v>1.333</v>
-      </c>
-      <c r="L198">
-        <v>4.75</v>
-      </c>
-      <c r="M198">
-        <v>6.5</v>
-      </c>
-      <c r="N198">
-        <v>1.333</v>
-      </c>
-      <c r="O198">
-        <v>4.5</v>
-      </c>
-      <c r="P198">
-        <v>7</v>
-      </c>
-      <c r="Q198">
-        <v>-1.5</v>
-      </c>
-      <c r="R198">
-        <v>1.9</v>
-      </c>
-      <c r="S198">
-        <v>1.9</v>
-      </c>
-      <c r="T198">
-        <v>3</v>
-      </c>
-      <c r="U198">
-        <v>1.775</v>
-      </c>
-      <c r="V198">
-        <v>2.025</v>
-      </c>
-      <c r="W198">
-        <v>0.333</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>-1</v>
-      </c>
-      <c r="Z198">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18632,7 +18632,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7457559</v>
+        <v>7462376</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18644,76 +18644,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G199" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K199">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M199">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N199">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18810,7 +18810,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7462454</v>
+        <v>7457558</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18822,40 +18822,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G201" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K201">
+        <v>1.909</v>
+      </c>
+      <c r="L201">
+        <v>3.4</v>
+      </c>
+      <c r="M201">
+        <v>3.4</v>
+      </c>
+      <c r="N201">
+        <v>1.571</v>
+      </c>
+      <c r="O201">
+        <v>3.8</v>
+      </c>
+      <c r="P201">
         <v>4.75</v>
       </c>
-      <c r="L201">
-        <v>4.2</v>
-      </c>
-      <c r="M201">
-        <v>1.5</v>
-      </c>
-      <c r="N201">
-        <v>5</v>
-      </c>
-      <c r="O201">
-        <v>4.2</v>
-      </c>
-      <c r="P201">
-        <v>1.5</v>
-      </c>
       <c r="Q201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R201">
         <v>2</v>
@@ -18867,31 +18867,31 @@
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X201">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18899,7 +18899,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7457558</v>
+        <v>7462454</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18911,40 +18911,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G202" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K202">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N202">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="O202">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P202">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18956,31 +18956,31 @@
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W202">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -20783,7 +20783,7 @@
         <v>118</v>
       </c>
       <c r="G223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -21035,7 +21035,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -21047,55 +21047,55 @@
         <v>45248.75</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="G226" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>208</v>
       </c>
       <c r="K226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -21104,19 +21104,19 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21124,7 +21124,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -21136,55 +21136,55 @@
         <v>45248.75</v>
       </c>
       <c r="F227" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>208</v>
       </c>
       <c r="K227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -21193,19 +21193,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21225,7 +21225,7 @@
         <v>45248.75972222222</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
         <v>128</v>
@@ -21302,7 +21302,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491749</v>
+        <v>7491752</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21314,76 +21314,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J229" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O229">
+        <v>3.75</v>
+      </c>
+      <c r="P229">
+        <v>1.8</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.95</v>
+      </c>
+      <c r="S229">
+        <v>1.85</v>
+      </c>
+      <c r="T229">
         <v>3.5</v>
       </c>
-      <c r="P229">
-        <v>2.15</v>
-      </c>
-      <c r="Q229">
-        <v>0.25</v>
-      </c>
-      <c r="R229">
+      <c r="U229">
+        <v>1.975</v>
+      </c>
+      <c r="V229">
         <v>1.825</v>
       </c>
-      <c r="S229">
-        <v>1.975</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
-      <c r="V229">
-        <v>1.8</v>
-      </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z229">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21391,7 +21391,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7491752</v>
+        <v>7491751</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21403,76 +21403,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K230">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N230">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O230">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P230">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>1.75</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
+        <v>1.85</v>
+      </c>
+      <c r="W230">
         <v>0.5</v>
       </c>
-      <c r="R230">
-        <v>1.95</v>
-      </c>
-      <c r="S230">
-        <v>1.85</v>
-      </c>
-      <c r="T230">
-        <v>3.5</v>
-      </c>
-      <c r="U230">
-        <v>1.975</v>
-      </c>
-      <c r="V230">
-        <v>1.825</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21480,7 +21480,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7491751</v>
+        <v>7491749</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21492,76 +21492,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G231" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K231">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M231">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N231">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -22115,7 +22115,7 @@
         <v>45251.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G238" t="s">
         <v>72</v>
@@ -22830,7 +22830,7 @@
         <v>40</v>
       </c>
       <c r="G246" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22919,7 +22919,7 @@
         <v>49</v>
       </c>
       <c r="G247" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -23082,7 +23082,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7515308</v>
+        <v>7515310</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -23094,13 +23094,13 @@
         <v>45254.75</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G249" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -23109,43 +23109,43 @@
         <v>206</v>
       </c>
       <c r="K249">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L249">
+        <v>3.4</v>
+      </c>
+      <c r="M249">
+        <v>3.2</v>
+      </c>
+      <c r="N249">
+        <v>2.05</v>
+      </c>
+      <c r="O249">
         <v>3.3</v>
       </c>
-      <c r="M249">
-        <v>2.2</v>
-      </c>
-      <c r="N249">
-        <v>2.1</v>
-      </c>
-      <c r="O249">
-        <v>3.4</v>
-      </c>
       <c r="P249">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S249">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T249">
         <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W249">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -23154,7 +23154,7 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA249">
         <v>-1</v>
@@ -23163,7 +23163,7 @@
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -23171,7 +23171,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7515310</v>
+        <v>7515308</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -23183,13 +23183,13 @@
         <v>45254.75</v>
       </c>
       <c r="F250" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G250" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -23198,43 +23198,43 @@
         <v>206</v>
       </c>
       <c r="K250">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L250">
+        <v>3.3</v>
+      </c>
+      <c r="M250">
+        <v>2.2</v>
+      </c>
+      <c r="N250">
+        <v>2.1</v>
+      </c>
+      <c r="O250">
         <v>3.4</v>
       </c>
-      <c r="M250">
-        <v>3.2</v>
-      </c>
-      <c r="N250">
-        <v>2.05</v>
-      </c>
-      <c r="O250">
-        <v>3.3</v>
-      </c>
       <c r="P250">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
         <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -23243,7 +23243,7 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA250">
         <v>-1</v>
@@ -23252,7 +23252,7 @@
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23542,7 +23542,7 @@
         <v>115</v>
       </c>
       <c r="G254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H254">
         <v>4</v>
@@ -23628,7 +23628,7 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G255" t="s">
         <v>153</v>
@@ -24607,7 +24607,7 @@
         <v>45261.55555555555</v>
       </c>
       <c r="F266" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G266" t="s">
         <v>67</v>
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25497,73 +25497,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K276">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M276">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N276">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P276">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25663,7 +25663,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25675,73 +25675,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G278" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K278">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L278">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M278">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N278">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O278">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P278">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q278">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -26387,7 +26387,7 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F286" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G286" t="s">
         <v>64</v>
@@ -27455,7 +27455,7 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G298" t="s">
         <v>58</v>
@@ -28078,7 +28078,7 @@
         <v>45310.77083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G305" t="s">
         <v>77</v>
@@ -28333,7 +28333,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28345,13 +28345,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G308" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -28360,43 +28360,43 @@
         <v>206</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M308">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N308">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O308">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P308">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q308">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R308">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S308">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T308">
         <v>3.25</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W308">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -28405,16 +28405,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28422,7 +28422,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28434,13 +28434,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -28449,43 +28449,43 @@
         <v>206</v>
       </c>
       <c r="K309">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
         <v>4</v>
       </c>
-      <c r="M309">
-        <v>7</v>
-      </c>
       <c r="N309">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O309">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P309">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q309">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R309">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T309">
         <v>3.25</v>
       </c>
       <c r="U309">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V309">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28494,16 +28494,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -29149,7 +29149,7 @@
         <v>98</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29312,7 +29312,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7749257</v>
+        <v>7749009</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -29324,40 +29324,40 @@
         <v>45318.75</v>
       </c>
       <c r="F319" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="H319">
+        <v>3</v>
+      </c>
+      <c r="I319">
         <v>1</v>
-      </c>
-      <c r="I319">
-        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>206</v>
       </c>
       <c r="K319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="L319">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="M319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="O319">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q319">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R319">
         <v>1.8</v>
@@ -29366,16 +29366,16 @@
         <v>2</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U319">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="X319">
         <v>-1</v>
@@ -29384,16 +29384,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29401,7 +29401,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749009</v>
+        <v>7749257</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29413,40 +29413,40 @@
         <v>45318.75</v>
       </c>
       <c r="F320" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G320" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>206</v>
       </c>
       <c r="K320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="L320">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="M320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="O320">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q320">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R320">
         <v>1.8</v>
@@ -29455,16 +29455,16 @@
         <v>2</v>
       </c>
       <c r="T320">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
-        <v>0.181</v>
+        <v>3</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -29473,16 +29473,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29861,7 +29861,7 @@
         <v>128</v>
       </c>
       <c r="G325" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>36</v>
       </c>
       <c r="G327" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30392,7 +30392,7 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F331" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G331" t="s">
         <v>37</v>
@@ -30558,7 +30558,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30570,58 +30570,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G333" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>206</v>
       </c>
       <c r="K333">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="L333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M333">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N333">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="O333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P333">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R333">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T333">
         <v>3</v>
       </c>
       <c r="U333">
+        <v>1.975</v>
+      </c>
+      <c r="V333">
         <v>1.825</v>
       </c>
-      <c r="V333">
-        <v>1.975</v>
-      </c>
       <c r="W333">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30630,13 +30630,13 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -30647,7 +30647,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776770</v>
+        <v>7776619</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30659,76 +30659,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G334" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I334">
         <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K334">
+        <v>1.5</v>
+      </c>
+      <c r="L334">
+        <v>4</v>
+      </c>
+      <c r="M334">
+        <v>5</v>
+      </c>
+      <c r="N334">
+        <v>1.533</v>
+      </c>
+      <c r="O334">
+        <v>3.6</v>
+      </c>
+      <c r="P334">
+        <v>5.25</v>
+      </c>
+      <c r="Q334">
+        <v>-1</v>
+      </c>
+      <c r="R334">
+        <v>1.975</v>
+      </c>
+      <c r="S334">
+        <v>1.825</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>1.875</v>
+      </c>
+      <c r="V334">
+        <v>1.925</v>
+      </c>
+      <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
         <v>2.6</v>
       </c>
-      <c r="L334">
-        <v>3.75</v>
-      </c>
-      <c r="M334">
-        <v>2.2</v>
-      </c>
-      <c r="N334">
-        <v>2.625</v>
-      </c>
-      <c r="O334">
-        <v>3.75</v>
-      </c>
-      <c r="P334">
-        <v>2.2</v>
-      </c>
-      <c r="Q334">
-        <v>0.25</v>
-      </c>
-      <c r="R334">
-        <v>1.8</v>
-      </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>3</v>
-      </c>
-      <c r="U334">
-        <v>1.975</v>
-      </c>
-      <c r="V334">
-        <v>1.825</v>
-      </c>
-      <c r="W334">
-        <v>1.625</v>
-      </c>
-      <c r="X334">
-        <v>-1</v>
-      </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB334">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30736,7 +30736,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776619</v>
+        <v>7776618</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30748,76 +30748,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G335" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K335">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M335">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N335">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="O335">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P335">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q335">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R335">
+        <v>1.95</v>
+      </c>
+      <c r="S335">
+        <v>1.85</v>
+      </c>
+      <c r="T335">
+        <v>3</v>
+      </c>
+      <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
         <v>1.975</v>
       </c>
-      <c r="S335">
-        <v>1.825</v>
-      </c>
-      <c r="T335">
-        <v>2.25</v>
-      </c>
-      <c r="U335">
-        <v>1.875</v>
-      </c>
-      <c r="V335">
-        <v>1.925</v>
-      </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X335">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
+        <v>-1</v>
+      </c>
+      <c r="AB335">
         <v>0.825</v>
       </c>
-      <c r="AB335">
-        <v>-0.5</v>
-      </c>
       <c r="AC335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -31282,7 +31282,7 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G341" t="s">
         <v>75</v>
@@ -32442,7 +32442,7 @@
         <v>32</v>
       </c>
       <c r="G354" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -32709,7 +32709,7 @@
         <v>56</v>
       </c>
       <c r="G357" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32961,7 +32961,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809187</v>
+        <v>7809267</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32973,73 +32973,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F360" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G360" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
         <v>4</v>
       </c>
-      <c r="I360">
-        <v>1</v>
-      </c>
       <c r="J360" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K360">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L360">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M360">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="N360">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="O360">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P360">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q360">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R360">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T360">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W360">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB360">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC360">
         <v>-1</v>
@@ -33139,7 +33139,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7809267</v>
+        <v>7809187</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -33151,73 +33151,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G362" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H362">
+        <v>4</v>
+      </c>
+      <c r="I362">
         <v>1</v>
       </c>
-      <c r="I362">
-        <v>4</v>
-      </c>
       <c r="J362" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K362">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L362">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M362">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="N362">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O362">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P362">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="Q362">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R362">
+        <v>1.975</v>
+      </c>
+      <c r="S362">
+        <v>1.825</v>
+      </c>
+      <c r="T362">
+        <v>3.25</v>
+      </c>
+      <c r="U362">
+        <v>1.875</v>
+      </c>
+      <c r="V362">
         <v>1.925</v>
       </c>
-      <c r="S362">
-        <v>1.875</v>
-      </c>
-      <c r="T362">
-        <v>3.5</v>
-      </c>
-      <c r="U362">
-        <v>1.925</v>
-      </c>
-      <c r="V362">
-        <v>1.775</v>
-      </c>
       <c r="W362">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA362">
+        <v>-1</v>
+      </c>
+      <c r="AB362">
         <v>0.875</v>
-      </c>
-      <c r="AB362">
-        <v>0.925</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -34219,7 +34219,7 @@
         <v>45338.77083333334</v>
       </c>
       <c r="F374" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G374" t="s">
         <v>127</v>
@@ -34667,7 +34667,7 @@
         <v>126</v>
       </c>
       <c r="G379" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -35290,7 +35290,7 @@
         <v>48</v>
       </c>
       <c r="G386" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H386">
         <v>1</v>
@@ -35364,7 +35364,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -35376,76 +35376,76 @@
         <v>45345.75</v>
       </c>
       <c r="F387" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G387" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K387">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L387">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M387">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N387">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O387">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P387">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q387">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R387">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S387">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T387">
         <v>2.75</v>
       </c>
       <c r="U387">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V387">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W387">
         <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y387">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA387">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB387">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35453,7 +35453,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35465,76 +35465,76 @@
         <v>45345.75</v>
       </c>
       <c r="F388" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G388" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J388" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K388">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M388">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N388">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O388">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P388">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q388">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R388">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S388">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V388">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y388">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z388">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA388">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB388">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC388">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -36076,7 +36076,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7877570</v>
+        <v>7877575</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -36088,16 +36088,16 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G395" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="s">
         <v>206</v>
@@ -36106,41 +36106,41 @@
         <v>2.1</v>
       </c>
       <c r="L395">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M395">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N395">
+        <v>2.8</v>
+      </c>
+      <c r="O395">
+        <v>3.5</v>
+      </c>
+      <c r="P395">
         <v>2.15</v>
       </c>
-      <c r="O395">
-        <v>3.2</v>
-      </c>
-      <c r="P395">
-        <v>3</v>
-      </c>
       <c r="Q395">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R395">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S395">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T395">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U395">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V395">
+        <v>1.975</v>
+      </c>
+      <c r="W395">
         <v>1.8</v>
       </c>
-      <c r="W395">
-        <v>1.15</v>
-      </c>
       <c r="X395">
         <v>-1</v>
       </c>
@@ -36148,16 +36148,16 @@
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA395">
         <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC395">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -36165,7 +36165,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7877575</v>
+        <v>7877570</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -36177,16 +36177,16 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G396" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
         <v>206</v>
@@ -36195,40 +36195,40 @@
         <v>2.1</v>
       </c>
       <c r="L396">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M396">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N396">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O396">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P396">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q396">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S396">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T396">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U396">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V396">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W396">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -36237,16 +36237,16 @@
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA396">
         <v>-1</v>
       </c>
       <c r="AB396">
+        <v>0.5</v>
+      </c>
+      <c r="AC396">
         <v>-0.5</v>
-      </c>
-      <c r="AC396">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36978,7 +36978,7 @@
         <v>45352.77083333334</v>
       </c>
       <c r="F405" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G405" t="s">
         <v>96</v>
@@ -37070,7 +37070,7 @@
         <v>124</v>
       </c>
       <c r="G406" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -37411,7 +37411,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7905046</v>
+        <v>7905018</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -37423,10 +37423,10 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F410" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G410" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="H410">
         <v>0</v>
@@ -37438,61 +37438,61 @@
         <v>207</v>
       </c>
       <c r="K410">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L410">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M410">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="N410">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="O410">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P410">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q410">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R410">
+        <v>1.825</v>
+      </c>
+      <c r="S410">
         <v>1.975</v>
       </c>
-      <c r="S410">
-        <v>1.825</v>
-      </c>
       <c r="T410">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U410">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V410">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W410">
         <v>-1</v>
       </c>
       <c r="X410">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
+        <v>-1</v>
+      </c>
+      <c r="AA410">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA410">
-        <v>-1</v>
-      </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37589,7 +37589,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7905018</v>
+        <v>7905046</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37601,10 +37601,10 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F412" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G412" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -37616,61 +37616,61 @@
         <v>207</v>
       </c>
       <c r="K412">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="L412">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M412">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="N412">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="O412">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P412">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q412">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R412">
+        <v>1.975</v>
+      </c>
+      <c r="S412">
         <v>1.825</v>
       </c>
-      <c r="S412">
-        <v>1.975</v>
-      </c>
       <c r="T412">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U412">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V412">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA412">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -38049,7 +38049,7 @@
         <v>60</v>
       </c>
       <c r="G417" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H417">
         <v>1</v>
@@ -38657,7 +38657,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38669,76 +38669,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>3</v>
+      </c>
+      <c r="J424" t="s">
+        <v>208</v>
+      </c>
+      <c r="K424">
+        <v>1.5</v>
+      </c>
+      <c r="L424">
+        <v>4</v>
+      </c>
+      <c r="M424">
+        <v>5</v>
+      </c>
+      <c r="N424">
+        <v>1.5</v>
+      </c>
+      <c r="O424">
+        <v>3.8</v>
+      </c>
+      <c r="P424">
+        <v>5.25</v>
+      </c>
+      <c r="Q424">
+        <v>-1</v>
+      </c>
+      <c r="R424">
+        <v>1.8</v>
+      </c>
+      <c r="S424">
         <v>2</v>
       </c>
-      <c r="I424">
+      <c r="T424">
+        <v>2.75</v>
+      </c>
+      <c r="U424">
+        <v>2</v>
+      </c>
+      <c r="V424">
+        <v>1.8</v>
+      </c>
+      <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>-1</v>
+      </c>
+      <c r="Y424">
+        <v>4.25</v>
+      </c>
+      <c r="Z424">
+        <v>-1</v>
+      </c>
+      <c r="AA424">
         <v>1</v>
       </c>
-      <c r="J424" t="s">
-        <v>206</v>
-      </c>
-      <c r="K424">
-        <v>1.1</v>
-      </c>
-      <c r="L424">
-        <v>7.5</v>
-      </c>
-      <c r="M424">
-        <v>13</v>
-      </c>
-      <c r="N424">
-        <v>1.142</v>
-      </c>
-      <c r="O424">
-        <v>8</v>
-      </c>
-      <c r="P424">
-        <v>9</v>
-      </c>
-      <c r="Q424">
-        <v>-2.5</v>
-      </c>
-      <c r="R424">
-        <v>1.925</v>
-      </c>
-      <c r="S424">
-        <v>1.875</v>
-      </c>
-      <c r="T424">
-        <v>3.75</v>
-      </c>
-      <c r="U424">
-        <v>1.9</v>
-      </c>
-      <c r="V424">
-        <v>1.9</v>
-      </c>
-      <c r="W424">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
-      <c r="Z424">
-        <v>-1</v>
-      </c>
-      <c r="AA424">
-        <v>0.875</v>
-      </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC424">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38746,7 +38746,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38758,76 +38758,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F425" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G425" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K425">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M425">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N425">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O425">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P425">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="Q425">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R425">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S425">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T425">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U425">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V425">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -39814,7 +39814,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7947694</v>
+        <v>7947693</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39826,76 +39826,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F437" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="G437" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K437">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L437">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M437">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N437">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O437">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P437">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q437">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R437">
+        <v>2.05</v>
+      </c>
+      <c r="S437">
         <v>1.75</v>
-      </c>
-      <c r="S437">
-        <v>1.95</v>
       </c>
       <c r="T437">
         <v>2.75</v>
       </c>
       <c r="U437">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V437">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W437">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X437">
         <v>-1</v>
       </c>
       <c r="Y437">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z437">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA437">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC437">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39903,7 +39903,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7947693</v>
+        <v>7947694</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39915,76 +39915,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F438" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G438" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
         <v>2</v>
       </c>
-      <c r="I438">
-        <v>1</v>
-      </c>
       <c r="J438" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K438">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L438">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M438">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N438">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O438">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P438">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q438">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R438">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S438">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T438">
         <v>2.75</v>
       </c>
       <c r="U438">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V438">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W438">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z438">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB438">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC438">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -40437,7 +40437,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7948057</v>
+        <v>7948055</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40449,61 +40449,61 @@
         <v>45363.79166666666</v>
       </c>
       <c r="F444" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="G444" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444">
         <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K444">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L444">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M444">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N444">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="O444">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P444">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q444">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R444">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S444">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U444">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V444">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W444">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X444">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y444">
         <v>-1</v>
@@ -40512,13 +40512,13 @@
         <v>-1</v>
       </c>
       <c r="AA444">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40526,7 +40526,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7948055</v>
+        <v>7948057</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40538,61 +40538,61 @@
         <v>45363.79166666666</v>
       </c>
       <c r="F445" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="G445" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445">
         <v>0</v>
       </c>
       <c r="J445" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K445">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L445">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M445">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N445">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O445">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P445">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q445">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R445">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S445">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T445">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U445">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V445">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W445">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X445">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
         <v>-1</v>
@@ -40601,13 +40601,13 @@
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB445">
         <v>-1</v>
       </c>
       <c r="AC445">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40808,7 +40808,7 @@
         <v>43</v>
       </c>
       <c r="G448" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H448">
         <v>1</v>
@@ -41431,7 +41431,7 @@
         <v>99</v>
       </c>
       <c r="G455" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H455">
         <v>0</v>
@@ -41787,7 +41787,7 @@
         <v>72</v>
       </c>
       <c r="G459" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H459">
         <v>5</v>
@@ -42051,7 +42051,7 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G462" t="s">
         <v>132</v>
@@ -43122,7 +43122,7 @@
         <v>135</v>
       </c>
       <c r="G474" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H474">
         <v>3</v>
@@ -43819,7 +43819,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>8023282</v>
+        <v>8023300</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43828,49 +43828,49 @@
         <v>28</v>
       </c>
       <c r="E482" s="2">
-        <v>45380.58333333334</v>
+        <v>45380.79166666666</v>
       </c>
       <c r="F482" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G482" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K482">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L482">
         <v>3.5</v>
       </c>
       <c r="M482">
+        <v>4</v>
+      </c>
+      <c r="N482">
         <v>1.727</v>
-      </c>
-      <c r="N482">
-        <v>3.6</v>
       </c>
       <c r="O482">
         <v>3.5</v>
       </c>
       <c r="P482">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q482">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R482">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S482">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T482">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U482">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V482">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43893,7 +43893,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>8023300</v>
+        <v>8023340</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43902,40 +43902,40 @@
         <v>28</v>
       </c>
       <c r="E483" s="2">
-        <v>45380.79166666666</v>
+        <v>45380.83333333334</v>
       </c>
       <c r="F483" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G483" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="K483">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L483">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M483">
+        <v>1.8</v>
+      </c>
+      <c r="N483">
         <v>4</v>
       </c>
-      <c r="N483">
-        <v>1.727</v>
-      </c>
       <c r="O483">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P483">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q483">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R483">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S483">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T483">
         <v>2.75</v>
@@ -43967,7 +43967,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>8023340</v>
+        <v>8023339</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43976,49 +43976,49 @@
         <v>28</v>
       </c>
       <c r="E484" s="2">
-        <v>45380.83333333334</v>
+        <v>45380.9375</v>
       </c>
       <c r="F484" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G484" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="K484">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L484">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M484">
+        <v>5</v>
+      </c>
+      <c r="N484">
+        <v>1.615</v>
+      </c>
+      <c r="O484">
+        <v>3.6</v>
+      </c>
+      <c r="P484">
+        <v>4.75</v>
+      </c>
+      <c r="Q484">
+        <v>-0.75</v>
+      </c>
+      <c r="R484">
         <v>1.8</v>
       </c>
-      <c r="N484">
-        <v>4</v>
-      </c>
-      <c r="O484">
-        <v>3.2</v>
-      </c>
-      <c r="P484">
-        <v>1.8</v>
-      </c>
-      <c r="Q484">
-        <v>0.5</v>
-      </c>
-      <c r="R484">
+      <c r="S484">
+        <v>2</v>
+      </c>
+      <c r="T484">
+        <v>3</v>
+      </c>
+      <c r="U484">
         <v>1.95</v>
       </c>
-      <c r="S484">
+      <c r="V484">
         <v>1.85</v>
-      </c>
-      <c r="T484">
-        <v>2.75</v>
-      </c>
-      <c r="U484">
-        <v>1.8</v>
-      </c>
-      <c r="V484">
-        <v>2</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -44033,80 +44033,6 @@
         <v>0</v>
       </c>
       <c r="AA484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:29">
-      <c r="A485" s="1">
-        <v>483</v>
-      </c>
-      <c r="B485">
-        <v>8023339</v>
-      </c>
-      <c r="C485" t="s">
-        <v>28</v>
-      </c>
-      <c r="D485" t="s">
-        <v>28</v>
-      </c>
-      <c r="E485" s="2">
-        <v>45380.9375</v>
-      </c>
-      <c r="F485" t="s">
-        <v>102</v>
-      </c>
-      <c r="G485" t="s">
-        <v>185</v>
-      </c>
-      <c r="K485">
-        <v>1.615</v>
-      </c>
-      <c r="L485">
-        <v>3.5</v>
-      </c>
-      <c r="M485">
-        <v>5</v>
-      </c>
-      <c r="N485">
-        <v>1.615</v>
-      </c>
-      <c r="O485">
-        <v>3.6</v>
-      </c>
-      <c r="P485">
-        <v>4.75</v>
-      </c>
-      <c r="Q485">
-        <v>-0.75</v>
-      </c>
-      <c r="R485">
-        <v>1.8</v>
-      </c>
-      <c r="S485">
-        <v>2</v>
-      </c>
-      <c r="T485">
-        <v>3</v>
-      </c>
-      <c r="U485">
-        <v>1.95</v>
-      </c>
-      <c r="V485">
-        <v>1.85</v>
-      </c>
-      <c r="W485">
-        <v>0</v>
-      </c>
-      <c r="X485">
-        <v>0</v>
-      </c>
-      <c r="Y485">
-        <v>0</v>
-      </c>
-      <c r="Z485">
-        <v>0</v>
-      </c>
-      <c r="AA485">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="209">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Mons Calpe SC Yucatan</t>
   </si>
   <si>
-    <t>Guerreros DD</t>
+    <t>Chetumal</t>
   </si>
   <si>
-    <t>Chetumal</t>
+    <t>Guerreros DD</t>
   </si>
   <si>
     <t>Coras Tepic II</t>
@@ -199,10 +199,10 @@
     <t>SK Sport Street Soccer FC</t>
   </si>
   <si>
-    <t>CD FC Cuervos Blancos</t>
+    <t>CF Pachuca III</t>
   </si>
   <si>
-    <t>CF Pachuca III</t>
+    <t>CD FC Cuervos Blancos</t>
   </si>
   <si>
     <t>CEFOR Cuauhtmoc Blanco</t>
@@ -532,10 +532,10 @@
     <t>Aragon FC</t>
   </si>
   <si>
-    <t>Fuerza Mazahua FC</t>
+    <t>Boston Cancun FC</t>
   </si>
   <si>
-    <t>Boston Cancun FC</t>
+    <t>Fuerza Mazahua FC</t>
   </si>
   <si>
     <t>Tigres UANL II</t>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC484"/>
+  <dimension ref="A1:AC485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7219332</v>
+        <v>7219268</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2538,25 +2538,25 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>2.2</v>
@@ -2565,46 +2565,46 @@
         <v>3.2</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2612,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7219268</v>
+        <v>7219332</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2627,25 +2627,25 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
         <v>2.2</v>
@@ -2654,46 +2654,46 @@
         <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1.8</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="S19">
-        <v>1.825</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
       <c r="W19">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
+        <v>-0.5</v>
+      </c>
+      <c r="AA19">
+        <v>0.4</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -3695,7 +3695,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7249463</v>
+        <v>7249464</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4404,76 +4404,76 @@
         <v>45193.625</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
       <c r="J39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4481,7 +4481,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7249464</v>
+        <v>7249463</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4493,76 +4493,76 @@
         <v>45193.625</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4585,7 +4585,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4659,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7273616</v>
+        <v>7273614</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4674,73 +4674,73 @@
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
         <v>3.5</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4748,7 +4748,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7273614</v>
+        <v>7273616</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4763,73 +4763,73 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
         <v>3.5</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N43">
+        <v>1.615</v>
+      </c>
+      <c r="O43">
+        <v>3.6</v>
+      </c>
+      <c r="P43">
+        <v>4.75</v>
+      </c>
+      <c r="Q43">
+        <v>-0.75</v>
+      </c>
+      <c r="R43">
         <v>1.8</v>
       </c>
-      <c r="O43">
-        <v>3.5</v>
-      </c>
-      <c r="P43">
-        <v>3.75</v>
-      </c>
-      <c r="Q43">
-        <v>-0.5</v>
-      </c>
-      <c r="R43">
-        <v>1.85</v>
-      </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5727,7 +5727,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7278041</v>
+        <v>7278040</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5739,76 +5739,76 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
       <c r="J54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5816,7 +5816,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7278040</v>
+        <v>7278041</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5828,76 +5828,76 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55">
+        <v>2.1</v>
+      </c>
+      <c r="L55">
+        <v>3.3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>2.7</v>
+      </c>
+      <c r="O55">
+        <v>3.3</v>
+      </c>
+      <c r="P55">
+        <v>2.25</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>2.075</v>
+      </c>
+      <c r="S55">
+        <v>1.725</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>1.8</v>
+      </c>
+      <c r="V55">
         <v>2</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>206</v>
-      </c>
-      <c r="K55">
-        <v>1.8</v>
-      </c>
-      <c r="L55">
-        <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="N55">
-        <v>1.8</v>
-      </c>
-      <c r="O55">
-        <v>3.2</v>
-      </c>
-      <c r="P55">
-        <v>4</v>
-      </c>
-      <c r="Q55">
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>1.25</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB55">
+        <v>0.4</v>
+      </c>
+      <c r="AC55">
         <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>1.85</v>
-      </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
-      <c r="W55">
-        <v>0.8</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6098,7 +6098,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6632,7 +6632,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7307198</v>
+        <v>7306065</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7163,76 +7163,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7240,7 +7240,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7306065</v>
+        <v>7307198</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7252,76 +7252,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K71">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8142,7 +8142,7 @@
         <v>45212.55208333334</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G81" t="s">
         <v>60</v>
@@ -8397,7 +8397,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8409,76 +8409,76 @@
         <v>45212.75</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
         <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
         <v>1.825</v>
       </c>
-      <c r="V84">
-        <v>1.975</v>
-      </c>
       <c r="W84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB84">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8486,7 +8486,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8498,76 +8498,76 @@
         <v>45212.75</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X85">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>1.05</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
+        <v>0.4125</v>
+      </c>
+      <c r="AC85">
         <v>-0.5</v>
-      </c>
-      <c r="AA85">
-        <v>0.4625</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
-      <c r="AC85">
-        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8664,7 +8664,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7336548</v>
+        <v>7336547</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8676,76 +8676,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>206</v>
+      </c>
+      <c r="K87">
         <v>2</v>
       </c>
-      <c r="J87" t="s">
-        <v>208</v>
-      </c>
-      <c r="K87">
-        <v>2.15</v>
-      </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
+        <v>1.8</v>
+      </c>
+      <c r="S87">
         <v>2</v>
-      </c>
-      <c r="S87">
-        <v>1.8</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8753,7 +8753,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7336547</v>
+        <v>7336548</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8765,76 +8765,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K88">
+        <v>2.15</v>
+      </c>
+      <c r="L88">
+        <v>3.5</v>
+      </c>
+      <c r="M88">
+        <v>2.75</v>
+      </c>
+      <c r="N88">
+        <v>2.2</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
+        <v>2.7</v>
+      </c>
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
         <v>2</v>
       </c>
-      <c r="L88">
-        <v>3.75</v>
-      </c>
-      <c r="M88">
-        <v>2.875</v>
-      </c>
-      <c r="N88">
-        <v>1.6</v>
-      </c>
-      <c r="O88">
-        <v>4</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.75</v>
-      </c>
-      <c r="R88">
+      <c r="S88">
         <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z88">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.8</v>
+      </c>
+      <c r="AB88">
+        <v>0.45</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9020,7 +9020,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7339733</v>
+        <v>7339731</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -9032,40 +9032,40 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G91" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K91">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N91">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R91">
         <v>1.975</v>
@@ -9074,34 +9074,34 @@
         <v>1.825</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9109,7 +9109,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7339731</v>
+        <v>7339733</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9121,40 +9121,40 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K92">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
         <v>4</v>
       </c>
-      <c r="M92">
-        <v>1.363</v>
-      </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
         <v>1.975</v>
@@ -9163,34 +9163,34 @@
         <v>1.825</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9554,7 +9554,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7339938</v>
+        <v>7339937</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9566,46 +9566,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K97">
+        <v>1.363</v>
+      </c>
+      <c r="L97">
         <v>5</v>
       </c>
-      <c r="L97">
-        <v>4.5</v>
-      </c>
       <c r="M97">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
+        <v>1.25</v>
+      </c>
+      <c r="O97">
         <v>5</v>
       </c>
-      <c r="O97">
-        <v>4.5</v>
-      </c>
       <c r="P97">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q97">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9617,19 +9617,19 @@
         <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>0.9750000000000001</v>
@@ -9643,7 +9643,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7339937</v>
+        <v>7339938</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9655,46 +9655,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J98" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="L98">
+        <v>4.5</v>
+      </c>
+      <c r="M98">
+        <v>1.444</v>
+      </c>
+      <c r="N98">
         <v>5</v>
       </c>
-      <c r="M98">
-        <v>5.5</v>
-      </c>
-      <c r="N98">
+      <c r="O98">
+        <v>4.5</v>
+      </c>
+      <c r="P98">
+        <v>1.444</v>
+      </c>
+      <c r="Q98">
         <v>1.25</v>
       </c>
-      <c r="O98">
-        <v>5</v>
-      </c>
-      <c r="P98">
-        <v>9</v>
-      </c>
-      <c r="Q98">
-        <v>-1.5</v>
-      </c>
       <c r="R98">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9706,19 +9706,19 @@
         <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>0.9750000000000001</v>
@@ -10266,7 +10266,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7364143</v>
+        <v>7367734</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10278,58 +10278,58 @@
         <v>45219.75</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>206</v>
       </c>
       <c r="K105">
-        <v>2.75</v>
+        <v>1.035</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="M105">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>1.035</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P105">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>2.8</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10338,16 +10338,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10355,7 +10355,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7367734</v>
+        <v>7364143</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10367,58 +10367,58 @@
         <v>45219.75</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>206</v>
       </c>
       <c r="K106">
-        <v>1.035</v>
+        <v>2.75</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>34</v>
+        <v>2.2</v>
       </c>
       <c r="N106">
-        <v>1.035</v>
+        <v>3.8</v>
       </c>
       <c r="O106">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>34</v>
+        <v>1.8</v>
       </c>
       <c r="Q106">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.03499999999999992</v>
+        <v>2.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -10427,16 +10427,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10978,7 +10978,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7369152</v>
+        <v>7369107</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10990,49 +10990,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M113">
+        <v>3.5</v>
+      </c>
+      <c r="N113">
+        <v>1.666</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
+        <v>4.333</v>
+      </c>
+      <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>1.875</v>
+      </c>
+      <c r="S113">
+        <v>1.925</v>
+      </c>
+      <c r="T113">
         <v>3</v>
-      </c>
-      <c r="N113">
-        <v>2.4</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>2.6</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>1.8</v>
-      </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
       </c>
       <c r="U113">
         <v>1.8</v>
@@ -11041,25 +11041,25 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>1</v>
-      </c>
-      <c r="AB113">
-        <v>0.8</v>
-      </c>
-      <c r="AC113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11067,7 +11067,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7369107</v>
+        <v>7369152</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11079,49 +11079,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K114">
+        <v>2.2</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>2.4</v>
+      </c>
+      <c r="O114">
+        <v>3.2</v>
+      </c>
+      <c r="P114">
+        <v>2.6</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
         <v>2</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>206</v>
-      </c>
-      <c r="K114">
-        <v>1.909</v>
-      </c>
-      <c r="L114">
-        <v>3.3</v>
-      </c>
-      <c r="M114">
-        <v>3.5</v>
-      </c>
-      <c r="N114">
-        <v>1.666</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
-      <c r="P114">
-        <v>4.333</v>
-      </c>
-      <c r="Q114">
-        <v>-0.75</v>
-      </c>
-      <c r="R114">
-        <v>1.875</v>
-      </c>
-      <c r="S114">
-        <v>1.925</v>
-      </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
         <v>1.8</v>
@@ -11130,25 +11130,25 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11702,7 +11702,7 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11880,7 +11880,7 @@
         <v>45226.55902777778</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G123" t="s">
         <v>99</v>
@@ -12506,7 +12506,7 @@
         <v>92</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12684,7 +12684,7 @@
         <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -13648,7 +13648,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7425469</v>
+        <v>7425467</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13660,10 +13660,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13675,40 +13675,40 @@
         <v>208</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N143">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
+        <v>1.85</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
         <v>1.75</v>
       </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13717,16 +13717,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB143">
         <v>0.75</v>
-      </c>
-      <c r="AB143">
-        <v>1</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13737,7 +13737,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7425467</v>
+        <v>7425469</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13749,10 +13749,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13764,58 +13764,58 @@
         <v>208</v>
       </c>
       <c r="K144">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>1.375</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.75</v>
+      </c>
+      <c r="AB144">
         <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.75</v>
-      </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB144">
-        <v>0.75</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -14004,7 +14004,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425470</v>
+        <v>7425936</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -14016,76 +14016,76 @@
         <v>45233.75</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
         <v>172</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>208</v>
+      </c>
+      <c r="K147">
+        <v>3.3</v>
+      </c>
+      <c r="L147">
+        <v>3.5</v>
+      </c>
+      <c r="M147">
+        <v>1.909</v>
+      </c>
+      <c r="N147">
+        <v>3.3</v>
+      </c>
+      <c r="O147">
+        <v>3.5</v>
+      </c>
+      <c r="P147">
+        <v>1.909</v>
+      </c>
+      <c r="Q147">
+        <v>0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.909</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.8</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>1</v>
-      </c>
-      <c r="J147" t="s">
-        <v>206</v>
-      </c>
-      <c r="K147">
-        <v>1.727</v>
-      </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
-      <c r="M147">
-        <v>4</v>
-      </c>
-      <c r="N147">
-        <v>1.45</v>
-      </c>
-      <c r="O147">
-        <v>4</v>
-      </c>
-      <c r="P147">
-        <v>5.5</v>
-      </c>
-      <c r="Q147">
-        <v>-1</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
-      <c r="W147">
-        <v>0.45</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
-      <c r="AB147">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14182,7 +14182,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7425936</v>
+        <v>7425470</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -14194,76 +14194,76 @@
         <v>45233.75</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G149" t="s">
         <v>173</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>206</v>
+      </c>
+      <c r="K149">
+        <v>1.727</v>
+      </c>
+      <c r="L149">
+        <v>3.75</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>1.45</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
+        <v>5.5</v>
+      </c>
+      <c r="Q149">
+        <v>-1</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
         <v>2</v>
       </c>
-      <c r="J149" t="s">
-        <v>208</v>
-      </c>
-      <c r="K149">
-        <v>3.3</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>1.909</v>
-      </c>
-      <c r="N149">
-        <v>3.3</v>
-      </c>
-      <c r="O149">
-        <v>3.5</v>
-      </c>
-      <c r="P149">
-        <v>1.909</v>
-      </c>
-      <c r="Q149">
-        <v>0.25</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14805,7 +14805,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7425472</v>
+        <v>7432107</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14817,73 +14817,73 @@
         <v>45234.75</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G156" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>6</v>
-      </c>
       <c r="J156" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K156">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14894,7 +14894,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7432107</v>
+        <v>7425472</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14906,73 +14906,73 @@
         <v>45234.75</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J157" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K157">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14983,7 +14983,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14995,76 +14995,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15072,7 +15072,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15084,76 +15084,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+      <c r="K159">
+        <v>2.2</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>2.2</v>
+      </c>
+      <c r="O159">
+        <v>3.4</v>
+      </c>
+      <c r="P159">
+        <v>2.75</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
         <v>2</v>
       </c>
-      <c r="J159" t="s">
-        <v>208</v>
-      </c>
-      <c r="K159">
-        <v>2.375</v>
-      </c>
-      <c r="L159">
-        <v>3.75</v>
-      </c>
-      <c r="M159">
-        <v>2.375</v>
-      </c>
-      <c r="N159">
-        <v>2.375</v>
-      </c>
-      <c r="O159">
-        <v>3.75</v>
-      </c>
-      <c r="P159">
-        <v>2.375</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>1.9</v>
-      </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y159">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15161,7 +15161,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15173,76 +15173,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
       <c r="J160" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N160">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q160">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15250,7 +15250,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15262,76 +15262,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>208</v>
+      </c>
+      <c r="K161">
         <v>4</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>206</v>
-      </c>
-      <c r="K161">
-        <v>1.3</v>
-      </c>
       <c r="L161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N161">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="O161">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q161">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z161">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15873,7 +15873,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7448959</v>
+        <v>7447277</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15885,76 +15885,76 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
         <v>0</v>
       </c>
-      <c r="I168">
-        <v>2</v>
-      </c>
       <c r="J168" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K168">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L168">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N168">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15962,7 +15962,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7447277</v>
+        <v>7447275</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15974,13 +15974,13 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15989,43 +15989,43 @@
         <v>206</v>
       </c>
       <c r="K169">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="M169">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N169">
-        <v>1.333</v>
+        <v>1.035</v>
       </c>
       <c r="O169">
-        <v>4.333</v>
+        <v>19</v>
       </c>
       <c r="P169">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Q169">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.333</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -16034,16 +16034,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC169">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16051,7 +16051,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7447275</v>
+        <v>7448959</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16063,76 +16063,76 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K170">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.035</v>
+        <v>1.615</v>
       </c>
       <c r="O170">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>-4</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>1.95</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
         <v>1.925</v>
       </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>4.75</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -17208,7 +17208,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7458968</v>
+        <v>7457160</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -17220,76 +17220,76 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G183" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K183">
-        <v>7</v>
+        <v>1.285</v>
       </c>
       <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>7.5</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
+        <v>5</v>
+      </c>
+      <c r="P183">
+        <v>6.5</v>
+      </c>
+      <c r="Q183">
+        <v>-1.5</v>
+      </c>
+      <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>3.25</v>
+      </c>
+      <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
+        <v>1.9</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
         <v>4</v>
       </c>
-      <c r="M183">
-        <v>1.4</v>
-      </c>
-      <c r="N183">
-        <v>4.75</v>
-      </c>
-      <c r="O183">
-        <v>4.2</v>
-      </c>
-      <c r="P183">
-        <v>1.533</v>
-      </c>
-      <c r="Q183">
-        <v>1.25</v>
-      </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>3.5</v>
-      </c>
-      <c r="U183">
-        <v>1.875</v>
-      </c>
-      <c r="V183">
-        <v>1.925</v>
-      </c>
-      <c r="W183">
-        <v>3.75</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17297,7 +17297,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7457160</v>
+        <v>7458968</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -17309,76 +17309,76 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="G184" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K184">
-        <v>1.285</v>
+        <v>7</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="N184">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="O184">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P184">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q184">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X184">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17579,7 +17579,7 @@
         <v>97</v>
       </c>
       <c r="G187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17831,7 +17831,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7458909</v>
+        <v>7462543</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17843,76 +17843,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G190" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K190">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="L190">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O190">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q190">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.95</v>
+      </c>
+      <c r="V190">
         <v>1.85</v>
       </c>
-      <c r="S190">
-        <v>1.95</v>
-      </c>
-      <c r="T190">
-        <v>3.25</v>
-      </c>
-      <c r="U190">
-        <v>2</v>
-      </c>
-      <c r="V190">
-        <v>1.8</v>
-      </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X190">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17920,7 +17920,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7462543</v>
+        <v>7458909</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17932,76 +17932,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G191" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K191">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M191">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N191">
+        <v>5</v>
+      </c>
+      <c r="O191">
+        <v>5.5</v>
+      </c>
+      <c r="P191">
+        <v>1.363</v>
+      </c>
+      <c r="Q191">
+        <v>1.5</v>
+      </c>
+      <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
+        <v>1.95</v>
+      </c>
+      <c r="T191">
+        <v>3.25</v>
+      </c>
+      <c r="U191">
         <v>2</v>
       </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
-      <c r="P191">
-        <v>3.1</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
+      <c r="V191">
         <v>1.8</v>
       </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
-      <c r="T191">
-        <v>2.5</v>
-      </c>
-      <c r="U191">
-        <v>1.95</v>
-      </c>
-      <c r="V191">
-        <v>1.85</v>
-      </c>
       <c r="W191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.8</v>
-      </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>0.95</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18543,7 +18543,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7457559</v>
+        <v>7462376</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18555,76 +18555,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="G198" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K198">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M198">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N198">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X198">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18632,7 +18632,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7462376</v>
+        <v>7457559</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18644,76 +18644,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>207</v>
+      </c>
+      <c r="K199">
+        <v>3.25</v>
+      </c>
+      <c r="L199">
+        <v>3.5</v>
+      </c>
+      <c r="M199">
+        <v>1.909</v>
+      </c>
+      <c r="N199">
+        <v>2.3</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
+        <v>2.6</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>1.825</v>
+      </c>
+      <c r="S199">
+        <v>1.975</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.8</v>
+      </c>
+      <c r="V199">
         <v>2</v>
       </c>
-      <c r="I199">
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2.4</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>0</v>
       </c>
-      <c r="J199" t="s">
-        <v>206</v>
-      </c>
-      <c r="K199">
-        <v>1.333</v>
-      </c>
-      <c r="L199">
-        <v>4.75</v>
-      </c>
-      <c r="M199">
-        <v>6.5</v>
-      </c>
-      <c r="N199">
-        <v>1.333</v>
-      </c>
-      <c r="O199">
-        <v>4.5</v>
-      </c>
-      <c r="P199">
-        <v>7</v>
-      </c>
-      <c r="Q199">
-        <v>-1.5</v>
-      </c>
-      <c r="R199">
-        <v>1.9</v>
-      </c>
-      <c r="S199">
-        <v>1.9</v>
-      </c>
-      <c r="T199">
-        <v>3</v>
-      </c>
-      <c r="U199">
-        <v>1.775</v>
-      </c>
-      <c r="V199">
-        <v>2.025</v>
-      </c>
-      <c r="W199">
-        <v>0.333</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>-1</v>
-      </c>
-      <c r="Z199">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18810,7 +18810,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7457558</v>
+        <v>7462454</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18822,40 +18822,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K201">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N201">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R201">
         <v>2</v>
@@ -18867,31 +18867,31 @@
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18899,7 +18899,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7462454</v>
+        <v>7457558</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18911,40 +18911,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G202" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K202">
+        <v>1.909</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>3.4</v>
+      </c>
+      <c r="N202">
+        <v>1.571</v>
+      </c>
+      <c r="O202">
+        <v>3.8</v>
+      </c>
+      <c r="P202">
         <v>4.75</v>
       </c>
-      <c r="L202">
-        <v>4.2</v>
-      </c>
-      <c r="M202">
-        <v>1.5</v>
-      </c>
-      <c r="N202">
-        <v>5</v>
-      </c>
-      <c r="O202">
-        <v>4.2</v>
-      </c>
-      <c r="P202">
-        <v>1.5</v>
-      </c>
       <c r="Q202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18956,31 +18956,31 @@
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X202">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19878,7 +19878,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7486046</v>
+        <v>7486113</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19890,10 +19890,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19905,44 +19905,44 @@
         <v>206</v>
       </c>
       <c r="K213">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="L213">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N213">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="O213">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q213">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
+        <v>1.875</v>
+      </c>
+      <c r="S213">
+        <v>1.925</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.9</v>
+      </c>
+      <c r="V213">
+        <v>1.9</v>
+      </c>
+      <c r="W213">
         <v>2</v>
       </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>3</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>1.975</v>
-      </c>
-      <c r="W213">
-        <v>0.2</v>
-      </c>
       <c r="X213">
         <v>-1</v>
       </c>
@@ -19950,16 +19950,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19967,7 +19967,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486113</v>
+        <v>7486046</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19979,10 +19979,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G214" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19994,43 +19994,43 @@
         <v>206</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M214">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N214">
+        <v>1.2</v>
+      </c>
+      <c r="O214">
+        <v>5.25</v>
+      </c>
+      <c r="P214">
+        <v>11</v>
+      </c>
+      <c r="Q214">
+        <v>-2</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
         <v>3</v>
       </c>
-      <c r="O214">
-        <v>3.25</v>
-      </c>
-      <c r="P214">
-        <v>2.1</v>
-      </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.925</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -20039,16 +20039,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20783,7 +20783,7 @@
         <v>118</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -21225,7 +21225,7 @@
         <v>45248.75972222222</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G228" t="s">
         <v>128</v>
@@ -21495,7 +21495,7 @@
         <v>82</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -22115,7 +22115,7 @@
         <v>45251.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G238" t="s">
         <v>72</v>
@@ -22830,7 +22830,7 @@
         <v>40</v>
       </c>
       <c r="G246" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22919,7 +22919,7 @@
         <v>49</v>
       </c>
       <c r="G247" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>115</v>
       </c>
       <c r="G254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H254">
         <v>4</v>
@@ -23628,7 +23628,7 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
         <v>153</v>
@@ -24607,7 +24607,7 @@
         <v>45261.55555555555</v>
       </c>
       <c r="F266" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G266" t="s">
         <v>67</v>
@@ -24773,7 +24773,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24785,76 +24785,76 @@
         <v>45261.75</v>
       </c>
       <c r="F268" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
         <v>207</v>
       </c>
       <c r="K268">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L268">
+        <v>4.5</v>
+      </c>
+      <c r="M268">
+        <v>6</v>
+      </c>
+      <c r="N268">
+        <v>1.4</v>
+      </c>
+      <c r="O268">
+        <v>4.5</v>
+      </c>
+      <c r="P268">
+        <v>6</v>
+      </c>
+      <c r="Q268">
+        <v>-1.25</v>
+      </c>
+      <c r="R268">
+        <v>1.85</v>
+      </c>
+      <c r="S268">
+        <v>1.95</v>
+      </c>
+      <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
+        <v>1.8</v>
+      </c>
+      <c r="V268">
+        <v>2</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
         <v>3.5</v>
       </c>
-      <c r="M268">
-        <v>3.4</v>
-      </c>
-      <c r="N268">
-        <v>2.25</v>
-      </c>
-      <c r="O268">
-        <v>3.3</v>
-      </c>
-      <c r="P268">
-        <v>2.75</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>2</v>
-      </c>
-      <c r="S268">
-        <v>1.8</v>
-      </c>
-      <c r="T268">
-        <v>3</v>
-      </c>
-      <c r="U268">
-        <v>1.95</v>
-      </c>
-      <c r="V268">
-        <v>1.85</v>
-      </c>
-      <c r="W268">
-        <v>-1</v>
-      </c>
-      <c r="X268">
-        <v>2.3</v>
-      </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24862,7 +24862,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24874,76 +24874,76 @@
         <v>45261.75</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G269" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>207</v>
       </c>
       <c r="K269">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N269">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O269">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q269">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
+        <v>2</v>
+      </c>
+      <c r="S269">
+        <v>1.8</v>
+      </c>
+      <c r="T269">
+        <v>3</v>
+      </c>
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>1.95</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.8</v>
-      </c>
-      <c r="V269">
-        <v>2</v>
-      </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="G274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F286" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G286" t="s">
         <v>64</v>
@@ -26553,7 +26553,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7568061</v>
+        <v>7568067</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26565,76 +26565,76 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G288" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K288">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L288">
+        <v>3.5</v>
+      </c>
+      <c r="M288">
         <v>4</v>
       </c>
-      <c r="M288">
-        <v>1.727</v>
-      </c>
       <c r="N288">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O288">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P288">
-        <v>1.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q288">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R288">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S288">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T288">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V288">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26642,7 +26642,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7568067</v>
+        <v>7568061</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26654,76 +26654,76 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G289" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K289">
+        <v>3.6</v>
+      </c>
+      <c r="L289">
+        <v>4</v>
+      </c>
+      <c r="M289">
         <v>1.727</v>
       </c>
-      <c r="L289">
+      <c r="N289">
+        <v>4.75</v>
+      </c>
+      <c r="O289">
+        <v>4.75</v>
+      </c>
+      <c r="P289">
+        <v>1.45</v>
+      </c>
+      <c r="Q289">
+        <v>1.25</v>
+      </c>
+      <c r="R289">
+        <v>1.875</v>
+      </c>
+      <c r="S289">
+        <v>1.925</v>
+      </c>
+      <c r="T289">
         <v>3.5</v>
       </c>
-      <c r="M289">
-        <v>4</v>
-      </c>
-      <c r="N289">
-        <v>1.6</v>
-      </c>
-      <c r="O289">
-        <v>4</v>
-      </c>
-      <c r="P289">
-        <v>4.333</v>
-      </c>
-      <c r="Q289">
-        <v>-1</v>
-      </c>
-      <c r="R289">
-        <v>1.975</v>
-      </c>
-      <c r="S289">
-        <v>1.825</v>
-      </c>
-      <c r="T289">
-        <v>3</v>
-      </c>
       <c r="U289">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X289">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA289">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -27354,7 +27354,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27366,40 +27366,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G297" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M297">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P297">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R297">
         <v>1.9</v>
@@ -27408,34 +27408,34 @@
         <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27443,7 +27443,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27455,40 +27455,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G298" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H298">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I298">
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P298">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q298">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>1.9</v>
@@ -27497,34 +27497,34 @@
         <v>1.9</v>
       </c>
       <c r="T298">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W298">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
       <c r="AB298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28078,7 +28078,7 @@
         <v>45310.77083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G305" t="s">
         <v>77</v>
@@ -28333,7 +28333,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28345,13 +28345,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G308" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -28360,43 +28360,43 @@
         <v>206</v>
       </c>
       <c r="K308">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
         <v>4</v>
       </c>
-      <c r="M308">
-        <v>7</v>
-      </c>
       <c r="N308">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P308">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T308">
         <v>3.25</v>
       </c>
       <c r="U308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V308">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W308">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -28405,16 +28405,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28422,7 +28422,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28434,13 +28434,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -28449,43 +28449,43 @@
         <v>206</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N309">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P309">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S309">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T309">
         <v>3.25</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28494,16 +28494,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA309">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -29149,7 +29149,7 @@
         <v>98</v>
       </c>
       <c r="G317" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29312,7 +29312,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7749009</v>
+        <v>7749257</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -29324,40 +29324,40 @@
         <v>45318.75</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G319" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>206</v>
       </c>
       <c r="K319">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="L319">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="M319">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N319">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="O319">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P319">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q319">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R319">
         <v>1.8</v>
@@ -29366,16 +29366,16 @@
         <v>2</v>
       </c>
       <c r="T319">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
-        <v>0.181</v>
+        <v>3</v>
       </c>
       <c r="X319">
         <v>-1</v>
@@ -29384,16 +29384,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29401,7 +29401,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749257</v>
+        <v>7749009</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29413,40 +29413,40 @@
         <v>45318.75</v>
       </c>
       <c r="F320" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
         <v>1</v>
-      </c>
-      <c r="I320">
-        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>206</v>
       </c>
       <c r="K320">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="L320">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="M320">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N320">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="O320">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P320">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q320">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R320">
         <v>1.8</v>
@@ -29455,16 +29455,16 @@
         <v>2</v>
       </c>
       <c r="T320">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U320">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -29473,16 +29473,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29861,7 +29861,7 @@
         <v>128</v>
       </c>
       <c r="G325" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>36</v>
       </c>
       <c r="G327" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30392,7 +30392,7 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F331" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G331" t="s">
         <v>37</v>
@@ -30558,7 +30558,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776770</v>
+        <v>7776619</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30570,76 +30570,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G333" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H333">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I333">
         <v>1</v>
       </c>
       <c r="J333" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K333">
+        <v>1.5</v>
+      </c>
+      <c r="L333">
+        <v>4</v>
+      </c>
+      <c r="M333">
+        <v>5</v>
+      </c>
+      <c r="N333">
+        <v>1.533</v>
+      </c>
+      <c r="O333">
+        <v>3.6</v>
+      </c>
+      <c r="P333">
+        <v>5.25</v>
+      </c>
+      <c r="Q333">
+        <v>-1</v>
+      </c>
+      <c r="R333">
+        <v>1.975</v>
+      </c>
+      <c r="S333">
+        <v>1.825</v>
+      </c>
+      <c r="T333">
+        <v>2.25</v>
+      </c>
+      <c r="U333">
+        <v>1.875</v>
+      </c>
+      <c r="V333">
+        <v>1.925</v>
+      </c>
+      <c r="W333">
+        <v>-1</v>
+      </c>
+      <c r="X333">
         <v>2.6</v>
       </c>
-      <c r="L333">
-        <v>3.75</v>
-      </c>
-      <c r="M333">
-        <v>2.2</v>
-      </c>
-      <c r="N333">
-        <v>2.625</v>
-      </c>
-      <c r="O333">
-        <v>3.75</v>
-      </c>
-      <c r="P333">
-        <v>2.2</v>
-      </c>
-      <c r="Q333">
-        <v>0.25</v>
-      </c>
-      <c r="R333">
-        <v>1.8</v>
-      </c>
-      <c r="S333">
-        <v>2</v>
-      </c>
-      <c r="T333">
-        <v>3</v>
-      </c>
-      <c r="U333">
-        <v>1.975</v>
-      </c>
-      <c r="V333">
-        <v>1.825</v>
-      </c>
-      <c r="W333">
-        <v>1.625</v>
-      </c>
-      <c r="X333">
-        <v>-1</v>
-      </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB333">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30647,7 +30647,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776619</v>
+        <v>7776770</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30659,76 +30659,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K334">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M334">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N334">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P334">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q334">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R334">
+        <v>1.8</v>
+      </c>
+      <c r="S334">
+        <v>2</v>
+      </c>
+      <c r="T334">
+        <v>3</v>
+      </c>
+      <c r="U334">
         <v>1.975</v>
       </c>
-      <c r="S334">
+      <c r="V334">
         <v>1.825</v>
       </c>
-      <c r="T334">
-        <v>2.25</v>
-      </c>
-      <c r="U334">
-        <v>1.875</v>
-      </c>
-      <c r="V334">
-        <v>1.925</v>
-      </c>
       <c r="W334">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X334">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA334">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC334">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -31282,7 +31282,7 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G341" t="s">
         <v>75</v>
@@ -32442,7 +32442,7 @@
         <v>32</v>
       </c>
       <c r="G354" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -32709,7 +32709,7 @@
         <v>56</v>
       </c>
       <c r="G357" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32961,7 +32961,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809267</v>
+        <v>7809187</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32973,73 +32973,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F360" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G360" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H360">
+        <v>4</v>
+      </c>
+      <c r="I360">
         <v>1</v>
       </c>
-      <c r="I360">
-        <v>4</v>
-      </c>
       <c r="J360" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K360">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L360">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M360">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="N360">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="O360">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P360">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="Q360">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R360">
+        <v>1.975</v>
+      </c>
+      <c r="S360">
+        <v>1.825</v>
+      </c>
+      <c r="T360">
+        <v>3.25</v>
+      </c>
+      <c r="U360">
+        <v>1.875</v>
+      </c>
+      <c r="V360">
         <v>1.925</v>
       </c>
-      <c r="S360">
-        <v>1.875</v>
-      </c>
-      <c r="T360">
-        <v>3.5</v>
-      </c>
-      <c r="U360">
-        <v>1.925</v>
-      </c>
-      <c r="V360">
-        <v>1.775</v>
-      </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA360">
+        <v>-1</v>
+      </c>
+      <c r="AB360">
         <v>0.875</v>
-      </c>
-      <c r="AB360">
-        <v>0.925</v>
       </c>
       <c r="AC360">
         <v>-1</v>
@@ -33139,7 +33139,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7809187</v>
+        <v>7809267</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -33151,73 +33151,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G362" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
         <v>4</v>
       </c>
-      <c r="I362">
-        <v>1</v>
-      </c>
       <c r="J362" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K362">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L362">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="N362">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="O362">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P362">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q362">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R362">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T362">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U362">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V362">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W362">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z362">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB362">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -34029,7 +34029,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -34041,73 +34041,73 @@
         <v>45338.75</v>
       </c>
       <c r="F372" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G372" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372">
+        <v>5</v>
+      </c>
+      <c r="J372" t="s">
+        <v>208</v>
+      </c>
+      <c r="K372">
+        <v>1.8</v>
+      </c>
+      <c r="L372">
+        <v>3.3</v>
+      </c>
+      <c r="M372">
+        <v>4</v>
+      </c>
+      <c r="N372">
+        <v>1.615</v>
+      </c>
+      <c r="O372">
+        <v>3.5</v>
+      </c>
+      <c r="P372">
+        <v>4.75</v>
+      </c>
+      <c r="Q372">
+        <v>-0.75</v>
+      </c>
+      <c r="R372">
+        <v>1.8</v>
+      </c>
+      <c r="S372">
+        <v>2</v>
+      </c>
+      <c r="T372">
+        <v>2.75</v>
+      </c>
+      <c r="U372">
+        <v>1.75</v>
+      </c>
+      <c r="V372">
+        <v>1.95</v>
+      </c>
+      <c r="W372">
+        <v>-1</v>
+      </c>
+      <c r="X372">
+        <v>-1</v>
+      </c>
+      <c r="Y372">
+        <v>3.75</v>
+      </c>
+      <c r="Z372">
+        <v>-1</v>
+      </c>
+      <c r="AA372">
         <v>1</v>
       </c>
-      <c r="J372" t="s">
-        <v>206</v>
-      </c>
-      <c r="K372">
-        <v>1.615</v>
-      </c>
-      <c r="L372">
-        <v>3.5</v>
-      </c>
-      <c r="M372">
-        <v>5</v>
-      </c>
-      <c r="N372">
-        <v>1.363</v>
-      </c>
-      <c r="O372">
-        <v>4.333</v>
-      </c>
-      <c r="P372">
-        <v>7.5</v>
-      </c>
-      <c r="Q372">
-        <v>-1.25</v>
-      </c>
-      <c r="R372">
-        <v>1.75</v>
-      </c>
-      <c r="S372">
-        <v>2.05</v>
-      </c>
-      <c r="T372">
-        <v>3</v>
-      </c>
-      <c r="U372">
-        <v>1.8</v>
-      </c>
-      <c r="V372">
-        <v>2</v>
-      </c>
-      <c r="W372">
-        <v>0.363</v>
-      </c>
-      <c r="X372">
-        <v>-1</v>
-      </c>
-      <c r="Y372">
-        <v>-1</v>
-      </c>
-      <c r="Z372">
+      <c r="AB372">
         <v>0.75</v>
-      </c>
-      <c r="AA372">
-        <v>-1</v>
-      </c>
-      <c r="AB372">
-        <v>0.8</v>
       </c>
       <c r="AC372">
         <v>-1</v>
@@ -34118,7 +34118,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -34130,73 +34130,73 @@
         <v>45338.75</v>
       </c>
       <c r="F373" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G373" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="H373">
+        <v>3</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373" t="s">
+        <v>206</v>
+      </c>
+      <c r="K373">
+        <v>1.615</v>
+      </c>
+      <c r="L373">
+        <v>3.5</v>
+      </c>
+      <c r="M373">
+        <v>5</v>
+      </c>
+      <c r="N373">
+        <v>1.363</v>
+      </c>
+      <c r="O373">
+        <v>4.333</v>
+      </c>
+      <c r="P373">
+        <v>7.5</v>
+      </c>
+      <c r="Q373">
+        <v>-1.25</v>
+      </c>
+      <c r="R373">
+        <v>1.75</v>
+      </c>
+      <c r="S373">
+        <v>2.05</v>
+      </c>
+      <c r="T373">
+        <v>3</v>
+      </c>
+      <c r="U373">
+        <v>1.8</v>
+      </c>
+      <c r="V373">
         <v>2</v>
       </c>
-      <c r="I373">
-        <v>5</v>
-      </c>
-      <c r="J373" t="s">
-        <v>208</v>
-      </c>
-      <c r="K373">
-        <v>1.8</v>
-      </c>
-      <c r="L373">
-        <v>3.3</v>
-      </c>
-      <c r="M373">
-        <v>4</v>
-      </c>
-      <c r="N373">
-        <v>1.615</v>
-      </c>
-      <c r="O373">
-        <v>3.5</v>
-      </c>
-      <c r="P373">
-        <v>4.75</v>
-      </c>
-      <c r="Q373">
-        <v>-0.75</v>
-      </c>
-      <c r="R373">
-        <v>1.8</v>
-      </c>
-      <c r="S373">
-        <v>2</v>
-      </c>
-      <c r="T373">
-        <v>2.75</v>
-      </c>
-      <c r="U373">
-        <v>1.75</v>
-      </c>
-      <c r="V373">
-        <v>1.95</v>
-      </c>
       <c r="W373">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA373">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -34219,7 +34219,7 @@
         <v>45338.77083333334</v>
       </c>
       <c r="F374" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G374" t="s">
         <v>127</v>
@@ -34667,7 +34667,7 @@
         <v>126</v>
       </c>
       <c r="G379" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -35290,7 +35290,7 @@
         <v>48</v>
       </c>
       <c r="G386" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H386">
         <v>1</v>
@@ -35987,7 +35987,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7877572</v>
+        <v>7877575</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35999,76 +35999,76 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F394" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G394" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H394">
         <v>2</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" t="s">
         <v>206</v>
       </c>
       <c r="K394">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L394">
         <v>3.5</v>
       </c>
       <c r="M394">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N394">
+        <v>2.8</v>
+      </c>
+      <c r="O394">
+        <v>3.5</v>
+      </c>
+      <c r="P394">
+        <v>2.15</v>
+      </c>
+      <c r="Q394">
+        <v>0.25</v>
+      </c>
+      <c r="R394">
         <v>1.85</v>
       </c>
-      <c r="O394">
-        <v>3.4</v>
-      </c>
-      <c r="P394">
-        <v>3.5</v>
-      </c>
-      <c r="Q394">
+      <c r="S394">
+        <v>1.95</v>
+      </c>
+      <c r="T394">
+        <v>3.25</v>
+      </c>
+      <c r="U394">
+        <v>1.825</v>
+      </c>
+      <c r="V394">
+        <v>1.975</v>
+      </c>
+      <c r="W394">
+        <v>1.8</v>
+      </c>
+      <c r="X394">
+        <v>-1</v>
+      </c>
+      <c r="Y394">
+        <v>-1</v>
+      </c>
+      <c r="Z394">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA394">
+        <v>-1</v>
+      </c>
+      <c r="AB394">
         <v>-0.5</v>
       </c>
-      <c r="R394">
-        <v>1.9</v>
-      </c>
-      <c r="S394">
-        <v>1.9</v>
-      </c>
-      <c r="T394">
-        <v>2.5</v>
-      </c>
-      <c r="U394">
-        <v>1.925</v>
-      </c>
-      <c r="V394">
-        <v>1.875</v>
-      </c>
-      <c r="W394">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X394">
-        <v>-1</v>
-      </c>
-      <c r="Y394">
-        <v>-1</v>
-      </c>
-      <c r="Z394">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
-      <c r="AB394">
-        <v>-1</v>
-      </c>
       <c r="AC394">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -36076,7 +36076,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7877575</v>
+        <v>7877570</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -36088,16 +36088,16 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G395" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="s">
         <v>206</v>
@@ -36106,40 +36106,40 @@
         <v>2.1</v>
       </c>
       <c r="L395">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M395">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N395">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O395">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P395">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q395">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S395">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T395">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U395">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V395">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W395">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="X395">
         <v>-1</v>
@@ -36148,16 +36148,16 @@
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA395">
         <v>-1</v>
       </c>
       <c r="AB395">
+        <v>0.5</v>
+      </c>
+      <c r="AC395">
         <v>-0.5</v>
-      </c>
-      <c r="AC395">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -36165,7 +36165,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7877570</v>
+        <v>7877572</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -36177,13 +36177,13 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G396" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -36192,25 +36192,25 @@
         <v>206</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L396">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N396">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O396">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P396">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q396">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R396">
         <v>1.9</v>
@@ -36219,16 +36219,16 @@
         <v>1.9</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U396">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V396">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W396">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -36243,10 +36243,10 @@
         <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36978,7 +36978,7 @@
         <v>45352.77083333334</v>
       </c>
       <c r="F405" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G405" t="s">
         <v>96</v>
@@ -37070,7 +37070,7 @@
         <v>124</v>
       </c>
       <c r="G406" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -38049,7 +38049,7 @@
         <v>60</v>
       </c>
       <c r="G417" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H417">
         <v>1</v>
@@ -39814,7 +39814,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7947693</v>
+        <v>7947694</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39826,76 +39826,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F437" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G437" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
         <v>2</v>
       </c>
-      <c r="I437">
-        <v>1</v>
-      </c>
       <c r="J437" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K437">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L437">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M437">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N437">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O437">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P437">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q437">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R437">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S437">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T437">
         <v>2.75</v>
       </c>
       <c r="U437">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V437">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W437">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X437">
         <v>-1</v>
       </c>
       <c r="Y437">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z437">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA437">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB437">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39903,7 +39903,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7947694</v>
+        <v>7947693</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39915,76 +39915,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F438" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G438" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J438" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K438">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L438">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M438">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N438">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O438">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P438">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q438">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R438">
+        <v>2.05</v>
+      </c>
+      <c r="S438">
         <v>1.75</v>
-      </c>
-      <c r="S438">
-        <v>1.95</v>
       </c>
       <c r="T438">
         <v>2.75</v>
       </c>
       <c r="U438">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V438">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W438">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA438">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB438">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC438">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -40437,7 +40437,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7948055</v>
+        <v>7948057</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40449,61 +40449,61 @@
         <v>45363.79166666666</v>
       </c>
       <c r="F444" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="G444" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444">
         <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K444">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L444">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M444">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N444">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O444">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P444">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q444">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R444">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S444">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T444">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U444">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V444">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X444">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y444">
         <v>-1</v>
@@ -40512,13 +40512,13 @@
         <v>-1</v>
       </c>
       <c r="AA444">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40526,7 +40526,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7948057</v>
+        <v>7948055</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40538,61 +40538,61 @@
         <v>45363.79166666666</v>
       </c>
       <c r="F445" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="G445" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445">
         <v>0</v>
       </c>
       <c r="J445" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K445">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L445">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M445">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N445">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="O445">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P445">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q445">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R445">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S445">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T445">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U445">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V445">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W445">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X445">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y445">
         <v>-1</v>
@@ -40601,13 +40601,13 @@
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB445">
         <v>-1</v>
       </c>
       <c r="AC445">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40808,7 +40808,7 @@
         <v>43</v>
       </c>
       <c r="G448" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H448">
         <v>1</v>
@@ -41431,7 +41431,7 @@
         <v>99</v>
       </c>
       <c r="G455" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H455">
         <v>0</v>
@@ -41787,7 +41787,7 @@
         <v>72</v>
       </c>
       <c r="G459" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H459">
         <v>5</v>
@@ -42051,7 +42051,7 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G462" t="s">
         <v>132</v>
@@ -43122,7 +43122,7 @@
         <v>135</v>
       </c>
       <c r="G474" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H474">
         <v>3</v>
@@ -43819,7 +43819,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>8023300</v>
+        <v>8029908</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43828,49 +43828,49 @@
         <v>28</v>
       </c>
       <c r="E482" s="2">
-        <v>45380.79166666666</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F482" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G482" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="K482">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L482">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M482">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N482">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O482">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P482">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q482">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R482">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S482">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T482">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U482">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V482">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43893,7 +43893,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>8023340</v>
+        <v>8030091</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43902,49 +43902,49 @@
         <v>28</v>
       </c>
       <c r="E483" s="2">
-        <v>45380.83333333334</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F483" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G483" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K483">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L483">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M483">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N483">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O483">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P483">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q483">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R483">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S483">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T483">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U483">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V483">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43967,7 +43967,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>8023339</v>
+        <v>8030092</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43976,49 +43976,49 @@
         <v>28</v>
       </c>
       <c r="E484" s="2">
-        <v>45380.9375</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="F484" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G484" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K484">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L484">
         <v>3.5</v>
       </c>
       <c r="M484">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N484">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="O484">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P484">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q484">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R484">
+        <v>2.05</v>
+      </c>
+      <c r="S484">
+        <v>1.75</v>
+      </c>
+      <c r="T484">
+        <v>2.75</v>
+      </c>
+      <c r="U484">
         <v>1.8</v>
       </c>
-      <c r="S484">
+      <c r="V484">
         <v>2</v>
-      </c>
-      <c r="T484">
-        <v>3</v>
-      </c>
-      <c r="U484">
-        <v>1.95</v>
-      </c>
-      <c r="V484">
-        <v>1.85</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -44033,6 +44033,80 @@
         <v>0</v>
       </c>
       <c r="AA484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:29">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>8028224</v>
+      </c>
+      <c r="C485" t="s">
+        <v>28</v>
+      </c>
+      <c r="D485" t="s">
+        <v>28</v>
+      </c>
+      <c r="E485" s="2">
+        <v>45381.83333333334</v>
+      </c>
+      <c r="F485" t="s">
+        <v>75</v>
+      </c>
+      <c r="G485" t="s">
+        <v>153</v>
+      </c>
+      <c r="K485">
+        <v>2.1</v>
+      </c>
+      <c r="L485">
+        <v>3.5</v>
+      </c>
+      <c r="M485">
+        <v>3</v>
+      </c>
+      <c r="N485">
+        <v>2.1</v>
+      </c>
+      <c r="O485">
+        <v>3.5</v>
+      </c>
+      <c r="P485">
+        <v>3</v>
+      </c>
+      <c r="Q485">
+        <v>-0.25</v>
+      </c>
+      <c r="R485">
+        <v>1.875</v>
+      </c>
+      <c r="S485">
+        <v>1.925</v>
+      </c>
+      <c r="T485">
+        <v>3</v>
+      </c>
+      <c r="U485">
+        <v>1.775</v>
+      </c>
+      <c r="V485">
+        <v>2.025</v>
+      </c>
+      <c r="W485">
+        <v>0</v>
+      </c>
+      <c r="X485">
+        <v>0</v>
+      </c>
+      <c r="Y485">
+        <v>0</v>
+      </c>
+      <c r="Z485">
+        <v>0</v>
+      </c>
+      <c r="AA485">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -25485,7 +25485,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25497,73 +25497,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K276">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M276">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N276">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P276">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25663,7 +25663,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25675,73 +25675,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G278" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K278">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L278">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M278">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N278">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O278">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P278">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q278">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -27176,7 +27176,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7568070</v>
+        <v>7571981</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -27188,40 +27188,40 @@
         <v>45269.75</v>
       </c>
       <c r="F295" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K295">
-        <v>5</v>
+        <v>1.062</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M295">
-        <v>1.533</v>
+        <v>20</v>
       </c>
       <c r="N295">
-        <v>6.5</v>
+        <v>1.071</v>
       </c>
       <c r="O295">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P295">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="Q295">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R295">
         <v>1.9</v>
@@ -27230,19 +27230,19 @@
         <v>1.9</v>
       </c>
       <c r="T295">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V295">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X295">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
@@ -27254,10 +27254,10 @@
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27265,7 +27265,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7571981</v>
+        <v>7568070</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -27277,40 +27277,40 @@
         <v>45269.75</v>
       </c>
       <c r="F296" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="G296" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H296">
+        <v>2</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296" t="s">
+        <v>207</v>
+      </c>
+      <c r="K296">
+        <v>5</v>
+      </c>
+      <c r="L296">
         <v>4</v>
       </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
-      <c r="J296" t="s">
-        <v>206</v>
-      </c>
-      <c r="K296">
-        <v>1.062</v>
-      </c>
-      <c r="L296">
-        <v>11</v>
-      </c>
       <c r="M296">
-        <v>20</v>
+        <v>1.533</v>
       </c>
       <c r="N296">
-        <v>1.071</v>
+        <v>6.5</v>
       </c>
       <c r="O296">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P296">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="Q296">
-        <v>-3.25</v>
+        <v>1.5</v>
       </c>
       <c r="R296">
         <v>1.9</v>
@@ -27319,19 +27319,19 @@
         <v>1.9</v>
       </c>
       <c r="T296">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W296">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y296">
         <v>-1</v>
@@ -27343,10 +27343,10 @@
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC296">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27354,7 +27354,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27366,40 +27366,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G297" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M297">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P297">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R297">
         <v>1.9</v>
@@ -27408,34 +27408,34 @@
         <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27443,7 +27443,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27455,40 +27455,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G298" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="H298">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I298">
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P298">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q298">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>1.9</v>
@@ -27497,34 +27497,34 @@
         <v>1.9</v>
       </c>
       <c r="T298">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W298">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
       <c r="AB298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28778,7 +28778,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7744418</v>
+        <v>7744419</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28790,76 +28790,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F313" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G313" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>3</v>
+      </c>
+      <c r="J313" t="s">
+        <v>208</v>
+      </c>
+      <c r="K313">
+        <v>2.1</v>
+      </c>
+      <c r="L313">
+        <v>4</v>
+      </c>
+      <c r="M313">
+        <v>2.6</v>
+      </c>
+      <c r="N313">
+        <v>1.85</v>
+      </c>
+      <c r="O313">
+        <v>4</v>
+      </c>
+      <c r="P313">
+        <v>3</v>
+      </c>
+      <c r="Q313">
+        <v>-0.5</v>
+      </c>
+      <c r="R313">
+        <v>1.925</v>
+      </c>
+      <c r="S313">
+        <v>1.875</v>
+      </c>
+      <c r="T313">
+        <v>3.25</v>
+      </c>
+      <c r="U313">
+        <v>1.775</v>
+      </c>
+      <c r="V313">
+        <v>1.925</v>
+      </c>
+      <c r="W313">
+        <v>-1</v>
+      </c>
+      <c r="X313">
+        <v>-1</v>
+      </c>
+      <c r="Y313">
         <v>2</v>
       </c>
-      <c r="I313">
-        <v>1</v>
-      </c>
-      <c r="J313" t="s">
-        <v>206</v>
-      </c>
-      <c r="K313">
-        <v>1.3</v>
-      </c>
-      <c r="L313">
-        <v>4.75</v>
-      </c>
-      <c r="M313">
-        <v>7.5</v>
-      </c>
-      <c r="N313">
-        <v>1.3</v>
-      </c>
-      <c r="O313">
-        <v>5</v>
-      </c>
-      <c r="P313">
-        <v>7</v>
-      </c>
-      <c r="Q313">
-        <v>-1.5</v>
-      </c>
-      <c r="R313">
-        <v>1.875</v>
-      </c>
-      <c r="S313">
-        <v>1.925</v>
-      </c>
-      <c r="T313">
-        <v>2.75</v>
-      </c>
-      <c r="U313">
-        <v>1.9</v>
-      </c>
-      <c r="V313">
-        <v>1.9</v>
-      </c>
-      <c r="W313">
-        <v>0.3</v>
-      </c>
-      <c r="X313">
-        <v>-1</v>
-      </c>
-      <c r="Y313">
-        <v>-1</v>
-      </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB313">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28867,7 +28867,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7744419</v>
+        <v>7744418</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28879,76 +28879,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F314" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G314" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H314">
+        <v>2</v>
+      </c>
+      <c r="I314">
         <v>1</v>
       </c>
-      <c r="I314">
-        <v>3</v>
-      </c>
       <c r="J314" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K314">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M314">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N314">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q314">
+        <v>-1.5</v>
+      </c>
+      <c r="R314">
+        <v>1.875</v>
+      </c>
+      <c r="S314">
+        <v>1.925</v>
+      </c>
+      <c r="T314">
+        <v>2.75</v>
+      </c>
+      <c r="U314">
+        <v>1.9</v>
+      </c>
+      <c r="V314">
+        <v>1.9</v>
+      </c>
+      <c r="W314">
+        <v>0.3</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>-1</v>
+      </c>
+      <c r="Z314">
+        <v>-1</v>
+      </c>
+      <c r="AA314">
+        <v>0.925</v>
+      </c>
+      <c r="AB314">
+        <v>0.45</v>
+      </c>
+      <c r="AC314">
         <v>-0.5</v>
-      </c>
-      <c r="R314">
-        <v>1.925</v>
-      </c>
-      <c r="S314">
-        <v>1.875</v>
-      </c>
-      <c r="T314">
-        <v>3.25</v>
-      </c>
-      <c r="U314">
-        <v>1.775</v>
-      </c>
-      <c r="V314">
-        <v>1.925</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>-1</v>
-      </c>
-      <c r="Y314">
-        <v>2</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
-      <c r="AA314">
-        <v>0.875</v>
-      </c>
-      <c r="AB314">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC314">
-        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -30291,7 +30291,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -30303,34 +30303,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F330" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G330" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="H330">
+        <v>3</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>206</v>
       </c>
       <c r="K330">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="L330">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M330">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N330">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O330">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P330">
         <v>1.5</v>
@@ -30339,22 +30339,22 @@
         <v>1</v>
       </c>
       <c r="R330">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T330">
         <v>3</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -30363,16 +30363,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30380,7 +30380,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -30392,34 +30392,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F331" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G331" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>206</v>
       </c>
       <c r="K331">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L331">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M331">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N331">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O331">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P331">
         <v>1.5</v>
@@ -30428,22 +30428,22 @@
         <v>1</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T331">
         <v>3</v>
       </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -30452,16 +30452,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30558,7 +30558,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776618</v>
+        <v>7776619</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30570,76 +30570,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G333" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333" t="s">
+        <v>207</v>
+      </c>
+      <c r="K333">
+        <v>1.5</v>
+      </c>
+      <c r="L333">
         <v>4</v>
       </c>
-      <c r="I333">
-        <v>0</v>
-      </c>
-      <c r="J333" t="s">
-        <v>206</v>
-      </c>
-      <c r="K333">
-        <v>1.2</v>
-      </c>
-      <c r="L333">
-        <v>6</v>
-      </c>
       <c r="M333">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N333">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="O333">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P333">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q333">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R333">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T333">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V333">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB333">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30647,7 +30647,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776770</v>
+        <v>7776618</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30659,58 +30659,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G334" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H334">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
         <v>206</v>
       </c>
       <c r="K334">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L334">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M334">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="N334">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="O334">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P334">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="Q334">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R334">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S334">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T334">
         <v>3</v>
       </c>
       <c r="U334">
+        <v>1.825</v>
+      </c>
+      <c r="V334">
         <v>1.975</v>
       </c>
-      <c r="V334">
-        <v>1.825</v>
-      </c>
       <c r="W334">
-        <v>1.625</v>
+        <v>0.2</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30719,13 +30719,13 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC334">
         <v>-1</v>
@@ -30736,7 +30736,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776619</v>
+        <v>7776770</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30748,76 +30748,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G335" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I335">
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K335">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M335">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N335">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="O335">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P335">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q335">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R335">
+        <v>1.8</v>
+      </c>
+      <c r="S335">
+        <v>2</v>
+      </c>
+      <c r="T335">
+        <v>3</v>
+      </c>
+      <c r="U335">
         <v>1.975</v>
       </c>
-      <c r="S335">
+      <c r="V335">
         <v>1.825</v>
       </c>
-      <c r="T335">
-        <v>2.25</v>
-      </c>
-      <c r="U335">
-        <v>1.875</v>
-      </c>
-      <c r="V335">
-        <v>1.925</v>
-      </c>
       <c r="W335">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X335">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA335">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -31804,7 +31804,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31816,76 +31816,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G347" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K347">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M347">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N347">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O347">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q347">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31893,7 +31893,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31905,76 +31905,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G348" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K348">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L348">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M348">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N348">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O348">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P348">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R348">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S348">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V348">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X348">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA348">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32249,7 +32249,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -32261,76 +32261,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F352" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="H352">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J352" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K352">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="L352">
         <v>4</v>
       </c>
       <c r="M352">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N352">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="O352">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P352">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q352">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T352">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U352">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z352">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB352">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32338,7 +32338,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -32350,76 +32350,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F353" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G353" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J353" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K353">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="L353">
         <v>4</v>
       </c>
       <c r="M353">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="N353">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="O353">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P353">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="Q353">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R353">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S353">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T353">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA353">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -38657,7 +38657,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38669,76 +38669,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>3</v>
+      </c>
+      <c r="J424" t="s">
+        <v>208</v>
+      </c>
+      <c r="K424">
+        <v>1.5</v>
+      </c>
+      <c r="L424">
+        <v>4</v>
+      </c>
+      <c r="M424">
+        <v>5</v>
+      </c>
+      <c r="N424">
+        <v>1.5</v>
+      </c>
+      <c r="O424">
+        <v>3.8</v>
+      </c>
+      <c r="P424">
+        <v>5.25</v>
+      </c>
+      <c r="Q424">
+        <v>-1</v>
+      </c>
+      <c r="R424">
+        <v>1.8</v>
+      </c>
+      <c r="S424">
         <v>2</v>
       </c>
-      <c r="I424">
+      <c r="T424">
+        <v>2.75</v>
+      </c>
+      <c r="U424">
+        <v>2</v>
+      </c>
+      <c r="V424">
+        <v>1.8</v>
+      </c>
+      <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>-1</v>
+      </c>
+      <c r="Y424">
+        <v>4.25</v>
+      </c>
+      <c r="Z424">
+        <v>-1</v>
+      </c>
+      <c r="AA424">
         <v>1</v>
       </c>
-      <c r="J424" t="s">
-        <v>206</v>
-      </c>
-      <c r="K424">
-        <v>1.1</v>
-      </c>
-      <c r="L424">
-        <v>7.5</v>
-      </c>
-      <c r="M424">
-        <v>13</v>
-      </c>
-      <c r="N424">
-        <v>1.142</v>
-      </c>
-      <c r="O424">
-        <v>8</v>
-      </c>
-      <c r="P424">
-        <v>9</v>
-      </c>
-      <c r="Q424">
-        <v>-2.5</v>
-      </c>
-      <c r="R424">
-        <v>1.925</v>
-      </c>
-      <c r="S424">
-        <v>1.875</v>
-      </c>
-      <c r="T424">
-        <v>3.75</v>
-      </c>
-      <c r="U424">
-        <v>1.9</v>
-      </c>
-      <c r="V424">
-        <v>1.9</v>
-      </c>
-      <c r="W424">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
-      <c r="Z424">
-        <v>-1</v>
-      </c>
-      <c r="AA424">
-        <v>0.875</v>
-      </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC424">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38746,7 +38746,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38758,76 +38758,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F425" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G425" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K425">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M425">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N425">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O425">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P425">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="Q425">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R425">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S425">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T425">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U425">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V425">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
         <v>-1</v>
       </c>
       <c r="AA425">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -39369,7 +39369,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7936725</v>
+        <v>7930148</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -39381,58 +39381,58 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F432" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G432" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="H432">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J432" t="s">
         <v>206</v>
       </c>
       <c r="K432">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="L432">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M432">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N432">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="O432">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P432">
-        <v>19</v>
+        <v>1.909</v>
       </c>
       <c r="Q432">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R432">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S432">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T432">
         <v>3.25</v>
       </c>
       <c r="U432">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V432">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W432">
-        <v>0.111</v>
+        <v>1.9</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39441,13 +39441,13 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA432">
         <v>-1</v>
       </c>
       <c r="AB432">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC432">
         <v>-1</v>
@@ -39547,7 +39547,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7930148</v>
+        <v>7936725</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39559,58 +39559,58 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F434" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G434" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H434">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J434" t="s">
         <v>206</v>
       </c>
       <c r="K434">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="L434">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M434">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N434">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="O434">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P434">
-        <v>1.909</v>
+        <v>19</v>
       </c>
       <c r="Q434">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R434">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S434">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T434">
         <v>3.25</v>
       </c>
       <c r="U434">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V434">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W434">
-        <v>1.9</v>
+        <v>0.111</v>
       </c>
       <c r="X434">
         <v>-1</v>
@@ -39619,13 +39619,13 @@
         <v>-1</v>
       </c>
       <c r="Z434">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA434">
         <v>-1</v>
       </c>
       <c r="AB434">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC434">
         <v>-1</v>
@@ -41950,7 +41950,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>7993014</v>
+        <v>7993005</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41962,76 +41962,76 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F461" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G461" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I461">
         <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K461">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L461">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M461">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N461">
-        <v>1.333</v>
+        <v>1.05</v>
       </c>
       <c r="O461">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P461">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Q461">
-        <v>-1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R461">
+        <v>1.825</v>
+      </c>
+      <c r="S461">
+        <v>1.975</v>
+      </c>
+      <c r="T461">
+        <v>4.75</v>
+      </c>
+      <c r="U461">
+        <v>1.95</v>
+      </c>
+      <c r="V461">
         <v>1.85</v>
       </c>
-      <c r="S461">
-        <v>1.95</v>
-      </c>
-      <c r="T461">
-        <v>3.25</v>
-      </c>
-      <c r="U461">
-        <v>1.85</v>
-      </c>
-      <c r="V461">
-        <v>1.95</v>
-      </c>
       <c r="W461">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
         <v>-1</v>
       </c>
       <c r="AA461">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB461">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC461">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -42039,7 +42039,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7993005</v>
+        <v>7993014</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -42051,76 +42051,76 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G462" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="H462">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462">
         <v>2</v>
       </c>
       <c r="J462" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K462">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L462">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M462">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N462">
-        <v>1.05</v>
+        <v>1.333</v>
       </c>
       <c r="O462">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P462">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q462">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R462">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S462">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T462">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="U462">
+        <v>1.85</v>
+      </c>
+      <c r="V462">
         <v>1.95</v>
       </c>
-      <c r="V462">
-        <v>1.85</v>
-      </c>
       <c r="W462">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z462">
         <v>-1</v>
       </c>
       <c r="AA462">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB462">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC462">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="463" spans="1:29">

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -25485,7 +25485,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25497,73 +25497,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G276" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H276">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K276">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L276">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M276">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N276">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O276">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P276">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q276">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T276">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB276">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25663,7 +25663,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25675,73 +25675,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F278" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G278" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K278">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L278">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M278">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N278">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O278">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P278">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q278">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S278">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T278">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA278">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -27176,7 +27176,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7571981</v>
+        <v>7568070</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -27188,40 +27188,40 @@
         <v>45269.75</v>
       </c>
       <c r="F295" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="G295" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295" t="s">
+        <v>207</v>
+      </c>
+      <c r="K295">
+        <v>5</v>
+      </c>
+      <c r="L295">
         <v>4</v>
       </c>
-      <c r="I295">
-        <v>0</v>
-      </c>
-      <c r="J295" t="s">
-        <v>206</v>
-      </c>
-      <c r="K295">
-        <v>1.062</v>
-      </c>
-      <c r="L295">
-        <v>11</v>
-      </c>
       <c r="M295">
-        <v>20</v>
+        <v>1.533</v>
       </c>
       <c r="N295">
-        <v>1.071</v>
+        <v>6.5</v>
       </c>
       <c r="O295">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P295">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="Q295">
-        <v>-3.25</v>
+        <v>1.5</v>
       </c>
       <c r="R295">
         <v>1.9</v>
@@ -27230,19 +27230,19 @@
         <v>1.9</v>
       </c>
       <c r="T295">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y295">
         <v>-1</v>
@@ -27254,10 +27254,10 @@
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC295">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27265,7 +27265,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7568070</v>
+        <v>7571981</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -27277,40 +27277,40 @@
         <v>45269.75</v>
       </c>
       <c r="F296" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G296" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K296">
-        <v>5</v>
+        <v>1.062</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M296">
-        <v>1.533</v>
+        <v>20</v>
       </c>
       <c r="N296">
-        <v>6.5</v>
+        <v>1.071</v>
       </c>
       <c r="O296">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P296">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="Q296">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="R296">
         <v>1.9</v>
@@ -27319,19 +27319,19 @@
         <v>1.9</v>
       </c>
       <c r="T296">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U296">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X296">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
@@ -27343,10 +27343,10 @@
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27354,7 +27354,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27366,40 +27366,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G297" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="H297">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K297">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L297">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M297">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N297">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O297">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q297">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R297">
         <v>1.9</v>
@@ -27408,34 +27408,34 @@
         <v>1.9</v>
       </c>
       <c r="T297">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z297">
+        <v>-1</v>
+      </c>
+      <c r="AA297">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA297">
-        <v>-1</v>
-      </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27443,7 +27443,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27455,40 +27455,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G298" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I298">
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K298">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M298">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N298">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O298">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P298">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R298">
         <v>1.9</v>
@@ -27497,34 +27497,34 @@
         <v>1.9</v>
       </c>
       <c r="T298">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U298">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V298">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA298">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC298">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28778,7 +28778,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7744419</v>
+        <v>7744418</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28790,76 +28790,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F313" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G313" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>3</v>
-      </c>
       <c r="J313" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K313">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M313">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N313">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P313">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q313">
+        <v>-1.5</v>
+      </c>
+      <c r="R313">
+        <v>1.875</v>
+      </c>
+      <c r="S313">
+        <v>1.925</v>
+      </c>
+      <c r="T313">
+        <v>2.75</v>
+      </c>
+      <c r="U313">
+        <v>1.9</v>
+      </c>
+      <c r="V313">
+        <v>1.9</v>
+      </c>
+      <c r="W313">
+        <v>0.3</v>
+      </c>
+      <c r="X313">
+        <v>-1</v>
+      </c>
+      <c r="Y313">
+        <v>-1</v>
+      </c>
+      <c r="Z313">
+        <v>-1</v>
+      </c>
+      <c r="AA313">
+        <v>0.925</v>
+      </c>
+      <c r="AB313">
+        <v>0.45</v>
+      </c>
+      <c r="AC313">
         <v>-0.5</v>
-      </c>
-      <c r="R313">
-        <v>1.925</v>
-      </c>
-      <c r="S313">
-        <v>1.875</v>
-      </c>
-      <c r="T313">
-        <v>3.25</v>
-      </c>
-      <c r="U313">
-        <v>1.775</v>
-      </c>
-      <c r="V313">
-        <v>1.925</v>
-      </c>
-      <c r="W313">
-        <v>-1</v>
-      </c>
-      <c r="X313">
-        <v>-1</v>
-      </c>
-      <c r="Y313">
-        <v>2</v>
-      </c>
-      <c r="Z313">
-        <v>-1</v>
-      </c>
-      <c r="AA313">
-        <v>0.875</v>
-      </c>
-      <c r="AB313">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC313">
-        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28867,7 +28867,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7744418</v>
+        <v>7744419</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28879,76 +28879,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F314" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G314" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>3</v>
+      </c>
+      <c r="J314" t="s">
+        <v>208</v>
+      </c>
+      <c r="K314">
+        <v>2.1</v>
+      </c>
+      <c r="L314">
+        <v>4</v>
+      </c>
+      <c r="M314">
+        <v>2.6</v>
+      </c>
+      <c r="N314">
+        <v>1.85</v>
+      </c>
+      <c r="O314">
+        <v>4</v>
+      </c>
+      <c r="P314">
+        <v>3</v>
+      </c>
+      <c r="Q314">
+        <v>-0.5</v>
+      </c>
+      <c r="R314">
+        <v>1.925</v>
+      </c>
+      <c r="S314">
+        <v>1.875</v>
+      </c>
+      <c r="T314">
+        <v>3.25</v>
+      </c>
+      <c r="U314">
+        <v>1.775</v>
+      </c>
+      <c r="V314">
+        <v>1.925</v>
+      </c>
+      <c r="W314">
+        <v>-1</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
         <v>2</v>
       </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
-      <c r="J314" t="s">
-        <v>206</v>
-      </c>
-      <c r="K314">
-        <v>1.3</v>
-      </c>
-      <c r="L314">
-        <v>4.75</v>
-      </c>
-      <c r="M314">
-        <v>7.5</v>
-      </c>
-      <c r="N314">
-        <v>1.3</v>
-      </c>
-      <c r="O314">
-        <v>5</v>
-      </c>
-      <c r="P314">
-        <v>7</v>
-      </c>
-      <c r="Q314">
-        <v>-1.5</v>
-      </c>
-      <c r="R314">
-        <v>1.875</v>
-      </c>
-      <c r="S314">
-        <v>1.925</v>
-      </c>
-      <c r="T314">
-        <v>2.75</v>
-      </c>
-      <c r="U314">
-        <v>1.9</v>
-      </c>
-      <c r="V314">
-        <v>1.9</v>
-      </c>
-      <c r="W314">
-        <v>0.3</v>
-      </c>
-      <c r="X314">
-        <v>-1</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB314">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC314">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -30291,7 +30291,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -30303,34 +30303,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F330" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G330" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="H330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>206</v>
       </c>
       <c r="K330">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L330">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M330">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O330">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P330">
         <v>1.5</v>
@@ -30339,22 +30339,22 @@
         <v>1</v>
       </c>
       <c r="R330">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S330">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T330">
         <v>3</v>
       </c>
       <c r="U330">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -30363,16 +30363,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30380,7 +30380,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -30392,34 +30392,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F331" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G331" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="H331">
+        <v>3</v>
+      </c>
+      <c r="I331">
         <v>1</v>
-      </c>
-      <c r="I331">
-        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>206</v>
       </c>
       <c r="K331">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="L331">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M331">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N331">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O331">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P331">
         <v>1.5</v>
@@ -30428,22 +30428,22 @@
         <v>1</v>
       </c>
       <c r="R331">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T331">
         <v>3</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W331">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -30452,16 +30452,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30558,7 +30558,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776619</v>
+        <v>7776618</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30570,76 +30570,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G333" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K333">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M333">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N333">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="O333">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P333">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R333">
+        <v>1.95</v>
+      </c>
+      <c r="S333">
+        <v>1.85</v>
+      </c>
+      <c r="T333">
+        <v>3</v>
+      </c>
+      <c r="U333">
+        <v>1.825</v>
+      </c>
+      <c r="V333">
         <v>1.975</v>
       </c>
-      <c r="S333">
-        <v>1.825</v>
-      </c>
-      <c r="T333">
-        <v>2.25</v>
-      </c>
-      <c r="U333">
-        <v>1.875</v>
-      </c>
-      <c r="V333">
-        <v>1.925</v>
-      </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X333">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA333">
+        <v>-1</v>
+      </c>
+      <c r="AB333">
         <v>0.825</v>
       </c>
-      <c r="AB333">
-        <v>-0.5</v>
-      </c>
       <c r="AC333">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30647,7 +30647,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30659,58 +30659,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H334">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
         <v>206</v>
       </c>
       <c r="K334">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="L334">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M334">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N334">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="O334">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P334">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="Q334">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R334">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S334">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T334">
         <v>3</v>
       </c>
       <c r="U334">
+        <v>1.975</v>
+      </c>
+      <c r="V334">
         <v>1.825</v>
       </c>
-      <c r="V334">
-        <v>1.975</v>
-      </c>
       <c r="W334">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="X334">
         <v>-1</v>
@@ -30719,13 +30719,13 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC334">
         <v>-1</v>
@@ -30736,7 +30736,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776770</v>
+        <v>7776619</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30748,76 +30748,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G335" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I335">
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K335">
+        <v>1.5</v>
+      </c>
+      <c r="L335">
+        <v>4</v>
+      </c>
+      <c r="M335">
+        <v>5</v>
+      </c>
+      <c r="N335">
+        <v>1.533</v>
+      </c>
+      <c r="O335">
+        <v>3.6</v>
+      </c>
+      <c r="P335">
+        <v>5.25</v>
+      </c>
+      <c r="Q335">
+        <v>-1</v>
+      </c>
+      <c r="R335">
+        <v>1.975</v>
+      </c>
+      <c r="S335">
+        <v>1.825</v>
+      </c>
+      <c r="T335">
+        <v>2.25</v>
+      </c>
+      <c r="U335">
+        <v>1.875</v>
+      </c>
+      <c r="V335">
+        <v>1.925</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
         <v>2.6</v>
       </c>
-      <c r="L335">
-        <v>3.75</v>
-      </c>
-      <c r="M335">
-        <v>2.2</v>
-      </c>
-      <c r="N335">
-        <v>2.625</v>
-      </c>
-      <c r="O335">
-        <v>3.75</v>
-      </c>
-      <c r="P335">
-        <v>2.2</v>
-      </c>
-      <c r="Q335">
-        <v>0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.8</v>
-      </c>
-      <c r="S335">
-        <v>2</v>
-      </c>
-      <c r="T335">
-        <v>3</v>
-      </c>
-      <c r="U335">
-        <v>1.975</v>
-      </c>
-      <c r="V335">
-        <v>1.825</v>
-      </c>
-      <c r="W335">
-        <v>1.625</v>
-      </c>
-      <c r="X335">
-        <v>-1</v>
-      </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB335">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -31537,7 +31537,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7781782</v>
+        <v>7781781</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31549,76 +31549,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F344" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G344" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="H344">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344">
         <v>2</v>
       </c>
       <c r="J344" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K344">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="L344">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M344">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N344">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="O344">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P344">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q344">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R344">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T344">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U344">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W344">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z344">
         <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB344">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31626,7 +31626,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7781781</v>
+        <v>7781782</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31638,76 +31638,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I345">
         <v>2</v>
       </c>
       <c r="J345" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K345">
+        <v>1.333</v>
+      </c>
+      <c r="L345">
         <v>4.5</v>
       </c>
-      <c r="L345">
-        <v>3.6</v>
-      </c>
       <c r="M345">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N345">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="O345">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P345">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q345">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R345">
+        <v>1.9</v>
+      </c>
+      <c r="S345">
+        <v>1.9</v>
+      </c>
+      <c r="T345">
+        <v>3</v>
+      </c>
+      <c r="U345">
+        <v>1.825</v>
+      </c>
+      <c r="V345">
         <v>1.975</v>
       </c>
-      <c r="S345">
-        <v>1.825</v>
-      </c>
-      <c r="T345">
-        <v>2.75</v>
-      </c>
-      <c r="U345">
-        <v>1.95</v>
-      </c>
-      <c r="V345">
-        <v>1.85</v>
-      </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
         <v>-1</v>
       </c>
       <c r="AA345">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB345">
         <v>0.825</v>
       </c>
-      <c r="AB345">
-        <v>-1</v>
-      </c>
       <c r="AC345">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31804,7 +31804,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31816,76 +31816,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G347" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P347">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X347">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA347">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31893,7 +31893,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31905,76 +31905,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G348" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M348">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O348">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P348">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q348">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W348">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32249,7 +32249,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -32261,76 +32261,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F352" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G352" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K352">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="L352">
         <v>4</v>
       </c>
       <c r="M352">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="N352">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="O352">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P352">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="Q352">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R352">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S352">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32338,7 +32338,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -32350,76 +32350,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F353" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G353" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="H353">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J353" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K353">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="L353">
         <v>4</v>
       </c>
       <c r="M353">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N353">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="O353">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P353">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q353">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T353">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U353">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB353">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -38657,7 +38657,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38669,76 +38669,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K424">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L424">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M424">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N424">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O424">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P424">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="Q424">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S424">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V424">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38746,7 +38746,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38758,76 +38758,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F425" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G425" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>3</v>
+      </c>
+      <c r="J425" t="s">
+        <v>208</v>
+      </c>
+      <c r="K425">
+        <v>1.5</v>
+      </c>
+      <c r="L425">
+        <v>4</v>
+      </c>
+      <c r="M425">
+        <v>5</v>
+      </c>
+      <c r="N425">
+        <v>1.5</v>
+      </c>
+      <c r="O425">
+        <v>3.8</v>
+      </c>
+      <c r="P425">
+        <v>5.25</v>
+      </c>
+      <c r="Q425">
+        <v>-1</v>
+      </c>
+      <c r="R425">
+        <v>1.8</v>
+      </c>
+      <c r="S425">
         <v>2</v>
       </c>
-      <c r="I425">
+      <c r="T425">
+        <v>2.75</v>
+      </c>
+      <c r="U425">
+        <v>2</v>
+      </c>
+      <c r="V425">
+        <v>1.8</v>
+      </c>
+      <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
+        <v>4.25</v>
+      </c>
+      <c r="Z425">
+        <v>-1</v>
+      </c>
+      <c r="AA425">
         <v>1</v>
       </c>
-      <c r="J425" t="s">
-        <v>206</v>
-      </c>
-      <c r="K425">
-        <v>1.1</v>
-      </c>
-      <c r="L425">
-        <v>7.5</v>
-      </c>
-      <c r="M425">
-        <v>13</v>
-      </c>
-      <c r="N425">
-        <v>1.142</v>
-      </c>
-      <c r="O425">
-        <v>8</v>
-      </c>
-      <c r="P425">
-        <v>9</v>
-      </c>
-      <c r="Q425">
-        <v>-2.5</v>
-      </c>
-      <c r="R425">
-        <v>1.925</v>
-      </c>
-      <c r="S425">
-        <v>1.875</v>
-      </c>
-      <c r="T425">
-        <v>3.75</v>
-      </c>
-      <c r="U425">
-        <v>1.9</v>
-      </c>
-      <c r="V425">
-        <v>1.9</v>
-      </c>
-      <c r="W425">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
-      <c r="Z425">
-        <v>-1</v>
-      </c>
-      <c r="AA425">
-        <v>0.875</v>
-      </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC425">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -39369,7 +39369,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7930148</v>
+        <v>7936725</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -39381,58 +39381,58 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F432" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G432" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J432" t="s">
         <v>206</v>
       </c>
       <c r="K432">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M432">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N432">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="O432">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P432">
-        <v>1.909</v>
+        <v>19</v>
       </c>
       <c r="Q432">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R432">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T432">
         <v>3.25</v>
       </c>
       <c r="U432">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V432">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W432">
-        <v>1.9</v>
+        <v>0.111</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39441,13 +39441,13 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA432">
         <v>-1</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC432">
         <v>-1</v>
@@ -39547,7 +39547,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7936725</v>
+        <v>7930148</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39559,58 +39559,58 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F434" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G434" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="H434">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J434" t="s">
         <v>206</v>
       </c>
       <c r="K434">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="L434">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M434">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N434">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="O434">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P434">
-        <v>19</v>
+        <v>1.909</v>
       </c>
       <c r="Q434">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R434">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S434">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T434">
         <v>3.25</v>
       </c>
       <c r="U434">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V434">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W434">
-        <v>0.111</v>
+        <v>1.9</v>
       </c>
       <c r="X434">
         <v>-1</v>
@@ -39619,13 +39619,13 @@
         <v>-1</v>
       </c>
       <c r="Z434">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA434">
         <v>-1</v>
       </c>
       <c r="AB434">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC434">
         <v>-1</v>
@@ -41950,7 +41950,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>7993005</v>
+        <v>7993014</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41962,76 +41962,76 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F461" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G461" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="H461">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461">
         <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K461">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L461">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M461">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N461">
-        <v>1.05</v>
+        <v>1.333</v>
       </c>
       <c r="O461">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P461">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q461">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R461">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S461">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T461">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="U461">
+        <v>1.85</v>
+      </c>
+      <c r="V461">
         <v>1.95</v>
       </c>
-      <c r="V461">
-        <v>1.85</v>
-      </c>
       <c r="W461">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z461">
         <v>-1</v>
       </c>
       <c r="AA461">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB461">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC461">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -42039,7 +42039,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7993014</v>
+        <v>7993005</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -42051,76 +42051,76 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G462" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I462">
         <v>2</v>
       </c>
       <c r="J462" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K462">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L462">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M462">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N462">
-        <v>1.333</v>
+        <v>1.05</v>
       </c>
       <c r="O462">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P462">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Q462">
-        <v>-1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R462">
+        <v>1.825</v>
+      </c>
+      <c r="S462">
+        <v>1.975</v>
+      </c>
+      <c r="T462">
+        <v>4.75</v>
+      </c>
+      <c r="U462">
+        <v>1.95</v>
+      </c>
+      <c r="V462">
         <v>1.85</v>
       </c>
-      <c r="S462">
-        <v>1.95</v>
-      </c>
-      <c r="T462">
-        <v>3.25</v>
-      </c>
-      <c r="U462">
-        <v>1.85</v>
-      </c>
-      <c r="V462">
-        <v>1.95</v>
-      </c>
       <c r="W462">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z462">
         <v>-1</v>
       </c>
       <c r="AA462">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB462">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC462">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="463" spans="1:29">

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="209">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Mons Calpe SC Yucatan</t>
   </si>
   <si>
-    <t>Chetumal</t>
+    <t>Guerreros DD</t>
   </si>
   <si>
-    <t>Guerreros DD</t>
+    <t>Chetumal</t>
   </si>
   <si>
     <t>Coras Tepic II</t>
@@ -328,10 +328,10 @@
     <t>Titanes de Queretaro</t>
   </si>
   <si>
-    <t>Delfines UGM</t>
+    <t>Club Deportivo guila Azteca</t>
   </si>
   <si>
-    <t>Club Deportivo guila Azteca</t>
+    <t>Delfines UGM</t>
   </si>
   <si>
     <t>Mineros Queretaro</t>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC498"/>
+  <dimension ref="A1:AC500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7219268</v>
+        <v>7219332</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2538,25 +2538,25 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
         <v>2.2</v>
@@ -2565,46 +2565,46 @@
         <v>3.2</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.4</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2612,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7219332</v>
+        <v>7219268</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2627,25 +2627,25 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>2.2</v>
@@ -2654,46 +2654,46 @@
         <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -4837,7 +4837,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7273610</v>
+        <v>7275940</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4849,40 +4849,40 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L44">
         <v>4</v>
       </c>
       <c r="M44">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q44">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
         <v>1.8</v>
@@ -4891,34 +4891,34 @@
         <v>2</v>
       </c>
       <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.875</v>
+      </c>
+      <c r="V44">
+        <v>1.925</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>3</v>
       </c>
-      <c r="U44">
-        <v>1.75</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
       <c r="Y44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4926,7 +4926,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7275940</v>
+        <v>7273610</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4938,40 +4938,40 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K45">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R45">
         <v>1.8</v>
@@ -4980,34 +4980,34 @@
         <v>2</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5828,7 +5828,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>156</v>
@@ -6454,7 +6454,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6528,7 +6528,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7301074</v>
+        <v>7301882</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6540,76 +6540,76 @@
         <v>45205.75</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N63">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6617,7 +6617,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7301882</v>
+        <v>7301074</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6629,76 +6629,76 @@
         <v>45205.75</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>6</v>
-      </c>
       <c r="J64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K64">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N64">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O64">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1.9</v>
+      </c>
+      <c r="S64">
+        <v>1.9</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.8</v>
+      </c>
+      <c r="W64">
         <v>1.5</v>
       </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>3</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7077,7 +7077,7 @@
         <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
         <v>126</v>
@@ -8501,7 +8501,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -10711,7 +10711,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7369117</v>
+        <v>7369105</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10723,76 +10723,76 @@
         <v>45220.75</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>2</v>
       </c>
-      <c r="I110">
+      <c r="J110" t="s">
+        <v>208</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>1.533</v>
+      </c>
+      <c r="N110">
+        <v>7.5</v>
+      </c>
+      <c r="O110">
+        <v>4.5</v>
+      </c>
+      <c r="P110">
+        <v>1.363</v>
+      </c>
+      <c r="Q110">
+        <v>1.5</v>
+      </c>
+      <c r="R110">
+        <v>1.75</v>
+      </c>
+      <c r="S110">
+        <v>1.95</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.8</v>
+      </c>
+      <c r="V110">
+        <v>2</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>0.363</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.95</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>1</v>
-      </c>
-      <c r="J110" t="s">
-        <v>206</v>
-      </c>
-      <c r="K110">
-        <v>1.615</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>5</v>
-      </c>
-      <c r="N110">
-        <v>1.615</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>5</v>
-      </c>
-      <c r="Q110">
-        <v>-0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.8</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
-      <c r="W110">
-        <v>0.615</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.4</v>
-      </c>
-      <c r="AA110">
-        <v>-0.5</v>
-      </c>
-      <c r="AB110">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10800,7 +10800,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7369154</v>
+        <v>7369117</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10812,58 +10812,58 @@
         <v>45220.75</v>
       </c>
       <c r="F111" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>206</v>
       </c>
       <c r="K111">
+        <v>1.615</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>1.615</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
+        <v>5</v>
+      </c>
+      <c r="Q111">
+        <v>-0.75</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
         <v>2</v>
       </c>
-      <c r="L111">
-        <v>3.5</v>
-      </c>
-      <c r="M111">
-        <v>3.1</v>
-      </c>
-      <c r="N111">
-        <v>2.2</v>
-      </c>
-      <c r="O111">
-        <v>3.5</v>
-      </c>
-      <c r="P111">
-        <v>2.75</v>
-      </c>
-      <c r="Q111">
-        <v>-0.25</v>
-      </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10872,16 +10872,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10889,7 +10889,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7369105</v>
+        <v>7369154</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10901,49 +10901,49 @@
         <v>45220.75</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="J112" t="s">
+        <v>206</v>
+      </c>
+      <c r="K112">
         <v>2</v>
       </c>
-      <c r="J112" t="s">
-        <v>208</v>
-      </c>
-      <c r="K112">
-        <v>5</v>
-      </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N112">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10952,19 +10952,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -12046,7 +12046,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7394137</v>
+        <v>7394136</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -12058,13 +12058,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -12073,43 +12073,43 @@
         <v>206</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N125">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -12118,16 +12118,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12135,7 +12135,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7394136</v>
+        <v>7394137</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12147,13 +12147,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -12162,43 +12162,43 @@
         <v>206</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -12207,16 +12207,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12506,7 +12506,7 @@
         <v>92</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12595,7 +12595,7 @@
         <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -14906,7 +14906,7 @@
         <v>45234.75</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
         <v>69</v>
@@ -14983,7 +14983,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14995,76 +14995,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>207</v>
+      </c>
+      <c r="K158">
+        <v>2.2</v>
+      </c>
+      <c r="L158">
+        <v>3.4</v>
+      </c>
+      <c r="M158">
+        <v>2.75</v>
+      </c>
+      <c r="N158">
+        <v>2.2</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>2.75</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
         <v>2</v>
       </c>
-      <c r="J158" t="s">
-        <v>208</v>
-      </c>
-      <c r="K158">
-        <v>2.375</v>
-      </c>
-      <c r="L158">
-        <v>3.75</v>
-      </c>
-      <c r="M158">
-        <v>2.375</v>
-      </c>
-      <c r="N158">
-        <v>2.375</v>
-      </c>
-      <c r="O158">
-        <v>3.75</v>
-      </c>
-      <c r="P158">
-        <v>2.375</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15072,7 +15072,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15084,76 +15084,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K159">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P159">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15873,7 +15873,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7447277</v>
+        <v>7448959</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15885,76 +15885,76 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G168" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K168">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
         <v>4</v>
       </c>
-      <c r="M168">
-        <v>7</v>
-      </c>
       <c r="N168">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O168">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16051,7 +16051,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7448959</v>
+        <v>7447277</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16063,76 +16063,76 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
         <v>0</v>
       </c>
-      <c r="I170">
-        <v>2</v>
-      </c>
       <c r="J170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N170">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16407,7 +16407,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7450086</v>
+        <v>7448459</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16422,55 +16422,55 @@
         <v>104</v>
       </c>
       <c r="G174" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>206</v>
       </c>
       <c r="K174">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N174">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
         <v>1.9</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>1.9</v>
       </c>
-      <c r="T174">
-        <v>3.75</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>1.975</v>
-      </c>
       <c r="W174">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16479,16 +16479,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>0.875</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16496,7 +16496,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7448459</v>
+        <v>7450086</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16511,55 +16511,55 @@
         <v>105</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>206</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L175">
+        <v>5.75</v>
+      </c>
+      <c r="M175">
+        <v>7</v>
+      </c>
+      <c r="N175">
+        <v>1.142</v>
+      </c>
+      <c r="O175">
+        <v>7.5</v>
+      </c>
+      <c r="P175">
+        <v>13</v>
+      </c>
+      <c r="Q175">
+        <v>-2.5</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
         <v>3.75</v>
       </c>
-      <c r="M175">
-        <v>3.75</v>
-      </c>
-      <c r="N175">
-        <v>1.666</v>
-      </c>
-      <c r="O175">
-        <v>3.8</v>
-      </c>
-      <c r="P175">
-        <v>4</v>
-      </c>
-      <c r="Q175">
-        <v>-0.75</v>
-      </c>
-      <c r="R175">
-        <v>1.875</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>3</v>
-      </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16568,16 +16568,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18543,7 +18543,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7462376</v>
+        <v>7457559</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18555,76 +18555,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>207</v>
+      </c>
+      <c r="K198">
+        <v>3.25</v>
+      </c>
+      <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
+        <v>1.909</v>
+      </c>
+      <c r="N198">
+        <v>2.3</v>
+      </c>
+      <c r="O198">
+        <v>3.4</v>
+      </c>
+      <c r="P198">
+        <v>2.6</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
+        <v>1.975</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
         <v>2</v>
       </c>
-      <c r="I198">
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>2.4</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
         <v>0</v>
       </c>
-      <c r="J198" t="s">
-        <v>206</v>
-      </c>
-      <c r="K198">
-        <v>1.333</v>
-      </c>
-      <c r="L198">
-        <v>4.75</v>
-      </c>
-      <c r="M198">
-        <v>6.5</v>
-      </c>
-      <c r="N198">
-        <v>1.333</v>
-      </c>
-      <c r="O198">
-        <v>4.5</v>
-      </c>
-      <c r="P198">
-        <v>7</v>
-      </c>
-      <c r="Q198">
-        <v>-1.5</v>
-      </c>
-      <c r="R198">
-        <v>1.9</v>
-      </c>
-      <c r="S198">
-        <v>1.9</v>
-      </c>
-      <c r="T198">
-        <v>3</v>
-      </c>
-      <c r="U198">
-        <v>1.775</v>
-      </c>
-      <c r="V198">
-        <v>2.025</v>
-      </c>
-      <c r="W198">
-        <v>0.333</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>-1</v>
-      </c>
-      <c r="Z198">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18632,7 +18632,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7457559</v>
+        <v>7462376</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18644,76 +18644,76 @@
         <v>45241.79166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G199" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K199">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M199">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N199">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18810,7 +18810,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7457558</v>
+        <v>7462454</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18822,40 +18822,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K201">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N201">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R201">
         <v>2</v>
@@ -18867,31 +18867,31 @@
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18899,7 +18899,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7462454</v>
+        <v>7457558</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18911,40 +18911,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G202" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K202">
+        <v>1.909</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>3.4</v>
+      </c>
+      <c r="N202">
+        <v>1.571</v>
+      </c>
+      <c r="O202">
+        <v>3.8</v>
+      </c>
+      <c r="P202">
         <v>4.75</v>
       </c>
-      <c r="L202">
-        <v>4.2</v>
-      </c>
-      <c r="M202">
-        <v>1.5</v>
-      </c>
-      <c r="N202">
-        <v>5</v>
-      </c>
-      <c r="O202">
-        <v>4.2</v>
-      </c>
-      <c r="P202">
-        <v>1.5</v>
-      </c>
       <c r="Q202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18956,31 +18956,31 @@
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X202">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -21035,7 +21035,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -21047,55 +21047,55 @@
         <v>45248.75</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="G226" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>208</v>
       </c>
       <c r="K226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -21104,19 +21104,19 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21124,7 +21124,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -21136,55 +21136,55 @@
         <v>45248.75</v>
       </c>
       <c r="F227" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>208</v>
       </c>
       <c r="K227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -21193,19 +21193,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21225,7 +21225,7 @@
         <v>45248.75972222222</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
         <v>128</v>
@@ -21302,7 +21302,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491752</v>
+        <v>7491749</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21314,76 +21314,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G229" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>207</v>
+      </c>
+      <c r="K229">
+        <v>2.5</v>
+      </c>
+      <c r="L229">
+        <v>3.2</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
+        <v>2.75</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
+        <v>2.15</v>
+      </c>
+      <c r="Q229">
+        <v>0.25</v>
+      </c>
+      <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
         <v>2</v>
       </c>
-      <c r="I229">
-        <v>5</v>
-      </c>
-      <c r="J229" t="s">
-        <v>208</v>
-      </c>
-      <c r="K229">
-        <v>3.5</v>
-      </c>
-      <c r="L229">
-        <v>3.75</v>
-      </c>
-      <c r="M229">
+      <c r="V229">
         <v>1.8</v>
       </c>
-      <c r="N229">
-        <v>3.5</v>
-      </c>
-      <c r="O229">
-        <v>3.75</v>
-      </c>
-      <c r="P229">
-        <v>1.8</v>
-      </c>
-      <c r="Q229">
-        <v>0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.95</v>
-      </c>
-      <c r="S229">
-        <v>1.85</v>
-      </c>
-      <c r="T229">
-        <v>3.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.825</v>
-      </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.4125</v>
+      </c>
+      <c r="AA229">
+        <v>-0.5</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
         <v>0.8</v>
-      </c>
-      <c r="Z229">
-        <v>-1</v>
-      </c>
-      <c r="AA229">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB229">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21391,7 +21391,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7491749</v>
+        <v>7491752</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21403,76 +21403,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K230">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M230">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N230">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O230">
+        <v>3.75</v>
+      </c>
+      <c r="P230">
+        <v>1.8</v>
+      </c>
+      <c r="Q230">
+        <v>0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.95</v>
+      </c>
+      <c r="S230">
+        <v>1.85</v>
+      </c>
+      <c r="T230">
         <v>3.5</v>
       </c>
-      <c r="P230">
-        <v>2.15</v>
-      </c>
-      <c r="Q230">
-        <v>0.25</v>
-      </c>
-      <c r="R230">
+      <c r="U230">
+        <v>1.975</v>
+      </c>
+      <c r="V230">
         <v>1.825</v>
       </c>
-      <c r="S230">
-        <v>1.975</v>
-      </c>
-      <c r="T230">
-        <v>2.75</v>
-      </c>
-      <c r="U230">
-        <v>2</v>
-      </c>
-      <c r="V230">
-        <v>1.8</v>
-      </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z230">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -23542,7 +23542,7 @@
         <v>115</v>
       </c>
       <c r="G254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H254">
         <v>4</v>
@@ -23628,7 +23628,7 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G255" t="s">
         <v>153</v>
@@ -24773,7 +24773,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24785,76 +24785,76 @@
         <v>45261.75</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G268" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>207</v>
       </c>
       <c r="K268">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L268">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N268">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O268">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P268">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q268">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
+        <v>2</v>
+      </c>
+      <c r="S268">
+        <v>1.8</v>
+      </c>
+      <c r="T268">
+        <v>3</v>
+      </c>
+      <c r="U268">
+        <v>1.95</v>
+      </c>
+      <c r="V268">
         <v>1.85</v>
       </c>
-      <c r="S268">
-        <v>1.95</v>
-      </c>
-      <c r="T268">
-        <v>2.75</v>
-      </c>
-      <c r="U268">
-        <v>1.8</v>
-      </c>
-      <c r="V268">
-        <v>2</v>
-      </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA268">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24862,7 +24862,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24874,76 +24874,76 @@
         <v>45261.75</v>
       </c>
       <c r="F269" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
         <v>207</v>
       </c>
       <c r="K269">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L269">
+        <v>4.5</v>
+      </c>
+      <c r="M269">
+        <v>6</v>
+      </c>
+      <c r="N269">
+        <v>1.4</v>
+      </c>
+      <c r="O269">
+        <v>4.5</v>
+      </c>
+      <c r="P269">
+        <v>6</v>
+      </c>
+      <c r="Q269">
+        <v>-1.25</v>
+      </c>
+      <c r="R269">
+        <v>1.85</v>
+      </c>
+      <c r="S269">
+        <v>1.95</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
+        <v>1.8</v>
+      </c>
+      <c r="V269">
+        <v>2</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
         <v>3.5</v>
       </c>
-      <c r="M269">
-        <v>3.4</v>
-      </c>
-      <c r="N269">
-        <v>2.25</v>
-      </c>
-      <c r="O269">
-        <v>3.3</v>
-      </c>
-      <c r="P269">
-        <v>2.75</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>2</v>
-      </c>
-      <c r="S269">
-        <v>1.8</v>
-      </c>
-      <c r="T269">
-        <v>3</v>
-      </c>
-      <c r="U269">
-        <v>1.95</v>
-      </c>
-      <c r="V269">
-        <v>1.85</v>
-      </c>
-      <c r="W269">
-        <v>-1</v>
-      </c>
-      <c r="X269">
-        <v>2.3</v>
-      </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -27366,7 +27366,7 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G297" t="s">
         <v>58</v>
@@ -28333,7 +28333,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28345,13 +28345,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -28360,43 +28360,43 @@
         <v>206</v>
       </c>
       <c r="K308">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
         <v>4</v>
       </c>
-      <c r="M308">
-        <v>7</v>
-      </c>
       <c r="N308">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P308">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T308">
         <v>3.25</v>
       </c>
       <c r="U308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V308">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W308">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -28405,16 +28405,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28422,7 +28422,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28434,13 +28434,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -28449,43 +28449,43 @@
         <v>206</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N309">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P309">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S309">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T309">
         <v>3.25</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28494,16 +28494,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA309">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28778,7 +28778,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7744419</v>
+        <v>7744418</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28790,76 +28790,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F313" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G313" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>3</v>
-      </c>
       <c r="J313" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K313">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M313">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N313">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P313">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q313">
+        <v>-1.5</v>
+      </c>
+      <c r="R313">
+        <v>1.875</v>
+      </c>
+      <c r="S313">
+        <v>1.925</v>
+      </c>
+      <c r="T313">
+        <v>2.75</v>
+      </c>
+      <c r="U313">
+        <v>1.9</v>
+      </c>
+      <c r="V313">
+        <v>1.9</v>
+      </c>
+      <c r="W313">
+        <v>0.3</v>
+      </c>
+      <c r="X313">
+        <v>-1</v>
+      </c>
+      <c r="Y313">
+        <v>-1</v>
+      </c>
+      <c r="Z313">
+        <v>-1</v>
+      </c>
+      <c r="AA313">
+        <v>0.925</v>
+      </c>
+      <c r="AB313">
+        <v>0.45</v>
+      </c>
+      <c r="AC313">
         <v>-0.5</v>
-      </c>
-      <c r="R313">
-        <v>1.925</v>
-      </c>
-      <c r="S313">
-        <v>1.875</v>
-      </c>
-      <c r="T313">
-        <v>3.25</v>
-      </c>
-      <c r="U313">
-        <v>1.775</v>
-      </c>
-      <c r="V313">
-        <v>1.925</v>
-      </c>
-      <c r="W313">
-        <v>-1</v>
-      </c>
-      <c r="X313">
-        <v>-1</v>
-      </c>
-      <c r="Y313">
-        <v>2</v>
-      </c>
-      <c r="Z313">
-        <v>-1</v>
-      </c>
-      <c r="AA313">
-        <v>0.875</v>
-      </c>
-      <c r="AB313">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC313">
-        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28867,7 +28867,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7744418</v>
+        <v>7744419</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28879,76 +28879,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F314" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G314" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>3</v>
+      </c>
+      <c r="J314" t="s">
+        <v>208</v>
+      </c>
+      <c r="K314">
+        <v>2.1</v>
+      </c>
+      <c r="L314">
+        <v>4</v>
+      </c>
+      <c r="M314">
+        <v>2.6</v>
+      </c>
+      <c r="N314">
+        <v>1.85</v>
+      </c>
+      <c r="O314">
+        <v>4</v>
+      </c>
+      <c r="P314">
+        <v>3</v>
+      </c>
+      <c r="Q314">
+        <v>-0.5</v>
+      </c>
+      <c r="R314">
+        <v>1.925</v>
+      </c>
+      <c r="S314">
+        <v>1.875</v>
+      </c>
+      <c r="T314">
+        <v>3.25</v>
+      </c>
+      <c r="U314">
+        <v>1.775</v>
+      </c>
+      <c r="V314">
+        <v>1.925</v>
+      </c>
+      <c r="W314">
+        <v>-1</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
         <v>2</v>
       </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
-      <c r="J314" t="s">
-        <v>206</v>
-      </c>
-      <c r="K314">
-        <v>1.3</v>
-      </c>
-      <c r="L314">
-        <v>4.75</v>
-      </c>
-      <c r="M314">
-        <v>7.5</v>
-      </c>
-      <c r="N314">
-        <v>1.3</v>
-      </c>
-      <c r="O314">
-        <v>5</v>
-      </c>
-      <c r="P314">
-        <v>7</v>
-      </c>
-      <c r="Q314">
-        <v>-1.5</v>
-      </c>
-      <c r="R314">
-        <v>1.875</v>
-      </c>
-      <c r="S314">
-        <v>1.925</v>
-      </c>
-      <c r="T314">
-        <v>2.75</v>
-      </c>
-      <c r="U314">
-        <v>1.9</v>
-      </c>
-      <c r="V314">
-        <v>1.9</v>
-      </c>
-      <c r="W314">
-        <v>0.3</v>
-      </c>
-      <c r="X314">
-        <v>-1</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB314">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC314">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -29149,7 +29149,7 @@
         <v>98</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29312,7 +29312,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7749009</v>
+        <v>7749257</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -29324,40 +29324,40 @@
         <v>45318.75</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G319" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>206</v>
       </c>
       <c r="K319">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="L319">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="M319">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N319">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="O319">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P319">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q319">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R319">
         <v>1.8</v>
@@ -29366,16 +29366,16 @@
         <v>2</v>
       </c>
       <c r="T319">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
-        <v>0.181</v>
+        <v>3</v>
       </c>
       <c r="X319">
         <v>-1</v>
@@ -29384,16 +29384,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29401,7 +29401,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749257</v>
+        <v>7749009</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29413,40 +29413,40 @@
         <v>45318.75</v>
       </c>
       <c r="F320" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
         <v>1</v>
-      </c>
-      <c r="I320">
-        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>206</v>
       </c>
       <c r="K320">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="L320">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="M320">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N320">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="O320">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P320">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q320">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R320">
         <v>1.8</v>
@@ -29455,16 +29455,16 @@
         <v>2</v>
       </c>
       <c r="T320">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U320">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -29473,16 +29473,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -30113,7 +30113,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7754142</v>
+        <v>7754140</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -30125,58 +30125,58 @@
         <v>45319.79166666666</v>
       </c>
       <c r="F328" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H328">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>206</v>
       </c>
       <c r="K328">
-        <v>1.05</v>
+        <v>1.444</v>
       </c>
       <c r="L328">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="M328">
-        <v>21</v>
+        <v>5.25</v>
       </c>
       <c r="N328">
-        <v>1.071</v>
+        <v>1.444</v>
       </c>
       <c r="O328">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P328">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="Q328">
-        <v>-3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R328">
+        <v>1.925</v>
+      </c>
+      <c r="S328">
+        <v>1.875</v>
+      </c>
+      <c r="T328">
+        <v>3</v>
+      </c>
+      <c r="U328">
         <v>1.975</v>
       </c>
-      <c r="S328">
+      <c r="V328">
         <v>1.825</v>
       </c>
-      <c r="T328">
-        <v>4.25</v>
-      </c>
-      <c r="U328">
-        <v>1.95</v>
-      </c>
-      <c r="V328">
-        <v>1.85</v>
-      </c>
       <c r="W328">
-        <v>0.07099999999999995</v>
+        <v>0.444</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -30185,16 +30185,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -30202,7 +30202,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7754140</v>
+        <v>7754142</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -30214,58 +30214,58 @@
         <v>45319.79166666666</v>
       </c>
       <c r="F329" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="G329" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>206</v>
       </c>
       <c r="K329">
-        <v>1.444</v>
+        <v>1.05</v>
       </c>
       <c r="L329">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="M329">
-        <v>5.25</v>
+        <v>21</v>
       </c>
       <c r="N329">
-        <v>1.444</v>
+        <v>1.071</v>
       </c>
       <c r="O329">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P329">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="Q329">
-        <v>-1.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R329">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S329">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T329">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U329">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W329">
-        <v>0.444</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -30274,16 +30274,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30647,7 +30647,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776618</v>
+        <v>7776619</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30659,76 +30659,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G334" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334" t="s">
+        <v>207</v>
+      </c>
+      <c r="K334">
+        <v>1.5</v>
+      </c>
+      <c r="L334">
         <v>4</v>
       </c>
-      <c r="I334">
-        <v>0</v>
-      </c>
-      <c r="J334" t="s">
-        <v>206</v>
-      </c>
-      <c r="K334">
-        <v>1.2</v>
-      </c>
-      <c r="L334">
-        <v>6</v>
-      </c>
       <c r="M334">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N334">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="O334">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P334">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q334">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R334">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S334">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T334">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W334">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB334">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30736,7 +30736,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776619</v>
+        <v>7776618</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30748,76 +30748,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G335" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K335">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M335">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N335">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="O335">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P335">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q335">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R335">
+        <v>1.95</v>
+      </c>
+      <c r="S335">
+        <v>1.85</v>
+      </c>
+      <c r="T335">
+        <v>3</v>
+      </c>
+      <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
         <v>1.975</v>
       </c>
-      <c r="S335">
-        <v>1.825</v>
-      </c>
-      <c r="T335">
-        <v>2.25</v>
-      </c>
-      <c r="U335">
-        <v>1.875</v>
-      </c>
-      <c r="V335">
-        <v>1.925</v>
-      </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X335">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
+        <v>-1</v>
+      </c>
+      <c r="AB335">
         <v>0.825</v>
       </c>
-      <c r="AB335">
-        <v>-0.5</v>
-      </c>
       <c r="AC335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -31282,7 +31282,7 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G341" t="s">
         <v>75</v>
@@ -31804,7 +31804,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31816,76 +31816,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G347" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P347">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X347">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA347">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31893,7 +31893,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31905,76 +31905,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G348" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M348">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O348">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P348">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q348">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W348">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32709,7 +32709,7 @@
         <v>56</v>
       </c>
       <c r="G357" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -34667,7 +34667,7 @@
         <v>126</v>
       </c>
       <c r="G379" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -36177,7 +36177,7 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G396" t="s">
         <v>41</v>
@@ -37070,7 +37070,7 @@
         <v>124</v>
       </c>
       <c r="G406" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -37500,7 +37500,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7905018</v>
+        <v>7905046</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37512,10 +37512,10 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F411" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G411" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -37527,61 +37527,61 @@
         <v>207</v>
       </c>
       <c r="K411">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="L411">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M411">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="N411">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="O411">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P411">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q411">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R411">
+        <v>1.975</v>
+      </c>
+      <c r="S411">
         <v>1.825</v>
       </c>
-      <c r="S411">
-        <v>1.975</v>
-      </c>
       <c r="T411">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U411">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V411">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA411">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB411">
         <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37589,7 +37589,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7905046</v>
+        <v>7905018</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37601,10 +37601,10 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F412" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G412" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -37616,61 +37616,61 @@
         <v>207</v>
       </c>
       <c r="K412">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L412">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M412">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="O412">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P412">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q412">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R412">
+        <v>1.825</v>
+      </c>
+      <c r="S412">
         <v>1.975</v>
       </c>
-      <c r="S412">
-        <v>1.825</v>
-      </c>
       <c r="T412">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U412">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V412">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
+        <v>-1</v>
+      </c>
+      <c r="AA412">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA412">
-        <v>-1</v>
-      </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -39369,7 +39369,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7936703</v>
+        <v>7930148</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -39381,59 +39381,59 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F432" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G432" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="H432">
+        <v>3</v>
+      </c>
+      <c r="I432">
         <v>2</v>
-      </c>
-      <c r="I432">
-        <v>0</v>
       </c>
       <c r="J432" t="s">
         <v>206</v>
       </c>
       <c r="K432">
-        <v>1.071</v>
+        <v>2.9</v>
       </c>
       <c r="L432">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M432">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="N432">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="O432">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P432">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q432">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R432">
+        <v>1.825</v>
+      </c>
+      <c r="S432">
+        <v>1.975</v>
+      </c>
+      <c r="T432">
+        <v>3.25</v>
+      </c>
+      <c r="U432">
+        <v>1.825</v>
+      </c>
+      <c r="V432">
+        <v>1.975</v>
+      </c>
+      <c r="W432">
         <v>1.9</v>
       </c>
-      <c r="S432">
-        <v>1.9</v>
-      </c>
-      <c r="T432">
-        <v>3.5</v>
-      </c>
-      <c r="U432">
-        <v>1.925</v>
-      </c>
-      <c r="V432">
-        <v>1.875</v>
-      </c>
-      <c r="W432">
-        <v>0.09000000000000008</v>
-      </c>
       <c r="X432">
         <v>-1</v>
       </c>
@@ -39441,16 +39441,16 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA432">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB432">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC432">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39458,7 +39458,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7930148</v>
+        <v>7936703</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39470,58 +39470,58 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F433" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G433" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J433" t="s">
         <v>206</v>
       </c>
       <c r="K433">
-        <v>2.9</v>
+        <v>1.071</v>
       </c>
       <c r="L433">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M433">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="N433">
-        <v>2.9</v>
+        <v>1.09</v>
       </c>
       <c r="O433">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P433">
-        <v>1.909</v>
+        <v>21</v>
       </c>
       <c r="Q433">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R433">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S433">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T433">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V433">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W433">
-        <v>1.9</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X433">
         <v>-1</v>
@@ -39530,16 +39530,16 @@
         <v>-1</v>
       </c>
       <c r="Z433">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA433">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB433">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC433">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -40808,7 +40808,7 @@
         <v>43</v>
       </c>
       <c r="G448" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H448">
         <v>1</v>
@@ -43122,7 +43122,7 @@
         <v>135</v>
       </c>
       <c r="G474" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H474">
         <v>3</v>
@@ -44442,7 +44442,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>8030092</v>
+        <v>8028224</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -44454,40 +44454,40 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F489" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G489" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="H489">
         <v>1</v>
       </c>
       <c r="I489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J489" t="s">
         <v>208</v>
       </c>
       <c r="K489">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L489">
         <v>3.5</v>
       </c>
       <c r="M489">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N489">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="O489">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P489">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="Q489">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R489">
         <v>1.925</v>
@@ -44496,13 +44496,13 @@
         <v>1.875</v>
       </c>
       <c r="T489">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U489">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V489">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W489">
         <v>-1</v>
@@ -44511,19 +44511,19 @@
         <v>-1</v>
       </c>
       <c r="Y489">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="Z489">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB489">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC489">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44531,7 +44531,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>8028224</v>
+        <v>8030092</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44543,40 +44543,40 @@
         <v>45381.83333333334</v>
       </c>
       <c r="F490" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G490" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="H490">
         <v>1</v>
       </c>
       <c r="I490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J490" t="s">
         <v>208</v>
       </c>
       <c r="K490">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L490">
         <v>3.5</v>
       </c>
       <c r="M490">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N490">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O490">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P490">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="Q490">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R490">
         <v>1.925</v>
@@ -44585,13 +44585,13 @@
         <v>1.875</v>
       </c>
       <c r="T490">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U490">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V490">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W490">
         <v>-1</v>
@@ -44600,19 +44600,19 @@
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA490">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB490">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC490">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -45325,6 +45325,154 @@
       </c>
       <c r="AC498">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="499" spans="1:29">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>8059277</v>
+      </c>
+      <c r="C499" t="s">
+        <v>28</v>
+      </c>
+      <c r="D499" t="s">
+        <v>28</v>
+      </c>
+      <c r="E499" s="2">
+        <v>45388.66666666666</v>
+      </c>
+      <c r="F499" t="s">
+        <v>134</v>
+      </c>
+      <c r="G499" t="s">
+        <v>183</v>
+      </c>
+      <c r="K499">
+        <v>15</v>
+      </c>
+      <c r="L499">
+        <v>6.5</v>
+      </c>
+      <c r="M499">
+        <v>1.142</v>
+      </c>
+      <c r="N499">
+        <v>17</v>
+      </c>
+      <c r="O499">
+        <v>7.5</v>
+      </c>
+      <c r="P499">
+        <v>1.125</v>
+      </c>
+      <c r="Q499">
+        <v>2.5</v>
+      </c>
+      <c r="R499">
+        <v>1.9</v>
+      </c>
+      <c r="S499">
+        <v>1.9</v>
+      </c>
+      <c r="T499">
+        <v>3.5</v>
+      </c>
+      <c r="U499">
+        <v>1.875</v>
+      </c>
+      <c r="V499">
+        <v>1.925</v>
+      </c>
+      <c r="W499">
+        <v>0</v>
+      </c>
+      <c r="X499">
+        <v>0</v>
+      </c>
+      <c r="Y499">
+        <v>0</v>
+      </c>
+      <c r="Z499">
+        <v>0</v>
+      </c>
+      <c r="AA499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:29">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>8059278</v>
+      </c>
+      <c r="C500" t="s">
+        <v>28</v>
+      </c>
+      <c r="D500" t="s">
+        <v>28</v>
+      </c>
+      <c r="E500" s="2">
+        <v>45388.70833333334</v>
+      </c>
+      <c r="F500" t="s">
+        <v>135</v>
+      </c>
+      <c r="G500" t="s">
+        <v>41</v>
+      </c>
+      <c r="K500">
+        <v>2.75</v>
+      </c>
+      <c r="L500">
+        <v>3.5</v>
+      </c>
+      <c r="M500">
+        <v>2.2</v>
+      </c>
+      <c r="N500">
+        <v>2.7</v>
+      </c>
+      <c r="O500">
+        <v>3.5</v>
+      </c>
+      <c r="P500">
+        <v>2.2</v>
+      </c>
+      <c r="Q500">
+        <v>0.25</v>
+      </c>
+      <c r="R500">
+        <v>1.8</v>
+      </c>
+      <c r="S500">
+        <v>2</v>
+      </c>
+      <c r="T500">
+        <v>3</v>
+      </c>
+      <c r="U500">
+        <v>1.9</v>
+      </c>
+      <c r="V500">
+        <v>1.9</v>
+      </c>
+      <c r="W500">
+        <v>0</v>
+      </c>
+      <c r="X500">
+        <v>0</v>
+      </c>
+      <c r="Y500">
+        <v>0</v>
+      </c>
+      <c r="Z500">
+        <v>0</v>
+      </c>
+      <c r="AA500">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -3149,7 +3149,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7242660</v>
+        <v>7242479</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -3161,76 +3161,76 @@
         <v>45191.75</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K25">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.925</v>
-      </c>
-      <c r="V25">
-        <v>1.875</v>
-      </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3238,7 +3238,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7242479</v>
+        <v>7242660</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -3250,76 +3250,76 @@
         <v>45191.75</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26">
+        <v>1.571</v>
+      </c>
+      <c r="L26">
+        <v>4.2</v>
+      </c>
+      <c r="M26">
+        <v>4.333</v>
+      </c>
+      <c r="N26">
+        <v>1.666</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>-0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.425</v>
+      </c>
+      <c r="AA26">
+        <v>-0.5</v>
+      </c>
+      <c r="AB26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26">
-        <v>3.1</v>
-      </c>
-      <c r="L26">
-        <v>3.75</v>
-      </c>
-      <c r="M26">
-        <v>1.909</v>
-      </c>
-      <c r="N26">
-        <v>3.1</v>
-      </c>
-      <c r="O26">
-        <v>3.75</v>
-      </c>
-      <c r="P26">
-        <v>1.909</v>
-      </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
-      <c r="V26">
-        <v>1.95</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>0.909</v>
-      </c>
-      <c r="Z26">
-        <v>-1</v>
-      </c>
-      <c r="AA26">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB26">
-        <v>0.75</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -8400,7 +8400,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -8412,76 +8412,76 @@
         <v>45212.75</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
         <v>3.5</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.825</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
       </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>1.05</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>0.4125</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="AA84">
-        <v>0.4625</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8489,7 +8489,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8501,76 +8501,76 @@
         <v>45212.75</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
         <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -21038,7 +21038,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -21050,55 +21050,55 @@
         <v>45248.75</v>
       </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="G226" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>209</v>
       </c>
       <c r="K226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -21107,19 +21107,19 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21127,7 +21127,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -21139,55 +21139,55 @@
         <v>45248.75</v>
       </c>
       <c r="F227" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>209</v>
       </c>
       <c r="K227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -21196,19 +21196,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21305,7 +21305,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491752</v>
+        <v>7491751</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21317,76 +21317,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K229">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="L229">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="Q229">
+        <v>-1.25</v>
+      </c>
+      <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
+        <v>1.75</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
         <v>0.5</v>
       </c>
-      <c r="R229">
-        <v>1.95</v>
-      </c>
-      <c r="S229">
-        <v>1.85</v>
-      </c>
-      <c r="T229">
-        <v>3.5</v>
-      </c>
-      <c r="U229">
-        <v>1.975</v>
-      </c>
-      <c r="V229">
-        <v>1.825</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21394,7 +21394,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7491751</v>
+        <v>7491752</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21406,76 +21406,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G230" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J230" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K230">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M230">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N230">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O230">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z230">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -24331,7 +24331,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7541553</v>
+        <v>7541521</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -24343,76 +24343,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K263">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L263">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N263">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O263">
         <v>3.75</v>
       </c>
       <c r="P263">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q263">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
+        <v>1.9</v>
+      </c>
+      <c r="S263">
+        <v>1.9</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
         <v>1.95</v>
       </c>
-      <c r="S263">
+      <c r="V263">
         <v>1.85</v>
       </c>
-      <c r="T263">
-        <v>3.5</v>
-      </c>
-      <c r="U263">
-        <v>1.85</v>
-      </c>
-      <c r="V263">
-        <v>1.95</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X263">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
+        <v>-1</v>
+      </c>
+      <c r="AC263">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC263">
-        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24420,7 +24420,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7541521</v>
+        <v>7541553</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -24432,76 +24432,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K264">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N264">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O264">
         <v>3.75</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R264">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
+        <v>3.5</v>
+      </c>
+      <c r="U264">
+        <v>1.85</v>
+      </c>
+      <c r="V264">
+        <v>1.95</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
         <v>2.75</v>
       </c>
-      <c r="U264">
-        <v>1.95</v>
-      </c>
-      <c r="V264">
-        <v>1.85</v>
-      </c>
-      <c r="W264">
-        <v>0.7</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -25488,7 +25488,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25500,73 +25500,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K276">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M276">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N276">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P276">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25666,7 +25666,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25678,73 +25678,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G278" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K278">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L278">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M278">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N278">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O278">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P278">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q278">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -26289,7 +26289,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7568058</v>
+        <v>7568060</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -26301,40 +26301,40 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F285" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G285" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K285">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L285">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M285">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N285">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O285">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P285">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q285">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R285">
         <v>1.8</v>
@@ -26346,31 +26346,31 @@
         <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X285">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA285">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26378,7 +26378,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7568060</v>
+        <v>7568058</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26390,40 +26390,40 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F286" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G286" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K286">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L286">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M286">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O286">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
         <v>1.8</v>
@@ -26435,31 +26435,31 @@
         <v>2.5</v>
       </c>
       <c r="U286">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V286">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W286">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB286">
         <v>-1</v>
       </c>
       <c r="AC286">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -28781,7 +28781,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7744418</v>
+        <v>7744419</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28793,76 +28793,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F313" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G313" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>3</v>
+      </c>
+      <c r="J313" t="s">
+        <v>209</v>
+      </c>
+      <c r="K313">
+        <v>2.1</v>
+      </c>
+      <c r="L313">
+        <v>4</v>
+      </c>
+      <c r="M313">
+        <v>2.6</v>
+      </c>
+      <c r="N313">
+        <v>1.85</v>
+      </c>
+      <c r="O313">
+        <v>4</v>
+      </c>
+      <c r="P313">
+        <v>3</v>
+      </c>
+      <c r="Q313">
+        <v>-0.5</v>
+      </c>
+      <c r="R313">
+        <v>1.925</v>
+      </c>
+      <c r="S313">
+        <v>1.875</v>
+      </c>
+      <c r="T313">
+        <v>3.25</v>
+      </c>
+      <c r="U313">
+        <v>1.775</v>
+      </c>
+      <c r="V313">
+        <v>1.925</v>
+      </c>
+      <c r="W313">
+        <v>-1</v>
+      </c>
+      <c r="X313">
+        <v>-1</v>
+      </c>
+      <c r="Y313">
         <v>2</v>
       </c>
-      <c r="I313">
-        <v>1</v>
-      </c>
-      <c r="J313" t="s">
-        <v>207</v>
-      </c>
-      <c r="K313">
-        <v>1.3</v>
-      </c>
-      <c r="L313">
-        <v>4.75</v>
-      </c>
-      <c r="M313">
-        <v>7.5</v>
-      </c>
-      <c r="N313">
-        <v>1.3</v>
-      </c>
-      <c r="O313">
-        <v>5</v>
-      </c>
-      <c r="P313">
-        <v>7</v>
-      </c>
-      <c r="Q313">
-        <v>-1.5</v>
-      </c>
-      <c r="R313">
-        <v>1.875</v>
-      </c>
-      <c r="S313">
-        <v>1.925</v>
-      </c>
-      <c r="T313">
-        <v>2.75</v>
-      </c>
-      <c r="U313">
-        <v>1.9</v>
-      </c>
-      <c r="V313">
-        <v>1.9</v>
-      </c>
-      <c r="W313">
-        <v>0.3</v>
-      </c>
-      <c r="X313">
-        <v>-1</v>
-      </c>
-      <c r="Y313">
-        <v>-1</v>
-      </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB313">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28870,7 +28870,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7744419</v>
+        <v>7744418</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28882,76 +28882,76 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F314" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G314" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H314">
+        <v>2</v>
+      </c>
+      <c r="I314">
         <v>1</v>
       </c>
-      <c r="I314">
-        <v>3</v>
-      </c>
       <c r="J314" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K314">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M314">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N314">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q314">
+        <v>-1.5</v>
+      </c>
+      <c r="R314">
+        <v>1.875</v>
+      </c>
+      <c r="S314">
+        <v>1.925</v>
+      </c>
+      <c r="T314">
+        <v>2.75</v>
+      </c>
+      <c r="U314">
+        <v>1.9</v>
+      </c>
+      <c r="V314">
+        <v>1.9</v>
+      </c>
+      <c r="W314">
+        <v>0.3</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>-1</v>
+      </c>
+      <c r="Z314">
+        <v>-1</v>
+      </c>
+      <c r="AA314">
+        <v>0.925</v>
+      </c>
+      <c r="AB314">
+        <v>0.45</v>
+      </c>
+      <c r="AC314">
         <v>-0.5</v>
-      </c>
-      <c r="R314">
-        <v>1.925</v>
-      </c>
-      <c r="S314">
-        <v>1.875</v>
-      </c>
-      <c r="T314">
-        <v>3.25</v>
-      </c>
-      <c r="U314">
-        <v>1.775</v>
-      </c>
-      <c r="V314">
-        <v>1.925</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>-1</v>
-      </c>
-      <c r="Y314">
-        <v>2</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
-      <c r="AA314">
-        <v>0.875</v>
-      </c>
-      <c r="AB314">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC314">
-        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -30116,7 +30116,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7754140</v>
+        <v>7754142</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -30128,58 +30128,58 @@
         <v>45319.79166666666</v>
       </c>
       <c r="F328" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="G328" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>207</v>
       </c>
       <c r="K328">
-        <v>1.444</v>
+        <v>1.05</v>
       </c>
       <c r="L328">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="M328">
-        <v>5.25</v>
+        <v>21</v>
       </c>
       <c r="N328">
-        <v>1.444</v>
+        <v>1.071</v>
       </c>
       <c r="O328">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P328">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="Q328">
-        <v>-1.25</v>
+        <v>-3.25</v>
       </c>
       <c r="R328">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S328">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T328">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U328">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W328">
-        <v>0.444</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -30188,16 +30188,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC328">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -30205,7 +30205,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7754142</v>
+        <v>7754140</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -30217,58 +30217,58 @@
         <v>45319.79166666666</v>
       </c>
       <c r="F329" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G329" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H329">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>207</v>
       </c>
       <c r="K329">
-        <v>1.05</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="M329">
-        <v>21</v>
+        <v>5.25</v>
       </c>
       <c r="N329">
-        <v>1.071</v>
+        <v>1.444</v>
       </c>
       <c r="O329">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P329">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="Q329">
-        <v>-3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R329">
+        <v>1.925</v>
+      </c>
+      <c r="S329">
+        <v>1.875</v>
+      </c>
+      <c r="T329">
+        <v>3</v>
+      </c>
+      <c r="U329">
         <v>1.975</v>
       </c>
-      <c r="S329">
+      <c r="V329">
         <v>1.825</v>
       </c>
-      <c r="T329">
-        <v>4.25</v>
-      </c>
-      <c r="U329">
-        <v>1.95</v>
-      </c>
-      <c r="V329">
-        <v>1.85</v>
-      </c>
       <c r="W329">
-        <v>0.07099999999999995</v>
+        <v>0.444</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -30277,16 +30277,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -32252,7 +32252,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -32264,76 +32264,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F352" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="H352">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J352" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K352">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="L352">
         <v>4</v>
       </c>
       <c r="M352">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N352">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="O352">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P352">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q352">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T352">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U352">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z352">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB352">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32341,7 +32341,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -32353,76 +32353,76 @@
         <v>45331.54166666666</v>
       </c>
       <c r="F353" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G353" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J353" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K353">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="L353">
         <v>4</v>
       </c>
       <c r="M353">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="N353">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="O353">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P353">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="Q353">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R353">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S353">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T353">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA353">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -35367,7 +35367,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -35379,76 +35379,76 @@
         <v>45345.75</v>
       </c>
       <c r="F387" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G387" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J387" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K387">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M387">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N387">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O387">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P387">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q387">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S387">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T387">
         <v>2.75</v>
       </c>
       <c r="U387">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V387">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W387">
         <v>-1</v>
       </c>
       <c r="X387">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z387">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC387">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35456,7 +35456,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35468,76 +35468,76 @@
         <v>45345.75</v>
       </c>
       <c r="F388" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G388" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K388">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M388">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N388">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O388">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P388">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q388">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R388">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S388">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V388">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y388">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA388">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC388">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -37503,7 +37503,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7905018</v>
+        <v>7905046</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37515,10 +37515,10 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F411" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G411" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -37530,61 +37530,61 @@
         <v>208</v>
       </c>
       <c r="K411">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="L411">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M411">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="N411">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="O411">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P411">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q411">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R411">
+        <v>1.975</v>
+      </c>
+      <c r="S411">
         <v>1.825</v>
       </c>
-      <c r="S411">
-        <v>1.975</v>
-      </c>
       <c r="T411">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U411">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V411">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA411">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB411">
         <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37592,7 +37592,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7905046</v>
+        <v>7905018</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37604,10 +37604,10 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F412" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G412" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -37619,61 +37619,61 @@
         <v>208</v>
       </c>
       <c r="K412">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L412">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M412">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="O412">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P412">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q412">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R412">
+        <v>1.825</v>
+      </c>
+      <c r="S412">
         <v>1.975</v>
       </c>
-      <c r="S412">
-        <v>1.825</v>
-      </c>
       <c r="T412">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U412">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V412">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
+        <v>-1</v>
+      </c>
+      <c r="AA412">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA412">
-        <v>-1</v>
-      </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -39817,7 +39817,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7947694</v>
+        <v>7947693</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39829,76 +39829,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F437" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="G437" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K437">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L437">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M437">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N437">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O437">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P437">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q437">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R437">
+        <v>2.05</v>
+      </c>
+      <c r="S437">
         <v>1.75</v>
-      </c>
-      <c r="S437">
-        <v>1.95</v>
       </c>
       <c r="T437">
         <v>2.75</v>
       </c>
       <c r="U437">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V437">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W437">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X437">
         <v>-1</v>
       </c>
       <c r="Y437">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z437">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA437">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC437">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39906,7 +39906,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7947693</v>
+        <v>7947694</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39918,76 +39918,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F438" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G438" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
         <v>2</v>
       </c>
-      <c r="I438">
-        <v>1</v>
-      </c>
       <c r="J438" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K438">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L438">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M438">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N438">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O438">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P438">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q438">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R438">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S438">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T438">
         <v>2.75</v>
       </c>
       <c r="U438">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V438">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W438">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z438">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB438">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC438">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -45424,7 +45424,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>8059324</v>
+        <v>8059325</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -45436,49 +45436,49 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F500" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G500" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J500" t="s">
         <v>209</v>
       </c>
       <c r="K500">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="L500">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M500">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="N500">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="O500">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P500">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q500">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R500">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S500">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T500">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U500">
         <v>1.9</v>
@@ -45493,19 +45493,19 @@
         <v>-1</v>
       </c>
       <c r="Y500">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z500">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA500">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB500">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC500">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -45513,7 +45513,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>8059325</v>
+        <v>8059324</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45525,49 +45525,49 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F501" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G501" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
         <v>2</v>
-      </c>
-      <c r="I501">
-        <v>5</v>
       </c>
       <c r="J501" t="s">
         <v>209</v>
       </c>
       <c r="K501">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L501">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M501">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="N501">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="O501">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P501">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q501">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="R501">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S501">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T501">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U501">
         <v>1.9</v>
@@ -45582,19 +45582,19 @@
         <v>-1</v>
       </c>
       <c r="Y501">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z501">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA501">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB501">
+        <v>-1</v>
+      </c>
+      <c r="AC501">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC501">
-        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:29">

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -175,10 +175,10 @@
     <t>Faraones Texcoco</t>
   </si>
   <si>
-    <t>Club Deportivo CDH</t>
+    <t>Cimarrones de Sonora FC III</t>
   </si>
   <si>
-    <t>Cimarrones de Sonora FC III</t>
+    <t>Club Deportivo CDH</t>
   </si>
   <si>
     <t>Atlante Xalapa</t>
@@ -199,10 +199,10 @@
     <t>SK Sport Street Soccer FC</t>
   </si>
   <si>
-    <t>CF Pachuca III</t>
+    <t>CD FC Cuervos Blancos</t>
   </si>
   <si>
-    <t>CD FC Cuervos Blancos</t>
+    <t>CF Pachuca III</t>
   </si>
   <si>
     <t>Club Atltico San Juan de Aragn II</t>
@@ -3600,7 +3600,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7246964</v>
+        <v>7246869</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3615,73 +3615,73 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K30">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X30">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3689,7 +3689,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7246869</v>
+        <v>7246964</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3704,73 +3704,73 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="N31">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4594,7 +4594,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4668,7 +4668,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7273614</v>
+        <v>7273616</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4683,73 +4683,73 @@
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>3.5</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
+        <v>1.615</v>
+      </c>
+      <c r="O42">
+        <v>3.6</v>
+      </c>
+      <c r="P42">
+        <v>4.75</v>
+      </c>
+      <c r="Q42">
+        <v>-0.75</v>
+      </c>
+      <c r="R42">
         <v>1.8</v>
       </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>3.75</v>
-      </c>
-      <c r="Q42">
-        <v>-0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4757,7 +4757,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7273616</v>
+        <v>7273614</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4772,73 +4772,73 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
         <v>3.5</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5395,7 +5395,7 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -6374,7 +6374,7 @@
         <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -6730,7 +6730,7 @@
         <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>45212.55208333334</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G81" t="s">
         <v>60</v>
@@ -8673,7 +8673,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7336547</v>
+        <v>7336548</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8685,76 +8685,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K87">
+        <v>2.15</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
+        <v>2.7</v>
+      </c>
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
         <v>2</v>
       </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
-      <c r="M87">
-        <v>2.875</v>
-      </c>
-      <c r="N87">
-        <v>1.6</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.75</v>
-      </c>
-      <c r="R87">
+      <c r="S87">
         <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
       </c>
       <c r="T87">
         <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.8</v>
+      </c>
+      <c r="AB87">
+        <v>0.45</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8762,7 +8762,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7336548</v>
+        <v>7336547</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8774,76 +8774,76 @@
         <v>45212.83333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>209</v>
+      </c>
+      <c r="K88">
         <v>2</v>
       </c>
-      <c r="J88" t="s">
-        <v>211</v>
-      </c>
-      <c r="K88">
-        <v>2.15</v>
-      </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
         <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1.8</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9130,7 +9130,7 @@
         <v>45213.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s">
         <v>153</v>
@@ -9563,7 +9563,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7339938</v>
+        <v>7339937</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9575,46 +9575,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K97">
+        <v>1.363</v>
+      </c>
+      <c r="L97">
         <v>5</v>
       </c>
-      <c r="L97">
-        <v>4.5</v>
-      </c>
       <c r="M97">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
+        <v>1.25</v>
+      </c>
+      <c r="O97">
         <v>5</v>
       </c>
-      <c r="O97">
-        <v>4.5</v>
-      </c>
       <c r="P97">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="Q97">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9626,19 +9626,19 @@
         <v>1.825</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>0.9750000000000001</v>
@@ -9652,7 +9652,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7339937</v>
+        <v>7339938</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9664,46 +9664,46 @@
         <v>45213.83333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J98" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="L98">
+        <v>4.5</v>
+      </c>
+      <c r="M98">
+        <v>1.444</v>
+      </c>
+      <c r="N98">
         <v>5</v>
       </c>
-      <c r="M98">
-        <v>5.5</v>
-      </c>
-      <c r="N98">
+      <c r="O98">
+        <v>4.5</v>
+      </c>
+      <c r="P98">
+        <v>1.444</v>
+      </c>
+      <c r="Q98">
         <v>1.25</v>
       </c>
-      <c r="O98">
-        <v>5</v>
-      </c>
-      <c r="P98">
-        <v>9</v>
-      </c>
-      <c r="Q98">
-        <v>-1.5</v>
-      </c>
       <c r="R98">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9715,19 +9715,19 @@
         <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>0.9750000000000001</v>
@@ -10720,7 +10720,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7369154</v>
+        <v>7369105</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10732,49 +10732,49 @@
         <v>45220.75</v>
       </c>
       <c r="F110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>2</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N110">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P110">
+        <v>1.363</v>
+      </c>
+      <c r="Q110">
+        <v>1.5</v>
+      </c>
+      <c r="R110">
+        <v>1.75</v>
+      </c>
+      <c r="S110">
+        <v>1.95</v>
+      </c>
+      <c r="T110">
         <v>2.75</v>
-      </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
-        <v>2</v>
-      </c>
-      <c r="S110">
-        <v>1.8</v>
-      </c>
-      <c r="T110">
-        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10783,19 +10783,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -10898,7 +10898,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7369105</v>
+        <v>7369154</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10910,49 +10910,49 @@
         <v>45220.75</v>
       </c>
       <c r="F112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="J112" t="s">
+        <v>209</v>
+      </c>
+      <c r="K112">
         <v>2</v>
       </c>
-      <c r="J112" t="s">
-        <v>211</v>
-      </c>
-      <c r="K112">
-        <v>5</v>
-      </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N112">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10961,19 +10961,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
@@ -11800,7 +11800,7 @@
         <v>45226.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
         <v>39</v>
@@ -11889,7 +11889,7 @@
         <v>45226.55902777778</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G123" t="s">
         <v>99</v>
@@ -12055,7 +12055,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7394136</v>
+        <v>7394137</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -12067,13 +12067,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -12082,43 +12082,43 @@
         <v>209</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -12127,16 +12127,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12144,7 +12144,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7394137</v>
+        <v>7394136</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12156,13 +12156,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -12171,43 +12171,43 @@
         <v>209</v>
       </c>
       <c r="K126">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N126">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -12216,16 +12216,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -14562,7 +14562,7 @@
         <v>100</v>
       </c>
       <c r="G153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14740,7 +14740,7 @@
         <v>73</v>
       </c>
       <c r="G155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -15882,7 +15882,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7447277</v>
+        <v>7448959</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15894,76 +15894,76 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G168" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K168">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
         <v>4</v>
       </c>
-      <c r="M168">
-        <v>7</v>
-      </c>
       <c r="N168">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O168">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15971,7 +15971,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7447275</v>
+        <v>7447277</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15983,13 +15983,13 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15998,43 +15998,43 @@
         <v>209</v>
       </c>
       <c r="K169">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L169">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N169">
-        <v>1.035</v>
+        <v>1.333</v>
       </c>
       <c r="O169">
-        <v>19</v>
+        <v>4.333</v>
       </c>
       <c r="P169">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Q169">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>0.03499999999999992</v>
+        <v>0.333</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -16043,16 +16043,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16060,7 +16060,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7448959</v>
+        <v>7447275</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16072,76 +16072,76 @@
         <v>45237.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H170">
+        <v>5</v>
+      </c>
+      <c r="I170">
         <v>0</v>
       </c>
-      <c r="I170">
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+      <c r="K170">
+        <v>1.1</v>
+      </c>
+      <c r="L170">
+        <v>8.5</v>
+      </c>
+      <c r="M170">
+        <v>21</v>
+      </c>
+      <c r="N170">
+        <v>1.035</v>
+      </c>
+      <c r="O170">
+        <v>19</v>
+      </c>
+      <c r="P170">
+        <v>29</v>
+      </c>
+      <c r="Q170">
+        <v>-4</v>
+      </c>
+      <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>1.875</v>
+      </c>
+      <c r="T170">
+        <v>4.75</v>
+      </c>
+      <c r="U170">
+        <v>1.8</v>
+      </c>
+      <c r="V170">
         <v>2</v>
       </c>
-      <c r="J170" t="s">
-        <v>211</v>
-      </c>
-      <c r="K170">
-        <v>1.8</v>
-      </c>
-      <c r="L170">
-        <v>3.2</v>
-      </c>
-      <c r="M170">
-        <v>4</v>
-      </c>
-      <c r="N170">
-        <v>1.615</v>
-      </c>
-      <c r="O170">
-        <v>3.4</v>
-      </c>
-      <c r="P170">
-        <v>4.75</v>
-      </c>
-      <c r="Q170">
-        <v>-0.75</v>
-      </c>
-      <c r="R170">
-        <v>1.85</v>
-      </c>
-      <c r="S170">
-        <v>1.95</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.925</v>
-      </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC170">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -17039,7 +17039,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7452364</v>
+        <v>7451099</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -17051,16 +17051,16 @@
         <v>45238.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G181" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>211</v>
@@ -17078,29 +17078,29 @@
         <v>5.25</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P181">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>3.5</v>
+      </c>
+      <c r="U181">
+        <v>1.775</v>
+      </c>
+      <c r="V181">
         <v>1.925</v>
       </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.8</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
@@ -17108,16 +17108,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -17128,7 +17128,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7451099</v>
+        <v>7452364</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -17140,16 +17140,16 @@
         <v>45238.66666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
         <v>211</v>
@@ -17167,28 +17167,28 @@
         <v>5.25</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="Q182">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -17197,16 +17197,16 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB182">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -17318,7 +17318,7 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G184" t="s">
         <v>70</v>
@@ -17588,7 +17588,7 @@
         <v>97</v>
       </c>
       <c r="G187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17840,7 +17840,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7462543</v>
+        <v>7458909</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17852,76 +17852,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G190" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K190">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M190">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190">
+        <v>5.5</v>
+      </c>
+      <c r="P190">
+        <v>1.363</v>
+      </c>
+      <c r="Q190">
+        <v>1.5</v>
+      </c>
+      <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
         <v>2</v>
       </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
-      <c r="P190">
-        <v>3.1</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
+      <c r="V190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
-      <c r="T190">
-        <v>2.5</v>
-      </c>
-      <c r="U190">
-        <v>1.95</v>
-      </c>
-      <c r="V190">
-        <v>1.85</v>
-      </c>
       <c r="W190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.8</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>0.95</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17929,7 +17929,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7458909</v>
+        <v>7462543</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17941,76 +17941,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G191" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K191">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="L191">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O191">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q191">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.95</v>
+      </c>
+      <c r="V191">
         <v>1.85</v>
       </c>
-      <c r="S191">
-        <v>1.95</v>
-      </c>
-      <c r="T191">
-        <v>3.25</v>
-      </c>
-      <c r="U191">
-        <v>2</v>
-      </c>
-      <c r="V191">
-        <v>1.8</v>
-      </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X191">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18119,7 +18119,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G193" t="s">
         <v>99</v>
@@ -18819,7 +18819,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7457558</v>
+        <v>7462454</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18831,40 +18831,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K201">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N201">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R201">
         <v>2</v>
@@ -18876,31 +18876,31 @@
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18908,7 +18908,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7462454</v>
+        <v>7457558</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18920,40 +18920,40 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G202" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K202">
+        <v>1.909</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>3.4</v>
+      </c>
+      <c r="N202">
+        <v>1.571</v>
+      </c>
+      <c r="O202">
+        <v>3.8</v>
+      </c>
+      <c r="P202">
         <v>4.75</v>
       </c>
-      <c r="L202">
-        <v>4.2</v>
-      </c>
-      <c r="M202">
-        <v>1.5</v>
-      </c>
-      <c r="N202">
-        <v>5</v>
-      </c>
-      <c r="O202">
-        <v>4.2</v>
-      </c>
-      <c r="P202">
-        <v>1.5</v>
-      </c>
       <c r="Q202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18965,31 +18965,31 @@
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X202">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19798,7 +19798,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486567</v>
+        <v>7486113</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19810,10 +19810,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G212" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19825,43 +19825,43 @@
         <v>209</v>
       </c>
       <c r="K212">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N212">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q212">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19870,16 +19870,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19976,7 +19976,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486113</v>
+        <v>7486567</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19988,10 +19988,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -20003,43 +20003,43 @@
         <v>209</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M214">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O214">
+        <v>4.75</v>
+      </c>
+      <c r="P214">
+        <v>6</v>
+      </c>
+      <c r="Q214">
+        <v>-1.5</v>
+      </c>
+      <c r="R214">
+        <v>1.975</v>
+      </c>
+      <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
         <v>3.25</v>
       </c>
-      <c r="P214">
-        <v>2.1</v>
-      </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>1.875</v>
-      </c>
-      <c r="S214">
-        <v>1.925</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W214">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -20048,16 +20048,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -21667,7 +21667,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7486115</v>
+        <v>7495766</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21679,76 +21679,76 @@
         <v>45249.625</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G233" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
         <v>1</v>
       </c>
-      <c r="I233">
-        <v>2</v>
-      </c>
       <c r="J233" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K233">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L233">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N233">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q233">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>1.825</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
         <v>1.9</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.9</v>
       </c>
-      <c r="T233">
-        <v>3</v>
-      </c>
-      <c r="U233">
-        <v>1.95</v>
-      </c>
-      <c r="V233">
-        <v>1.85</v>
-      </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB233">
-        <v>0</v>
-      </c>
       <c r="AC233">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21756,7 +21756,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7495766</v>
+        <v>7486115</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21768,76 +21768,76 @@
         <v>45249.625</v>
       </c>
       <c r="F234" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>211</v>
+      </c>
+      <c r="K234">
+        <v>1.5</v>
+      </c>
+      <c r="L234">
+        <v>4.2</v>
+      </c>
+      <c r="M234">
+        <v>4.75</v>
+      </c>
+      <c r="N234">
+        <v>1.4</v>
+      </c>
+      <c r="O234">
+        <v>4.333</v>
+      </c>
+      <c r="P234">
+        <v>5.75</v>
+      </c>
+      <c r="Q234">
+        <v>-1.25</v>
+      </c>
+      <c r="R234">
+        <v>1.9</v>
+      </c>
+      <c r="S234">
+        <v>1.9</v>
+      </c>
+      <c r="T234">
         <v>3</v>
       </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
-      <c r="J234" t="s">
-        <v>209</v>
-      </c>
-      <c r="K234">
-        <v>2.2</v>
-      </c>
-      <c r="L234">
-        <v>3.2</v>
-      </c>
-      <c r="M234">
-        <v>3</v>
-      </c>
-      <c r="N234">
-        <v>2.2</v>
-      </c>
-      <c r="O234">
-        <v>3.3</v>
-      </c>
-      <c r="P234">
-        <v>2.9</v>
-      </c>
-      <c r="Q234">
-        <v>-0.25</v>
-      </c>
-      <c r="R234">
-        <v>1.975</v>
-      </c>
-      <c r="S234">
-        <v>1.825</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z234">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB234">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -22124,7 +22124,7 @@
         <v>45251.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G238" t="s">
         <v>72</v>
@@ -22646,7 +22646,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7515305</v>
+        <v>7514531</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22658,55 +22658,55 @@
         <v>45254.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
         <v>211</v>
       </c>
       <c r="K244">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L244">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="N244">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="O244">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P244">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="Q244">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R244">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
         <v>-1</v>
@@ -22715,19 +22715,19 @@
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0.1419999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22735,7 +22735,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7514531</v>
+        <v>7515305</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22747,55 +22747,55 @@
         <v>45254.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J245" t="s">
         <v>211</v>
       </c>
       <c r="K245">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M245">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="N245">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="O245">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P245">
-        <v>1.3</v>
+        <v>1.142</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R245">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -22804,19 +22804,19 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0.3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC245">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22839,7 +22839,7 @@
         <v>40</v>
       </c>
       <c r="G246" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22928,7 +22928,7 @@
         <v>49</v>
       </c>
       <c r="G247" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -23370,7 +23370,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G252" t="s">
         <v>70</v>
@@ -23536,7 +23536,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7515314</v>
+        <v>7519169</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23548,58 +23548,58 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254">
         <v>1</v>
-      </c>
-      <c r="I254">
-        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>209</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L254">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N254">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O254">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P254">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q254">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T254">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W254">
-        <v>0.6659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23608,16 +23608,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23625,7 +23625,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7519169</v>
+        <v>7515314</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23637,58 +23637,58 @@
         <v>45255.79166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>209</v>
       </c>
       <c r="K255">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
+        <v>3.2</v>
+      </c>
+      <c r="M255">
         <v>4</v>
       </c>
-      <c r="M255">
-        <v>7</v>
-      </c>
       <c r="N255">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O255">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P255">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q255">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23697,16 +23697,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -24337,7 +24337,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7541554</v>
+        <v>7541553</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -24349,49 +24349,49 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="G263" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K263">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L263">
         <v>3.75</v>
       </c>
       <c r="M263">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N263">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O263">
         <v>3.75</v>
       </c>
       <c r="P263">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R263">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U263">
         <v>1.85</v>
@@ -24400,16 +24400,16 @@
         <v>1.95</v>
       </c>
       <c r="W263">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA263">
         <v>-1</v>
@@ -24426,7 +24426,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7541553</v>
+        <v>7541554</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -24438,49 +24438,49 @@
         <v>45261.54166666666</v>
       </c>
       <c r="F264" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="G264" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K264">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L264">
         <v>3.75</v>
       </c>
       <c r="M264">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="N264">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O264">
         <v>3.75</v>
       </c>
       <c r="P264">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q264">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T264">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U264">
         <v>1.85</v>
@@ -24489,16 +24489,16 @@
         <v>1.95</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X264">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA264">
         <v>-1</v>
@@ -24616,7 +24616,7 @@
         <v>45261.55555555555</v>
       </c>
       <c r="F266" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G266" t="s">
         <v>67</v>
@@ -25494,7 +25494,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542357</v>
+        <v>7542652</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25506,73 +25506,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F276" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K276">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M276">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="N276">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P276">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25583,7 +25583,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25595,73 +25595,73 @@
         <v>45262.79166666666</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G277" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H277">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J277" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K277">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L277">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M277">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="N277">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O277">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P277">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q277">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T277">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB277">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -26043,7 +26043,7 @@
         <v>84</v>
       </c>
       <c r="G282" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -26307,7 +26307,7 @@
         <v>45268.54166666666</v>
       </c>
       <c r="F285" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G285" t="s">
         <v>63</v>
@@ -26562,7 +26562,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7568061</v>
+        <v>7568067</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26574,76 +26574,76 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G288" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K288">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L288">
+        <v>3.5</v>
+      </c>
+      <c r="M288">
         <v>4</v>
       </c>
-      <c r="M288">
-        <v>1.727</v>
-      </c>
       <c r="N288">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O288">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P288">
-        <v>1.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q288">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R288">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S288">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T288">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V288">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB288">
         <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26651,7 +26651,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7568067</v>
+        <v>7568061</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26663,76 +26663,76 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G289" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K289">
+        <v>3.6</v>
+      </c>
+      <c r="L289">
+        <v>4</v>
+      </c>
+      <c r="M289">
         <v>1.727</v>
       </c>
-      <c r="L289">
+      <c r="N289">
+        <v>4.75</v>
+      </c>
+      <c r="O289">
+        <v>4.75</v>
+      </c>
+      <c r="P289">
+        <v>1.45</v>
+      </c>
+      <c r="Q289">
+        <v>1.25</v>
+      </c>
+      <c r="R289">
+        <v>1.875</v>
+      </c>
+      <c r="S289">
+        <v>1.925</v>
+      </c>
+      <c r="T289">
         <v>3.5</v>
       </c>
-      <c r="M289">
-        <v>4</v>
-      </c>
-      <c r="N289">
-        <v>1.6</v>
-      </c>
-      <c r="O289">
-        <v>4</v>
-      </c>
-      <c r="P289">
-        <v>4.333</v>
-      </c>
-      <c r="Q289">
-        <v>-1</v>
-      </c>
-      <c r="R289">
-        <v>1.975</v>
-      </c>
-      <c r="S289">
-        <v>1.825</v>
-      </c>
-      <c r="T289">
-        <v>3</v>
-      </c>
       <c r="U289">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X289">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA289">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -27363,7 +27363,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27375,40 +27375,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G297" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M297">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P297">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R297">
         <v>1.9</v>
@@ -27417,34 +27417,34 @@
         <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27452,7 +27452,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27464,40 +27464,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G298" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H298">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I298">
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P298">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q298">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>1.9</v>
@@ -27506,34 +27506,34 @@
         <v>1.9</v>
       </c>
       <c r="T298">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W298">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
       <c r="AB298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28087,7 +28087,7 @@
         <v>45310.77083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G305" t="s">
         <v>77</v>
@@ -28342,7 +28342,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28354,13 +28354,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G308" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -28369,43 +28369,43 @@
         <v>209</v>
       </c>
       <c r="K308">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
         <v>4</v>
       </c>
-      <c r="M308">
-        <v>7</v>
-      </c>
       <c r="N308">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P308">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T308">
         <v>3.25</v>
       </c>
       <c r="U308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V308">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W308">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -28414,16 +28414,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28431,7 +28431,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28443,13 +28443,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -28458,43 +28458,43 @@
         <v>209</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N309">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P309">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q309">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S309">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T309">
         <v>3.25</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28503,16 +28503,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA309">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -30048,7 +30048,7 @@
         <v>36</v>
       </c>
       <c r="G327" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30300,7 +30300,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -30312,34 +30312,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F330" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G330" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="H330">
+        <v>3</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>209</v>
       </c>
       <c r="K330">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="L330">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M330">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N330">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O330">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P330">
         <v>1.5</v>
@@ -30348,22 +30348,22 @@
         <v>1</v>
       </c>
       <c r="R330">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T330">
         <v>3</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -30372,16 +30372,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30389,7 +30389,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -30401,34 +30401,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="F331" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G331" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>209</v>
       </c>
       <c r="K331">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L331">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M331">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N331">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O331">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P331">
         <v>1.5</v>
@@ -30437,22 +30437,22 @@
         <v>1</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T331">
         <v>3</v>
       </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -30461,16 +30461,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -31279,7 +31279,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -31291,59 +31291,59 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F341" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G341" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H341">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
         <v>209</v>
       </c>
       <c r="K341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L341">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O341">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q341">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.9</v>
+      </c>
+      <c r="T341">
+        <v>2.75</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.925</v>
       </c>
-      <c r="T341">
-        <v>3</v>
-      </c>
-      <c r="U341">
+      <c r="W341">
         <v>2</v>
       </c>
-      <c r="V341">
-        <v>1.8</v>
-      </c>
-      <c r="W341">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="X341">
         <v>-1</v>
       </c>
@@ -31351,16 +31351,16 @@
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA341">
         <v>-1</v>
       </c>
       <c r="AB341">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31368,7 +31368,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -31380,58 +31380,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="F342" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G342" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
         <v>209</v>
       </c>
       <c r="K342">
+        <v>1.533</v>
+      </c>
+      <c r="L342">
+        <v>3.75</v>
+      </c>
+      <c r="M342">
+        <v>5</v>
+      </c>
+      <c r="N342">
+        <v>1.533</v>
+      </c>
+      <c r="O342">
+        <v>3.8</v>
+      </c>
+      <c r="P342">
+        <v>5</v>
+      </c>
+      <c r="Q342">
+        <v>-1</v>
+      </c>
+      <c r="R342">
+        <v>1.875</v>
+      </c>
+      <c r="S342">
+        <v>1.925</v>
+      </c>
+      <c r="T342">
         <v>3</v>
       </c>
-      <c r="L342">
-        <v>3.4</v>
-      </c>
-      <c r="M342">
-        <v>2.1</v>
-      </c>
-      <c r="N342">
-        <v>3</v>
-      </c>
-      <c r="O342">
-        <v>3.4</v>
-      </c>
-      <c r="P342">
-        <v>2.1</v>
-      </c>
-      <c r="Q342">
-        <v>0.25</v>
-      </c>
-      <c r="R342">
-        <v>1.9</v>
-      </c>
-      <c r="S342">
-        <v>1.9</v>
-      </c>
-      <c r="T342">
-        <v>2.75</v>
-      </c>
       <c r="U342">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V342">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W342">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X342">
         <v>-1</v>
@@ -31440,16 +31440,16 @@
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA342">
         <v>-1</v>
       </c>
       <c r="AB342">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31813,7 +31813,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31825,76 +31825,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F347" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G347" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P347">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X347">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA347">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31902,7 +31902,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31914,76 +31914,76 @@
         <v>45326.79166666666</v>
       </c>
       <c r="F348" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G348" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M348">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O348">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P348">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q348">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W348">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -32451,7 +32451,7 @@
         <v>32</v>
       </c>
       <c r="G354" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -32970,7 +32970,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809266</v>
+        <v>7809187</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32982,76 +32982,76 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F360" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G360" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K360">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M360">
-        <v>1.6</v>
+        <v>13</v>
       </c>
       <c r="N360">
-        <v>7.5</v>
+        <v>1.166</v>
       </c>
       <c r="O360">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P360">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="Q360">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R360">
+        <v>1.975</v>
+      </c>
+      <c r="S360">
         <v>1.825</v>
       </c>
-      <c r="S360">
-        <v>1.975</v>
-      </c>
       <c r="T360">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U360">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V360">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA360">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC360">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -33059,7 +33059,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809187</v>
+        <v>7809266</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -33071,76 +33071,76 @@
         <v>45332.79166666666</v>
       </c>
       <c r="F361" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G361" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>2</v>
+      </c>
+      <c r="J361" t="s">
+        <v>211</v>
+      </c>
+      <c r="K361">
+        <v>4.2</v>
+      </c>
+      <c r="L361">
         <v>4</v>
       </c>
-      <c r="I361">
-        <v>1</v>
-      </c>
-      <c r="J361" t="s">
-        <v>209</v>
-      </c>
-      <c r="K361">
-        <v>1.181</v>
-      </c>
-      <c r="L361">
+      <c r="M361">
+        <v>1.6</v>
+      </c>
+      <c r="N361">
+        <v>7.5</v>
+      </c>
+      <c r="O361">
         <v>5.5</v>
       </c>
-      <c r="M361">
-        <v>13</v>
-      </c>
-      <c r="N361">
-        <v>1.166</v>
-      </c>
-      <c r="O361">
-        <v>6</v>
-      </c>
       <c r="P361">
-        <v>13</v>
+        <v>1.25</v>
       </c>
       <c r="Q361">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R361">
+        <v>1.825</v>
+      </c>
+      <c r="S361">
         <v>1.975</v>
       </c>
-      <c r="S361">
-        <v>1.825</v>
-      </c>
       <c r="T361">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V361">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W361">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z361">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB361">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -34228,7 +34228,7 @@
         <v>45338.77083333334</v>
       </c>
       <c r="F374" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G374" t="s">
         <v>127</v>
@@ -35299,7 +35299,7 @@
         <v>48</v>
       </c>
       <c r="G386" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H386">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -35385,76 +35385,76 @@
         <v>45345.75</v>
       </c>
       <c r="F387" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G387" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J387" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K387">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M387">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N387">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O387">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P387">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q387">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S387">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T387">
         <v>2.75</v>
       </c>
       <c r="U387">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V387">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W387">
         <v>-1</v>
       </c>
       <c r="X387">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z387">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC387">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35462,7 +35462,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35474,76 +35474,76 @@
         <v>45345.75</v>
       </c>
       <c r="F388" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G388" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K388">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M388">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N388">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O388">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P388">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q388">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R388">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S388">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V388">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y388">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA388">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC388">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -36085,7 +36085,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7877570</v>
+        <v>7877572</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -36097,13 +36097,13 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G395" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395">
         <v>0</v>
@@ -36112,25 +36112,25 @@
         <v>209</v>
       </c>
       <c r="K395">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L395">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M395">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N395">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O395">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P395">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q395">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R395">
         <v>1.9</v>
@@ -36139,16 +36139,16 @@
         <v>1.9</v>
       </c>
       <c r="T395">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U395">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V395">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W395">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X395">
         <v>-1</v>
@@ -36163,10 +36163,10 @@
         <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC395">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -36174,7 +36174,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7877572</v>
+        <v>7877570</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -36186,13 +36186,13 @@
         <v>45346.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G396" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -36201,25 +36201,25 @@
         <v>209</v>
       </c>
       <c r="K396">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L396">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M396">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N396">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O396">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P396">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q396">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R396">
         <v>1.9</v>
@@ -36228,16 +36228,16 @@
         <v>1.9</v>
       </c>
       <c r="T396">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U396">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V396">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W396">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -36252,10 +36252,10 @@
         <v>-1</v>
       </c>
       <c r="AB396">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC396">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36275,7 +36275,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F397" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G397" t="s">
         <v>49</v>
@@ -36987,7 +36987,7 @@
         <v>45352.77083333334</v>
       </c>
       <c r="F405" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G405" t="s">
         <v>96</v>
@@ -37791,7 +37791,7 @@
         <v>116</v>
       </c>
       <c r="G414" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H414">
         <v>2</v>
@@ -38147,7 +38147,7 @@
         <v>60</v>
       </c>
       <c r="G418" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H418">
         <v>1</v>
@@ -38666,7 +38666,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38678,76 +38678,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G424" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K424">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L424">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M424">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N424">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O424">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P424">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="Q424">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S424">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V424">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38755,7 +38755,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38767,76 +38767,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="F425" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G425" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>3</v>
+      </c>
+      <c r="J425" t="s">
+        <v>211</v>
+      </c>
+      <c r="K425">
+        <v>1.5</v>
+      </c>
+      <c r="L425">
+        <v>4</v>
+      </c>
+      <c r="M425">
+        <v>5</v>
+      </c>
+      <c r="N425">
+        <v>1.5</v>
+      </c>
+      <c r="O425">
+        <v>3.8</v>
+      </c>
+      <c r="P425">
+        <v>5.25</v>
+      </c>
+      <c r="Q425">
+        <v>-1</v>
+      </c>
+      <c r="R425">
+        <v>1.8</v>
+      </c>
+      <c r="S425">
         <v>2</v>
       </c>
-      <c r="I425">
+      <c r="T425">
+        <v>2.75</v>
+      </c>
+      <c r="U425">
+        <v>2</v>
+      </c>
+      <c r="V425">
+        <v>1.8</v>
+      </c>
+      <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
+        <v>4.25</v>
+      </c>
+      <c r="Z425">
+        <v>-1</v>
+      </c>
+      <c r="AA425">
         <v>1</v>
       </c>
-      <c r="J425" t="s">
-        <v>209</v>
-      </c>
-      <c r="K425">
-        <v>1.1</v>
-      </c>
-      <c r="L425">
-        <v>7.5</v>
-      </c>
-      <c r="M425">
-        <v>13</v>
-      </c>
-      <c r="N425">
-        <v>1.142</v>
-      </c>
-      <c r="O425">
-        <v>8</v>
-      </c>
-      <c r="P425">
-        <v>9</v>
-      </c>
-      <c r="Q425">
-        <v>-2.5</v>
-      </c>
-      <c r="R425">
-        <v>1.925</v>
-      </c>
-      <c r="S425">
-        <v>1.875</v>
-      </c>
-      <c r="T425">
-        <v>3.75</v>
-      </c>
-      <c r="U425">
-        <v>1.9</v>
-      </c>
-      <c r="V425">
-        <v>1.9</v>
-      </c>
-      <c r="W425">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
-      <c r="Z425">
-        <v>-1</v>
-      </c>
-      <c r="AA425">
-        <v>0.875</v>
-      </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC425">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -39212,7 +39212,7 @@
         <v>45360.59166666667</v>
       </c>
       <c r="F430" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G430" t="s">
         <v>52</v>
@@ -39378,7 +39378,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7930148</v>
+        <v>7936703</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -39390,58 +39390,58 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F432" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G432" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J432" t="s">
         <v>209</v>
       </c>
       <c r="K432">
-        <v>2.9</v>
+        <v>1.071</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M432">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="N432">
-        <v>2.9</v>
+        <v>1.09</v>
       </c>
       <c r="O432">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P432">
-        <v>1.909</v>
+        <v>21</v>
       </c>
       <c r="Q432">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R432">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T432">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U432">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V432">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W432">
-        <v>1.9</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39450,16 +39450,16 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39467,7 +39467,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7936703</v>
+        <v>7930148</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39479,59 +39479,59 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F433" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G433" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="H433">
+        <v>3</v>
+      </c>
+      <c r="I433">
         <v>2</v>
-      </c>
-      <c r="I433">
-        <v>0</v>
       </c>
       <c r="J433" t="s">
         <v>209</v>
       </c>
       <c r="K433">
-        <v>1.071</v>
+        <v>2.9</v>
       </c>
       <c r="L433">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M433">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="N433">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="O433">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P433">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q433">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R433">
+        <v>1.825</v>
+      </c>
+      <c r="S433">
+        <v>1.975</v>
+      </c>
+      <c r="T433">
+        <v>3.25</v>
+      </c>
+      <c r="U433">
+        <v>1.825</v>
+      </c>
+      <c r="V433">
+        <v>1.975</v>
+      </c>
+      <c r="W433">
         <v>1.9</v>
       </c>
-      <c r="S433">
-        <v>1.9</v>
-      </c>
-      <c r="T433">
-        <v>3.5</v>
-      </c>
-      <c r="U433">
-        <v>1.925</v>
-      </c>
-      <c r="V433">
-        <v>1.875</v>
-      </c>
-      <c r="W433">
-        <v>0.09000000000000008</v>
-      </c>
       <c r="X433">
         <v>-1</v>
       </c>
@@ -39539,16 +39539,16 @@
         <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA433">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC433">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39835,7 +39835,7 @@
         <v>45363.54166666666</v>
       </c>
       <c r="F437" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G437" t="s">
         <v>64</v>
@@ -41440,7 +41440,7 @@
         <v>99</v>
       </c>
       <c r="G455" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H455">
         <v>0</v>
@@ -41796,7 +41796,7 @@
         <v>72</v>
       </c>
       <c r="G459" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H459">
         <v>5</v>
@@ -42060,7 +42060,7 @@
         <v>45373.54166666666</v>
       </c>
       <c r="F462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G462" t="s">
         <v>132</v>
@@ -43039,7 +43039,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F473" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G473" t="s">
         <v>73</v>
@@ -45175,7 +45175,7 @@
         <v>45387.54166666666</v>
       </c>
       <c r="F497" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G497" t="s">
         <v>138</v>
@@ -45430,7 +45430,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>8059324</v>
+        <v>8059325</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -45442,49 +45442,49 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F500" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G500" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J500" t="s">
         <v>211</v>
       </c>
       <c r="K500">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="L500">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M500">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="N500">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="O500">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P500">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q500">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R500">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S500">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T500">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U500">
         <v>1.9</v>
@@ -45499,19 +45499,19 @@
         <v>-1</v>
       </c>
       <c r="Y500">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z500">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA500">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB500">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC500">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -45519,7 +45519,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>8059325</v>
+        <v>8059324</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45531,49 +45531,49 @@
         <v>45388.58333333334</v>
       </c>
       <c r="F501" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G501" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
         <v>2</v>
-      </c>
-      <c r="I501">
-        <v>5</v>
       </c>
       <c r="J501" t="s">
         <v>211</v>
       </c>
       <c r="K501">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L501">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M501">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="N501">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="O501">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P501">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q501">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="R501">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S501">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T501">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U501">
         <v>1.9</v>
@@ -45588,19 +45588,19 @@
         <v>-1</v>
       </c>
       <c r="Y501">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z501">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA501">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB501">
+        <v>-1</v>
+      </c>
+      <c r="AC501">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC501">
-        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -46154,7 +46154,7 @@
         <v>45394.54166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G508" t="s">
         <v>49</v>
@@ -46765,7 +46765,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>8090077</v>
+        <v>8090075</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46777,76 +46777,76 @@
         <v>45395.79166666666</v>
       </c>
       <c r="F515" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G515" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515">
         <v>0</v>
       </c>
       <c r="J515" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K515">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L515">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M515">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N515">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O515">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P515">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q515">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R515">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S515">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T515">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U515">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V515">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W515">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X515">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y515">
         <v>-1</v>
       </c>
       <c r="Z515">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA515">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB515">
         <v>-1</v>
       </c>
       <c r="AC515">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -46854,7 +46854,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>8090075</v>
+        <v>8090078</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46866,76 +46866,76 @@
         <v>45395.79166666666</v>
       </c>
       <c r="F516" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G516" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I516">
         <v>0</v>
       </c>
       <c r="J516" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K516">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L516">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M516">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="N516">
-        <v>2.375</v>
+        <v>1.062</v>
       </c>
       <c r="O516">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P516">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q516">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R516">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S516">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T516">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U516">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V516">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W516">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X516">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y516">
         <v>-1</v>
       </c>
       <c r="Z516">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA516">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB516">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC516">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46943,7 +46943,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>8090078</v>
+        <v>8090077</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46955,13 +46955,13 @@
         <v>45395.79166666666</v>
       </c>
       <c r="F517" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G517" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="H517">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I517">
         <v>0</v>
@@ -46970,34 +46970,34 @@
         <v>209</v>
       </c>
       <c r="K517">
-        <v>1.2</v>
+        <v>1.615</v>
       </c>
       <c r="L517">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M517">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N517">
-        <v>1.062</v>
+        <v>1.7</v>
       </c>
       <c r="O517">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="P517">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q517">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R517">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S517">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T517">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U517">
         <v>2.025</v>
@@ -47006,7 +47006,7 @@
         <v>1.775</v>
       </c>
       <c r="W517">
-        <v>0.06200000000000006</v>
+        <v>0.7</v>
       </c>
       <c r="X517">
         <v>-1</v>
@@ -47015,16 +47015,16 @@
         <v>-1</v>
       </c>
       <c r="Z517">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA517">
         <v>-1</v>
       </c>
       <c r="AB517">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC517">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -47311,10 +47311,10 @@
         <v>45398.54166666666</v>
       </c>
       <c r="F521" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G521" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H521">
         <v>5</v>
@@ -47655,7 +47655,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>8117198</v>
+        <v>8117197</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47667,55 +47667,55 @@
         <v>45401.75</v>
       </c>
       <c r="F525" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G525" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H525">
         <v>0</v>
       </c>
       <c r="I525">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J525" t="s">
         <v>211</v>
       </c>
       <c r="K525">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L525">
         <v>3.3</v>
       </c>
       <c r="M525">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N525">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O525">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P525">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q525">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R525">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S525">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U525">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V525">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W525">
         <v>-1</v>
@@ -47724,19 +47724,19 @@
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47744,7 +47744,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>8117199</v>
+        <v>8117198</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47756,76 +47756,76 @@
         <v>45401.75</v>
       </c>
       <c r="F526" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G526" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H526">
         <v>0</v>
       </c>
       <c r="I526">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J526" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K526">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L526">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M526">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N526">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O526">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P526">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q526">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R526">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S526">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T526">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U526">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V526">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W526">
         <v>-1</v>
       </c>
       <c r="X526">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47833,7 +47833,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>8117197</v>
+        <v>8117199</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47845,76 +47845,76 @@
         <v>45401.75</v>
       </c>
       <c r="F527" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G527" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="H527">
         <v>0</v>
       </c>
       <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527" t="s">
+        <v>210</v>
+      </c>
+      <c r="K527">
+        <v>1.533</v>
+      </c>
+      <c r="L527">
+        <v>4</v>
+      </c>
+      <c r="M527">
+        <v>5</v>
+      </c>
+      <c r="N527">
+        <v>1.444</v>
+      </c>
+      <c r="O527">
+        <v>4.5</v>
+      </c>
+      <c r="P527">
+        <v>5.5</v>
+      </c>
+      <c r="Q527">
+        <v>-1.25</v>
+      </c>
+      <c r="R527">
+        <v>1.9</v>
+      </c>
+      <c r="S527">
+        <v>1.9</v>
+      </c>
+      <c r="T527">
+        <v>3.5</v>
+      </c>
+      <c r="U527">
+        <v>1.8</v>
+      </c>
+      <c r="V527">
+        <v>2</v>
+      </c>
+      <c r="W527">
+        <v>-1</v>
+      </c>
+      <c r="X527">
+        <v>3.5</v>
+      </c>
+      <c r="Y527">
+        <v>-1</v>
+      </c>
+      <c r="Z527">
+        <v>-1</v>
+      </c>
+      <c r="AA527">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB527">
+        <v>-1</v>
+      </c>
+      <c r="AC527">
         <v>1</v>
-      </c>
-      <c r="J527" t="s">
-        <v>211</v>
-      </c>
-      <c r="K527">
-        <v>2.5</v>
-      </c>
-      <c r="L527">
-        <v>3.3</v>
-      </c>
-      <c r="M527">
-        <v>2.5</v>
-      </c>
-      <c r="N527">
-        <v>3.3</v>
-      </c>
-      <c r="O527">
-        <v>3.6</v>
-      </c>
-      <c r="P527">
-        <v>1.909</v>
-      </c>
-      <c r="Q527">
-        <v>0.5</v>
-      </c>
-      <c r="R527">
-        <v>1.85</v>
-      </c>
-      <c r="S527">
-        <v>1.95</v>
-      </c>
-      <c r="T527">
-        <v>3</v>
-      </c>
-      <c r="U527">
-        <v>1.875</v>
-      </c>
-      <c r="V527">
-        <v>1.925</v>
-      </c>
-      <c r="W527">
-        <v>-1</v>
-      </c>
-      <c r="X527">
-        <v>-1</v>
-      </c>
-      <c r="Y527">
-        <v>0.909</v>
-      </c>
-      <c r="Z527">
-        <v>-1</v>
-      </c>
-      <c r="AA527">
-        <v>0.95</v>
-      </c>
-      <c r="AB527">
-        <v>-1</v>
-      </c>
-      <c r="AC527">
-        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -202,10 +202,10 @@
     <t>CF Pachuca III</t>
   </si>
   <si>
-    <t>CEFOR Cuauhtmoc Blanco</t>
+    <t>Club Atltico San Juan de Aragn II</t>
   </si>
   <si>
-    <t>Club Atltico San Juan de Aragn II</t>
+    <t>CEFOR Cuauhtmoc Blanco</t>
   </si>
   <si>
     <t>Atletico Pachuca</t>
@@ -2849,7 +2849,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -4729,7 +4729,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7273554</v>
+        <v>7275940</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4741,73 +4741,73 @@
         <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J44">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="K44">
         <v>4</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M44">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P44">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q44">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>2.75</v>
+      </c>
+      <c r="T44">
+        <v>1.875</v>
+      </c>
+      <c r="U44">
         <v>1.925</v>
       </c>
-      <c r="S44">
-        <v>3.5</v>
-      </c>
-      <c r="T44">
-        <v>1.825</v>
-      </c>
-      <c r="U44">
-        <v>1.975</v>
-      </c>
       <c r="V44">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4815,7 +4815,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7275940</v>
+        <v>7273554</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -4827,73 +4827,73 @@
         <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J45">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
       <c r="L45">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O45">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P45">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -5589,7 +5589,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7278041</v>
+        <v>7278040</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5598,76 +5598,76 @@
         <v>45199.79166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J54">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q54">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5675,7 +5675,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7278040</v>
+        <v>7278041</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5684,76 +5684,76 @@
         <v>45199.79166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>215</v>
+      </c>
+      <c r="J55">
+        <v>2.1</v>
+      </c>
+      <c r="K55">
+        <v>3.3</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>3.3</v>
+      </c>
+      <c r="O55">
+        <v>2.25</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>2.075</v>
+      </c>
+      <c r="R55">
+        <v>1.725</v>
+      </c>
+      <c r="S55">
+        <v>2.75</v>
+      </c>
+      <c r="T55">
+        <v>1.8</v>
+      </c>
+      <c r="U55">
         <v>2</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>213</v>
-      </c>
-      <c r="J55">
-        <v>1.8</v>
-      </c>
-      <c r="K55">
-        <v>3.2</v>
-      </c>
-      <c r="L55">
-        <v>4</v>
-      </c>
-      <c r="M55">
-        <v>1.8</v>
-      </c>
-      <c r="N55">
-        <v>3.2</v>
-      </c>
-      <c r="O55">
-        <v>4</v>
-      </c>
-      <c r="P55">
+      <c r="V55">
+        <v>-1</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>1.25</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>0.4</v>
+      </c>
+      <c r="AB55">
         <v>-0.5</v>
-      </c>
-      <c r="Q55">
-        <v>1.85</v>
-      </c>
-      <c r="R55">
-        <v>1.95</v>
-      </c>
-      <c r="S55">
-        <v>2.5</v>
-      </c>
-      <c r="T55">
-        <v>1.85</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>0.8</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -6375,7 +6375,7 @@
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
         <v>75</v>
@@ -15574,10 +15574,10 @@
         <v>45237.58333333334</v>
       </c>
       <c r="E170" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170" t="s">
         <v>63</v>
-      </c>
-      <c r="F170" t="s">
-        <v>62</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -18673,7 +18673,7 @@
         <v>71</v>
       </c>
       <c r="F206" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F213" t="s">
         <v>96</v>
@@ -21081,7 +21081,7 @@
         <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -21511,7 +21511,7 @@
         <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G239">
         <v>4</v>
@@ -22024,7 +22024,7 @@
         <v>45254.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F245" t="s">
         <v>36</v>
@@ -23489,7 +23489,7 @@
         <v>75</v>
       </c>
       <c r="F262" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -24091,7 +24091,7 @@
         <v>31</v>
       </c>
       <c r="F269" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -25467,7 +25467,7 @@
         <v>60</v>
       </c>
       <c r="F285" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G285">
         <v>2</v>
@@ -26487,7 +26487,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -26496,40 +26496,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="E297" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F297" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="G297">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H297">
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J297">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="K297">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L297">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="M297">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N297">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O297">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="P297">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q297">
         <v>1.9</v>
@@ -26538,34 +26538,34 @@
         <v>1.9</v>
       </c>
       <c r="S297">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V297">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y297">
+        <v>-1</v>
+      </c>
+      <c r="Z297">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z297">
-        <v>-1</v>
-      </c>
       <c r="AA297">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26573,7 +26573,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -26582,40 +26582,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="E298" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F298" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="G298">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H298">
         <v>2</v>
       </c>
       <c r="I298" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J298">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="K298">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L298">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M298">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N298">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O298">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="P298">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q298">
         <v>1.9</v>
@@ -26624,34 +26624,34 @@
         <v>1.9</v>
       </c>
       <c r="S298">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T298">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U298">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z298">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB298">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -27433,7 +27433,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -27442,13 +27442,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F308" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="G308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -27457,43 +27457,43 @@
         <v>213</v>
       </c>
       <c r="J308">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K308">
+        <v>3.3</v>
+      </c>
+      <c r="L308">
         <v>4</v>
       </c>
-      <c r="L308">
-        <v>7</v>
-      </c>
       <c r="M308">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="N308">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O308">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P308">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R308">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S308">
         <v>3.25</v>
       </c>
       <c r="T308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U308">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V308">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="W308">
         <v>-1</v>
@@ -27502,16 +27502,16 @@
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -27519,7 +27519,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C309" t="s">
         <v>27</v>
@@ -27528,13 +27528,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F309" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27543,43 +27543,43 @@
         <v>213</v>
       </c>
       <c r="J309">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M309">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O309">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P309">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S309">
         <v>3.25</v>
       </c>
       <c r="T309">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U309">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -27588,16 +27588,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:28">
@@ -28047,7 +28047,7 @@
         <v>95</v>
       </c>
       <c r="F315" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -29583,7 +29583,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
@@ -29592,58 +29592,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E333" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F333" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" t="s">
         <v>213</v>
       </c>
       <c r="J333">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L333">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="M333">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="N333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O333">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="P333">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q333">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R333">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S333">
         <v>3</v>
       </c>
       <c r="T333">
+        <v>1.975</v>
+      </c>
+      <c r="U333">
         <v>1.825</v>
       </c>
-      <c r="U333">
-        <v>1.975</v>
-      </c>
       <c r="V333">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -29652,13 +29652,13 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB333">
         <v>-1</v>
@@ -29669,7 +29669,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776770</v>
+        <v>7776619</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -29678,76 +29678,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E334" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F334" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H334">
         <v>1</v>
       </c>
       <c r="I334" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J334">
+        <v>1.5</v>
+      </c>
+      <c r="K334">
+        <v>4</v>
+      </c>
+      <c r="L334">
+        <v>5</v>
+      </c>
+      <c r="M334">
+        <v>1.533</v>
+      </c>
+      <c r="N334">
+        <v>3.6</v>
+      </c>
+      <c r="O334">
+        <v>5.25</v>
+      </c>
+      <c r="P334">
+        <v>-1</v>
+      </c>
+      <c r="Q334">
+        <v>1.975</v>
+      </c>
+      <c r="R334">
+        <v>1.825</v>
+      </c>
+      <c r="S334">
+        <v>2.25</v>
+      </c>
+      <c r="T334">
+        <v>1.875</v>
+      </c>
+      <c r="U334">
+        <v>1.925</v>
+      </c>
+      <c r="V334">
+        <v>-1</v>
+      </c>
+      <c r="W334">
         <v>2.6</v>
       </c>
-      <c r="K334">
-        <v>3.75</v>
-      </c>
-      <c r="L334">
-        <v>2.2</v>
-      </c>
-      <c r="M334">
-        <v>2.625</v>
-      </c>
-      <c r="N334">
-        <v>3.75</v>
-      </c>
-      <c r="O334">
-        <v>2.2</v>
-      </c>
-      <c r="P334">
-        <v>0.25</v>
-      </c>
-      <c r="Q334">
-        <v>1.8</v>
-      </c>
-      <c r="R334">
-        <v>2</v>
-      </c>
-      <c r="S334">
-        <v>3</v>
-      </c>
-      <c r="T334">
-        <v>1.975</v>
-      </c>
-      <c r="U334">
-        <v>1.825</v>
-      </c>
-      <c r="V334">
-        <v>1.625</v>
-      </c>
-      <c r="W334">
-        <v>-1</v>
-      </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA334">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29755,7 +29755,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776619</v>
+        <v>7776618</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29764,76 +29764,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J335">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K335">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L335">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M335">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="N335">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O335">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="P335">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q335">
+        <v>1.95</v>
+      </c>
+      <c r="R335">
+        <v>1.85</v>
+      </c>
+      <c r="S335">
+        <v>3</v>
+      </c>
+      <c r="T335">
+        <v>1.825</v>
+      </c>
+      <c r="U335">
         <v>1.975</v>
       </c>
-      <c r="R335">
-        <v>1.825</v>
-      </c>
-      <c r="S335">
-        <v>2.25</v>
-      </c>
-      <c r="T335">
-        <v>1.875</v>
-      </c>
-      <c r="U335">
-        <v>1.925</v>
-      </c>
       <c r="V335">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W335">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z335">
+        <v>-1</v>
+      </c>
+      <c r="AA335">
         <v>0.825</v>
       </c>
-      <c r="AA335">
-        <v>-0.5</v>
-      </c>
       <c r="AB335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -30271,7 +30271,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C341" t="s">
         <v>27</v>
@@ -30280,59 +30280,59 @@
         <v>45325.79166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F341" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G341">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341" t="s">
         <v>213</v>
       </c>
       <c r="J341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="K341">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N341">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="P341">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q341">
+        <v>1.9</v>
+      </c>
+      <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>2.75</v>
+      </c>
+      <c r="T341">
         <v>1.875</v>
       </c>
-      <c r="R341">
+      <c r="U341">
         <v>1.925</v>
       </c>
-      <c r="S341">
-        <v>3</v>
-      </c>
-      <c r="T341">
+      <c r="V341">
         <v>2</v>
       </c>
-      <c r="U341">
-        <v>1.8</v>
-      </c>
-      <c r="V341">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
@@ -30340,16 +30340,16 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -30357,7 +30357,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C342" t="s">
         <v>27</v>
@@ -30366,58 +30366,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="E342" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F342" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="s">
         <v>213</v>
       </c>
       <c r="J342">
+        <v>1.533</v>
+      </c>
+      <c r="K342">
+        <v>3.75</v>
+      </c>
+      <c r="L342">
+        <v>5</v>
+      </c>
+      <c r="M342">
+        <v>1.533</v>
+      </c>
+      <c r="N342">
+        <v>3.8</v>
+      </c>
+      <c r="O342">
+        <v>5</v>
+      </c>
+      <c r="P342">
+        <v>-1</v>
+      </c>
+      <c r="Q342">
+        <v>1.875</v>
+      </c>
+      <c r="R342">
+        <v>1.925</v>
+      </c>
+      <c r="S342">
         <v>3</v>
       </c>
-      <c r="K342">
-        <v>3.4</v>
-      </c>
-      <c r="L342">
-        <v>2.1</v>
-      </c>
-      <c r="M342">
-        <v>3</v>
-      </c>
-      <c r="N342">
-        <v>3.4</v>
-      </c>
-      <c r="O342">
-        <v>2.1</v>
-      </c>
-      <c r="P342">
-        <v>0.25</v>
-      </c>
-      <c r="Q342">
-        <v>1.9</v>
-      </c>
-      <c r="R342">
-        <v>1.9</v>
-      </c>
-      <c r="S342">
-        <v>2.75</v>
-      </c>
       <c r="T342">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U342">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V342">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W342">
         <v>-1</v>
@@ -30426,16 +30426,16 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -31140,7 +31140,7 @@
         <v>45328.59097222222</v>
       </c>
       <c r="E351" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F351" t="s">
         <v>47</v>
@@ -32089,7 +32089,7 @@
         <v>57</v>
       </c>
       <c r="F362" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G362">
         <v>0</v>
@@ -32605,7 +32605,7 @@
         <v>36</v>
       </c>
       <c r="F368" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>71</v>
       </c>
       <c r="F382" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G382">
         <v>1</v>
@@ -33981,7 +33981,7 @@
         <v>126</v>
       </c>
       <c r="F384" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G384">
         <v>0</v>
@@ -35443,7 +35443,7 @@
         <v>75</v>
       </c>
       <c r="F401" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G401">
         <v>2</v>
@@ -38539,7 +38539,7 @@
         <v>60</v>
       </c>
       <c r="F437" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -40775,7 +40775,7 @@
         <v>76</v>
       </c>
       <c r="F463" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G463">
         <v>3</v>
@@ -43438,7 +43438,7 @@
         <v>45383.58333333334</v>
       </c>
       <c r="E494" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F494" t="s">
         <v>35</v>
@@ -46611,7 +46611,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8121529</v>
+        <v>8123619</v>
       </c>
       <c r="C531" t="s">
         <v>27</v>
@@ -46620,76 +46620,76 @@
         <v>45402.79166666666</v>
       </c>
       <c r="E531" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="F531" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H531">
         <v>0</v>
       </c>
       <c r="I531" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J531">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="K531">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="L531">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="M531">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="N531">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O531">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="P531">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q531">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R531">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S531">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T531">
+        <v>1.925</v>
+      </c>
+      <c r="U531">
         <v>1.875</v>
       </c>
-      <c r="U531">
-        <v>1.925</v>
-      </c>
       <c r="V531">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W531">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X531">
         <v>-1</v>
       </c>
       <c r="Y531">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z531">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA531">
         <v>-1</v>
       </c>
       <c r="AB531">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="532" spans="1:28">
@@ -46697,7 +46697,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>8123619</v>
+        <v>8121529</v>
       </c>
       <c r="C532" t="s">
         <v>27</v>
@@ -46706,76 +46706,76 @@
         <v>45402.79166666666</v>
       </c>
       <c r="E532" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F532" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0</v>
       </c>
       <c r="I532" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J532">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="K532">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L532">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="M532">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N532">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O532">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="P532">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q532">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R532">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S532">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T532">
+        <v>1.875</v>
+      </c>
+      <c r="U532">
         <v>1.925</v>
       </c>
-      <c r="U532">
-        <v>1.875</v>
-      </c>
       <c r="V532">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W532">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X532">
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z532">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA532">
         <v>-1</v>
       </c>
       <c r="AB532">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="533" spans="1:28">
@@ -47299,7 +47299,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>8136732</v>
+        <v>8136727</v>
       </c>
       <c r="C539" t="s">
         <v>27</v>
@@ -47308,73 +47308,73 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E539" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F539" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="G539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I539" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J539">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K539">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L539">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="M539">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N539">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O539">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="P539">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q539">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R539">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S539">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T539">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U539">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V539">
         <v>-1</v>
       </c>
       <c r="W539">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X539">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y539">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z539">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA539">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB539">
         <v>-1</v>
@@ -47385,7 +47385,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>8136727</v>
+        <v>8136732</v>
       </c>
       <c r="C540" t="s">
         <v>27</v>
@@ -47394,73 +47394,73 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E540" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F540" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="G540">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H540">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I540" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J540">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K540">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L540">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="M540">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N540">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O540">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="P540">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q540">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R540">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S540">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T540">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U540">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V540">
         <v>-1</v>
       </c>
       <c r="W540">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X540">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z540">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA540">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB540">
         <v>-1</v>
@@ -47471,7 +47471,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>8136744</v>
+        <v>8136728</v>
       </c>
       <c r="C541" t="s">
         <v>27</v>
@@ -47480,49 +47480,49 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E541" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="F541" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="G541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J541">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K541">
         <v>3.5</v>
       </c>
       <c r="L541">
+        <v>2.875</v>
+      </c>
+      <c r="M541">
+        <v>2.3</v>
+      </c>
+      <c r="N541">
+        <v>3.5</v>
+      </c>
+      <c r="O541">
+        <v>2.55</v>
+      </c>
+      <c r="P541">
+        <v>0</v>
+      </c>
+      <c r="Q541">
+        <v>1.8</v>
+      </c>
+      <c r="R541">
         <v>2</v>
       </c>
-      <c r="M541">
-        <v>3.5</v>
-      </c>
-      <c r="N541">
-        <v>3.6</v>
-      </c>
-      <c r="O541">
-        <v>1.8</v>
-      </c>
-      <c r="P541">
-        <v>0.5</v>
-      </c>
-      <c r="Q541">
-        <v>1.95</v>
-      </c>
-      <c r="R541">
-        <v>1.85</v>
-      </c>
       <c r="S541">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T541">
         <v>1.825</v>
@@ -47531,19 +47531,19 @@
         <v>1.975</v>
       </c>
       <c r="V541">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="W541">
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y541">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z541">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA541">
         <v>-1</v>
@@ -47557,7 +47557,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>8136728</v>
+        <v>8136744</v>
       </c>
       <c r="C542" t="s">
         <v>27</v>
@@ -47566,49 +47566,49 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E542" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="F542" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="G542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J542">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K542">
         <v>3.5</v>
       </c>
       <c r="L542">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="M542">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N542">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O542">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="P542">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q542">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R542">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S542">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T542">
         <v>1.825</v>
@@ -47617,19 +47617,19 @@
         <v>1.975</v>
       </c>
       <c r="V542">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="W542">
         <v>-1</v>
       </c>
       <c r="X542">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y542">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z542">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA542">
         <v>-1</v>
@@ -47741,7 +47741,7 @@
         <v>138</v>
       </c>
       <c r="F544" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G544">
         <v>0</v>
@@ -48503,7 +48503,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>8153471</v>
+        <v>8153470</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -48512,76 +48512,76 @@
         <v>45410.625</v>
       </c>
       <c r="E553" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F553" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+      <c r="I553" t="s">
+        <v>214</v>
+      </c>
+      <c r="J553">
+        <v>1.533</v>
+      </c>
+      <c r="K553">
         <v>4</v>
       </c>
-      <c r="H553">
-        <v>0</v>
-      </c>
-      <c r="I553" t="s">
-        <v>213</v>
-      </c>
-      <c r="J553">
-        <v>1.8</v>
-      </c>
-      <c r="K553">
-        <v>3.5</v>
-      </c>
       <c r="L553">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M553">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="N553">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O553">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P553">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q553">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R553">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S553">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T553">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U553">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V553">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W553">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X553">
         <v>-1</v>
       </c>
       <c r="Y553">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z553">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA553">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB553">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="554" spans="1:28">
@@ -48589,7 +48589,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>8153470</v>
+        <v>8153471</v>
       </c>
       <c r="C554" t="s">
         <v>27</v>
@@ -48598,76 +48598,76 @@
         <v>45410.625</v>
       </c>
       <c r="E554" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="F554" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J554">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="K554">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L554">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M554">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="N554">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O554">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P554">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q554">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R554">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S554">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T554">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U554">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V554">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W554">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X554">
         <v>-1</v>
       </c>
       <c r="Y554">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z554">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA554">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB554">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555" spans="1:28">
@@ -48942,7 +48942,7 @@
         <v>45410.79166666666</v>
       </c>
       <c r="E558" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F558" t="s">
         <v>138</v>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -172,10 +172,10 @@
     <t>Faraones Texcoco</t>
   </si>
   <si>
-    <t>Club Deportivo CDH</t>
+    <t>Cimarrones de Sonora FC III</t>
   </si>
   <si>
-    <t>Cimarrones de Sonora FC III</t>
+    <t>Club Deportivo CDH</t>
   </si>
   <si>
     <t>Atlante Xalapa</t>
@@ -325,10 +325,10 @@
     <t>Titanes de Queretaro</t>
   </si>
   <si>
-    <t>Club Deportivo guila Azteca</t>
+    <t>Delfines UGM</t>
   </si>
   <si>
-    <t>Delfines UGM</t>
+    <t>Club Deportivo guila Azteca</t>
   </si>
   <si>
     <t>Mineros Queretaro</t>
@@ -550,10 +550,10 @@
     <t>Aragon FC</t>
   </si>
   <si>
-    <t>Fuerza Mazahua FC</t>
+    <t>Boston Cancun FC</t>
   </si>
   <si>
-    <t>Boston Cancun FC</t>
+    <t>Fuerza Mazahua FC</t>
   </si>
   <si>
     <t>Tigres UANL II</t>
@@ -3531,7 +3531,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7246964</v>
+        <v>7246869</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3543,73 +3543,73 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J30">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L30">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O30">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q30">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
         <v>3</v>
       </c>
       <c r="T30">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W30">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3617,7 +3617,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7246869</v>
+        <v>7246964</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3629,73 +3629,73 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J31">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="K31">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q31">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -5263,7 +5263,7 @@
         <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -6295,7 +6295,7 @@
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>45213.58333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92" t="s">
         <v>159</v>
@@ -10497,7 +10497,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7369105</v>
+        <v>7369117</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10506,76 +10506,76 @@
         <v>45220.75</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>215</v>
+      </c>
+      <c r="J111">
+        <v>1.615</v>
+      </c>
+      <c r="K111">
+        <v>3.6</v>
+      </c>
+      <c r="L111">
+        <v>5</v>
+      </c>
+      <c r="M111">
+        <v>1.615</v>
+      </c>
+      <c r="N111">
+        <v>3.6</v>
+      </c>
+      <c r="O111">
+        <v>5</v>
+      </c>
+      <c r="P111">
+        <v>-0.75</v>
+      </c>
+      <c r="Q111">
+        <v>1.8</v>
+      </c>
+      <c r="R111">
         <v>2</v>
       </c>
-      <c r="I111" t="s">
-        <v>217</v>
-      </c>
-      <c r="J111">
-        <v>5</v>
-      </c>
-      <c r="K111">
-        <v>4</v>
-      </c>
-      <c r="L111">
-        <v>1.533</v>
-      </c>
-      <c r="M111">
-        <v>7.5</v>
-      </c>
-      <c r="N111">
-        <v>4.5</v>
-      </c>
-      <c r="O111">
-        <v>1.363</v>
-      </c>
-      <c r="P111">
-        <v>1.5</v>
-      </c>
-      <c r="Q111">
-        <v>1.75</v>
-      </c>
-      <c r="R111">
+      <c r="S111">
+        <v>2.5</v>
+      </c>
+      <c r="T111">
+        <v>1.85</v>
+      </c>
+      <c r="U111">
         <v>1.95</v>
       </c>
-      <c r="S111">
-        <v>2.75</v>
-      </c>
-      <c r="T111">
-        <v>1.8</v>
-      </c>
-      <c r="U111">
-        <v>2</v>
-      </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10583,7 +10583,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7369117</v>
+        <v>7369105</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10592,76 +10592,76 @@
         <v>45220.75</v>
       </c>
       <c r="E112" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>2</v>
       </c>
-      <c r="H112">
+      <c r="I112" t="s">
+        <v>217</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>1.533</v>
+      </c>
+      <c r="M112">
+        <v>7.5</v>
+      </c>
+      <c r="N112">
+        <v>4.5</v>
+      </c>
+      <c r="O112">
+        <v>1.363</v>
+      </c>
+      <c r="P112">
+        <v>1.5</v>
+      </c>
+      <c r="Q112">
+        <v>1.75</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>2.75</v>
+      </c>
+      <c r="T112">
+        <v>1.8</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
+        <v>-1</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>0.363</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>0.95</v>
+      </c>
+      <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
         <v>1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>215</v>
-      </c>
-      <c r="J112">
-        <v>1.615</v>
-      </c>
-      <c r="K112">
-        <v>3.6</v>
-      </c>
-      <c r="L112">
-        <v>5</v>
-      </c>
-      <c r="M112">
-        <v>1.615</v>
-      </c>
-      <c r="N112">
-        <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>5</v>
-      </c>
-      <c r="P112">
-        <v>-0.75</v>
-      </c>
-      <c r="Q112">
-        <v>1.8</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>2.5</v>
-      </c>
-      <c r="T112">
-        <v>1.85</v>
-      </c>
-      <c r="U112">
-        <v>1.95</v>
-      </c>
-      <c r="V112">
-        <v>0.615</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>0.4</v>
-      </c>
-      <c r="Z112">
-        <v>-0.5</v>
-      </c>
-      <c r="AA112">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10669,7 +10669,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7369107</v>
+        <v>7369152</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10678,49 +10678,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113" t="s">
+        <v>217</v>
+      </c>
+      <c r="J113">
+        <v>2.2</v>
+      </c>
+      <c r="K113">
+        <v>3.2</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>2.4</v>
+      </c>
+      <c r="N113">
+        <v>3.2</v>
+      </c>
+      <c r="O113">
+        <v>2.6</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1.8</v>
+      </c>
+      <c r="R113">
         <v>2</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>215</v>
-      </c>
-      <c r="J113">
-        <v>1.909</v>
-      </c>
-      <c r="K113">
-        <v>3.3</v>
-      </c>
-      <c r="L113">
-        <v>3.5</v>
-      </c>
-      <c r="M113">
-        <v>1.666</v>
-      </c>
-      <c r="N113">
-        <v>3.5</v>
-      </c>
-      <c r="O113">
-        <v>4.333</v>
-      </c>
-      <c r="P113">
-        <v>-0.75</v>
-      </c>
-      <c r="Q113">
-        <v>1.875</v>
-      </c>
-      <c r="R113">
-        <v>1.925</v>
-      </c>
       <c r="S113">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T113">
         <v>1.8</v>
@@ -10729,25 +10729,25 @@
         <v>2</v>
       </c>
       <c r="V113">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10755,7 +10755,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7369152</v>
+        <v>7369107</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10764,49 +10764,49 @@
         <v>45220.83333333334</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J114">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K114">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L114">
+        <v>3.5</v>
+      </c>
+      <c r="M114">
+        <v>1.666</v>
+      </c>
+      <c r="N114">
+        <v>3.5</v>
+      </c>
+      <c r="O114">
+        <v>4.333</v>
+      </c>
+      <c r="P114">
+        <v>-0.75</v>
+      </c>
+      <c r="Q114">
+        <v>1.875</v>
+      </c>
+      <c r="R114">
+        <v>1.925</v>
+      </c>
+      <c r="S114">
         <v>3</v>
-      </c>
-      <c r="M114">
-        <v>2.4</v>
-      </c>
-      <c r="N114">
-        <v>3.2</v>
-      </c>
-      <c r="O114">
-        <v>2.6</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>1.8</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
-      </c>
-      <c r="S114">
-        <v>2.25</v>
       </c>
       <c r="T114">
         <v>1.8</v>
@@ -10815,25 +10815,25 @@
         <v>2</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>1</v>
-      </c>
-      <c r="AA114">
-        <v>0.8</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -11357,7 +11357,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7393703</v>
+        <v>7393702</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -11366,76 +11366,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F121" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J121">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L121">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
         <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
         <v>2.75</v>
       </c>
       <c r="T121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
+        <v>0.875</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.4375</v>
+      </c>
+      <c r="AB121">
         <v>-0.5</v>
-      </c>
-      <c r="Z121">
-        <v>0.3625</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11443,7 +11443,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7393702</v>
+        <v>7393703</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -11452,76 +11452,76 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P122">
         <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S122">
         <v>2.75</v>
       </c>
       <c r="T122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA122">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11701,7 +11701,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7394137</v>
+        <v>7394136</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11710,13 +11710,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F125" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11725,43 +11725,43 @@
         <v>215</v>
       </c>
       <c r="J125">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K125">
         <v>3.3</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
         <v>2.75</v>
       </c>
       <c r="T125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11770,16 +11770,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11787,7 +11787,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7394136</v>
+        <v>7394137</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11796,13 +11796,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11811,43 +11811,43 @@
         <v>215</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K126">
         <v>3.3</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S126">
         <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11856,16 +11856,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -13249,7 +13249,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7425467</v>
+        <v>7425469</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -13258,10 +13258,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -13273,58 +13273,58 @@
         <v>217</v>
       </c>
       <c r="J143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L143">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N143">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>2.05</v>
+      </c>
+      <c r="R143">
+        <v>1.75</v>
+      </c>
+      <c r="S143">
+        <v>2.25</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.8</v>
+      </c>
+      <c r="V143">
+        <v>-1</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>1.375</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.75</v>
+      </c>
+      <c r="AA143">
         <v>1</v>
-      </c>
-      <c r="Q143">
-        <v>1.95</v>
-      </c>
-      <c r="R143">
-        <v>1.85</v>
-      </c>
-      <c r="S143">
-        <v>3</v>
-      </c>
-      <c r="T143">
-        <v>1.75</v>
-      </c>
-      <c r="U143">
-        <v>1.95</v>
-      </c>
-      <c r="V143">
-        <v>-1</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA143">
-        <v>0.75</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -13335,7 +13335,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7425469</v>
+        <v>7425467</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -13344,10 +13344,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -13359,40 +13359,40 @@
         <v>217</v>
       </c>
       <c r="J144">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="K144">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="M144">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O144">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
         <v>1.75</v>
       </c>
-      <c r="S144">
-        <v>2.25</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
         <v>-1</v>
@@ -13401,16 +13401,16 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA144">
         <v>0.75</v>
-      </c>
-      <c r="AA144">
-        <v>1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13593,7 +13593,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425470</v>
+        <v>7425936</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13602,76 +13602,76 @@
         <v>45233.75</v>
       </c>
       <c r="E147" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
         <v>178</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>217</v>
+      </c>
+      <c r="J147">
+        <v>3.3</v>
+      </c>
+      <c r="K147">
+        <v>3.5</v>
+      </c>
+      <c r="L147">
+        <v>1.909</v>
+      </c>
+      <c r="M147">
+        <v>3.3</v>
+      </c>
+      <c r="N147">
+        <v>3.5</v>
+      </c>
+      <c r="O147">
+        <v>1.909</v>
+      </c>
+      <c r="P147">
+        <v>0.25</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
+        <v>2.75</v>
+      </c>
+      <c r="T147">
+        <v>1.8</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>-1</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>0.909</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.8</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
         <v>1</v>
-      </c>
-      <c r="I147" t="s">
-        <v>215</v>
-      </c>
-      <c r="J147">
-        <v>1.727</v>
-      </c>
-      <c r="K147">
-        <v>3.75</v>
-      </c>
-      <c r="L147">
-        <v>4</v>
-      </c>
-      <c r="M147">
-        <v>1.45</v>
-      </c>
-      <c r="N147">
-        <v>4</v>
-      </c>
-      <c r="O147">
-        <v>5.5</v>
-      </c>
-      <c r="P147">
-        <v>-1</v>
-      </c>
-      <c r="Q147">
-        <v>1.8</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>3</v>
-      </c>
-      <c r="T147">
-        <v>1.85</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
-      <c r="V147">
-        <v>0.45</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>0.8</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13679,7 +13679,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7425936</v>
+        <v>7425963</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13688,55 +13688,55 @@
         <v>45233.75</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="s">
         <v>217</v>
       </c>
       <c r="J148">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="K148">
         <v>3.5</v>
       </c>
       <c r="L148">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N148">
         <v>3.5</v>
       </c>
       <c r="O148">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="P148">
         <v>0.25</v>
       </c>
       <c r="Q148">
+        <v>1.8</v>
+      </c>
+      <c r="R148">
         <v>2</v>
-      </c>
-      <c r="R148">
-        <v>1.8</v>
       </c>
       <c r="S148">
         <v>2.75</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13745,19 +13745,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13765,7 +13765,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7425963</v>
+        <v>7425470</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13774,40 +13774,40 @@
         <v>45233.75</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F149" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J149">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L149">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="N149">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O149">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q149">
         <v>1.8</v>
@@ -13816,34 +13816,34 @@
         <v>2</v>
       </c>
       <c r="S149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -14121,7 +14121,7 @@
         <v>99</v>
       </c>
       <c r="F153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14293,7 +14293,7 @@
         <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -15829,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7448459</v>
+        <v>7447276</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15838,59 +15838,59 @@
         <v>45237.75</v>
       </c>
       <c r="E173" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>215</v>
       </c>
       <c r="J173">
+        <v>4</v>
+      </c>
+      <c r="K173">
+        <v>3.5</v>
+      </c>
+      <c r="L173">
         <v>1.727</v>
       </c>
-      <c r="K173">
-        <v>3.75</v>
-      </c>
-      <c r="L173">
-        <v>3.75</v>
-      </c>
       <c r="M173">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="P173">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S173">
+        <v>2.5</v>
+      </c>
+      <c r="T173">
+        <v>1.95</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>3</v>
       </c>
-      <c r="T173">
-        <v>1.9</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15898,16 +15898,16 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7447276</v>
+        <v>7450086</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15924,13 +15924,13 @@
         <v>45237.75</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15939,43 +15939,43 @@
         <v>215</v>
       </c>
       <c r="J174">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L174">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="M174">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="N174">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O174">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="P174">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="Q174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S174">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15984,7 +15984,7 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z174">
         <v>-1</v>
@@ -15993,7 +15993,7 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -16001,7 +16001,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7450086</v>
+        <v>7448459</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -16013,55 +16013,55 @@
         <v>104</v>
       </c>
       <c r="F175" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="s">
         <v>215</v>
       </c>
       <c r="J175">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="K175">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="L175">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="N175">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q175">
+        <v>1.875</v>
+      </c>
+      <c r="R175">
+        <v>1.925</v>
+      </c>
+      <c r="S175">
+        <v>3</v>
+      </c>
+      <c r="T175">
         <v>1.9</v>
       </c>
-      <c r="R175">
+      <c r="U175">
         <v>1.9</v>
       </c>
-      <c r="S175">
-        <v>3.75</v>
-      </c>
-      <c r="T175">
-        <v>1.825</v>
-      </c>
-      <c r="U175">
-        <v>1.975</v>
-      </c>
       <c r="V175">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -16070,16 +16070,16 @@
         <v>-1</v>
       </c>
       <c r="Y175">
+        <v>0.875</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z175">
-        <v>-1</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -16861,7 +16861,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7461148</v>
+        <v>7459226</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16870,76 +16870,76 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E185" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J185">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="K185">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N185">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="P185">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q185">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S185">
         <v>3</v>
       </c>
       <c r="T185">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
         <v>-1</v>
       </c>
       <c r="W185">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16947,7 +16947,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7459226</v>
+        <v>7461148</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16956,76 +16956,76 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L186">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="M186">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O186">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q186">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
         <v>3</v>
       </c>
       <c r="T186">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V186">
         <v>-1</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X186">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -17291,7 +17291,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7462543</v>
+        <v>7458909</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -17300,76 +17300,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F190" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J190">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="K190">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="M190">
+        <v>5</v>
+      </c>
+      <c r="N190">
+        <v>5.5</v>
+      </c>
+      <c r="O190">
+        <v>1.363</v>
+      </c>
+      <c r="P190">
+        <v>1.5</v>
+      </c>
+      <c r="Q190">
+        <v>1.85</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>3.25</v>
+      </c>
+      <c r="T190">
         <v>2</v>
       </c>
-      <c r="N190">
-        <v>3.4</v>
-      </c>
-      <c r="O190">
-        <v>3.1</v>
-      </c>
-      <c r="P190">
-        <v>-0.25</v>
-      </c>
-      <c r="Q190">
+      <c r="U190">
         <v>1.8</v>
       </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>2.5</v>
-      </c>
-      <c r="T190">
-        <v>1.95</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
       <c r="V190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z190">
+        <v>-1</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>0.8</v>
-      </c>
-      <c r="Z190">
-        <v>-1</v>
-      </c>
-      <c r="AA190">
-        <v>0.95</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17377,7 +17377,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7458909</v>
+        <v>7462543</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17386,76 +17386,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J191">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="K191">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L191">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="M191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N191">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O191">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q191">
+        <v>1.8</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>2.5</v>
+      </c>
+      <c r="T191">
+        <v>1.95</v>
+      </c>
+      <c r="U191">
         <v>1.85</v>
       </c>
-      <c r="R191">
-        <v>1.95</v>
-      </c>
-      <c r="S191">
-        <v>3.25</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.8</v>
-      </c>
       <c r="V191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W191">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17644,7 +17644,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F194" t="s">
         <v>98</v>
@@ -17721,7 +17721,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7457560</v>
+        <v>7462453</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17730,55 +17730,55 @@
         <v>45241.59027777778</v>
       </c>
       <c r="E195" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F195" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195" t="s">
         <v>217</v>
       </c>
       <c r="J195">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="K195">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L195">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M195">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="N195">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O195">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="P195">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q195">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R195">
         <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="T195">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
         <v>-1</v>
@@ -17787,7 +17787,7 @@
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>1.625</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17796,10 +17796,10 @@
         <v>0.925</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17807,7 +17807,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7462453</v>
+        <v>7457560</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17816,55 +17816,55 @@
         <v>45241.59027777778</v>
       </c>
       <c r="E196" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F196" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
         <v>1</v>
-      </c>
-      <c r="H196">
-        <v>3</v>
       </c>
       <c r="I196" t="s">
         <v>217</v>
       </c>
       <c r="J196">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="K196">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L196">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M196">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="N196">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O196">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="P196">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q196">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R196">
         <v>1.925</v>
       </c>
       <c r="S196">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="T196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
         <v>-1</v>
@@ -17873,7 +17873,7 @@
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>0.3999999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -17882,10 +17882,10 @@
         <v>0.925</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -19183,7 +19183,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486567</v>
+        <v>7486046</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -19192,10 +19192,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F212" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -19207,43 +19207,43 @@
         <v>215</v>
       </c>
       <c r="J212">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K212">
         <v>5</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M212">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N212">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="O212">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P212">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q212">
+        <v>2</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>3</v>
+      </c>
+      <c r="T212">
+        <v>1.825</v>
+      </c>
+      <c r="U212">
         <v>1.975</v>
       </c>
-      <c r="R212">
-        <v>1.825</v>
-      </c>
-      <c r="S212">
-        <v>3.25</v>
-      </c>
-      <c r="T212">
-        <v>2.025</v>
-      </c>
-      <c r="U212">
-        <v>1.775</v>
-      </c>
       <c r="V212">
-        <v>0.363</v>
+        <v>0.2</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -19255,13 +19255,13 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -19269,7 +19269,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7486046</v>
+        <v>7486113</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -19278,10 +19278,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F213" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -19293,44 +19293,44 @@
         <v>215</v>
       </c>
       <c r="J213">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="K213">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="M213">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="N213">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="P213">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q213">
+        <v>1.875</v>
+      </c>
+      <c r="R213">
+        <v>1.925</v>
+      </c>
+      <c r="S213">
+        <v>2.5</v>
+      </c>
+      <c r="T213">
+        <v>1.9</v>
+      </c>
+      <c r="U213">
+        <v>1.9</v>
+      </c>
+      <c r="V213">
         <v>2</v>
       </c>
-      <c r="R213">
-        <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>3</v>
-      </c>
-      <c r="T213">
-        <v>1.825</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>0.2</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
@@ -19338,16 +19338,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19355,7 +19355,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486113</v>
+        <v>7486567</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -19364,10 +19364,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F214" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -19379,43 +19379,43 @@
         <v>215</v>
       </c>
       <c r="J214">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="K214">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L214">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N214">
+        <v>4.75</v>
+      </c>
+      <c r="O214">
+        <v>6</v>
+      </c>
+      <c r="P214">
+        <v>-1.5</v>
+      </c>
+      <c r="Q214">
+        <v>1.975</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
         <v>3.25</v>
       </c>
-      <c r="O214">
-        <v>2.1</v>
-      </c>
-      <c r="P214">
-        <v>0.25</v>
-      </c>
-      <c r="Q214">
-        <v>1.875</v>
-      </c>
-      <c r="R214">
-        <v>1.925</v>
-      </c>
-      <c r="S214">
-        <v>2.5</v>
-      </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19424,16 +19424,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19613,7 +19613,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7486519</v>
+        <v>7486319</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19622,46 +19622,46 @@
         <v>45247.75</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F217" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J217">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="K217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L217">
+        <v>2.9</v>
+      </c>
+      <c r="M217">
         <v>1.833</v>
       </c>
-      <c r="M217">
-        <v>3.3</v>
-      </c>
       <c r="N217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O217">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="P217">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q217">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R217">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S217">
         <v>2.75</v>
@@ -19673,25 +19673,25 @@
         <v>1.9</v>
       </c>
       <c r="V217">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19785,7 +19785,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7486319</v>
+        <v>7486519</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19794,46 +19794,46 @@
         <v>45247.75</v>
       </c>
       <c r="E219" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
         <v>3</v>
       </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
       <c r="I219" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J219">
+        <v>3.25</v>
+      </c>
+      <c r="K219">
+        <v>3.75</v>
+      </c>
+      <c r="L219">
         <v>1.833</v>
       </c>
-      <c r="K219">
-        <v>4.5</v>
-      </c>
-      <c r="L219">
-        <v>2.9</v>
-      </c>
       <c r="M219">
+        <v>3.3</v>
+      </c>
+      <c r="N219">
+        <v>3.75</v>
+      </c>
+      <c r="O219">
         <v>1.833</v>
       </c>
-      <c r="N219">
-        <v>4.5</v>
-      </c>
-      <c r="O219">
-        <v>2.9</v>
-      </c>
       <c r="P219">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q219">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
         <v>2.75</v>
@@ -19845,25 +19845,25 @@
         <v>1.9</v>
       </c>
       <c r="V219">
+        <v>-1</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
         <v>0.833</v>
       </c>
-      <c r="W219">
-        <v>-1</v>
-      </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
       <c r="Y219">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA219">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -20141,7 +20141,7 @@
         <v>117</v>
       </c>
       <c r="F223" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7515310</v>
+        <v>7515308</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -22374,13 +22374,13 @@
         <v>45254.75</v>
       </c>
       <c r="E249" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22389,43 +22389,43 @@
         <v>215</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K249">
+        <v>3.3</v>
+      </c>
+      <c r="L249">
+        <v>2.2</v>
+      </c>
+      <c r="M249">
+        <v>2.1</v>
+      </c>
+      <c r="N249">
         <v>3.4</v>
       </c>
-      <c r="L249">
-        <v>3.2</v>
-      </c>
-      <c r="M249">
-        <v>2.05</v>
-      </c>
-      <c r="N249">
-        <v>3.3</v>
-      </c>
       <c r="O249">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P249">
         <v>-0.25</v>
       </c>
       <c r="Q249">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R249">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S249">
         <v>2.75</v>
       </c>
       <c r="T249">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U249">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -22434,7 +22434,7 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z249">
         <v>-1</v>
@@ -22443,7 +22443,7 @@
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -22451,7 +22451,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7515308</v>
+        <v>7515310</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -22460,13 +22460,13 @@
         <v>45254.75</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F250" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22475,43 +22475,43 @@
         <v>215</v>
       </c>
       <c r="J250">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K250">
+        <v>3.4</v>
+      </c>
+      <c r="L250">
+        <v>3.2</v>
+      </c>
+      <c r="M250">
+        <v>2.05</v>
+      </c>
+      <c r="N250">
         <v>3.3</v>
       </c>
-      <c r="L250">
-        <v>2.2</v>
-      </c>
-      <c r="M250">
-        <v>2.1</v>
-      </c>
-      <c r="N250">
-        <v>3.4</v>
-      </c>
       <c r="O250">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
         <v>-0.25</v>
       </c>
       <c r="Q250">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S250">
         <v>2.75</v>
       </c>
       <c r="T250">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U250">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V250">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="W250">
         <v>-1</v>
@@ -22520,7 +22520,7 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z250">
         <v>-1</v>
@@ -22529,7 +22529,7 @@
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22632,7 +22632,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F252" t="s">
         <v>69</v>
@@ -22795,7 +22795,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7519169</v>
+        <v>7515314</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22804,58 +22804,58 @@
         <v>45255.79166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="G254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="s">
         <v>215</v>
       </c>
       <c r="J254">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K254">
+        <v>3.2</v>
+      </c>
+      <c r="L254">
         <v>4</v>
       </c>
-      <c r="L254">
-        <v>7</v>
-      </c>
       <c r="M254">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="N254">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O254">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P254">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q254">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R254">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T254">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U254">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W254">
         <v>-1</v>
@@ -22864,16 +22864,16 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22881,7 +22881,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7515314</v>
+        <v>7519169</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22890,58 +22890,58 @@
         <v>45255.79166666666</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F255" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="G255">
+        <v>4</v>
+      </c>
+      <c r="H255">
         <v>1</v>
-      </c>
-      <c r="H255">
-        <v>0</v>
       </c>
       <c r="I255" t="s">
         <v>215</v>
       </c>
       <c r="J255">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K255">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M255">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="N255">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O255">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P255">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V255">
-        <v>0.6659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -22950,16 +22950,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -23569,7 +23569,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7541554</v>
+        <v>7541521</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23578,58 +23578,58 @@
         <v>45261.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F263" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="s">
         <v>215</v>
       </c>
       <c r="J263">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="K263">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L263">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M263">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="N263">
         <v>3.75</v>
       </c>
       <c r="O263">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
         <v>-0.75</v>
       </c>
       <c r="Q263">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T263">
+        <v>1.95</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="U263">
-        <v>1.95</v>
-      </c>
       <c r="V263">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23638,16 +23638,16 @@
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
+        <v>-1</v>
+      </c>
+      <c r="AB263">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB263">
-        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23741,7 +23741,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7541521</v>
+        <v>7541554</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23750,58 +23750,58 @@
         <v>45261.54166666666</v>
       </c>
       <c r="E265" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="G265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="s">
         <v>215</v>
       </c>
       <c r="J265">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="K265">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L265">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M265">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="N265">
         <v>3.75</v>
       </c>
       <c r="O265">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P265">
         <v>-0.75</v>
       </c>
       <c r="Q265">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R265">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T265">
+        <v>1.85</v>
+      </c>
+      <c r="U265">
         <v>1.95</v>
       </c>
-      <c r="U265">
-        <v>1.85</v>
-      </c>
       <c r="V265">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="W265">
         <v>-1</v>
@@ -23810,16 +23810,16 @@
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z265">
         <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23999,7 +23999,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -24008,76 +24008,76 @@
         <v>45261.75</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="s">
         <v>216</v>
       </c>
       <c r="J268">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="K268">
+        <v>4.5</v>
+      </c>
+      <c r="L268">
+        <v>6</v>
+      </c>
+      <c r="M268">
+        <v>1.4</v>
+      </c>
+      <c r="N268">
+        <v>4.5</v>
+      </c>
+      <c r="O268">
+        <v>6</v>
+      </c>
+      <c r="P268">
+        <v>-1.25</v>
+      </c>
+      <c r="Q268">
+        <v>1.85</v>
+      </c>
+      <c r="R268">
+        <v>1.95</v>
+      </c>
+      <c r="S268">
+        <v>2.75</v>
+      </c>
+      <c r="T268">
+        <v>1.8</v>
+      </c>
+      <c r="U268">
+        <v>2</v>
+      </c>
+      <c r="V268">
+        <v>-1</v>
+      </c>
+      <c r="W268">
         <v>3.5</v>
       </c>
-      <c r="L268">
-        <v>3.4</v>
-      </c>
-      <c r="M268">
-        <v>2.25</v>
-      </c>
-      <c r="N268">
-        <v>3.3</v>
-      </c>
-      <c r="O268">
-        <v>2.75</v>
-      </c>
-      <c r="P268">
-        <v>-0.25</v>
-      </c>
-      <c r="Q268">
-        <v>2</v>
-      </c>
-      <c r="R268">
-        <v>1.8</v>
-      </c>
-      <c r="S268">
-        <v>3</v>
-      </c>
-      <c r="T268">
-        <v>1.95</v>
-      </c>
-      <c r="U268">
-        <v>1.85</v>
-      </c>
-      <c r="V268">
-        <v>-1</v>
-      </c>
-      <c r="W268">
-        <v>2.3</v>
-      </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -24085,7 +24085,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C269" t="s">
         <v>27</v>
@@ -24094,76 +24094,76 @@
         <v>45261.75</v>
       </c>
       <c r="E269" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F269" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="s">
         <v>216</v>
       </c>
       <c r="J269">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="K269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L269">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N269">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O269">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P269">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q269">
+        <v>2</v>
+      </c>
+      <c r="R269">
+        <v>1.8</v>
+      </c>
+      <c r="S269">
+        <v>3</v>
+      </c>
+      <c r="T269">
+        <v>1.95</v>
+      </c>
+      <c r="U269">
         <v>1.85</v>
       </c>
-      <c r="R269">
-        <v>1.95</v>
-      </c>
-      <c r="S269">
-        <v>2.75</v>
-      </c>
-      <c r="T269">
-        <v>1.8</v>
-      </c>
-      <c r="U269">
-        <v>2</v>
-      </c>
       <c r="V269">
         <v>-1</v>
       </c>
       <c r="W269">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z269">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -24687,7 +24687,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542355</v>
+        <v>7542357</v>
       </c>
       <c r="C276" t="s">
         <v>27</v>
@@ -24696,10 +24696,10 @@
         <v>45262.79166666666</v>
       </c>
       <c r="E276" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F276" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -24711,40 +24711,40 @@
         <v>217</v>
       </c>
       <c r="J276">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K276">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L276">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N276">
+        <v>4.333</v>
+      </c>
+      <c r="O276">
+        <v>1.55</v>
+      </c>
+      <c r="P276">
+        <v>1</v>
+      </c>
+      <c r="Q276">
+        <v>1.9</v>
+      </c>
+      <c r="R276">
+        <v>1.9</v>
+      </c>
+      <c r="S276">
         <v>3.5</v>
       </c>
-      <c r="O276">
-        <v>1.727</v>
-      </c>
-      <c r="P276">
-        <v>0.75</v>
-      </c>
-      <c r="Q276">
-        <v>1.775</v>
-      </c>
-      <c r="R276">
-        <v>1.925</v>
-      </c>
-      <c r="S276">
-        <v>2.75</v>
-      </c>
       <c r="T276">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
         <v>-1</v>
@@ -24753,16 +24753,16 @@
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>0.7270000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA276">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB276">
         <v>-1</v>
@@ -24859,7 +24859,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7542357</v>
+        <v>7542355</v>
       </c>
       <c r="C278" t="s">
         <v>27</v>
@@ -24868,10 +24868,10 @@
         <v>45262.79166666666</v>
       </c>
       <c r="E278" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F278" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24883,40 +24883,40 @@
         <v>217</v>
       </c>
       <c r="J278">
+        <v>3.4</v>
+      </c>
+      <c r="K278">
+        <v>3.4</v>
+      </c>
+      <c r="L278">
+        <v>1.909</v>
+      </c>
+      <c r="M278">
+        <v>4</v>
+      </c>
+      <c r="N278">
         <v>3.5</v>
       </c>
-      <c r="K278">
-        <v>3.75</v>
-      </c>
-      <c r="L278">
-        <v>1.8</v>
-      </c>
-      <c r="M278">
-        <v>4.5</v>
-      </c>
-      <c r="N278">
-        <v>4.333</v>
-      </c>
       <c r="O278">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="P278">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q278">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S278">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T278">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V278">
         <v>-1</v>
@@ -24925,16 +24925,16 @@
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>0.55</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA278">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB278">
         <v>-1</v>
@@ -25215,7 +25215,7 @@
         <v>83</v>
       </c>
       <c r="F282" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -26493,7 +26493,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -26502,40 +26502,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="E297" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F297" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H297">
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="K297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L297">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O297">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="P297">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q297">
         <v>1.9</v>
@@ -26544,34 +26544,34 @@
         <v>1.9</v>
       </c>
       <c r="S297">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V297">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26579,7 +26579,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -26588,40 +26588,40 @@
         <v>45269.79166666666</v>
       </c>
       <c r="E298" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F298" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="G298">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H298">
         <v>2</v>
       </c>
       <c r="I298" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="K298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L298">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="M298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O298">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="P298">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q298">
         <v>1.9</v>
@@ -26630,34 +26630,34 @@
         <v>1.9</v>
       </c>
       <c r="S298">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V298">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y298">
+        <v>-1</v>
+      </c>
+      <c r="Z298">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z298">
-        <v>-1</v>
-      </c>
       <c r="AA298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -28913,7 +28913,7 @@
         <v>127</v>
       </c>
       <c r="F325" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C330" t="s">
         <v>27</v>
@@ -29340,34 +29340,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E330" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F330" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="G330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="s">
         <v>215</v>
       </c>
       <c r="J330">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="K330">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L330">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N330">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O330">
         <v>1.5</v>
@@ -29376,22 +29376,22 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S330">
         <v>3</v>
       </c>
       <c r="T330">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U330">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V330">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29400,16 +29400,16 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -29417,7 +29417,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C331" t="s">
         <v>27</v>
@@ -29426,34 +29426,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E331" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F331" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G331">
+        <v>3</v>
+      </c>
+      <c r="H331">
         <v>1</v>
-      </c>
-      <c r="H331">
-        <v>0</v>
       </c>
       <c r="I331" t="s">
         <v>215</v>
       </c>
       <c r="J331">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="K331">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L331">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N331">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O331">
         <v>1.5</v>
@@ -29462,22 +29462,22 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S331">
         <v>3</v>
       </c>
       <c r="T331">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U331">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29486,16 +29486,16 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29675,7 +29675,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7776618</v>
+        <v>7776619</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -29684,76 +29684,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E334" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F334" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334" t="s">
+        <v>216</v>
+      </c>
+      <c r="J334">
+        <v>1.5</v>
+      </c>
+      <c r="K334">
         <v>4</v>
       </c>
-      <c r="H334">
-        <v>0</v>
-      </c>
-      <c r="I334" t="s">
-        <v>215</v>
-      </c>
-      <c r="J334">
-        <v>1.2</v>
-      </c>
-      <c r="K334">
-        <v>6</v>
-      </c>
       <c r="L334">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M334">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="N334">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O334">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="P334">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q334">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R334">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S334">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V334">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA334">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29761,7 +29761,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776619</v>
+        <v>7776618</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29770,76 +29770,76 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J335">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K335">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L335">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M335">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="N335">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O335">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="P335">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q335">
+        <v>1.95</v>
+      </c>
+      <c r="R335">
+        <v>1.85</v>
+      </c>
+      <c r="S335">
+        <v>3</v>
+      </c>
+      <c r="T335">
+        <v>1.825</v>
+      </c>
+      <c r="U335">
         <v>1.975</v>
       </c>
-      <c r="R335">
-        <v>1.825</v>
-      </c>
-      <c r="S335">
-        <v>2.25</v>
-      </c>
-      <c r="T335">
-        <v>1.875</v>
-      </c>
-      <c r="U335">
-        <v>1.925</v>
-      </c>
       <c r="V335">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W335">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z335">
+        <v>-1</v>
+      </c>
+      <c r="AA335">
         <v>0.825</v>
       </c>
-      <c r="AA335">
-        <v>-0.5</v>
-      </c>
       <c r="AB335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -32943,7 +32943,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C372" t="s">
         <v>27</v>
@@ -32952,73 +32952,73 @@
         <v>45338.75</v>
       </c>
       <c r="E372" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F372" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="G372">
+        <v>3</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372" t="s">
+        <v>215</v>
+      </c>
+      <c r="J372">
+        <v>1.615</v>
+      </c>
+      <c r="K372">
+        <v>3.5</v>
+      </c>
+      <c r="L372">
+        <v>5</v>
+      </c>
+      <c r="M372">
+        <v>1.363</v>
+      </c>
+      <c r="N372">
+        <v>4.333</v>
+      </c>
+      <c r="O372">
+        <v>7.5</v>
+      </c>
+      <c r="P372">
+        <v>-1.25</v>
+      </c>
+      <c r="Q372">
+        <v>1.75</v>
+      </c>
+      <c r="R372">
+        <v>2.05</v>
+      </c>
+      <c r="S372">
+        <v>3</v>
+      </c>
+      <c r="T372">
+        <v>1.8</v>
+      </c>
+      <c r="U372">
         <v>2</v>
       </c>
-      <c r="H372">
-        <v>5</v>
-      </c>
-      <c r="I372" t="s">
-        <v>217</v>
-      </c>
-      <c r="J372">
-        <v>1.8</v>
-      </c>
-      <c r="K372">
-        <v>3.3</v>
-      </c>
-      <c r="L372">
-        <v>4</v>
-      </c>
-      <c r="M372">
-        <v>1.615</v>
-      </c>
-      <c r="N372">
-        <v>3.5</v>
-      </c>
-      <c r="O372">
-        <v>4.75</v>
-      </c>
-      <c r="P372">
-        <v>-0.75</v>
-      </c>
-      <c r="Q372">
-        <v>1.8</v>
-      </c>
-      <c r="R372">
-        <v>2</v>
-      </c>
-      <c r="S372">
-        <v>2.75</v>
-      </c>
-      <c r="T372">
-        <v>1.75</v>
-      </c>
-      <c r="U372">
-        <v>1.95</v>
-      </c>
       <c r="V372">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z372">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB372">
         <v>-1</v>
@@ -33029,7 +33029,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C373" t="s">
         <v>27</v>
@@ -33038,73 +33038,73 @@
         <v>45338.75</v>
       </c>
       <c r="E373" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F373" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373" t="s">
+        <v>217</v>
+      </c>
+      <c r="J373">
+        <v>1.8</v>
+      </c>
+      <c r="K373">
+        <v>3.3</v>
+      </c>
+      <c r="L373">
+        <v>4</v>
+      </c>
+      <c r="M373">
+        <v>1.615</v>
+      </c>
+      <c r="N373">
+        <v>3.5</v>
+      </c>
+      <c r="O373">
+        <v>4.75</v>
+      </c>
+      <c r="P373">
+        <v>-0.75</v>
+      </c>
+      <c r="Q373">
+        <v>1.8</v>
+      </c>
+      <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
+        <v>2.75</v>
+      </c>
+      <c r="T373">
+        <v>1.75</v>
+      </c>
+      <c r="U373">
+        <v>1.95</v>
+      </c>
+      <c r="V373">
+        <v>-1</v>
+      </c>
+      <c r="W373">
+        <v>-1</v>
+      </c>
+      <c r="X373">
+        <v>3.75</v>
+      </c>
+      <c r="Y373">
+        <v>-1</v>
+      </c>
+      <c r="Z373">
         <v>1</v>
       </c>
-      <c r="I373" t="s">
-        <v>215</v>
-      </c>
-      <c r="J373">
-        <v>1.615</v>
-      </c>
-      <c r="K373">
-        <v>3.5</v>
-      </c>
-      <c r="L373">
-        <v>5</v>
-      </c>
-      <c r="M373">
-        <v>1.363</v>
-      </c>
-      <c r="N373">
-        <v>4.333</v>
-      </c>
-      <c r="O373">
-        <v>7.5</v>
-      </c>
-      <c r="P373">
-        <v>-1.25</v>
-      </c>
-      <c r="Q373">
-        <v>1.75</v>
-      </c>
-      <c r="R373">
-        <v>2.05</v>
-      </c>
-      <c r="S373">
-        <v>3</v>
-      </c>
-      <c r="T373">
-        <v>1.8</v>
-      </c>
-      <c r="U373">
-        <v>2</v>
-      </c>
-      <c r="V373">
-        <v>0.363</v>
-      </c>
-      <c r="W373">
-        <v>-1</v>
-      </c>
-      <c r="X373">
-        <v>-1</v>
-      </c>
-      <c r="Y373">
+      <c r="AA373">
         <v>0.75</v>
-      </c>
-      <c r="Z373">
-        <v>-1</v>
-      </c>
-      <c r="AA373">
-        <v>0.8</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -34233,7 +34233,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C387" t="s">
         <v>27</v>
@@ -34242,76 +34242,76 @@
         <v>45345.75</v>
       </c>
       <c r="E387" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F387" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J387">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="K387">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L387">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M387">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N387">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O387">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P387">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R387">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S387">
         <v>2.75</v>
       </c>
       <c r="T387">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U387">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V387">
         <v>-1</v>
       </c>
       <c r="W387">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y387">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB387">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="388" spans="1:28">
@@ -34319,7 +34319,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C388" t="s">
         <v>27</v>
@@ -34328,76 +34328,76 @@
         <v>45345.75</v>
       </c>
       <c r="E388" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F388" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J388">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="K388">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L388">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M388">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N388">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O388">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="P388">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q388">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R388">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S388">
         <v>2.75</v>
       </c>
       <c r="T388">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U388">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V388">
         <v>-1</v>
       </c>
       <c r="W388">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X388">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y388">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z388">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA388">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:28">
@@ -35102,7 +35102,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="E397" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F397" t="s">
         <v>48</v>
@@ -36567,7 +36567,7 @@
         <v>115</v>
       </c>
       <c r="F414" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G414">
         <v>2</v>
@@ -37940,7 +37940,7 @@
         <v>45360.59166666667</v>
       </c>
       <c r="E430" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F430" t="s">
         <v>51</v>
@@ -38533,7 +38533,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7947693</v>
+        <v>7947694</v>
       </c>
       <c r="C437" t="s">
         <v>27</v>
@@ -38542,76 +38542,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="E437" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F437" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
         <v>2</v>
       </c>
-      <c r="H437">
-        <v>1</v>
-      </c>
       <c r="I437" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J437">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="K437">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L437">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="M437">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N437">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O437">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="P437">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q437">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="R437">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S437">
         <v>2.75</v>
       </c>
       <c r="T437">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U437">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V437">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y437">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z437">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA437">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB437">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:28">
@@ -38619,7 +38619,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7947694</v>
+        <v>7947693</v>
       </c>
       <c r="C438" t="s">
         <v>27</v>
@@ -38628,76 +38628,76 @@
         <v>45363.54166666666</v>
       </c>
       <c r="E438" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="F438" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G438">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J438">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="K438">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L438">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="M438">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N438">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O438">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="P438">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q438">
+        <v>2.05</v>
+      </c>
+      <c r="R438">
         <v>1.75</v>
-      </c>
-      <c r="R438">
-        <v>1.95</v>
       </c>
       <c r="S438">
         <v>2.75</v>
       </c>
       <c r="T438">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U438">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V438">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W438">
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z438">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB438">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="439" spans="1:28">
@@ -41638,7 +41638,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E473" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F473" t="s">
         <v>72</v>
@@ -41887,7 +41887,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>7999347</v>
+        <v>7993450</v>
       </c>
       <c r="C476" t="s">
         <v>27</v>
@@ -41896,49 +41896,49 @@
         <v>45374.79166666666</v>
       </c>
       <c r="E476" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F476" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="G476">
         <v>1</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J476">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="K476">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L476">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M476">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="N476">
         <v>3.5</v>
       </c>
       <c r="O476">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="P476">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q476">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R476">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S476">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T476">
         <v>1.975</v>
@@ -41950,22 +41950,22 @@
         <v>-1</v>
       </c>
       <c r="W476">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X476">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y476">
         <v>-1</v>
       </c>
       <c r="Z476">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA476">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB476">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:28">
@@ -41973,7 +41973,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7993450</v>
+        <v>7999347</v>
       </c>
       <c r="C477" t="s">
         <v>27</v>
@@ -41982,49 +41982,49 @@
         <v>45374.79166666666</v>
       </c>
       <c r="E477" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F477" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="G477">
         <v>1</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J477">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K477">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L477">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M477">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="N477">
         <v>3.5</v>
       </c>
       <c r="O477">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="P477">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q477">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R477">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S477">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T477">
         <v>1.975</v>
@@ -42036,22 +42036,22 @@
         <v>-1</v>
       </c>
       <c r="W477">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X477">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
         <v>-1</v>
       </c>
       <c r="Z477">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA477">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB477">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="478" spans="1:28">
@@ -43005,7 +43005,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>8030092</v>
+        <v>8028224</v>
       </c>
       <c r="C489" t="s">
         <v>27</v>
@@ -43014,40 +43014,40 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E489" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F489" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="G489">
         <v>1</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I489" t="s">
         <v>217</v>
       </c>
       <c r="J489">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K489">
         <v>3.5</v>
       </c>
       <c r="L489">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="M489">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N489">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O489">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="P489">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q489">
         <v>1.925</v>
@@ -43056,13 +43056,13 @@
         <v>1.875</v>
       </c>
       <c r="S489">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T489">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U489">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V489">
         <v>-1</v>
@@ -43071,19 +43071,19 @@
         <v>-1</v>
       </c>
       <c r="X489">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="Y489">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z489">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA489">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB489">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:28">
@@ -43091,7 +43091,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>8028224</v>
+        <v>8030092</v>
       </c>
       <c r="C490" t="s">
         <v>27</v>
@@ -43100,40 +43100,40 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E490" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F490" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="G490">
         <v>1</v>
       </c>
       <c r="H490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="s">
         <v>217</v>
       </c>
       <c r="J490">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K490">
         <v>3.5</v>
       </c>
       <c r="L490">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M490">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N490">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O490">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="P490">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q490">
         <v>1.925</v>
@@ -43142,13 +43142,13 @@
         <v>1.875</v>
       </c>
       <c r="S490">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T490">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U490">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V490">
         <v>-1</v>
@@ -43157,19 +43157,19 @@
         <v>-1</v>
       </c>
       <c r="X490">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="Y490">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z490">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA490">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB490">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:28">
@@ -43951,7 +43951,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>8059325</v>
+        <v>8059324</v>
       </c>
       <c r="C500" t="s">
         <v>27</v>
@@ -43960,49 +43960,49 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E500" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F500" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
         <v>2</v>
-      </c>
-      <c r="H500">
-        <v>5</v>
       </c>
       <c r="I500" t="s">
         <v>217</v>
       </c>
       <c r="J500">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="K500">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="L500">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="M500">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="N500">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O500">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="P500">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="Q500">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R500">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S500">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T500">
         <v>1.9</v>
@@ -44017,19 +44017,19 @@
         <v>-1</v>
       </c>
       <c r="X500">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y500">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z500">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA500">
+        <v>-1</v>
+      </c>
+      <c r="AB500">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB500">
-        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:28">
@@ -44037,7 +44037,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>8059324</v>
+        <v>8059325</v>
       </c>
       <c r="C501" t="s">
         <v>27</v>
@@ -44046,49 +44046,49 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E501" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F501" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G501">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I501" t="s">
         <v>217</v>
       </c>
       <c r="J501">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="K501">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L501">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="M501">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="N501">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O501">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="P501">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q501">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R501">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S501">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T501">
         <v>1.9</v>
@@ -44103,19 +44103,19 @@
         <v>-1</v>
       </c>
       <c r="X501">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y501">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z501">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA501">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB501">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:28">
@@ -45425,7 +45425,7 @@
         <v>69</v>
       </c>
       <c r="F517" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G517">
         <v>4</v>
@@ -45769,7 +45769,7 @@
         <v>60</v>
       </c>
       <c r="F521" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G521">
         <v>5</v>
@@ -46801,7 +46801,7 @@
         <v>61</v>
       </c>
       <c r="F533" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -47477,7 +47477,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>8136728</v>
+        <v>8136727</v>
       </c>
       <c r="C541" t="s">
         <v>27</v>
@@ -47486,55 +47486,55 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E541" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F541" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G541">
         <v>0</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I541" t="s">
         <v>217</v>
       </c>
       <c r="J541">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K541">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L541">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="M541">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N541">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O541">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="P541">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q541">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R541">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S541">
         <v>3</v>
       </c>
       <c r="T541">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U541">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V541">
         <v>-1</v>
@@ -47543,19 +47543,19 @@
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="Y541">
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA541">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB541">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:28">
@@ -47563,7 +47563,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>8136727</v>
+        <v>8136728</v>
       </c>
       <c r="C542" t="s">
         <v>27</v>
@@ -47572,55 +47572,55 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E542" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F542" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G542">
         <v>0</v>
       </c>
       <c r="H542">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I542" t="s">
         <v>217</v>
       </c>
       <c r="J542">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="K542">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L542">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="M542">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="N542">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O542">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="P542">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q542">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R542">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S542">
         <v>3</v>
       </c>
       <c r="T542">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U542">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V542">
         <v>-1</v>
@@ -47629,19 +47629,19 @@
         <v>-1</v>
       </c>
       <c r="X542">
-        <v>0.363</v>
+        <v>1.55</v>
       </c>
       <c r="Y542">
         <v>-1</v>
       </c>
       <c r="Z542">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA542">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB542">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="543" spans="1:28">
@@ -47830,10 +47830,10 @@
         <v>45409.58333333334</v>
       </c>
       <c r="E545" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F545" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G545">
         <v>4</v>
@@ -48509,7 +48509,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>8153471</v>
+        <v>8153470</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -48518,76 +48518,76 @@
         <v>45410.625</v>
       </c>
       <c r="E553" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F553" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+      <c r="I553" t="s">
+        <v>216</v>
+      </c>
+      <c r="J553">
+        <v>1.533</v>
+      </c>
+      <c r="K553">
         <v>4</v>
       </c>
-      <c r="H553">
-        <v>0</v>
-      </c>
-      <c r="I553" t="s">
-        <v>215</v>
-      </c>
-      <c r="J553">
-        <v>1.8</v>
-      </c>
-      <c r="K553">
-        <v>3.5</v>
-      </c>
       <c r="L553">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M553">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="N553">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O553">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P553">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q553">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R553">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S553">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T553">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U553">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V553">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W553">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X553">
         <v>-1</v>
       </c>
       <c r="Y553">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z553">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA553">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB553">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="554" spans="1:28">
@@ -48595,7 +48595,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>8153470</v>
+        <v>8153471</v>
       </c>
       <c r="C554" t="s">
         <v>27</v>
@@ -48604,76 +48604,76 @@
         <v>45410.625</v>
       </c>
       <c r="E554" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="F554" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J554">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="K554">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L554">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M554">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="N554">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O554">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P554">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q554">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R554">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S554">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T554">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U554">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V554">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W554">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X554">
         <v>-1</v>
       </c>
       <c r="Y554">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z554">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA554">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB554">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555" spans="1:28">
@@ -49467,7 +49467,7 @@
         <v>144</v>
       </c>
       <c r="F564" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G564">
         <v>1</v>
@@ -49550,7 +49550,7 @@
         <v>45414.75</v>
       </c>
       <c r="E565" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F565" t="s">
         <v>68</v>
@@ -49971,7 +49971,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>8181040</v>
+        <v>8181039</v>
       </c>
       <c r="C570" t="s">
         <v>27</v>
@@ -49980,13 +49980,13 @@
         <v>45416.91666666666</v>
       </c>
       <c r="E570" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="F570" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="G570">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H570">
         <v>0</v>
@@ -49995,43 +49995,43 @@
         <v>215</v>
       </c>
       <c r="J570">
+        <v>1.727</v>
+      </c>
+      <c r="K570">
+        <v>3.5</v>
+      </c>
+      <c r="L570">
+        <v>4</v>
+      </c>
+      <c r="M570">
+        <v>1.833</v>
+      </c>
+      <c r="N570">
+        <v>3.4</v>
+      </c>
+      <c r="O570">
+        <v>3.75</v>
+      </c>
+      <c r="P570">
+        <v>-0.5</v>
+      </c>
+      <c r="Q570">
+        <v>1.85</v>
+      </c>
+      <c r="R570">
         <v>1.95</v>
       </c>
-      <c r="K570">
-        <v>3.3</v>
-      </c>
-      <c r="L570">
-        <v>3.5</v>
-      </c>
-      <c r="M570">
-        <v>2.15</v>
-      </c>
-      <c r="N570">
-        <v>3.1</v>
-      </c>
-      <c r="O570">
-        <v>3.3</v>
-      </c>
-      <c r="P570">
-        <v>-0.25</v>
-      </c>
-      <c r="Q570">
-        <v>1.825</v>
-      </c>
-      <c r="R570">
-        <v>1.975</v>
-      </c>
       <c r="S570">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T570">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U570">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V570">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="W570">
         <v>-1</v>
@@ -50040,16 +50040,16 @@
         <v>-1</v>
       </c>
       <c r="Y570">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z570">
         <v>-1</v>
       </c>
       <c r="AA570">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB570">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571" spans="1:28">
@@ -50057,7 +50057,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>8181039</v>
+        <v>8181040</v>
       </c>
       <c r="C571" t="s">
         <v>27</v>
@@ -50066,13 +50066,13 @@
         <v>45416.91666666666</v>
       </c>
       <c r="E571" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F571" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="G571">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H571">
         <v>0</v>
@@ -50081,43 +50081,43 @@
         <v>215</v>
       </c>
       <c r="J571">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="K571">
+        <v>3.3</v>
+      </c>
+      <c r="L571">
         <v>3.5</v>
       </c>
-      <c r="L571">
-        <v>4</v>
-      </c>
       <c r="M571">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="N571">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O571">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P571">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q571">
+        <v>1.825</v>
+      </c>
+      <c r="R571">
+        <v>1.975</v>
+      </c>
+      <c r="S571">
+        <v>2.5</v>
+      </c>
+      <c r="T571">
         <v>1.85</v>
       </c>
-      <c r="R571">
+      <c r="U571">
         <v>1.95</v>
       </c>
-      <c r="S571">
-        <v>2.25</v>
-      </c>
-      <c r="T571">
-        <v>2</v>
-      </c>
-      <c r="U571">
-        <v>1.8</v>
-      </c>
       <c r="V571">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="W571">
         <v>-1</v>
@@ -50126,16 +50126,16 @@
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z571">
         <v>-1</v>
       </c>
       <c r="AA571">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="572" spans="1:28">
@@ -50327,7 +50327,7 @@
         <v>68</v>
       </c>
       <c r="F574" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G574">
         <v>4</v>
@@ -50671,7 +50671,7 @@
         <v>124</v>
       </c>
       <c r="F578" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G578">
         <v>1</v>
@@ -51175,7 +51175,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8202859</v>
+        <v>8202860</v>
       </c>
       <c r="C584" t="s">
         <v>27</v>
@@ -51184,58 +51184,58 @@
         <v>45423.91666666666</v>
       </c>
       <c r="E584" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F584" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G584">
         <v>2</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="s">
         <v>215</v>
       </c>
       <c r="J584">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="K584">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L584">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M584">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="N584">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O584">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P584">
         <v>-0.75</v>
       </c>
       <c r="Q584">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R584">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S584">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T584">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U584">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V584">
-        <v>0.615</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W584">
         <v>-1</v>
@@ -51244,16 +51244,16 @@
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z584">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA584">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB584">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="585" spans="1:28">
@@ -51261,7 +51261,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>8202860</v>
+        <v>8202859</v>
       </c>
       <c r="C585" t="s">
         <v>27</v>
@@ -51270,58 +51270,58 @@
         <v>45423.91666666666</v>
       </c>
       <c r="E585" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F585" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G585">
         <v>2</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I585" t="s">
         <v>215</v>
       </c>
       <c r="J585">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="K585">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L585">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M585">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="N585">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O585">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P585">
         <v>-0.75</v>
       </c>
       <c r="Q585">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R585">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S585">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T585">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U585">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V585">
-        <v>0.6659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="W585">
         <v>-1</v>
@@ -51330,16 +51330,16 @@
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="Z585">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA585">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB585">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586" spans="1:28">
@@ -51703,7 +51703,7 @@
         <v>85</v>
       </c>
       <c r="F590" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G590">
         <v>1</v>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -97,7 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8248537</t>
+    <t>8258904</t>
   </si>
   <si>
     <t>Mexico Liga TDP</t>
@@ -553,10 +553,10 @@
     <t>Aragon FC</t>
   </si>
   <si>
-    <t>Fuerza Mazahua FC</t>
+    <t>Boston Cancun FC</t>
   </si>
   <si>
-    <t>Boston Cancun FC</t>
+    <t>Fuerza Mazahua FC</t>
   </si>
   <si>
     <t>Tigres UANL II</t>
@@ -3104,7 +3104,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7242660</v>
+        <v>7242479</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -3113,76 +3113,76 @@
         <v>45191.75</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J25">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="K25">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L25">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="M25">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>2.75</v>
+      </c>
+      <c r="T25">
+        <v>1.75</v>
+      </c>
+      <c r="U25">
         <v>1.95</v>
       </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>1.925</v>
-      </c>
-      <c r="U25">
-        <v>1.875</v>
-      </c>
       <c r="V25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3190,7 +3190,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7242479</v>
+        <v>7242660</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -3199,76 +3199,76 @@
         <v>45191.75</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J26">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="K26">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L26">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="N26">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -7060,7 +7060,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7309557</v>
+        <v>7307198</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7069,76 +7069,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P71">
+        <v>-0.25</v>
+      </c>
+      <c r="Q71">
+        <v>1.9</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>2.75</v>
+      </c>
+      <c r="T71">
+        <v>1.875</v>
+      </c>
+      <c r="U71">
+        <v>1.925</v>
+      </c>
+      <c r="V71">
+        <v>-1</v>
+      </c>
+      <c r="W71">
+        <v>2.4</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>-0.5</v>
       </c>
-      <c r="Q71">
-        <v>1.85</v>
-      </c>
-      <c r="R71">
-        <v>1.95</v>
-      </c>
-      <c r="S71">
-        <v>2.5</v>
-      </c>
-      <c r="T71">
-        <v>1.9</v>
-      </c>
-      <c r="U71">
-        <v>1.9</v>
-      </c>
-      <c r="V71">
-        <v>0.8</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -7146,7 +7146,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7307198</v>
+        <v>7309557</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7155,76 +7155,76 @@
         <v>45206.79166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J72">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O72">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q72">
+        <v>1.85</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>2.5</v>
+      </c>
+      <c r="T72">
         <v>1.9</v>
       </c>
-      <c r="R72">
+      <c r="U72">
         <v>1.9</v>
       </c>
-      <c r="S72">
-        <v>2.75</v>
-      </c>
-      <c r="T72">
-        <v>1.875</v>
-      </c>
-      <c r="U72">
-        <v>1.925</v>
-      </c>
       <c r="V72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W72">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -9984,7 +9984,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7367734</v>
+        <v>7364143</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9993,58 +9993,58 @@
         <v>45219.75</v>
       </c>
       <c r="E105" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="s">
         <v>216</v>
       </c>
       <c r="J105">
-        <v>1.035</v>
+        <v>2.75</v>
       </c>
       <c r="K105">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="L105">
-        <v>34</v>
+        <v>2.2</v>
       </c>
       <c r="M105">
-        <v>1.035</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>34</v>
+        <v>1.8</v>
       </c>
       <c r="P105">
-        <v>-3.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q105">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="T105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>0.03499999999999992</v>
+        <v>2.8</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -10053,16 +10053,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10070,7 +10070,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7364143</v>
+        <v>7367734</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10079,58 +10079,58 @@
         <v>45219.75</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>216</v>
       </c>
       <c r="J106">
-        <v>2.75</v>
+        <v>1.035</v>
       </c>
       <c r="K106">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="L106">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="M106">
-        <v>3.8</v>
+        <v>1.035</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="O106">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="P106">
-        <v>0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="Q106">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="T106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2.8</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -10139,16 +10139,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -12220,7 +12220,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7397685</v>
+        <v>7397683</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12229,76 +12229,76 @@
         <v>45227.75</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
         <v>216</v>
       </c>
       <c r="J131">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="K131">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M131">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="P131">
+        <v>-2</v>
+      </c>
+      <c r="Q131">
+        <v>1.75</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>3.25</v>
+      </c>
+      <c r="T131">
+        <v>1.975</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.95</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="Q131">
-        <v>1.875</v>
-      </c>
-      <c r="R131">
-        <v>1.925</v>
-      </c>
-      <c r="S131">
-        <v>2.5</v>
-      </c>
-      <c r="T131">
-        <v>1.9</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>0.833</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>0.875</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -12306,7 +12306,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7397683</v>
+        <v>7397685</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12315,58 +12315,58 @@
         <v>45227.75</v>
       </c>
       <c r="E132" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
         <v>216</v>
       </c>
       <c r="J132">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="K132">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="L132">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N132">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O132">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12375,16 +12375,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -13596,7 +13596,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425470</v>
+        <v>7425936</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13605,76 +13605,76 @@
         <v>45233.75</v>
       </c>
       <c r="E147" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
         <v>179</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>218</v>
+      </c>
+      <c r="J147">
+        <v>3.3</v>
+      </c>
+      <c r="K147">
+        <v>3.5</v>
+      </c>
+      <c r="L147">
+        <v>1.909</v>
+      </c>
+      <c r="M147">
+        <v>3.3</v>
+      </c>
+      <c r="N147">
+        <v>3.5</v>
+      </c>
+      <c r="O147">
+        <v>1.909</v>
+      </c>
+      <c r="P147">
+        <v>0.25</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
+        <v>2.75</v>
+      </c>
+      <c r="T147">
+        <v>1.8</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>-1</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>0.909</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.8</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
         <v>1</v>
-      </c>
-      <c r="I147" t="s">
-        <v>216</v>
-      </c>
-      <c r="J147">
-        <v>1.727</v>
-      </c>
-      <c r="K147">
-        <v>3.75</v>
-      </c>
-      <c r="L147">
-        <v>4</v>
-      </c>
-      <c r="M147">
-        <v>1.45</v>
-      </c>
-      <c r="N147">
-        <v>4</v>
-      </c>
-      <c r="O147">
-        <v>5.5</v>
-      </c>
-      <c r="P147">
-        <v>-1</v>
-      </c>
-      <c r="Q147">
-        <v>1.8</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>3</v>
-      </c>
-      <c r="T147">
-        <v>1.85</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
-      <c r="V147">
-        <v>0.45</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>0.8</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13682,7 +13682,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7425936</v>
+        <v>7425963</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13691,55 +13691,55 @@
         <v>45233.75</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="s">
         <v>218</v>
       </c>
       <c r="J148">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="K148">
         <v>3.5</v>
       </c>
       <c r="L148">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N148">
         <v>3.5</v>
       </c>
       <c r="O148">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="P148">
         <v>0.25</v>
       </c>
       <c r="Q148">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S148">
         <v>2.75</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13748,19 +13748,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13768,7 +13768,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7425963</v>
+        <v>7425470</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13777,40 +13777,40 @@
         <v>45233.75</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F149" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J149">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L149">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="N149">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O149">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q149">
         <v>1.8</v>
@@ -13819,34 +13819,34 @@
         <v>2</v>
       </c>
       <c r="S149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -14370,7 +14370,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7425472</v>
+        <v>7432107</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14379,73 +14379,73 @@
         <v>45234.75</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F156" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
         <v>1</v>
       </c>
-      <c r="H156">
-        <v>6</v>
-      </c>
       <c r="I156" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J156">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="K156">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M156">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N156">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O156">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T156">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB156">
         <v>-1</v>
@@ -14456,7 +14456,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7432107</v>
+        <v>7425472</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14465,73 +14465,73 @@
         <v>45234.75</v>
       </c>
       <c r="E157" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J157">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M157">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P157">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q157">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
@@ -14542,7 +14542,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14551,76 +14551,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
         <v>-1</v>
       </c>
       <c r="W158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14628,7 +14628,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14637,76 +14637,76 @@
         <v>45234.79166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J159">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K159">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L159">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N159">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="P159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V159">
         <v>-1</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X159">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14714,7 +14714,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14723,76 +14723,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>218</v>
+      </c>
+      <c r="J160">
         <v>4</v>
       </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160" t="s">
-        <v>216</v>
-      </c>
-      <c r="J160">
-        <v>1.3</v>
-      </c>
       <c r="K160">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L160">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="M160">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="N160">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O160">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="P160">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y160">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14800,7 +14800,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14809,76 +14809,76 @@
         <v>45234.83333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J161">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L161">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="M161">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="N161">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O161">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="P161">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q161">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -15832,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7448459</v>
+        <v>7447276</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15841,59 +15841,59 @@
         <v>45237.75</v>
       </c>
       <c r="E173" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>216</v>
       </c>
       <c r="J173">
+        <v>4</v>
+      </c>
+      <c r="K173">
+        <v>3.5</v>
+      </c>
+      <c r="L173">
         <v>1.727</v>
       </c>
-      <c r="K173">
-        <v>3.75</v>
-      </c>
-      <c r="L173">
-        <v>3.75</v>
-      </c>
       <c r="M173">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="P173">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S173">
+        <v>2.5</v>
+      </c>
+      <c r="T173">
+        <v>1.95</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>3</v>
       </c>
-      <c r="T173">
-        <v>1.9</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
@@ -15901,16 +15901,16 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15918,7 +15918,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7450086</v>
+        <v>7448459</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,58 +15927,58 @@
         <v>45237.75</v>
       </c>
       <c r="E174" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F174" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="s">
         <v>216</v>
       </c>
       <c r="J174">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="K174">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="N174">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O174">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q174">
+        <v>1.875</v>
+      </c>
+      <c r="R174">
+        <v>1.925</v>
+      </c>
+      <c r="S174">
+        <v>3</v>
+      </c>
+      <c r="T174">
         <v>1.9</v>
       </c>
-      <c r="R174">
+      <c r="U174">
         <v>1.9</v>
       </c>
-      <c r="S174">
-        <v>3.75</v>
-      </c>
-      <c r="T174">
-        <v>1.825</v>
-      </c>
-      <c r="U174">
-        <v>1.975</v>
-      </c>
       <c r="V174">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15987,16 +15987,16 @@
         <v>-1</v>
       </c>
       <c r="Y174">
+        <v>0.875</v>
+      </c>
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
       <c r="AB174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -16004,7 +16004,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7447276</v>
+        <v>7450086</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16013,13 +16013,13 @@
         <v>45237.75</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16028,43 +16028,43 @@
         <v>216</v>
       </c>
       <c r="J175">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L175">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="N175">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O175">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="P175">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="Q175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -16073,7 +16073,7 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z175">
         <v>-1</v>
@@ -16082,7 +16082,7 @@
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -16692,7 +16692,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7458968</v>
+        <v>7457160</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16701,76 +16701,76 @@
         <v>45240.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F183" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J183">
-        <v>7</v>
+        <v>1.285</v>
       </c>
       <c r="K183">
+        <v>5</v>
+      </c>
+      <c r="L183">
+        <v>7.5</v>
+      </c>
+      <c r="M183">
+        <v>1.363</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183">
+        <v>6.5</v>
+      </c>
+      <c r="P183">
+        <v>-1.5</v>
+      </c>
+      <c r="Q183">
+        <v>1.85</v>
+      </c>
+      <c r="R183">
+        <v>1.95</v>
+      </c>
+      <c r="S183">
+        <v>3.25</v>
+      </c>
+      <c r="T183">
+        <v>1.9</v>
+      </c>
+      <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
+        <v>-1</v>
+      </c>
+      <c r="W183">
         <v>4</v>
       </c>
-      <c r="L183">
-        <v>1.4</v>
-      </c>
-      <c r="M183">
-        <v>4.75</v>
-      </c>
-      <c r="N183">
-        <v>4.2</v>
-      </c>
-      <c r="O183">
-        <v>1.533</v>
-      </c>
-      <c r="P183">
-        <v>1.25</v>
-      </c>
-      <c r="Q183">
-        <v>1.8</v>
-      </c>
-      <c r="R183">
-        <v>2</v>
-      </c>
-      <c r="S183">
-        <v>3.5</v>
-      </c>
-      <c r="T183">
-        <v>1.875</v>
-      </c>
-      <c r="U183">
-        <v>1.925</v>
-      </c>
-      <c r="V183">
-        <v>3.75</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16778,7 +16778,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7457160</v>
+        <v>7458968</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16787,76 +16787,76 @@
         <v>45240.54166666666</v>
       </c>
       <c r="E184" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F184" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J184">
-        <v>1.285</v>
+        <v>7</v>
       </c>
       <c r="K184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L184">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="M184">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="N184">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="P184">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T184">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="W184">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -17294,7 +17294,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7458909</v>
+        <v>7462543</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17303,76 +17303,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F190" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J190">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="K190">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L190">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="M190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O190">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q190">
+        <v>1.8</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>2.5</v>
+      </c>
+      <c r="T190">
+        <v>1.95</v>
+      </c>
+      <c r="U190">
         <v>1.85</v>
       </c>
-      <c r="R190">
-        <v>1.95</v>
-      </c>
-      <c r="S190">
-        <v>3.25</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.8</v>
-      </c>
       <c r="V190">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W190">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17380,7 +17380,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7462543</v>
+        <v>7458909</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17389,76 +17389,76 @@
         <v>45240.91666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F191" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J191">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="K191">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L191">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N191">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="P191">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q191">
+        <v>1.85</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
+        <v>3.25</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
         <v>1.8</v>
       </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>2.5</v>
-      </c>
-      <c r="T191">
-        <v>1.95</v>
-      </c>
-      <c r="U191">
-        <v>1.85</v>
-      </c>
       <c r="V191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
         <v>0.8</v>
-      </c>
-      <c r="Z191">
-        <v>-1</v>
-      </c>
-      <c r="AA191">
-        <v>0.95</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -20144,7 +20144,7 @@
         <v>118</v>
       </c>
       <c r="F223" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -20390,7 +20390,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20399,55 +20399,55 @@
         <v>45248.75</v>
       </c>
       <c r="E226" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F226" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226" t="s">
         <v>218</v>
       </c>
       <c r="J226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="K226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L226">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O226">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
         <v>-1</v>
@@ -20456,19 +20456,19 @@
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20476,7 +20476,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20485,55 +20485,55 @@
         <v>45248.75</v>
       </c>
       <c r="E227" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F227" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227" t="s">
         <v>218</v>
       </c>
       <c r="J227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="K227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V227">
         <v>-1</v>
@@ -20542,19 +20542,19 @@
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20648,7 +20648,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491752</v>
+        <v>7491749</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20657,76 +20657,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F229" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="G229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J229">
+        <v>2.5</v>
+      </c>
+      <c r="K229">
+        <v>3.2</v>
+      </c>
+      <c r="L229">
+        <v>2.5</v>
+      </c>
+      <c r="M229">
+        <v>2.75</v>
+      </c>
+      <c r="N229">
         <v>3.5</v>
       </c>
-      <c r="K229">
-        <v>3.75</v>
-      </c>
-      <c r="L229">
+      <c r="O229">
+        <v>2.15</v>
+      </c>
+      <c r="P229">
+        <v>0.25</v>
+      </c>
+      <c r="Q229">
+        <v>1.825</v>
+      </c>
+      <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
+        <v>2.75</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
         <v>1.8</v>
       </c>
-      <c r="M229">
-        <v>3.5</v>
-      </c>
-      <c r="N229">
-        <v>3.75</v>
-      </c>
-      <c r="O229">
-        <v>1.8</v>
-      </c>
-      <c r="P229">
-        <v>0.5</v>
-      </c>
-      <c r="Q229">
-        <v>1.95</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>3.5</v>
-      </c>
-      <c r="T229">
-        <v>1.975</v>
-      </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
       <c r="V229">
         <v>-1</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>0.4125</v>
+      </c>
+      <c r="Z229">
+        <v>-0.5</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
         <v>0.8</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA229">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20820,7 +20820,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7491749</v>
+        <v>7491752</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20829,76 +20829,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E231" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I231" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J231">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K231">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L231">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M231">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N231">
+        <v>3.75</v>
+      </c>
+      <c r="O231">
+        <v>1.8</v>
+      </c>
+      <c r="P231">
+        <v>0.5</v>
+      </c>
+      <c r="Q231">
+        <v>1.95</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
         <v>3.5</v>
       </c>
-      <c r="O231">
-        <v>2.15</v>
-      </c>
-      <c r="P231">
-        <v>0.25</v>
-      </c>
-      <c r="Q231">
+      <c r="T231">
+        <v>1.975</v>
+      </c>
+      <c r="U231">
         <v>1.825</v>
       </c>
-      <c r="R231">
-        <v>1.975</v>
-      </c>
-      <c r="S231">
-        <v>2.75</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
-      <c r="U231">
-        <v>1.8</v>
-      </c>
       <c r="V231">
         <v>-1</v>
       </c>
       <c r="W231">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y231">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20992,7 +20992,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7486115</v>
+        <v>7495766</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21001,76 +21001,76 @@
         <v>45249.625</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F233" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233">
         <v>1</v>
       </c>
-      <c r="H233">
-        <v>2</v>
-      </c>
       <c r="I233" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J233">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K233">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M233">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N233">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O233">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P233">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q233">
+        <v>1.975</v>
+      </c>
+      <c r="R233">
+        <v>1.825</v>
+      </c>
+      <c r="S233">
+        <v>2.25</v>
+      </c>
+      <c r="T233">
         <v>1.9</v>
       </c>
-      <c r="R233">
+      <c r="U233">
         <v>1.9</v>
       </c>
-      <c r="S233">
-        <v>3</v>
-      </c>
-      <c r="T233">
-        <v>1.95</v>
-      </c>
-      <c r="U233">
-        <v>1.85</v>
-      </c>
       <c r="V233">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA233">
-        <v>0</v>
-      </c>
       <c r="AB233">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -21078,7 +21078,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7495766</v>
+        <v>7486115</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21087,76 +21087,76 @@
         <v>45249.625</v>
       </c>
       <c r="E234" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234" t="s">
+        <v>218</v>
+      </c>
+      <c r="J234">
+        <v>1.5</v>
+      </c>
+      <c r="K234">
+        <v>4.2</v>
+      </c>
+      <c r="L234">
+        <v>4.75</v>
+      </c>
+      <c r="M234">
+        <v>1.4</v>
+      </c>
+      <c r="N234">
+        <v>4.333</v>
+      </c>
+      <c r="O234">
+        <v>5.75</v>
+      </c>
+      <c r="P234">
+        <v>-1.25</v>
+      </c>
+      <c r="Q234">
+        <v>1.9</v>
+      </c>
+      <c r="R234">
+        <v>1.9</v>
+      </c>
+      <c r="S234">
         <v>3</v>
       </c>
-      <c r="H234">
-        <v>1</v>
-      </c>
-      <c r="I234" t="s">
-        <v>216</v>
-      </c>
-      <c r="J234">
-        <v>2.2</v>
-      </c>
-      <c r="K234">
-        <v>3.2</v>
-      </c>
-      <c r="L234">
-        <v>3</v>
-      </c>
-      <c r="M234">
-        <v>2.2</v>
-      </c>
-      <c r="N234">
-        <v>3.3</v>
-      </c>
-      <c r="O234">
-        <v>2.9</v>
-      </c>
-      <c r="P234">
-        <v>-0.25</v>
-      </c>
-      <c r="Q234">
-        <v>1.975</v>
-      </c>
-      <c r="R234">
-        <v>1.825</v>
-      </c>
-      <c r="S234">
-        <v>2.25</v>
-      </c>
       <c r="T234">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y234">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -23572,7 +23572,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7541521</v>
+        <v>7541554</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23581,58 +23581,58 @@
         <v>45261.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F263" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="G263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="s">
         <v>216</v>
       </c>
       <c r="J263">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="K263">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L263">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M263">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="N263">
         <v>3.75</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
         <v>-0.75</v>
       </c>
       <c r="Q263">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T263">
+        <v>1.85</v>
+      </c>
+      <c r="U263">
         <v>1.95</v>
       </c>
-      <c r="U263">
-        <v>1.85</v>
-      </c>
       <c r="V263">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="W263">
         <v>-1</v>
@@ -23641,16 +23641,16 @@
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23658,7 +23658,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7541553</v>
+        <v>7541521</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23667,76 +23667,76 @@
         <v>45261.54166666666</v>
       </c>
       <c r="E264" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="F264" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="G264">
         <v>2</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J264">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="K264">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L264">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="M264">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="N264">
         <v>3.75</v>
       </c>
       <c r="O264">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q264">
+        <v>1.9</v>
+      </c>
+      <c r="R264">
+        <v>1.9</v>
+      </c>
+      <c r="S264">
+        <v>2.75</v>
+      </c>
+      <c r="T264">
         <v>1.95</v>
       </c>
-      <c r="R264">
+      <c r="U264">
         <v>1.85</v>
       </c>
-      <c r="S264">
-        <v>3.5</v>
-      </c>
-      <c r="T264">
-        <v>1.85</v>
-      </c>
-      <c r="U264">
-        <v>1.95</v>
-      </c>
       <c r="V264">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W264">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB264">
-        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23744,7 +23744,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7541554</v>
+        <v>7541553</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -23753,49 +23753,49 @@
         <v>45261.54166666666</v>
       </c>
       <c r="E265" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F265" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="G265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J265">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="K265">
         <v>3.75</v>
       </c>
       <c r="L265">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="M265">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="N265">
         <v>3.75</v>
       </c>
       <c r="O265">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="P265">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S265">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T265">
         <v>1.85</v>
@@ -23804,16 +23804,16 @@
         <v>1.95</v>
       </c>
       <c r="V265">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z265">
         <v>-1</v>
@@ -27442,7 +27442,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27451,13 +27451,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="F308" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="G308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -27466,43 +27466,43 @@
         <v>216</v>
       </c>
       <c r="J308">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K308">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M308">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N308">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O308">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P308">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q308">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R308">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S308">
         <v>3.25</v>
       </c>
       <c r="T308">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U308">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V308">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W308">
         <v>-1</v>
@@ -27511,16 +27511,16 @@
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -27528,7 +27528,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27537,13 +27537,13 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F309" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27552,43 +27552,43 @@
         <v>216</v>
       </c>
       <c r="J309">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K309">
+        <v>3.3</v>
+      </c>
+      <c r="L309">
         <v>4</v>
       </c>
-      <c r="L309">
-        <v>7</v>
-      </c>
       <c r="M309">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="N309">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O309">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P309">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q309">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R309">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
         <v>3.25</v>
       </c>
       <c r="T309">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U309">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -27597,16 +27597,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="310" spans="1:28">
@@ -28560,7 +28560,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7749064</v>
+        <v>7749164</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28569,58 +28569,58 @@
         <v>45318.79166666666</v>
       </c>
       <c r="E321" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F321" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="G321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="s">
         <v>216</v>
       </c>
       <c r="J321">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="K321">
         <v>4</v>
       </c>
       <c r="L321">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="M321">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N321">
         <v>4</v>
       </c>
       <c r="O321">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="P321">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q321">
+        <v>1.925</v>
+      </c>
+      <c r="R321">
+        <v>1.875</v>
+      </c>
+      <c r="S321">
+        <v>3.25</v>
+      </c>
+      <c r="T321">
+        <v>1.975</v>
+      </c>
+      <c r="U321">
         <v>1.825</v>
       </c>
-      <c r="R321">
-        <v>1.975</v>
-      </c>
-      <c r="S321">
-        <v>3</v>
-      </c>
-      <c r="T321">
-        <v>1.9</v>
-      </c>
-      <c r="U321">
-        <v>1.9</v>
-      </c>
       <c r="V321">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="W321">
         <v>-1</v>
@@ -28629,16 +28629,16 @@
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:28">
@@ -28732,7 +28732,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7749164</v>
+        <v>7749064</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -28741,58 +28741,58 @@
         <v>45318.79166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G323">
+        <v>2</v>
+      </c>
+      <c r="H323">
         <v>1</v>
-      </c>
-      <c r="H323">
-        <v>0</v>
       </c>
       <c r="I323" t="s">
         <v>216</v>
       </c>
       <c r="J323">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="K323">
         <v>4</v>
       </c>
       <c r="L323">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="M323">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N323">
         <v>4</v>
       </c>
       <c r="O323">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="P323">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q323">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R323">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S323">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T323">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V323">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -28801,16 +28801,16 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB323">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28916,7 +28916,7 @@
         <v>128</v>
       </c>
       <c r="F325" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29343,34 +29343,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E330" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F330" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="G330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="s">
         <v>216</v>
       </c>
       <c r="J330">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="K330">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L330">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N330">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O330">
         <v>1.5</v>
@@ -29379,22 +29379,22 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S330">
         <v>3</v>
       </c>
       <c r="T330">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U330">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V330">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29403,16 +29403,16 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -29420,7 +29420,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29429,34 +29429,34 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E331" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F331" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="G331">
+        <v>3</v>
+      </c>
+      <c r="H331">
         <v>1</v>
-      </c>
-      <c r="H331">
-        <v>0</v>
       </c>
       <c r="I331" t="s">
         <v>216</v>
       </c>
       <c r="J331">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="K331">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L331">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N331">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O331">
         <v>1.5</v>
@@ -29465,22 +29465,22 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S331">
         <v>3</v>
       </c>
       <c r="T331">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U331">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V331">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29489,16 +29489,16 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29592,7 +29592,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776770</v>
+        <v>7776618</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -29601,58 +29601,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E333" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G333">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="s">
         <v>216</v>
       </c>
       <c r="J333">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K333">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L333">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="M333">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="N333">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O333">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="P333">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q333">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R333">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
         <v>3</v>
       </c>
       <c r="T333">
+        <v>1.825</v>
+      </c>
+      <c r="U333">
         <v>1.975</v>
       </c>
-      <c r="U333">
-        <v>1.825</v>
-      </c>
       <c r="V333">
-        <v>1.625</v>
+        <v>0.2</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -29661,13 +29661,13 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB333">
         <v>-1</v>
@@ -29764,7 +29764,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -29773,58 +29773,58 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F335" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G335">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335" t="s">
         <v>216</v>
       </c>
       <c r="J335">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K335">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L335">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="M335">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="N335">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O335">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="P335">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q335">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R335">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S335">
         <v>3</v>
       </c>
       <c r="T335">
+        <v>1.975</v>
+      </c>
+      <c r="U335">
         <v>1.825</v>
       </c>
-      <c r="U335">
-        <v>1.975</v>
-      </c>
       <c r="V335">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -29833,13 +29833,13 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB335">
         <v>-1</v>
@@ -30280,7 +30280,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30289,58 +30289,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F341" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G341">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="s">
         <v>216</v>
       </c>
       <c r="J341">
+        <v>1.533</v>
+      </c>
+      <c r="K341">
+        <v>3.75</v>
+      </c>
+      <c r="L341">
+        <v>5</v>
+      </c>
+      <c r="M341">
+        <v>1.533</v>
+      </c>
+      <c r="N341">
+        <v>3.8</v>
+      </c>
+      <c r="O341">
+        <v>5</v>
+      </c>
+      <c r="P341">
+        <v>-1</v>
+      </c>
+      <c r="Q341">
+        <v>1.875</v>
+      </c>
+      <c r="R341">
+        <v>1.925</v>
+      </c>
+      <c r="S341">
         <v>3</v>
       </c>
-      <c r="K341">
-        <v>3.4</v>
-      </c>
-      <c r="L341">
-        <v>2.1</v>
-      </c>
-      <c r="M341">
-        <v>3</v>
-      </c>
-      <c r="N341">
-        <v>3.4</v>
-      </c>
-      <c r="O341">
-        <v>2.1</v>
-      </c>
-      <c r="P341">
-        <v>0.25</v>
-      </c>
-      <c r="Q341">
-        <v>1.9</v>
-      </c>
-      <c r="R341">
-        <v>1.9</v>
-      </c>
-      <c r="S341">
-        <v>2.75</v>
-      </c>
       <c r="T341">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U341">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V341">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W341">
         <v>-1</v>
@@ -30349,16 +30349,16 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB341">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -30366,7 +30366,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30375,58 +30375,58 @@
         <v>45325.79166666666</v>
       </c>
       <c r="E342" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="F342" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G342">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="s">
         <v>216</v>
       </c>
       <c r="J342">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="K342">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L342">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M342">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N342">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O342">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="P342">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q342">
+        <v>1.9</v>
+      </c>
+      <c r="R342">
+        <v>1.9</v>
+      </c>
+      <c r="S342">
+        <v>2.75</v>
+      </c>
+      <c r="T342">
         <v>1.875</v>
       </c>
-      <c r="R342">
+      <c r="U342">
         <v>1.925</v>
       </c>
-      <c r="S342">
-        <v>3</v>
-      </c>
-      <c r="T342">
-        <v>2</v>
-      </c>
-      <c r="U342">
-        <v>1.8</v>
-      </c>
       <c r="V342">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="W342">
         <v>-1</v>
@@ -30435,16 +30435,16 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -31914,7 +31914,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809187</v>
+        <v>7809267</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -31923,73 +31923,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F360" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
         <v>4</v>
       </c>
-      <c r="H360">
-        <v>1</v>
-      </c>
       <c r="I360" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J360">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="K360">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L360">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="M360">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="N360">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O360">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="P360">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Q360">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R360">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S360">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T360">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U360">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA360">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB360">
         <v>-1</v>
@@ -32000,7 +32000,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809267</v>
+        <v>7809187</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32009,73 +32009,73 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F361" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="G361">
+        <v>4</v>
+      </c>
+      <c r="H361">
         <v>1</v>
       </c>
-      <c r="H361">
-        <v>4</v>
-      </c>
       <c r="I361" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J361">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="K361">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L361">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="M361">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="N361">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O361">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="P361">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="Q361">
+        <v>1.975</v>
+      </c>
+      <c r="R361">
+        <v>1.825</v>
+      </c>
+      <c r="S361">
+        <v>3.25</v>
+      </c>
+      <c r="T361">
+        <v>1.875</v>
+      </c>
+      <c r="U361">
         <v>1.925</v>
       </c>
-      <c r="R361">
-        <v>1.875</v>
-      </c>
-      <c r="S361">
-        <v>3.5</v>
-      </c>
-      <c r="T361">
-        <v>1.925</v>
-      </c>
-      <c r="U361">
-        <v>1.775</v>
-      </c>
       <c r="V361">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z361">
+        <v>-1</v>
+      </c>
+      <c r="AA361">
         <v>0.875</v>
-      </c>
-      <c r="AA361">
-        <v>0.925</v>
       </c>
       <c r="AB361">
         <v>-1</v>
@@ -32946,7 +32946,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -32955,73 +32955,73 @@
         <v>45338.75</v>
       </c>
       <c r="E372" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F372" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372" t="s">
+        <v>216</v>
+      </c>
+      <c r="J372">
+        <v>1.615</v>
+      </c>
+      <c r="K372">
+        <v>3.5</v>
+      </c>
+      <c r="L372">
         <v>5</v>
       </c>
-      <c r="I372" t="s">
-        <v>218</v>
-      </c>
-      <c r="J372">
+      <c r="M372">
+        <v>1.363</v>
+      </c>
+      <c r="N372">
+        <v>4.333</v>
+      </c>
+      <c r="O372">
+        <v>7.5</v>
+      </c>
+      <c r="P372">
+        <v>-1.25</v>
+      </c>
+      <c r="Q372">
+        <v>1.75</v>
+      </c>
+      <c r="R372">
+        <v>2.05</v>
+      </c>
+      <c r="S372">
+        <v>3</v>
+      </c>
+      <c r="T372">
         <v>1.8</v>
       </c>
-      <c r="K372">
-        <v>3.3</v>
-      </c>
-      <c r="L372">
-        <v>4</v>
-      </c>
-      <c r="M372">
-        <v>1.615</v>
-      </c>
-      <c r="N372">
-        <v>3.5</v>
-      </c>
-      <c r="O372">
-        <v>4.75</v>
-      </c>
-      <c r="P372">
-        <v>-0.75</v>
-      </c>
-      <c r="Q372">
-        <v>1.8</v>
-      </c>
-      <c r="R372">
-        <v>2</v>
-      </c>
-      <c r="S372">
-        <v>2.75</v>
-      </c>
-      <c r="T372">
-        <v>1.75</v>
-      </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V372">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z372">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB372">
         <v>-1</v>
@@ -33032,7 +33032,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33041,73 +33041,73 @@
         <v>45338.75</v>
       </c>
       <c r="E373" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F373" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373" t="s">
+        <v>218</v>
+      </c>
+      <c r="J373">
+        <v>1.8</v>
+      </c>
+      <c r="K373">
+        <v>3.3</v>
+      </c>
+      <c r="L373">
+        <v>4</v>
+      </c>
+      <c r="M373">
+        <v>1.615</v>
+      </c>
+      <c r="N373">
+        <v>3.5</v>
+      </c>
+      <c r="O373">
+        <v>4.75</v>
+      </c>
+      <c r="P373">
+        <v>-0.75</v>
+      </c>
+      <c r="Q373">
+        <v>1.8</v>
+      </c>
+      <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
+        <v>2.75</v>
+      </c>
+      <c r="T373">
+        <v>1.75</v>
+      </c>
+      <c r="U373">
+        <v>1.95</v>
+      </c>
+      <c r="V373">
+        <v>-1</v>
+      </c>
+      <c r="W373">
+        <v>-1</v>
+      </c>
+      <c r="X373">
+        <v>3.75</v>
+      </c>
+      <c r="Y373">
+        <v>-1</v>
+      </c>
+      <c r="Z373">
         <v>1</v>
       </c>
-      <c r="I373" t="s">
-        <v>216</v>
-      </c>
-      <c r="J373">
-        <v>1.615</v>
-      </c>
-      <c r="K373">
-        <v>3.5</v>
-      </c>
-      <c r="L373">
-        <v>5</v>
-      </c>
-      <c r="M373">
-        <v>1.363</v>
-      </c>
-      <c r="N373">
-        <v>4.333</v>
-      </c>
-      <c r="O373">
-        <v>7.5</v>
-      </c>
-      <c r="P373">
-        <v>-1.25</v>
-      </c>
-      <c r="Q373">
-        <v>1.75</v>
-      </c>
-      <c r="R373">
-        <v>2.05</v>
-      </c>
-      <c r="S373">
-        <v>3</v>
-      </c>
-      <c r="T373">
-        <v>1.8</v>
-      </c>
-      <c r="U373">
-        <v>2</v>
-      </c>
-      <c r="V373">
-        <v>0.363</v>
-      </c>
-      <c r="W373">
-        <v>-1</v>
-      </c>
-      <c r="X373">
-        <v>-1</v>
-      </c>
-      <c r="Y373">
+      <c r="AA373">
         <v>0.75</v>
-      </c>
-      <c r="Z373">
-        <v>-1</v>
-      </c>
-      <c r="AA373">
-        <v>0.8</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -33548,7 +33548,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7847203</v>
+        <v>7847110</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -33557,73 +33557,73 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F379" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H379">
+        <v>2</v>
+      </c>
+      <c r="I379" t="s">
+        <v>216</v>
+      </c>
+      <c r="J379">
         <v>4</v>
       </c>
-      <c r="I379" t="s">
-        <v>218</v>
-      </c>
-      <c r="J379">
+      <c r="K379">
+        <v>3.3</v>
+      </c>
+      <c r="L379">
+        <v>1.8</v>
+      </c>
+      <c r="M379">
+        <v>4</v>
+      </c>
+      <c r="N379">
+        <v>3.3</v>
+      </c>
+      <c r="O379">
+        <v>1.8</v>
+      </c>
+      <c r="P379">
+        <v>0.75</v>
+      </c>
+      <c r="Q379">
+        <v>1.775</v>
+      </c>
+      <c r="R379">
+        <v>1.925</v>
+      </c>
+      <c r="S379">
         <v>2.75</v>
       </c>
-      <c r="K379">
-        <v>3.2</v>
-      </c>
-      <c r="L379">
-        <v>2.3</v>
-      </c>
-      <c r="M379">
-        <v>3.25</v>
-      </c>
-      <c r="N379">
-        <v>3.4</v>
-      </c>
-      <c r="O379">
-        <v>2.1</v>
-      </c>
-      <c r="P379">
-        <v>0.25</v>
-      </c>
-      <c r="Q379">
-        <v>1.975</v>
-      </c>
-      <c r="R379">
-        <v>1.825</v>
-      </c>
-      <c r="S379">
-        <v>2.25</v>
-      </c>
       <c r="T379">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U379">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V379">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W379">
         <v>-1</v>
       </c>
       <c r="X379">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z379">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
         <v>-1</v>
@@ -33634,7 +33634,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7847110</v>
+        <v>7847203</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -33643,73 +33643,73 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="F380" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="G380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I380" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J380">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K380">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L380">
+        <v>2.3</v>
+      </c>
+      <c r="M380">
+        <v>3.25</v>
+      </c>
+      <c r="N380">
+        <v>3.4</v>
+      </c>
+      <c r="O380">
+        <v>2.1</v>
+      </c>
+      <c r="P380">
+        <v>0.25</v>
+      </c>
+      <c r="Q380">
+        <v>1.975</v>
+      </c>
+      <c r="R380">
+        <v>1.825</v>
+      </c>
+      <c r="S380">
+        <v>2.25</v>
+      </c>
+      <c r="T380">
         <v>1.8</v>
       </c>
-      <c r="M380">
-        <v>4</v>
-      </c>
-      <c r="N380">
-        <v>3.3</v>
-      </c>
-      <c r="O380">
-        <v>1.8</v>
-      </c>
-      <c r="P380">
-        <v>0.75</v>
-      </c>
-      <c r="Q380">
-        <v>1.775</v>
-      </c>
-      <c r="R380">
-        <v>1.925</v>
-      </c>
-      <c r="S380">
-        <v>2.75</v>
-      </c>
-      <c r="T380">
-        <v>1.85</v>
-      </c>
       <c r="U380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V380">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W380">
         <v>-1</v>
       </c>
       <c r="X380">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y380">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA380">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB380">
         <v>-1</v>
@@ -36300,7 +36300,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7905018</v>
+        <v>7905044</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -36309,34 +36309,34 @@
         <v>45353.79166666666</v>
       </c>
       <c r="E411" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="F411" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J411">
+        <v>1.083</v>
+      </c>
+      <c r="K411">
+        <v>9.5</v>
+      </c>
+      <c r="L411">
+        <v>23</v>
+      </c>
+      <c r="M411">
         <v>1.142</v>
       </c>
-      <c r="K411">
-        <v>6.5</v>
-      </c>
-      <c r="L411">
-        <v>17</v>
-      </c>
-      <c r="M411">
-        <v>1.166</v>
-      </c>
       <c r="N411">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O411">
         <v>15</v>
@@ -36351,19 +36351,19 @@
         <v>1.975</v>
       </c>
       <c r="S411">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T411">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U411">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W411">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X411">
         <v>-1</v>
@@ -36375,10 +36375,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AA411">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB411">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="412" spans="1:28">
@@ -36386,7 +36386,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7905044</v>
+        <v>7905018</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -36395,34 +36395,34 @@
         <v>45353.79166666666</v>
       </c>
       <c r="E412" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F412" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="G412">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J412">
-        <v>1.083</v>
+        <v>1.142</v>
       </c>
       <c r="K412">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="L412">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M412">
-        <v>1.142</v>
+        <v>1.166</v>
       </c>
       <c r="N412">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="O412">
         <v>15</v>
@@ -36437,19 +36437,19 @@
         <v>1.975</v>
       </c>
       <c r="S412">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T412">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U412">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V412">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W412">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -36461,10 +36461,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AA412">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:28">
@@ -37418,7 +37418,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -37427,76 +37427,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F424" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G424">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H424">
+        <v>3</v>
+      </c>
+      <c r="I424" t="s">
+        <v>218</v>
+      </c>
+      <c r="J424">
+        <v>1.5</v>
+      </c>
+      <c r="K424">
+        <v>4</v>
+      </c>
+      <c r="L424">
+        <v>5</v>
+      </c>
+      <c r="M424">
+        <v>1.5</v>
+      </c>
+      <c r="N424">
+        <v>3.8</v>
+      </c>
+      <c r="O424">
+        <v>5.25</v>
+      </c>
+      <c r="P424">
+        <v>-1</v>
+      </c>
+      <c r="Q424">
+        <v>1.8</v>
+      </c>
+      <c r="R424">
+        <v>2</v>
+      </c>
+      <c r="S424">
+        <v>2.75</v>
+      </c>
+      <c r="T424">
+        <v>2</v>
+      </c>
+      <c r="U424">
+        <v>1.8</v>
+      </c>
+      <c r="V424">
+        <v>-1</v>
+      </c>
+      <c r="W424">
+        <v>-1</v>
+      </c>
+      <c r="X424">
+        <v>4.25</v>
+      </c>
+      <c r="Y424">
+        <v>-1</v>
+      </c>
+      <c r="Z424">
         <v>1</v>
       </c>
-      <c r="I424" t="s">
-        <v>216</v>
-      </c>
-      <c r="J424">
-        <v>1.1</v>
-      </c>
-      <c r="K424">
-        <v>7.5</v>
-      </c>
-      <c r="L424">
-        <v>13</v>
-      </c>
-      <c r="M424">
-        <v>1.142</v>
-      </c>
-      <c r="N424">
-        <v>8</v>
-      </c>
-      <c r="O424">
-        <v>9</v>
-      </c>
-      <c r="P424">
-        <v>-2.5</v>
-      </c>
-      <c r="Q424">
-        <v>1.925</v>
-      </c>
-      <c r="R424">
-        <v>1.875</v>
-      </c>
-      <c r="S424">
-        <v>3.75</v>
-      </c>
-      <c r="T424">
-        <v>1.9</v>
-      </c>
-      <c r="U424">
-        <v>1.9</v>
-      </c>
-      <c r="V424">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="W424">
-        <v>-1</v>
-      </c>
-      <c r="X424">
-        <v>-1</v>
-      </c>
-      <c r="Y424">
-        <v>-1</v>
-      </c>
-      <c r="Z424">
-        <v>0.875</v>
-      </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB424">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37504,7 +37504,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -37513,76 +37513,76 @@
         <v>45359.79166666666</v>
       </c>
       <c r="E425" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="F425" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I425" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J425">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K425">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="L425">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M425">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="N425">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="O425">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="P425">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="Q425">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R425">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S425">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T425">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U425">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V425">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W425">
         <v>-1</v>
       </c>
       <c r="X425">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -43008,7 +43008,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>8030092</v>
+        <v>8028224</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43017,40 +43017,40 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E489" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F489" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G489">
         <v>1</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I489" t="s">
         <v>218</v>
       </c>
       <c r="J489">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K489">
         <v>3.5</v>
       </c>
       <c r="L489">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="M489">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N489">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O489">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="P489">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q489">
         <v>1.925</v>
@@ -43059,13 +43059,13 @@
         <v>1.875</v>
       </c>
       <c r="S489">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T489">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U489">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V489">
         <v>-1</v>
@@ -43074,19 +43074,19 @@
         <v>-1</v>
       </c>
       <c r="X489">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="Y489">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z489">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA489">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB489">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:28">
@@ -43094,7 +43094,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>8028224</v>
+        <v>8030092</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -43103,40 +43103,40 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E490" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F490" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G490">
         <v>1</v>
       </c>
       <c r="H490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="s">
         <v>218</v>
       </c>
       <c r="J490">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K490">
         <v>3.5</v>
       </c>
       <c r="L490">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M490">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N490">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O490">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="P490">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q490">
         <v>1.925</v>
@@ -43145,13 +43145,13 @@
         <v>1.875</v>
       </c>
       <c r="S490">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T490">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U490">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V490">
         <v>-1</v>
@@ -43160,19 +43160,19 @@
         <v>-1</v>
       </c>
       <c r="X490">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="Y490">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z490">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA490">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB490">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:28">
@@ -46104,7 +46104,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>8117198</v>
+        <v>8117197</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -46113,55 +46113,55 @@
         <v>45401.75</v>
       </c>
       <c r="E525" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F525" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="G525">
         <v>0</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="s">
         <v>218</v>
       </c>
       <c r="J525">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K525">
         <v>3.3</v>
       </c>
       <c r="L525">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M525">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N525">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O525">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P525">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q525">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R525">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T525">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U525">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V525">
         <v>-1</v>
@@ -46170,19 +46170,19 @@
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="Y525">
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA525">
         <v>-1</v>
       </c>
       <c r="AB525">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="526" spans="1:28">
@@ -46276,7 +46276,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>8117197</v>
+        <v>8117198</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -46285,55 +46285,55 @@
         <v>45401.75</v>
       </c>
       <c r="E527" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F527" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="G527">
         <v>0</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="s">
         <v>218</v>
       </c>
       <c r="J527">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K527">
         <v>3.3</v>
       </c>
       <c r="L527">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M527">
+        <v>2.3</v>
+      </c>
+      <c r="N527">
         <v>3.3</v>
       </c>
-      <c r="N527">
-        <v>3.6</v>
-      </c>
       <c r="O527">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P527">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q527">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R527">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S527">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T527">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U527">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V527">
         <v>-1</v>
@@ -46342,19 +46342,19 @@
         <v>-1</v>
       </c>
       <c r="X527">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="Y527">
         <v>-1</v>
       </c>
       <c r="Z527">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA527">
         <v>-1</v>
       </c>
       <c r="AB527">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="528" spans="1:28">
@@ -46620,7 +46620,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8121529</v>
+        <v>8123619</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -46629,76 +46629,76 @@
         <v>45402.79166666666</v>
       </c>
       <c r="E531" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="F531" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H531">
         <v>0</v>
       </c>
       <c r="I531" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J531">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="K531">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="L531">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="M531">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="N531">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O531">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="P531">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q531">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R531">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S531">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T531">
+        <v>1.925</v>
+      </c>
+      <c r="U531">
         <v>1.875</v>
       </c>
-      <c r="U531">
-        <v>1.925</v>
-      </c>
       <c r="V531">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W531">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X531">
         <v>-1</v>
       </c>
       <c r="Y531">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z531">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA531">
         <v>-1</v>
       </c>
       <c r="AB531">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="532" spans="1:28">
@@ -46706,7 +46706,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>8123619</v>
+        <v>8121529</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -46715,76 +46715,76 @@
         <v>45402.79166666666</v>
       </c>
       <c r="E532" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F532" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0</v>
       </c>
       <c r="I532" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J532">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="K532">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L532">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="M532">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N532">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O532">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="P532">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q532">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R532">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S532">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T532">
+        <v>1.875</v>
+      </c>
+      <c r="U532">
         <v>1.925</v>
       </c>
-      <c r="U532">
-        <v>1.875</v>
-      </c>
       <c r="V532">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W532">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X532">
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z532">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA532">
         <v>-1</v>
       </c>
       <c r="AB532">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="533" spans="1:28">
@@ -47836,7 +47836,7 @@
         <v>53</v>
       </c>
       <c r="F545" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G545">
         <v>4</v>
@@ -49286,7 +49286,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>8164786</v>
+        <v>8164795</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -49295,49 +49295,49 @@
         <v>45413.79166666666</v>
       </c>
       <c r="E562" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="F562" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="G562">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J562">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="K562">
         <v>3.5</v>
       </c>
       <c r="L562">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M562">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N562">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O562">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="P562">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q562">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R562">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S562">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T562">
         <v>1.95</v>
@@ -49346,25 +49346,25 @@
         <v>1.85</v>
       </c>
       <c r="V562">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W562">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X562">
         <v>-1</v>
       </c>
       <c r="Y562">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z562">
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB562">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:28">
@@ -49372,7 +49372,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8164795</v>
+        <v>8164786</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -49381,49 +49381,49 @@
         <v>45413.79166666666</v>
       </c>
       <c r="E563" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="F563" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="G563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J563">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="K563">
         <v>3.5</v>
       </c>
       <c r="L563">
+        <v>3</v>
+      </c>
+      <c r="M563">
+        <v>2</v>
+      </c>
+      <c r="N563">
+        <v>3.5</v>
+      </c>
+      <c r="O563">
+        <v>3</v>
+      </c>
+      <c r="P563">
+        <v>-0.25</v>
+      </c>
+      <c r="Q563">
         <v>1.8</v>
       </c>
-      <c r="M563">
-        <v>3.75</v>
-      </c>
-      <c r="N563">
-        <v>3.3</v>
-      </c>
-      <c r="O563">
-        <v>1.85</v>
-      </c>
-      <c r="P563">
-        <v>0.5</v>
-      </c>
-      <c r="Q563">
-        <v>1.95</v>
-      </c>
       <c r="R563">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S563">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T563">
         <v>1.95</v>
@@ -49432,25 +49432,25 @@
         <v>1.85</v>
       </c>
       <c r="V563">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W563">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X563">
         <v>-1</v>
       </c>
       <c r="Y563">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB563">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:28">
@@ -50232,7 +50232,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>8181044</v>
+        <v>8182085</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -50241,76 +50241,76 @@
         <v>45417.70833333334</v>
       </c>
       <c r="E573" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F573" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="G573">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I573" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J573">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K573">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L573">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M573">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N573">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O573">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P573">
         <v>-0.5</v>
       </c>
       <c r="Q573">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R573">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S573">
         <v>2.75</v>
       </c>
       <c r="T573">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U573">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V573">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W573">
         <v>-1</v>
       </c>
       <c r="X573">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y573">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z573">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA573">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB573">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="574" spans="1:28">
@@ -50318,7 +50318,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>8182085</v>
+        <v>8181044</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -50327,76 +50327,76 @@
         <v>45417.70833333334</v>
       </c>
       <c r="E574" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F574" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="G574">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H574">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I574" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J574">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K574">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L574">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M574">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N574">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O574">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P574">
         <v>-0.5</v>
       </c>
       <c r="Q574">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R574">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S574">
         <v>2.75</v>
       </c>
       <c r="T574">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U574">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V574">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W574">
         <v>-1</v>
       </c>
       <c r="X574">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y574">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z574">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA574">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB574">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="575" spans="1:28">
@@ -52216,49 +52216,49 @@
         <v>28</v>
       </c>
       <c r="D596" s="2">
-        <v>45435.875</v>
+        <v>45437.64583333334</v>
       </c>
       <c r="E596" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F596" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="J596">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K596">
+        <v>3.1</v>
+      </c>
+      <c r="L596">
         <v>3.4</v>
       </c>
-      <c r="L596">
-        <v>2.75</v>
-      </c>
       <c r="M596">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N596">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O596">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="P596">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q596">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R596">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S596">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T596">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U596">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V596">
         <v>0</v>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -331,10 +331,10 @@
     <t>Titanes de Queretaro</t>
   </si>
   <si>
-    <t>Club Deportivo guila Azteca</t>
+    <t>Delfines UGM</t>
   </si>
   <si>
-    <t>Delfines UGM</t>
+    <t>Club Deportivo guila Azteca</t>
   </si>
   <si>
     <t>Mineros Queretaro</t>
@@ -6661,7 +6661,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -7305,7 +7305,7 @@
         <v>56</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8682,13 +8682,13 @@
         <v>45212.75</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8697,67 +8697,67 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L84">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M84">
         <v>3.5</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P84">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q84">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U84">
         <v>2.75</v>
       </c>
       <c r="V84">
+        <v>1.975</v>
+      </c>
+      <c r="W84">
         <v>1.825</v>
       </c>
-      <c r="W84">
-        <v>1.975</v>
-      </c>
       <c r="X84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8765,7 +8765,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8774,13 +8774,13 @@
         <v>45212.75</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8789,67 +8789,67 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L85">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M85">
         <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P85">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U85">
         <v>2.75</v>
       </c>
       <c r="V85">
+        <v>1.825</v>
+      </c>
+      <c r="W85">
         <v>1.975</v>
       </c>
-      <c r="W85">
-        <v>1.825</v>
-      </c>
       <c r="X85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y85">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
+        <v>1.05</v>
+      </c>
+      <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
+        <v>0.4125</v>
+      </c>
+      <c r="AD85">
         <v>-0.5</v>
-      </c>
-      <c r="AB85">
-        <v>0.4625</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
-      </c>
-      <c r="AD85">
-        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -11157,7 +11157,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7369154</v>
+        <v>7369105</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -11166,55 +11166,55 @@
         <v>45220.75</v>
       </c>
       <c r="E111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F111" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O111">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="P111">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q111">
+        <v>1.363</v>
+      </c>
+      <c r="R111">
+        <v>1.5</v>
+      </c>
+      <c r="S111">
+        <v>1.75</v>
+      </c>
+      <c r="T111">
+        <v>1.95</v>
+      </c>
+      <c r="U111">
         <v>2.75</v>
-      </c>
-      <c r="R111">
-        <v>-0.25</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>1.8</v>
-      </c>
-      <c r="U111">
-        <v>3</v>
       </c>
       <c r="V111">
         <v>1.8</v>
@@ -11223,19 +11223,19 @@
         <v>2</v>
       </c>
       <c r="X111">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -11249,7 +11249,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7369105</v>
+        <v>7369154</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -11258,55 +11258,55 @@
         <v>45220.75</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N112">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O112">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="P112">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="R112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V112">
         <v>1.8</v>
@@ -11315,19 +11315,19 @@
         <v>2</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -14095,7 +14095,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7425467</v>
+        <v>7425469</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -14104,10 +14104,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -14119,46 +14119,46 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K143" t="s">
         <v>219</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q143">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="R143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -14167,16 +14167,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC143">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD143">
         <v>-1</v>
@@ -14187,7 +14187,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7425469</v>
+        <v>7425467</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -14196,10 +14196,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -14211,46 +14211,46 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K144" t="s">
         <v>219</v>
       </c>
       <c r="L144">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O144">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
+        <v>1.85</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
         <v>1.75</v>
       </c>
-      <c r="U144">
-        <v>2.25</v>
-      </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
       <c r="W144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -14259,16 +14259,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC144">
         <v>0.75</v>
-      </c>
-      <c r="AC144">
-        <v>1</v>
       </c>
       <c r="AD144">
         <v>-1</v>
@@ -15659,7 +15659,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15668,82 +15668,82 @@
         <v>45234.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="O160">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="P160">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q160">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="R160">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15751,7 +15751,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15760,82 +15760,82 @@
         <v>45234.83333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F161" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>219</v>
+      </c>
+      <c r="L161">
         <v>4</v>
       </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>2</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161" t="s">
-        <v>217</v>
-      </c>
-      <c r="L161">
-        <v>1.3</v>
-      </c>
       <c r="M161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N161">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="O161">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="P161">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q161">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="R161">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U161">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X161">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -16395,7 +16395,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7448959</v>
+        <v>7447275</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -16404,82 +16404,82 @@
         <v>45237.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L168">
+        <v>1.1</v>
+      </c>
+      <c r="M168">
+        <v>8.5</v>
+      </c>
+      <c r="N168">
+        <v>21</v>
+      </c>
+      <c r="O168">
+        <v>1.035</v>
+      </c>
+      <c r="P168">
+        <v>19</v>
+      </c>
+      <c r="Q168">
+        <v>29</v>
+      </c>
+      <c r="R168">
+        <v>-4</v>
+      </c>
+      <c r="S168">
+        <v>1.925</v>
+      </c>
+      <c r="T168">
+        <v>1.875</v>
+      </c>
+      <c r="U168">
+        <v>4.75</v>
+      </c>
+      <c r="V168">
         <v>1.8</v>
       </c>
-      <c r="M168">
-        <v>3.2</v>
-      </c>
-      <c r="N168">
-        <v>4</v>
-      </c>
-      <c r="O168">
-        <v>1.615</v>
-      </c>
-      <c r="P168">
-        <v>3.4</v>
-      </c>
-      <c r="Q168">
-        <v>4.75</v>
-      </c>
-      <c r="R168">
-        <v>-0.75</v>
-      </c>
-      <c r="S168">
-        <v>1.85</v>
-      </c>
-      <c r="T168">
-        <v>1.95</v>
-      </c>
-      <c r="U168">
-        <v>2.75</v>
-      </c>
-      <c r="V168">
-        <v>1.925</v>
-      </c>
       <c r="W168">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD168">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16579,7 +16579,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7447275</v>
+        <v>7448959</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16588,82 +16588,82 @@
         <v>45237.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L170">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="M170">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N170">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="O170">
-        <v>1.035</v>
+        <v>1.615</v>
       </c>
       <c r="P170">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="R170">
-        <v>-4</v>
+        <v>-0.75</v>
       </c>
       <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>1.95</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
         <v>1.925</v>
       </c>
-      <c r="T170">
-        <v>1.875</v>
-      </c>
-      <c r="U170">
-        <v>4.75</v>
-      </c>
-      <c r="V170">
-        <v>1.8</v>
-      </c>
       <c r="W170">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X170">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD170">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16855,7 +16855,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7447276</v>
+        <v>7450086</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16864,19 +16864,19 @@
         <v>45237.75</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -16885,43 +16885,43 @@
         <v>217</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N173">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q173">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="R173">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="S173">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X173">
-        <v>3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -16930,7 +16930,7 @@
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -16939,7 +16939,7 @@
         <v>-1</v>
       </c>
       <c r="AD173">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16956,7 +16956,7 @@
         <v>45237.75</v>
       </c>
       <c r="E174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F174" t="s">
         <v>32</v>
@@ -17039,7 +17039,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7450086</v>
+        <v>7447276</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -17048,19 +17048,19 @@
         <v>45237.75</v>
       </c>
       <c r="E175" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -17069,43 +17069,43 @@
         <v>217</v>
       </c>
       <c r="L175">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N175">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="O175">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q175">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="R175">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X175">
-        <v>0.1419999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -17114,7 +17114,7 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -17123,7 +17123,7 @@
         <v>-1</v>
       </c>
       <c r="AD175">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -18695,7 +18695,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7462590</v>
+        <v>7459225</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18704,61 +18704,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F193" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K193" t="s">
         <v>219</v>
       </c>
       <c r="L193">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="M193">
+        <v>7.5</v>
+      </c>
+      <c r="N193">
+        <v>1.142</v>
+      </c>
+      <c r="O193">
+        <v>9</v>
+      </c>
+      <c r="P193">
+        <v>6.5</v>
+      </c>
+      <c r="Q193">
+        <v>1.222</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>1.95</v>
+      </c>
+      <c r="T193">
+        <v>1.85</v>
+      </c>
+      <c r="U193">
         <v>3.75</v>
       </c>
-      <c r="N193">
-        <v>2.15</v>
-      </c>
-      <c r="O193">
-        <v>2.375</v>
-      </c>
-      <c r="P193">
-        <v>3.6</v>
-      </c>
-      <c r="Q193">
-        <v>2.375</v>
-      </c>
-      <c r="R193">
-        <v>0</v>
-      </c>
-      <c r="S193">
-        <v>1.9</v>
-      </c>
-      <c r="T193">
-        <v>1.9</v>
-      </c>
-      <c r="U193">
-        <v>2.75</v>
-      </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -18767,19 +18767,19 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>1.375</v>
+        <v>0.222</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AD193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18787,7 +18787,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7459225</v>
+        <v>7462590</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18796,61 +18796,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F194" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194" t="s">
         <v>219</v>
       </c>
       <c r="L194">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="M194">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N194">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="O194">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="P194">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U194">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -18859,19 +18859,19 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.222</v>
+        <v>1.375</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AD194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -20443,7 +20443,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486046</v>
+        <v>7486113</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20452,10 +20452,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F212" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20464,7 +20464,7 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -20473,43 +20473,43 @@
         <v>217</v>
       </c>
       <c r="L212">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N212">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O212">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q212">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="R212">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X212">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20518,16 +20518,16 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
         <v>-1</v>
       </c>
       <c r="AD212">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20535,7 +20535,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7486113</v>
+        <v>7486046</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20544,10 +20544,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F213" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -20565,43 +20565,43 @@
         <v>217</v>
       </c>
       <c r="L213">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O213">
+        <v>1.2</v>
+      </c>
+      <c r="P213">
+        <v>5.25</v>
+      </c>
+      <c r="Q213">
+        <v>11</v>
+      </c>
+      <c r="R213">
+        <v>-2</v>
+      </c>
+      <c r="S213">
+        <v>2</v>
+      </c>
+      <c r="T213">
+        <v>1.8</v>
+      </c>
+      <c r="U213">
         <v>3</v>
       </c>
-      <c r="P213">
-        <v>3.25</v>
-      </c>
-      <c r="Q213">
-        <v>2.1</v>
-      </c>
-      <c r="R213">
-        <v>0.25</v>
-      </c>
-      <c r="S213">
-        <v>1.875</v>
-      </c>
-      <c r="T213">
-        <v>1.925</v>
-      </c>
-      <c r="U213">
-        <v>2.5</v>
-      </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X213">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -20610,16 +20610,16 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
         <v>-1</v>
       </c>
       <c r="AD213">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20903,7 +20903,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7486319</v>
+        <v>7486519</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20912,46 +20912,52 @@
         <v>45247.75</v>
       </c>
       <c r="E217" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
         <v>3</v>
       </c>
-      <c r="H217">
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L217">
+        <v>3.25</v>
+      </c>
+      <c r="M217">
+        <v>3.75</v>
+      </c>
+      <c r="N217">
         <v>1.833</v>
       </c>
-      <c r="M217">
-        <v>4.5</v>
-      </c>
-      <c r="N217">
-        <v>2.9</v>
-      </c>
       <c r="O217">
+        <v>3.3</v>
+      </c>
+      <c r="P217">
+        <v>3.75</v>
+      </c>
+      <c r="Q217">
         <v>1.833</v>
       </c>
-      <c r="P217">
-        <v>4.5</v>
-      </c>
-      <c r="Q217">
-        <v>2.9</v>
-      </c>
       <c r="R217">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T217">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U217">
         <v>2.75</v>
@@ -20963,25 +20969,25 @@
         <v>1.9</v>
       </c>
       <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
         <v>0.833</v>
       </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
-      <c r="Z217">
-        <v>-1</v>
-      </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC217">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20989,7 +20995,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7486519</v>
+        <v>7486578</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20998,61 +21004,61 @@
         <v>45247.75</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K218" t="s">
         <v>219</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N218">
-        <v>1.833</v>
+        <v>10</v>
       </c>
       <c r="O218">
-        <v>3.3</v>
+        <v>1.142</v>
       </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q218">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="R218">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -21061,19 +21067,19 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.833</v>
+        <v>11</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD218">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21081,7 +21087,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7486578</v>
+        <v>7486319</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -21090,82 +21096,76 @@
         <v>45247.75</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F219" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219">
-        <v>2</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L219">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="M219">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N219">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="O219">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="P219">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q219">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="R219">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S219">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AD219">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21719,7 +21719,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21728,61 +21728,61 @@
         <v>45248.75</v>
       </c>
       <c r="E226" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F226" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K226" t="s">
         <v>219</v>
       </c>
       <c r="L226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="M226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q226">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -21791,19 +21791,19 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21811,7 +21811,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21820,61 +21820,61 @@
         <v>45248.75</v>
       </c>
       <c r="E227" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="F227" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K227" t="s">
         <v>219</v>
       </c>
       <c r="L227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -21883,19 +21883,19 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21995,7 +21995,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491749</v>
+        <v>7491752</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -22004,76 +22004,82 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
       </c>
       <c r="K229" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L229">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N229">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
+        <v>3.75</v>
+      </c>
+      <c r="Q229">
+        <v>1.8</v>
+      </c>
+      <c r="R229">
+        <v>0.5</v>
+      </c>
+      <c r="S229">
+        <v>1.95</v>
+      </c>
+      <c r="T229">
+        <v>1.85</v>
+      </c>
+      <c r="U229">
         <v>3.5</v>
       </c>
-      <c r="Q229">
-        <v>2.15</v>
-      </c>
-      <c r="R229">
-        <v>0.25</v>
-      </c>
-      <c r="S229">
+      <c r="V229">
+        <v>1.975</v>
+      </c>
+      <c r="W229">
         <v>1.825</v>
       </c>
-      <c r="T229">
-        <v>1.975</v>
-      </c>
-      <c r="U229">
-        <v>2.75</v>
-      </c>
-      <c r="V229">
-        <v>2</v>
-      </c>
-      <c r="W229">
-        <v>1.8</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -22173,7 +22179,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7491752</v>
+        <v>7491749</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -22182,82 +22188,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E231" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F231" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>5</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-      <c r="J231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L231">
+        <v>2.5</v>
+      </c>
+      <c r="M231">
+        <v>3.2</v>
+      </c>
+      <c r="N231">
+        <v>2.5</v>
+      </c>
+      <c r="O231">
+        <v>2.75</v>
+      </c>
+      <c r="P231">
         <v>3.5</v>
       </c>
-      <c r="M231">
-        <v>3.75</v>
-      </c>
-      <c r="N231">
+      <c r="Q231">
+        <v>2.15</v>
+      </c>
+      <c r="R231">
+        <v>0.25</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>1.975</v>
+      </c>
+      <c r="U231">
+        <v>2.75</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
         <v>1.8</v>
       </c>
-      <c r="O231">
-        <v>3.5</v>
-      </c>
-      <c r="P231">
-        <v>3.75</v>
-      </c>
-      <c r="Q231">
-        <v>1.8</v>
-      </c>
-      <c r="R231">
-        <v>0.5</v>
-      </c>
-      <c r="S231">
-        <v>1.95</v>
-      </c>
-      <c r="T231">
-        <v>1.85</v>
-      </c>
-      <c r="U231">
-        <v>3.5</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
-      <c r="W231">
-        <v>1.825</v>
-      </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z231">
+        <v>-1</v>
+      </c>
+      <c r="AA231">
+        <v>0.4125</v>
+      </c>
+      <c r="AB231">
+        <v>-0.5</v>
+      </c>
+      <c r="AC231">
+        <v>-1</v>
+      </c>
+      <c r="AD231">
         <v>0.8</v>
-      </c>
-      <c r="AA231">
-        <v>-1</v>
-      </c>
-      <c r="AB231">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC231">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -23369,7 +23369,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7514531</v>
+        <v>7515305</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -23378,61 +23378,61 @@
         <v>45254.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="s">
         <v>219</v>
       </c>
       <c r="L244">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N244">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O244">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q244">
-        <v>1.3</v>
+        <v>1.142</v>
       </c>
       <c r="R244">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T244">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U244">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -23441,19 +23441,19 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD244">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23461,7 +23461,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7515305</v>
+        <v>7514531</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23470,61 +23470,61 @@
         <v>45254.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K245" t="s">
         <v>219</v>
       </c>
       <c r="L245">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M245">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O245">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="P245">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="R245">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="S245">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U245">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -23533,19 +23533,19 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.1419999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23829,7 +23829,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7515308</v>
+        <v>7515310</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23838,19 +23838,19 @@
         <v>45254.75</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F249" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249">
         <v>0</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -23859,43 +23859,43 @@
         <v>217</v>
       </c>
       <c r="L249">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M249">
+        <v>3.4</v>
+      </c>
+      <c r="N249">
+        <v>3.2</v>
+      </c>
+      <c r="O249">
+        <v>2.05</v>
+      </c>
+      <c r="P249">
         <v>3.3</v>
       </c>
-      <c r="N249">
-        <v>2.2</v>
-      </c>
-      <c r="O249">
-        <v>2.1</v>
-      </c>
-      <c r="P249">
-        <v>3.4</v>
-      </c>
       <c r="Q249">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R249">
         <v>-0.25</v>
       </c>
       <c r="S249">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T249">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U249">
         <v>2.75</v>
       </c>
       <c r="V249">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W249">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X249">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23904,7 +23904,7 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB249">
         <v>-1</v>
@@ -23913,7 +23913,7 @@
         <v>-1</v>
       </c>
       <c r="AD249">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23921,7 +23921,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7515310</v>
+        <v>7515308</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23930,19 +23930,19 @@
         <v>45254.75</v>
       </c>
       <c r="E250" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -23951,43 +23951,43 @@
         <v>217</v>
       </c>
       <c r="L250">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M250">
+        <v>3.3</v>
+      </c>
+      <c r="N250">
+        <v>2.2</v>
+      </c>
+      <c r="O250">
+        <v>2.1</v>
+      </c>
+      <c r="P250">
         <v>3.4</v>
       </c>
-      <c r="N250">
-        <v>3.2</v>
-      </c>
-      <c r="O250">
-        <v>2.05</v>
-      </c>
-      <c r="P250">
-        <v>3.3</v>
-      </c>
       <c r="Q250">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="R250">
         <v>-0.25</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U250">
         <v>2.75</v>
       </c>
       <c r="V250">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W250">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X250">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
@@ -23996,7 +23996,7 @@
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB250">
         <v>-1</v>
@@ -24005,7 +24005,7 @@
         <v>-1</v>
       </c>
       <c r="AD250">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -30453,7 +30453,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7749064</v>
+        <v>7749164</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -30462,64 +30462,64 @@
         <v>45318.79166666666</v>
       </c>
       <c r="E321" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F321" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="G321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321" t="s">
         <v>217</v>
       </c>
       <c r="L321">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="M321">
         <v>4</v>
       </c>
       <c r="N321">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O321">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="P321">
         <v>4</v>
       </c>
       <c r="Q321">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="R321">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S321">
+        <v>1.925</v>
+      </c>
+      <c r="T321">
+        <v>1.875</v>
+      </c>
+      <c r="U321">
+        <v>3.25</v>
+      </c>
+      <c r="V321">
+        <v>1.975</v>
+      </c>
+      <c r="W321">
         <v>1.825</v>
       </c>
-      <c r="T321">
-        <v>1.975</v>
-      </c>
-      <c r="U321">
-        <v>3</v>
-      </c>
-      <c r="V321">
-        <v>1.9</v>
-      </c>
-      <c r="W321">
-        <v>1.9</v>
-      </c>
       <c r="X321">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y321">
         <v>-1</v>
@@ -30528,16 +30528,16 @@
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD321">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -30545,7 +30545,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7749164</v>
+        <v>7749258</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -30554,73 +30554,73 @@
         <v>45318.79166666666</v>
       </c>
       <c r="E322" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G322">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322">
         <v>1</v>
       </c>
       <c r="J322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K322" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L322">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M322">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N322">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O322">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P322">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q322">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="R322">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S322">
+        <v>1.95</v>
+      </c>
+      <c r="T322">
+        <v>1.85</v>
+      </c>
+      <c r="U322">
+        <v>3.5</v>
+      </c>
+      <c r="V322">
         <v>1.925</v>
       </c>
-      <c r="T322">
+      <c r="W322">
         <v>1.875</v>
       </c>
-      <c r="U322">
-        <v>3.25</v>
-      </c>
-      <c r="V322">
-        <v>1.975</v>
-      </c>
-      <c r="W322">
-        <v>1.825</v>
-      </c>
       <c r="X322">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA322">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB322">
         <v>-1</v>
@@ -30629,7 +30629,7 @@
         <v>-1</v>
       </c>
       <c r="AD322">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="323" spans="1:30">
@@ -30637,7 +30637,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7749258</v>
+        <v>7749064</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -30646,82 +30646,82 @@
         <v>45318.79166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F323" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J323">
         <v>1</v>
       </c>
       <c r="K323" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L323">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M323">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N323">
+        <v>5</v>
+      </c>
+      <c r="O323">
         <v>1.5</v>
       </c>
-      <c r="O323">
-        <v>5.25</v>
-      </c>
       <c r="P323">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q323">
-        <v>1.333</v>
+        <v>5</v>
       </c>
       <c r="R323">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="S323">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T323">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U323">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V323">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD323">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:30">
@@ -31097,7 +31097,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7754140</v>
+        <v>7754142</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -31106,64 +31106,64 @@
         <v>45319.79166666666</v>
       </c>
       <c r="E328" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="F328" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="G328">
+        <v>5</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
         <v>3</v>
       </c>
-      <c r="H328">
-        <v>0</v>
-      </c>
-      <c r="I328">
-        <v>2</v>
-      </c>
       <c r="J328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328" t="s">
         <v>217</v>
       </c>
       <c r="L328">
-        <v>1.444</v>
+        <v>1.05</v>
       </c>
       <c r="M328">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N328">
-        <v>5.25</v>
+        <v>21</v>
       </c>
       <c r="O328">
-        <v>1.444</v>
+        <v>1.071</v>
       </c>
       <c r="P328">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q328">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="R328">
-        <v>-1.25</v>
+        <v>-3.25</v>
       </c>
       <c r="S328">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T328">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U328">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="V328">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X328">
-        <v>0.444</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Y328">
         <v>-1</v>
@@ -31172,16 +31172,16 @@
         <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD328">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -31189,7 +31189,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7754142</v>
+        <v>7754140</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -31198,64 +31198,64 @@
         <v>45319.79166666666</v>
       </c>
       <c r="E329" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="F329" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="G329">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K329" t="s">
         <v>217</v>
       </c>
       <c r="L329">
-        <v>1.05</v>
+        <v>1.444</v>
       </c>
       <c r="M329">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N329">
-        <v>21</v>
+        <v>5.25</v>
       </c>
       <c r="O329">
-        <v>1.071</v>
+        <v>1.444</v>
       </c>
       <c r="P329">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q329">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="R329">
-        <v>-3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S329">
+        <v>1.925</v>
+      </c>
+      <c r="T329">
+        <v>1.875</v>
+      </c>
+      <c r="U329">
+        <v>3</v>
+      </c>
+      <c r="V329">
         <v>1.975</v>
       </c>
-      <c r="T329">
+      <c r="W329">
         <v>1.825</v>
       </c>
-      <c r="U329">
-        <v>4.25</v>
-      </c>
-      <c r="V329">
-        <v>1.95</v>
-      </c>
-      <c r="W329">
-        <v>1.85</v>
-      </c>
       <c r="X329">
-        <v>0.07099999999999995</v>
+        <v>0.444</v>
       </c>
       <c r="Y329">
         <v>-1</v>
@@ -31264,16 +31264,16 @@
         <v>-1</v>
       </c>
       <c r="AA329">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD329">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -31557,7 +31557,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7776618</v>
+        <v>7776770</v>
       </c>
       <c r="C333" t="s">
         <v>29</v>
@@ -31566,19 +31566,19 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E333" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F333" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J333">
         <v>0</v>
@@ -31587,43 +31587,43 @@
         <v>217</v>
       </c>
       <c r="L333">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="M333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N333">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="O333">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="P333">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q333">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="R333">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="S333">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T333">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U333">
         <v>3</v>
       </c>
       <c r="V333">
+        <v>1.975</v>
+      </c>
+      <c r="W333">
         <v>1.825</v>
       </c>
-      <c r="W333">
-        <v>1.975</v>
-      </c>
       <c r="X333">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="Y333">
         <v>-1</v>
@@ -31632,13 +31632,13 @@
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD333">
         <v>-1</v>
@@ -31741,7 +31741,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7776770</v>
+        <v>7776618</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31750,19 +31750,19 @@
         <v>45324.58333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G335">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J335">
         <v>0</v>
@@ -31771,43 +31771,43 @@
         <v>217</v>
       </c>
       <c r="L335">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="M335">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N335">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="O335">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="P335">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q335">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="R335">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="S335">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U335">
         <v>3</v>
       </c>
       <c r="V335">
+        <v>1.825</v>
+      </c>
+      <c r="W335">
         <v>1.975</v>
       </c>
-      <c r="W335">
-        <v>1.825</v>
-      </c>
       <c r="X335">
-        <v>1.625</v>
+        <v>0.2</v>
       </c>
       <c r="Y335">
         <v>-1</v>
@@ -31816,13 +31816,13 @@
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD335">
         <v>-1</v>
@@ -33305,7 +33305,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -33314,82 +33314,82 @@
         <v>45331.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F352" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
         <v>4</v>
       </c>
-      <c r="I352">
-        <v>0</v>
-      </c>
       <c r="J352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L352">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="M352">
         <v>4</v>
       </c>
       <c r="N352">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O352">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="P352">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q352">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="R352">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T352">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U352">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W352">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AD352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -33397,7 +33397,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -33406,82 +33406,82 @@
         <v>45331.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="G353">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I353">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L353">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="M353">
         <v>4</v>
       </c>
       <c r="N353">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O353">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="P353">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q353">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="R353">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S353">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U353">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V353">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X353">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC353">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AD353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -34041,7 +34041,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809266</v>
+        <v>7809187</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -34050,82 +34050,82 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F360" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J360">
         <v>1</v>
       </c>
       <c r="K360" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L360">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="M360">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N360">
-        <v>1.6</v>
+        <v>13</v>
       </c>
       <c r="O360">
-        <v>7.5</v>
+        <v>1.166</v>
       </c>
       <c r="P360">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q360">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="R360">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="S360">
+        <v>1.975</v>
+      </c>
+      <c r="T360">
         <v>1.825</v>
       </c>
-      <c r="T360">
-        <v>1.975</v>
-      </c>
       <c r="U360">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V360">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="W360">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB360">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD360">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:30">
@@ -34133,7 +34133,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809187</v>
+        <v>7809267</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -34142,79 +34142,79 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F361" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
         <v>4</v>
       </c>
-      <c r="H361">
-        <v>1</v>
-      </c>
       <c r="I361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K361" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L361">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="M361">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N361">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="O361">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="P361">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q361">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="R361">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="S361">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T361">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U361">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V361">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X361">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA361">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC361">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD361">
         <v>-1</v>
@@ -34225,7 +34225,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7809267</v>
+        <v>7809266</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -34234,61 +34234,61 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F362" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I362">
         <v>0</v>
       </c>
       <c r="J362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K362" t="s">
         <v>219</v>
       </c>
       <c r="L362">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M362">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N362">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O362">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="P362">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q362">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="R362">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T362">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U362">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V362">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W362">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="X362">
         <v>-1</v>
@@ -34297,19 +34297,19 @@
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB362">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC362">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD362">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -35145,7 +35145,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -35154,79 +35154,79 @@
         <v>45338.75</v>
       </c>
       <c r="E372" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F372" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" t="s">
+        <v>217</v>
+      </c>
+      <c r="L372">
+        <v>1.615</v>
+      </c>
+      <c r="M372">
+        <v>3.5</v>
+      </c>
+      <c r="N372">
         <v>5</v>
       </c>
-      <c r="I372">
-        <v>1</v>
-      </c>
-      <c r="J372">
+      <c r="O372">
+        <v>1.363</v>
+      </c>
+      <c r="P372">
+        <v>4.333</v>
+      </c>
+      <c r="Q372">
+        <v>7.5</v>
+      </c>
+      <c r="R372">
+        <v>-1.25</v>
+      </c>
+      <c r="S372">
+        <v>1.75</v>
+      </c>
+      <c r="T372">
+        <v>2.05</v>
+      </c>
+      <c r="U372">
         <v>3</v>
       </c>
-      <c r="K372" t="s">
-        <v>219</v>
-      </c>
-      <c r="L372">
+      <c r="V372">
         <v>1.8</v>
       </c>
-      <c r="M372">
-        <v>3.3</v>
-      </c>
-      <c r="N372">
-        <v>4</v>
-      </c>
-      <c r="O372">
-        <v>1.615</v>
-      </c>
-      <c r="P372">
-        <v>3.5</v>
-      </c>
-      <c r="Q372">
-        <v>4.75</v>
-      </c>
-      <c r="R372">
-        <v>-0.75</v>
-      </c>
-      <c r="S372">
-        <v>1.8</v>
-      </c>
-      <c r="T372">
-        <v>2</v>
-      </c>
-      <c r="U372">
-        <v>2.75</v>
-      </c>
-      <c r="V372">
-        <v>1.75</v>
-      </c>
       <c r="W372">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB372">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AD372">
         <v>-1</v>
@@ -35237,7 +35237,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -35246,79 +35246,79 @@
         <v>45338.75</v>
       </c>
       <c r="E373" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F373" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G373">
+        <v>2</v>
+      </c>
+      <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
         <v>3</v>
       </c>
-      <c r="H373">
-        <v>1</v>
-      </c>
-      <c r="I373">
-        <v>2</v>
-      </c>
-      <c r="J373">
-        <v>0</v>
-      </c>
       <c r="K373" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L373">
+        <v>1.8</v>
+      </c>
+      <c r="M373">
+        <v>3.3</v>
+      </c>
+      <c r="N373">
+        <v>4</v>
+      </c>
+      <c r="O373">
         <v>1.615</v>
       </c>
-      <c r="M373">
+      <c r="P373">
         <v>3.5</v>
       </c>
-      <c r="N373">
-        <v>5</v>
-      </c>
-      <c r="O373">
-        <v>1.363</v>
-      </c>
-      <c r="P373">
-        <v>4.333</v>
-      </c>
       <c r="Q373">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="R373">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S373">
+        <v>1.8</v>
+      </c>
+      <c r="T373">
+        <v>2</v>
+      </c>
+      <c r="U373">
+        <v>2.75</v>
+      </c>
+      <c r="V373">
         <v>1.75</v>
       </c>
-      <c r="T373">
-        <v>2.05</v>
-      </c>
-      <c r="U373">
-        <v>3</v>
-      </c>
-      <c r="V373">
-        <v>1.8</v>
-      </c>
       <c r="W373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X373">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA373">
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>1</v>
+      </c>
+      <c r="AC373">
         <v>0.75</v>
-      </c>
-      <c r="AB373">
-        <v>-1</v>
-      </c>
-      <c r="AC373">
-        <v>0.8</v>
       </c>
       <c r="AD373">
         <v>-1</v>
@@ -35513,7 +35513,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7847106</v>
+        <v>7846856</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -35522,82 +35522,82 @@
         <v>45339.70833333334</v>
       </c>
       <c r="E376" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F376" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376">
         <v>0</v>
       </c>
       <c r="J376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K376" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M376">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N376">
+        <v>2.625</v>
+      </c>
+      <c r="O376">
+        <v>3</v>
+      </c>
+      <c r="P376">
+        <v>3.3</v>
+      </c>
+      <c r="Q376">
+        <v>2.15</v>
+      </c>
+      <c r="R376">
+        <v>0.25</v>
+      </c>
+      <c r="S376">
+        <v>1.875</v>
+      </c>
+      <c r="T376">
+        <v>1.925</v>
+      </c>
+      <c r="U376">
+        <v>2</v>
+      </c>
+      <c r="V376">
         <v>1.8</v>
       </c>
-      <c r="O376">
-        <v>4</v>
-      </c>
-      <c r="P376">
-        <v>3.2</v>
-      </c>
-      <c r="Q376">
-        <v>1.8</v>
-      </c>
-      <c r="R376">
-        <v>0.5</v>
-      </c>
-      <c r="S376">
-        <v>1.95</v>
-      </c>
-      <c r="T376">
-        <v>1.85</v>
-      </c>
-      <c r="U376">
-        <v>2.75</v>
-      </c>
-      <c r="V376">
-        <v>1.95</v>
-      </c>
       <c r="W376">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD376">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -35605,7 +35605,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7846856</v>
+        <v>7847106</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35614,82 +35614,82 @@
         <v>45339.70833333334</v>
       </c>
       <c r="E377" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="F377" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377">
         <v>0</v>
       </c>
       <c r="J377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K377" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L377">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M377">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N377">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P377">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q377">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="R377">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S377">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T377">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U377">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V377">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W377">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z377">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB377">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD377">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -35789,7 +35789,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7847110</v>
+        <v>7847203</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35798,79 +35798,79 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F379" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="G379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K379" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M379">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N379">
+        <v>2.3</v>
+      </c>
+      <c r="O379">
+        <v>3.25</v>
+      </c>
+      <c r="P379">
+        <v>3.4</v>
+      </c>
+      <c r="Q379">
+        <v>2.1</v>
+      </c>
+      <c r="R379">
+        <v>0.25</v>
+      </c>
+      <c r="S379">
+        <v>1.975</v>
+      </c>
+      <c r="T379">
+        <v>1.825</v>
+      </c>
+      <c r="U379">
+        <v>2.25</v>
+      </c>
+      <c r="V379">
         <v>1.8</v>
       </c>
-      <c r="O379">
-        <v>4</v>
-      </c>
-      <c r="P379">
-        <v>3.3</v>
-      </c>
-      <c r="Q379">
-        <v>1.8</v>
-      </c>
-      <c r="R379">
-        <v>0.75</v>
-      </c>
-      <c r="S379">
-        <v>1.775</v>
-      </c>
-      <c r="T379">
-        <v>1.925</v>
-      </c>
-      <c r="U379">
-        <v>2.75</v>
-      </c>
-      <c r="V379">
-        <v>1.85</v>
-      </c>
       <c r="W379">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X379">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA379">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC379">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD379">
         <v>-1</v>
@@ -35881,7 +35881,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7847203</v>
+        <v>7847110</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35890,79 +35890,79 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F380" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="G380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H380">
+        <v>2</v>
+      </c>
+      <c r="I380">
+        <v>3</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380" t="s">
+        <v>217</v>
+      </c>
+      <c r="L380">
         <v>4</v>
       </c>
-      <c r="I380">
-        <v>0</v>
-      </c>
-      <c r="J380">
-        <v>2</v>
-      </c>
-      <c r="K380" t="s">
-        <v>219</v>
-      </c>
-      <c r="L380">
+      <c r="M380">
+        <v>3.3</v>
+      </c>
+      <c r="N380">
+        <v>1.8</v>
+      </c>
+      <c r="O380">
+        <v>4</v>
+      </c>
+      <c r="P380">
+        <v>3.3</v>
+      </c>
+      <c r="Q380">
+        <v>1.8</v>
+      </c>
+      <c r="R380">
+        <v>0.75</v>
+      </c>
+      <c r="S380">
+        <v>1.775</v>
+      </c>
+      <c r="T380">
+        <v>1.925</v>
+      </c>
+      <c r="U380">
         <v>2.75</v>
       </c>
-      <c r="M380">
-        <v>3.2</v>
-      </c>
-      <c r="N380">
-        <v>2.3</v>
-      </c>
-      <c r="O380">
-        <v>3.25</v>
-      </c>
-      <c r="P380">
-        <v>3.4</v>
-      </c>
-      <c r="Q380">
-        <v>2.1</v>
-      </c>
-      <c r="R380">
-        <v>0.25</v>
-      </c>
-      <c r="S380">
-        <v>1.975</v>
-      </c>
-      <c r="T380">
-        <v>1.825</v>
-      </c>
-      <c r="U380">
-        <v>2.25</v>
-      </c>
       <c r="V380">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X380">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB380">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD380">
         <v>-1</v>
@@ -36525,7 +36525,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -36534,16 +36534,16 @@
         <v>45345.75</v>
       </c>
       <c r="E387" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F387" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387">
         <v>0</v>
@@ -36552,64 +36552,64 @@
         <v>0</v>
       </c>
       <c r="K387" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L387">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="M387">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N387">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O387">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P387">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q387">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="R387">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S387">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T387">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U387">
         <v>2.75</v>
       </c>
       <c r="V387">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W387">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X387">
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z387">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB387">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD387">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:30">
@@ -36617,7 +36617,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C388" t="s">
         <v>29</v>
@@ -36626,16 +36626,16 @@
         <v>45345.75</v>
       </c>
       <c r="E388" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F388" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388">
         <v>0</v>
@@ -36644,64 +36644,64 @@
         <v>0</v>
       </c>
       <c r="K388" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L388">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M388">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N388">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O388">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P388">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q388">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="R388">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S388">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T388">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U388">
         <v>2.75</v>
       </c>
       <c r="V388">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W388">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X388">
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA388">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC388">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD388">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="389" spans="1:30">
@@ -38641,7 +38641,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7905044</v>
+        <v>7905046</v>
       </c>
       <c r="C410" t="s">
         <v>29</v>
@@ -38650,49 +38650,49 @@
         <v>45353.79166666666</v>
       </c>
       <c r="E410" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F410" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="G410">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K410" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L410">
-        <v>1.083</v>
+        <v>4</v>
       </c>
       <c r="M410">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N410">
-        <v>23</v>
+        <v>1.8</v>
       </c>
       <c r="O410">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="P410">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q410">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="R410">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="S410">
+        <v>1.975</v>
+      </c>
+      <c r="T410">
         <v>1.825</v>
       </c>
-      <c r="T410">
-        <v>1.975</v>
-      </c>
       <c r="U410">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V410">
         <v>1.95</v>
@@ -38701,25 +38701,25 @@
         <v>1.85</v>
       </c>
       <c r="X410">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y410">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z410">
         <v>-1</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB410">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC410">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD410">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="411" spans="1:30">
@@ -38727,7 +38727,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7905018</v>
+        <v>7905044</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -38736,40 +38736,34 @@
         <v>45353.79166666666</v>
       </c>
       <c r="E411" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="F411" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H411">
-        <v>0</v>
-      </c>
-      <c r="I411">
-        <v>0</v>
-      </c>
-      <c r="J411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K411" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L411">
+        <v>1.083</v>
+      </c>
+      <c r="M411">
+        <v>9.5</v>
+      </c>
+      <c r="N411">
+        <v>23</v>
+      </c>
+      <c r="O411">
         <v>1.142</v>
       </c>
-      <c r="M411">
-        <v>6.5</v>
-      </c>
-      <c r="N411">
-        <v>17</v>
-      </c>
-      <c r="O411">
-        <v>1.166</v>
-      </c>
       <c r="P411">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q411">
         <v>15</v>
@@ -38784,19 +38778,19 @@
         <v>1.975</v>
       </c>
       <c r="U411">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V411">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W411">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X411">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y411">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z411">
         <v>-1</v>
@@ -38808,10 +38802,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC411">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD411">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -38819,7 +38813,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7905046</v>
+        <v>7905018</v>
       </c>
       <c r="C412" t="s">
         <v>29</v>
@@ -38828,76 +38822,82 @@
         <v>45353.79166666666</v>
       </c>
       <c r="E412" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="F412" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="G412">
         <v>0</v>
       </c>
       <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
         <v>0</v>
       </c>
       <c r="K412" t="s">
         <v>218</v>
       </c>
       <c r="L412">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="M412">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N412">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="O412">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="P412">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q412">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="R412">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="S412">
+        <v>1.825</v>
+      </c>
+      <c r="T412">
         <v>1.975</v>
       </c>
-      <c r="T412">
-        <v>1.825</v>
-      </c>
       <c r="U412">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V412">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X412">
         <v>-1</v>
       </c>
       <c r="Y412">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Z412">
         <v>-1</v>
       </c>
       <c r="AA412">
+        <v>-1</v>
+      </c>
+      <c r="AB412">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB412">
-        <v>-1</v>
-      </c>
       <c r="AC412">
         <v>-1</v>
       </c>
       <c r="AD412">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:30">
@@ -39917,7 +39917,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -39926,82 +39926,82 @@
         <v>45359.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F424" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="G424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I424">
         <v>0</v>
       </c>
       <c r="J424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K424" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L424">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="M424">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N424">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O424">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="P424">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q424">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="R424">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T424">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U424">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD424">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:30">
@@ -40009,7 +40009,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -40018,82 +40018,82 @@
         <v>45359.79166666666</v>
       </c>
       <c r="E425" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="F425" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G425">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I425">
         <v>0</v>
       </c>
       <c r="J425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K425" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L425">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="M425">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N425">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O425">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="P425">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q425">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="R425">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="S425">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T425">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U425">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W425">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X425">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD425">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="426" spans="1:30">
@@ -40653,7 +40653,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7936703</v>
+        <v>7930148</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -40662,65 +40662,65 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E432" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F432" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K432" t="s">
         <v>217</v>
       </c>
       <c r="L432">
-        <v>1.071</v>
+        <v>2.9</v>
       </c>
       <c r="M432">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="N432">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="O432">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="P432">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q432">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="R432">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="S432">
+        <v>1.825</v>
+      </c>
+      <c r="T432">
+        <v>1.975</v>
+      </c>
+      <c r="U432">
+        <v>3.25</v>
+      </c>
+      <c r="V432">
+        <v>1.825</v>
+      </c>
+      <c r="W432">
+        <v>1.975</v>
+      </c>
+      <c r="X432">
         <v>1.9</v>
       </c>
-      <c r="T432">
-        <v>1.9</v>
-      </c>
-      <c r="U432">
-        <v>3.5</v>
-      </c>
-      <c r="V432">
-        <v>1.925</v>
-      </c>
-      <c r="W432">
-        <v>1.875</v>
-      </c>
-      <c r="X432">
-        <v>0.09000000000000008</v>
-      </c>
       <c r="Y432">
         <v>-1</v>
       </c>
@@ -40728,16 +40728,16 @@
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB432">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD432">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:30">
@@ -40745,7 +40745,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7930148</v>
+        <v>7936725</v>
       </c>
       <c r="C433" t="s">
         <v>29</v>
@@ -40754,19 +40754,19 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E433" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F433" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="G433">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J433">
         <v>1</v>
@@ -40775,43 +40775,43 @@
         <v>217</v>
       </c>
       <c r="L433">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="M433">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N433">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="O433">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="P433">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q433">
-        <v>1.909</v>
+        <v>19</v>
       </c>
       <c r="R433">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="S433">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T433">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U433">
         <v>3.25</v>
       </c>
       <c r="V433">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W433">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X433">
-        <v>1.9</v>
+        <v>0.111</v>
       </c>
       <c r="Y433">
         <v>-1</v>
@@ -40820,13 +40820,13 @@
         <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB433">
         <v>-1</v>
       </c>
       <c r="AC433">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD433">
         <v>-1</v>
@@ -40837,7 +40837,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7936725</v>
+        <v>7936703</v>
       </c>
       <c r="C434" t="s">
         <v>29</v>
@@ -40846,64 +40846,64 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E434" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F434" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G434">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K434" t="s">
         <v>217</v>
       </c>
       <c r="L434">
-        <v>1.142</v>
+        <v>1.071</v>
       </c>
       <c r="M434">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N434">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O434">
-        <v>1.111</v>
+        <v>1.09</v>
       </c>
       <c r="P434">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Q434">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R434">
-        <v>-2.5</v>
+        <v>-2.75</v>
       </c>
       <c r="S434">
+        <v>1.9</v>
+      </c>
+      <c r="T434">
+        <v>1.9</v>
+      </c>
+      <c r="U434">
+        <v>3.5</v>
+      </c>
+      <c r="V434">
         <v>1.925</v>
       </c>
-      <c r="T434">
+      <c r="W434">
         <v>1.875</v>
       </c>
-      <c r="U434">
-        <v>3.25</v>
-      </c>
-      <c r="V434">
-        <v>1.8</v>
-      </c>
-      <c r="W434">
-        <v>2</v>
-      </c>
       <c r="X434">
-        <v>0.111</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Y434">
         <v>-1</v>
@@ -40912,16 +40912,16 @@
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC434">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD434">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -45885,7 +45885,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>8030092</v>
+        <v>8028224</v>
       </c>
       <c r="C489" t="s">
         <v>29</v>
@@ -45894,46 +45894,46 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E489" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F489" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="G489">
         <v>1</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K489" t="s">
         <v>219</v>
       </c>
       <c r="L489">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M489">
         <v>3.5</v>
       </c>
       <c r="N489">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O489">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P489">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q489">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="R489">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S489">
         <v>1.925</v>
@@ -45942,13 +45942,13 @@
         <v>1.875</v>
       </c>
       <c r="U489">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V489">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W489">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X489">
         <v>-1</v>
@@ -45957,19 +45957,19 @@
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="AA489">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB489">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC489">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD489">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:30">
@@ -45977,7 +45977,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>8028224</v>
+        <v>8030092</v>
       </c>
       <c r="C490" t="s">
         <v>29</v>
@@ -45986,46 +45986,46 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E490" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F490" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G490">
         <v>1</v>
       </c>
       <c r="H490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K490" t="s">
         <v>219</v>
       </c>
       <c r="L490">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M490">
         <v>3.5</v>
       </c>
       <c r="N490">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O490">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P490">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q490">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="R490">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S490">
         <v>1.925</v>
@@ -46034,13 +46034,13 @@
         <v>1.875</v>
       </c>
       <c r="U490">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V490">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W490">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X490">
         <v>-1</v>
@@ -46049,19 +46049,19 @@
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB490">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC490">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD490">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:30">
@@ -49933,7 +49933,7 @@
         <v>62</v>
       </c>
       <c r="F533" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -50565,7 +50565,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>8136728</v>
+        <v>8136744</v>
       </c>
       <c r="C540" t="s">
         <v>29</v>
@@ -50574,55 +50574,55 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E540" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="F540" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="G540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540">
         <v>0</v>
       </c>
       <c r="J540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K540" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L540">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M540">
         <v>3.5</v>
       </c>
       <c r="N540">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O540">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P540">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q540">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="R540">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S540">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T540">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U540">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V540">
         <v>1.825</v>
@@ -50631,19 +50631,19 @@
         <v>1.975</v>
       </c>
       <c r="X540">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y540">
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA540">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB540">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC540">
         <v>-1</v>
@@ -50657,7 +50657,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>8136744</v>
+        <v>8136728</v>
       </c>
       <c r="C541" t="s">
         <v>29</v>
@@ -50666,55 +50666,55 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E541" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="F541" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="G541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541">
         <v>0</v>
       </c>
       <c r="J541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K541" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L541">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M541">
         <v>3.5</v>
       </c>
       <c r="N541">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O541">
+        <v>2.3</v>
+      </c>
+      <c r="P541">
         <v>3.5</v>
       </c>
-      <c r="P541">
-        <v>3.6</v>
-      </c>
       <c r="Q541">
+        <v>2.55</v>
+      </c>
+      <c r="R541">
+        <v>0</v>
+      </c>
+      <c r="S541">
         <v>1.8</v>
       </c>
-      <c r="R541">
-        <v>0.5</v>
-      </c>
-      <c r="S541">
-        <v>1.95</v>
-      </c>
       <c r="T541">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U541">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V541">
         <v>1.825</v>
@@ -50723,19 +50723,19 @@
         <v>1.975</v>
       </c>
       <c r="X541">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y541">
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA541">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB541">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC541">
         <v>-1</v>
@@ -52589,7 +52589,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>8164786</v>
+        <v>8164795</v>
       </c>
       <c r="C562" t="s">
         <v>29</v>
@@ -52598,55 +52598,55 @@
         <v>45413.79166666666</v>
       </c>
       <c r="E562" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="F562" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="G562">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J562">
         <v>0</v>
       </c>
       <c r="K562" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L562">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M562">
         <v>3.5</v>
       </c>
       <c r="N562">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O562">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="P562">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q562">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="R562">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S562">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T562">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U562">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V562">
         <v>1.95</v>
@@ -52655,25 +52655,25 @@
         <v>1.85</v>
       </c>
       <c r="X562">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y562">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z562">
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB562">
         <v>-1</v>
       </c>
       <c r="AC562">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD562">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:30">
@@ -52681,7 +52681,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8164795</v>
+        <v>8164786</v>
       </c>
       <c r="C563" t="s">
         <v>29</v>
@@ -52690,55 +52690,55 @@
         <v>45413.79166666666</v>
       </c>
       <c r="E563" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F563" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="G563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J563">
         <v>0</v>
       </c>
       <c r="K563" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L563">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M563">
         <v>3.5</v>
       </c>
       <c r="N563">
+        <v>3</v>
+      </c>
+      <c r="O563">
+        <v>2</v>
+      </c>
+      <c r="P563">
+        <v>3.5</v>
+      </c>
+      <c r="Q563">
+        <v>3</v>
+      </c>
+      <c r="R563">
+        <v>-0.25</v>
+      </c>
+      <c r="S563">
         <v>1.8</v>
       </c>
-      <c r="O563">
-        <v>3.75</v>
-      </c>
-      <c r="P563">
-        <v>3.3</v>
-      </c>
-      <c r="Q563">
-        <v>1.85</v>
-      </c>
-      <c r="R563">
-        <v>0.5</v>
-      </c>
-      <c r="S563">
-        <v>1.95</v>
-      </c>
       <c r="T563">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U563">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V563">
         <v>1.95</v>
@@ -52747,25 +52747,25 @@
         <v>1.85</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y563">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB563">
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD563">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:30">
@@ -52874,7 +52874,7 @@
         <v>45414.75</v>
       </c>
       <c r="E565" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F565" t="s">
         <v>70</v>
@@ -53233,7 +53233,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>8181039</v>
+        <v>8181042</v>
       </c>
       <c r="C569" t="s">
         <v>29</v>
@@ -53242,19 +53242,19 @@
         <v>45416.91666666666</v>
       </c>
       <c r="E569" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F569" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G569">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H569">
         <v>0</v>
       </c>
       <c r="I569">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J569">
         <v>0</v>
@@ -53272,13 +53272,13 @@
         <v>4</v>
       </c>
       <c r="O569">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="P569">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q569">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="R569">
         <v>-0.5</v>
@@ -53290,16 +53290,16 @@
         <v>1.95</v>
       </c>
       <c r="U569">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V569">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W569">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X569">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y569">
         <v>-1</v>
@@ -53314,10 +53314,10 @@
         <v>-1</v>
       </c>
       <c r="AC569">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD569">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="570" spans="1:30">
@@ -53417,7 +53417,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>8181042</v>
+        <v>8181039</v>
       </c>
       <c r="C571" t="s">
         <v>29</v>
@@ -53426,19 +53426,19 @@
         <v>45416.91666666666</v>
       </c>
       <c r="E571" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F571" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G571">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H571">
         <v>0</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J571">
         <v>0</v>
@@ -53456,13 +53456,13 @@
         <v>4</v>
       </c>
       <c r="O571">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="P571">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q571">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="R571">
         <v>-0.5</v>
@@ -53474,16 +53474,16 @@
         <v>1.95</v>
       </c>
       <c r="U571">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V571">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W571">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X571">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="Y571">
         <v>-1</v>
@@ -53498,10 +53498,10 @@
         <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD571">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:30">
@@ -53705,7 +53705,7 @@
         <v>70</v>
       </c>
       <c r="F574" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G574">
         <v>4</v>

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -15015,7 +15015,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7425997</v>
+        <v>7430741</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -15024,10 +15024,10 @@
         <v>45233.95833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -15036,55 +15036,55 @@
         <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="s">
         <v>218</v>
       </c>
       <c r="L153">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O153">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="P153">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="R153">
         <v>0</v>
       </c>
       <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
         <v>1.8</v>
       </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
       <c r="U153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z153">
         <v>-1</v>
@@ -15099,7 +15099,7 @@
         <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -15107,7 +15107,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7430741</v>
+        <v>7425997</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -15116,10 +15116,10 @@
         <v>45233.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F154" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -15128,56 +15128,56 @@
         <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="s">
         <v>218</v>
       </c>
       <c r="L154">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154">
+        <v>2.375</v>
+      </c>
+      <c r="P154">
+        <v>3.3</v>
+      </c>
+      <c r="Q154">
+        <v>2.625</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>1.875</v>
+      </c>
+      <c r="W154">
+        <v>1.925</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
         <v>2.3</v>
       </c>
-      <c r="O154">
-        <v>2.55</v>
-      </c>
-      <c r="P154">
-        <v>3.5</v>
-      </c>
-      <c r="Q154">
-        <v>2.3</v>
-      </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>1.8</v>
-      </c>
-      <c r="U154">
-        <v>2.75</v>
-      </c>
-      <c r="V154">
-        <v>1.95</v>
-      </c>
-      <c r="W154">
-        <v>1.85</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>2.5</v>
-      </c>
       <c r="Z154">
         <v>-1</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>-1</v>
       </c>
       <c r="AD154">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -18419,7 +18419,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7462543</v>
+        <v>7458909</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -18428,82 +18428,82 @@
         <v>45240.91666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F190" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L190">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="M190">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N190">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="O190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P190">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q190">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="R190">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S190">
+        <v>1.85</v>
+      </c>
+      <c r="T190">
+        <v>1.95</v>
+      </c>
+      <c r="U190">
+        <v>3.25</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
         <v>1.8</v>
       </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>2.5</v>
-      </c>
-      <c r="V190">
-        <v>1.95</v>
-      </c>
-      <c r="W190">
-        <v>1.85</v>
-      </c>
       <c r="X190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
+      </c>
+      <c r="AD190">
         <v>0.8</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
-      <c r="AC190">
-        <v>0.95</v>
-      </c>
-      <c r="AD190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18511,7 +18511,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7458909</v>
+        <v>7462543</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18520,82 +18520,82 @@
         <v>45240.91666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F191" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L191">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="M191">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N191">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="O191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P191">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q191">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="R191">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>2.5</v>
+      </c>
+      <c r="V191">
+        <v>1.95</v>
+      </c>
+      <c r="W191">
         <v>1.85</v>
       </c>
-      <c r="T191">
-        <v>1.95</v>
-      </c>
-      <c r="U191">
-        <v>3.25</v>
-      </c>
-      <c r="V191">
-        <v>2</v>
-      </c>
-      <c r="W191">
-        <v>1.8</v>
-      </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y191">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18695,7 +18695,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7462590</v>
+        <v>7459225</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18704,61 +18704,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F193" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K193" t="s">
         <v>219</v>
       </c>
       <c r="L193">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="M193">
+        <v>7.5</v>
+      </c>
+      <c r="N193">
+        <v>1.142</v>
+      </c>
+      <c r="O193">
+        <v>9</v>
+      </c>
+      <c r="P193">
+        <v>6.5</v>
+      </c>
+      <c r="Q193">
+        <v>1.222</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>1.95</v>
+      </c>
+      <c r="T193">
+        <v>1.85</v>
+      </c>
+      <c r="U193">
         <v>3.75</v>
       </c>
-      <c r="N193">
-        <v>2.15</v>
-      </c>
-      <c r="O193">
-        <v>2.375</v>
-      </c>
-      <c r="P193">
-        <v>3.6</v>
-      </c>
-      <c r="Q193">
-        <v>2.375</v>
-      </c>
-      <c r="R193">
-        <v>0</v>
-      </c>
-      <c r="S193">
-        <v>1.9</v>
-      </c>
-      <c r="T193">
-        <v>1.9</v>
-      </c>
-      <c r="U193">
-        <v>2.75</v>
-      </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -18767,19 +18767,19 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>1.375</v>
+        <v>0.222</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AD193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18787,7 +18787,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7459225</v>
+        <v>7462590</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18796,61 +18796,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F194" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194" t="s">
         <v>219</v>
       </c>
       <c r="L194">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="M194">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N194">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="O194">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="P194">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U194">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -18859,19 +18859,19 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.222</v>
+        <v>1.375</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AD194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -20443,7 +20443,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486113</v>
+        <v>7486046</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20452,10 +20452,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F212" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20464,7 +20464,7 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -20473,43 +20473,43 @@
         <v>217</v>
       </c>
       <c r="L212">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="M212">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O212">
+        <v>1.2</v>
+      </c>
+      <c r="P212">
+        <v>5.25</v>
+      </c>
+      <c r="Q212">
+        <v>11</v>
+      </c>
+      <c r="R212">
+        <v>-2</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>1.8</v>
+      </c>
+      <c r="U212">
         <v>3</v>
       </c>
-      <c r="P212">
-        <v>3.25</v>
-      </c>
-      <c r="Q212">
-        <v>2.1</v>
-      </c>
-      <c r="R212">
-        <v>0.25</v>
-      </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>1.925</v>
-      </c>
-      <c r="U212">
-        <v>2.5</v>
-      </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X212">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20518,16 +20518,16 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
         <v>-1</v>
       </c>
       <c r="AD212">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20627,7 +20627,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486046</v>
+        <v>7486113</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20636,10 +20636,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F214" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20648,7 +20648,7 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -20657,43 +20657,43 @@
         <v>217</v>
       </c>
       <c r="L214">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N214">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O214">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q214">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="R214">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U214">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X214">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -20702,16 +20702,16 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -23369,7 +23369,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7514531</v>
+        <v>7515305</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -23378,61 +23378,61 @@
         <v>45254.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="s">
         <v>219</v>
       </c>
       <c r="L244">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N244">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O244">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q244">
-        <v>1.3</v>
+        <v>1.142</v>
       </c>
       <c r="R244">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T244">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U244">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -23441,19 +23441,19 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.3</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD244">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23461,7 +23461,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7515305</v>
+        <v>7514531</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23470,61 +23470,61 @@
         <v>45254.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K245" t="s">
         <v>219</v>
       </c>
       <c r="L245">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M245">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O245">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="P245">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="R245">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="S245">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U245">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -23533,19 +23533,19 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.1419999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -25577,7 +25577,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25586,82 +25586,82 @@
         <v>45261.75</v>
       </c>
       <c r="E268" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F268" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K268" t="s">
         <v>218</v>
       </c>
       <c r="L268">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M268">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O268">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q268">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="R268">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S268">
+        <v>2</v>
+      </c>
+      <c r="T268">
+        <v>1.8</v>
+      </c>
+      <c r="U268">
+        <v>3</v>
+      </c>
+      <c r="V268">
+        <v>1.95</v>
+      </c>
+      <c r="W268">
         <v>1.85</v>
       </c>
-      <c r="T268">
-        <v>1.95</v>
-      </c>
-      <c r="U268">
-        <v>2.75</v>
-      </c>
-      <c r="V268">
-        <v>1.8</v>
-      </c>
-      <c r="W268">
-        <v>2</v>
-      </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB268">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25669,7 +25669,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25678,82 +25678,82 @@
         <v>45261.75</v>
       </c>
       <c r="E269" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F269" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="s">
         <v>218</v>
       </c>
       <c r="L269">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M269">
+        <v>4.5</v>
+      </c>
+      <c r="N269">
+        <v>6</v>
+      </c>
+      <c r="O269">
+        <v>1.4</v>
+      </c>
+      <c r="P269">
+        <v>4.5</v>
+      </c>
+      <c r="Q269">
+        <v>6</v>
+      </c>
+      <c r="R269">
+        <v>-1.25</v>
+      </c>
+      <c r="S269">
+        <v>1.85</v>
+      </c>
+      <c r="T269">
+        <v>1.95</v>
+      </c>
+      <c r="U269">
+        <v>2.75</v>
+      </c>
+      <c r="V269">
+        <v>1.8</v>
+      </c>
+      <c r="W269">
+        <v>2</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
         <v>3.5</v>
       </c>
-      <c r="N269">
-        <v>3.4</v>
-      </c>
-      <c r="O269">
-        <v>2.25</v>
-      </c>
-      <c r="P269">
-        <v>3.3</v>
-      </c>
-      <c r="Q269">
-        <v>2.75</v>
-      </c>
-      <c r="R269">
-        <v>-0.25</v>
-      </c>
-      <c r="S269">
-        <v>2</v>
-      </c>
-      <c r="T269">
-        <v>1.8</v>
-      </c>
-      <c r="U269">
-        <v>3</v>
-      </c>
-      <c r="V269">
-        <v>1.95</v>
-      </c>
-      <c r="W269">
-        <v>1.85</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
-      <c r="Y269">
-        <v>2.3</v>
-      </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC269">
         <v>-1</v>
       </c>
       <c r="AD269">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -32293,7 +32293,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7776746</v>
+        <v>7781853</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -32302,19 +32302,19 @@
         <v>45325.79166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F341" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G341">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J341">
         <v>0</v>
@@ -32323,43 +32323,43 @@
         <v>217</v>
       </c>
       <c r="L341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="M341">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="O341">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="P341">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q341">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="R341">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S341">
+        <v>1.9</v>
+      </c>
+      <c r="T341">
+        <v>1.9</v>
+      </c>
+      <c r="U341">
+        <v>2.75</v>
+      </c>
+      <c r="V341">
         <v>1.875</v>
       </c>
-      <c r="T341">
+      <c r="W341">
         <v>1.925</v>
       </c>
-      <c r="U341">
-        <v>3</v>
-      </c>
-      <c r="V341">
-        <v>2</v>
-      </c>
-      <c r="W341">
-        <v>1.8</v>
-      </c>
       <c r="X341">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y341">
         <v>-1</v>
@@ -32368,16 +32368,16 @@
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB341">
         <v>-1</v>
       </c>
       <c r="AC341">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -32385,7 +32385,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7781853</v>
+        <v>7776746</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -32394,19 +32394,19 @@
         <v>45325.79166666666</v>
       </c>
       <c r="E342" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F342" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J342">
         <v>0</v>
@@ -32415,43 +32415,43 @@
         <v>217</v>
       </c>
       <c r="L342">
+        <v>1.533</v>
+      </c>
+      <c r="M342">
+        <v>3.75</v>
+      </c>
+      <c r="N342">
+        <v>5</v>
+      </c>
+      <c r="O342">
+        <v>1.533</v>
+      </c>
+      <c r="P342">
+        <v>3.8</v>
+      </c>
+      <c r="Q342">
+        <v>5</v>
+      </c>
+      <c r="R342">
+        <v>-1</v>
+      </c>
+      <c r="S342">
+        <v>1.875</v>
+      </c>
+      <c r="T342">
+        <v>1.925</v>
+      </c>
+      <c r="U342">
         <v>3</v>
       </c>
-      <c r="M342">
-        <v>3.4</v>
-      </c>
-      <c r="N342">
-        <v>2.1</v>
-      </c>
-      <c r="O342">
-        <v>3</v>
-      </c>
-      <c r="P342">
-        <v>3.4</v>
-      </c>
-      <c r="Q342">
-        <v>2.1</v>
-      </c>
-      <c r="R342">
-        <v>0.25</v>
-      </c>
-      <c r="S342">
-        <v>1.9</v>
-      </c>
-      <c r="T342">
-        <v>1.9</v>
-      </c>
-      <c r="U342">
-        <v>2.75</v>
-      </c>
       <c r="V342">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W342">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X342">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y342">
         <v>-1</v>
@@ -32460,16 +32460,16 @@
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB342">
         <v>-1</v>
       </c>
       <c r="AC342">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AD342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32569,7 +32569,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7781781</v>
+        <v>7781782</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32578,13 +32578,13 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F344" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H344">
         <v>2</v>
@@ -32593,67 +32593,67 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L344">
+        <v>1.333</v>
+      </c>
+      <c r="M344">
         <v>4.5</v>
       </c>
-      <c r="M344">
-        <v>3.6</v>
-      </c>
       <c r="N344">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="O344">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="P344">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q344">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="R344">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S344">
+        <v>1.9</v>
+      </c>
+      <c r="T344">
+        <v>1.9</v>
+      </c>
+      <c r="U344">
+        <v>3</v>
+      </c>
+      <c r="V344">
+        <v>1.825</v>
+      </c>
+      <c r="W344">
         <v>1.975</v>
       </c>
-      <c r="T344">
-        <v>1.825</v>
-      </c>
-      <c r="U344">
-        <v>2.75</v>
-      </c>
-      <c r="V344">
-        <v>1.95</v>
-      </c>
-      <c r="W344">
-        <v>1.85</v>
-      </c>
       <c r="X344">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC344">
         <v>0.825</v>
       </c>
-      <c r="AC344">
-        <v>-1</v>
-      </c>
       <c r="AD344">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32661,7 +32661,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7781782</v>
+        <v>7781781</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32670,13 +32670,13 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E345" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F345" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="G345">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -32685,67 +32685,67 @@
         <v>0</v>
       </c>
       <c r="J345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K345" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L345">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="M345">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N345">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="O345">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="P345">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q345">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="R345">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T345">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U345">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V345">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W345">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X345">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD345">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32845,7 +32845,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C347" t="s">
         <v>29</v>
@@ -32854,13 +32854,13 @@
         <v>45326.79166666666</v>
       </c>
       <c r="E347" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F347" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="G347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -32872,64 +32872,64 @@
         <v>0</v>
       </c>
       <c r="K347" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L347">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="M347">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N347">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O347">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q347">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="R347">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S347">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T347">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W347">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X347">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC347">
         <v>-1</v>
       </c>
       <c r="AD347">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -32937,7 +32937,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C348" t="s">
         <v>29</v>
@@ -32946,13 +32946,13 @@
         <v>45326.79166666666</v>
       </c>
       <c r="E348" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F348" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -32964,64 +32964,64 @@
         <v>0</v>
       </c>
       <c r="K348" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L348">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="M348">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N348">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O348">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="P348">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q348">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="R348">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T348">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V348">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y348">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB348">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
         <v>-1</v>
       </c>
       <c r="AD348">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="349" spans="1:30">
@@ -34041,7 +34041,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809267</v>
+        <v>7809266</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -34050,61 +34050,61 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F360" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H360">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I360">
         <v>0</v>
       </c>
       <c r="J360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K360" t="s">
         <v>219</v>
       </c>
       <c r="L360">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M360">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N360">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O360">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="P360">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q360">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="R360">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S360">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T360">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U360">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W360">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="X360">
         <v>-1</v>
@@ -34113,19 +34113,19 @@
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB360">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC360">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD360">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:30">
@@ -34133,7 +34133,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809187</v>
+        <v>7809267</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -34142,79 +34142,79 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F361" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
         <v>4</v>
       </c>
-      <c r="H361">
-        <v>1</v>
-      </c>
       <c r="I361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K361" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L361">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="M361">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N361">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="O361">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="P361">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q361">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="R361">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="S361">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T361">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U361">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V361">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X361">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA361">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC361">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD361">
         <v>-1</v>
@@ -34225,7 +34225,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7809266</v>
+        <v>7809187</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -34234,82 +34234,82 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F362" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="G362">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J362">
         <v>1</v>
       </c>
       <c r="K362" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L362">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="M362">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N362">
-        <v>1.6</v>
+        <v>13</v>
       </c>
       <c r="O362">
-        <v>7.5</v>
+        <v>1.166</v>
       </c>
       <c r="P362">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q362">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="R362">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="S362">
+        <v>1.975</v>
+      </c>
+      <c r="T362">
         <v>1.825</v>
       </c>
-      <c r="T362">
-        <v>1.975</v>
-      </c>
       <c r="U362">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V362">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="W362">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB362">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD362">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -35145,7 +35145,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -35154,79 +35154,79 @@
         <v>45338.75</v>
       </c>
       <c r="E372" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F372" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" t="s">
+        <v>217</v>
+      </c>
+      <c r="L372">
+        <v>1.615</v>
+      </c>
+      <c r="M372">
+        <v>3.5</v>
+      </c>
+      <c r="N372">
         <v>5</v>
       </c>
-      <c r="I372">
-        <v>1</v>
-      </c>
-      <c r="J372">
+      <c r="O372">
+        <v>1.363</v>
+      </c>
+      <c r="P372">
+        <v>4.333</v>
+      </c>
+      <c r="Q372">
+        <v>7.5</v>
+      </c>
+      <c r="R372">
+        <v>-1.25</v>
+      </c>
+      <c r="S372">
+        <v>1.75</v>
+      </c>
+      <c r="T372">
+        <v>2.05</v>
+      </c>
+      <c r="U372">
         <v>3</v>
       </c>
-      <c r="K372" t="s">
-        <v>219</v>
-      </c>
-      <c r="L372">
+      <c r="V372">
         <v>1.8</v>
       </c>
-      <c r="M372">
-        <v>3.3</v>
-      </c>
-      <c r="N372">
-        <v>4</v>
-      </c>
-      <c r="O372">
-        <v>1.615</v>
-      </c>
-      <c r="P372">
-        <v>3.5</v>
-      </c>
-      <c r="Q372">
-        <v>4.75</v>
-      </c>
-      <c r="R372">
-        <v>-0.75</v>
-      </c>
-      <c r="S372">
-        <v>1.8</v>
-      </c>
-      <c r="T372">
-        <v>2</v>
-      </c>
-      <c r="U372">
-        <v>2.75</v>
-      </c>
-      <c r="V372">
-        <v>1.75</v>
-      </c>
       <c r="W372">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB372">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AD372">
         <v>-1</v>
@@ -35237,7 +35237,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -35246,79 +35246,79 @@
         <v>45338.75</v>
       </c>
       <c r="E373" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F373" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G373">
+        <v>2</v>
+      </c>
+      <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
         <v>3</v>
       </c>
-      <c r="H373">
-        <v>1</v>
-      </c>
-      <c r="I373">
-        <v>2</v>
-      </c>
-      <c r="J373">
-        <v>0</v>
-      </c>
       <c r="K373" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L373">
+        <v>1.8</v>
+      </c>
+      <c r="M373">
+        <v>3.3</v>
+      </c>
+      <c r="N373">
+        <v>4</v>
+      </c>
+      <c r="O373">
         <v>1.615</v>
       </c>
-      <c r="M373">
+      <c r="P373">
         <v>3.5</v>
       </c>
-      <c r="N373">
-        <v>5</v>
-      </c>
-      <c r="O373">
-        <v>1.363</v>
-      </c>
-      <c r="P373">
-        <v>4.333</v>
-      </c>
       <c r="Q373">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="R373">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S373">
+        <v>1.8</v>
+      </c>
+      <c r="T373">
+        <v>2</v>
+      </c>
+      <c r="U373">
+        <v>2.75</v>
+      </c>
+      <c r="V373">
         <v>1.75</v>
       </c>
-      <c r="T373">
-        <v>2.05</v>
-      </c>
-      <c r="U373">
-        <v>3</v>
-      </c>
-      <c r="V373">
-        <v>1.8</v>
-      </c>
       <c r="W373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X373">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA373">
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>1</v>
+      </c>
+      <c r="AC373">
         <v>0.75</v>
-      </c>
-      <c r="AB373">
-        <v>-1</v>
-      </c>
-      <c r="AC373">
-        <v>0.8</v>
       </c>
       <c r="AD373">
         <v>-1</v>
@@ -35789,7 +35789,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7847110</v>
+        <v>7847203</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35798,79 +35798,79 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F379" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="G379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K379" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M379">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N379">
+        <v>2.3</v>
+      </c>
+      <c r="O379">
+        <v>3.25</v>
+      </c>
+      <c r="P379">
+        <v>3.4</v>
+      </c>
+      <c r="Q379">
+        <v>2.1</v>
+      </c>
+      <c r="R379">
+        <v>0.25</v>
+      </c>
+      <c r="S379">
+        <v>1.975</v>
+      </c>
+      <c r="T379">
+        <v>1.825</v>
+      </c>
+      <c r="U379">
+        <v>2.25</v>
+      </c>
+      <c r="V379">
         <v>1.8</v>
       </c>
-      <c r="O379">
-        <v>4</v>
-      </c>
-      <c r="P379">
-        <v>3.3</v>
-      </c>
-      <c r="Q379">
-        <v>1.8</v>
-      </c>
-      <c r="R379">
-        <v>0.75</v>
-      </c>
-      <c r="S379">
-        <v>1.775</v>
-      </c>
-      <c r="T379">
-        <v>1.925</v>
-      </c>
-      <c r="U379">
-        <v>2.75</v>
-      </c>
-      <c r="V379">
-        <v>1.85</v>
-      </c>
       <c r="W379">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X379">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA379">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC379">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD379">
         <v>-1</v>
@@ -35881,7 +35881,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7847203</v>
+        <v>7847110</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35890,79 +35890,79 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F380" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="G380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H380">
+        <v>2</v>
+      </c>
+      <c r="I380">
+        <v>3</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380" t="s">
+        <v>217</v>
+      </c>
+      <c r="L380">
         <v>4</v>
       </c>
-      <c r="I380">
-        <v>0</v>
-      </c>
-      <c r="J380">
-        <v>2</v>
-      </c>
-      <c r="K380" t="s">
-        <v>219</v>
-      </c>
-      <c r="L380">
+      <c r="M380">
+        <v>3.3</v>
+      </c>
+      <c r="N380">
+        <v>1.8</v>
+      </c>
+      <c r="O380">
+        <v>4</v>
+      </c>
+      <c r="P380">
+        <v>3.3</v>
+      </c>
+      <c r="Q380">
+        <v>1.8</v>
+      </c>
+      <c r="R380">
+        <v>0.75</v>
+      </c>
+      <c r="S380">
+        <v>1.775</v>
+      </c>
+      <c r="T380">
+        <v>1.925</v>
+      </c>
+      <c r="U380">
         <v>2.75</v>
       </c>
-      <c r="M380">
-        <v>3.2</v>
-      </c>
-      <c r="N380">
-        <v>2.3</v>
-      </c>
-      <c r="O380">
-        <v>3.25</v>
-      </c>
-      <c r="P380">
-        <v>3.4</v>
-      </c>
-      <c r="Q380">
-        <v>2.1</v>
-      </c>
-      <c r="R380">
-        <v>0.25</v>
-      </c>
-      <c r="S380">
-        <v>1.975</v>
-      </c>
-      <c r="T380">
-        <v>1.825</v>
-      </c>
-      <c r="U380">
-        <v>2.25</v>
-      </c>
       <c r="V380">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X380">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB380">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD380">
         <v>-1</v>
@@ -40653,7 +40653,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7936703</v>
+        <v>7936725</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -40662,64 +40662,64 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E432" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F432" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K432" t="s">
         <v>217</v>
       </c>
       <c r="L432">
-        <v>1.071</v>
+        <v>1.142</v>
       </c>
       <c r="M432">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="N432">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O432">
-        <v>1.09</v>
+        <v>1.111</v>
       </c>
       <c r="P432">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Q432">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R432">
-        <v>-2.75</v>
+        <v>-2.5</v>
       </c>
       <c r="S432">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T432">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U432">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V432">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W432">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X432">
-        <v>0.09000000000000008</v>
+        <v>0.111</v>
       </c>
       <c r="Y432">
         <v>-1</v>
@@ -40728,16 +40728,16 @@
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB432">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD432">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:30">
@@ -40837,7 +40837,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7936725</v>
+        <v>7936703</v>
       </c>
       <c r="C434" t="s">
         <v>29</v>
@@ -40846,64 +40846,64 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E434" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F434" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G434">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K434" t="s">
         <v>217</v>
       </c>
       <c r="L434">
-        <v>1.142</v>
+        <v>1.071</v>
       </c>
       <c r="M434">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N434">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O434">
-        <v>1.111</v>
+        <v>1.09</v>
       </c>
       <c r="P434">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Q434">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R434">
-        <v>-2.5</v>
+        <v>-2.75</v>
       </c>
       <c r="S434">
+        <v>1.9</v>
+      </c>
+      <c r="T434">
+        <v>1.9</v>
+      </c>
+      <c r="U434">
+        <v>3.5</v>
+      </c>
+      <c r="V434">
         <v>1.925</v>
       </c>
-      <c r="T434">
+      <c r="W434">
         <v>1.875</v>
       </c>
-      <c r="U434">
-        <v>3.25</v>
-      </c>
-      <c r="V434">
-        <v>1.8</v>
-      </c>
-      <c r="W434">
-        <v>2</v>
-      </c>
       <c r="X434">
-        <v>0.111</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Y434">
         <v>-1</v>
@@ -40912,16 +40912,16 @@
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC434">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD434">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -45701,7 +45701,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>8030091</v>
+        <v>8029908</v>
       </c>
       <c r="C487" t="s">
         <v>29</v>
@@ -45710,22 +45710,22 @@
         <v>45381.79166666666</v>
       </c>
       <c r="E487" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="F487" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="G487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K487" t="s">
         <v>217</v>
@@ -45746,25 +45746,25 @@
         <v>4.75</v>
       </c>
       <c r="Q487">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="R487">
         <v>-1.5</v>
       </c>
       <c r="S487">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T487">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U487">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V487">
+        <v>1.875</v>
+      </c>
+      <c r="W487">
         <v>1.925</v>
-      </c>
-      <c r="W487">
-        <v>1.875</v>
       </c>
       <c r="X487">
         <v>0.2849999999999999</v>
@@ -45776,13 +45776,13 @@
         <v>-1</v>
       </c>
       <c r="AA487">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB487">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC487">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD487">
         <v>-1</v>
@@ -45793,7 +45793,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>8029908</v>
+        <v>8030091</v>
       </c>
       <c r="C488" t="s">
         <v>29</v>
@@ -45802,22 +45802,22 @@
         <v>45381.79166666666</v>
       </c>
       <c r="E488" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="F488" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="G488">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K488" t="s">
         <v>217</v>
@@ -45838,25 +45838,25 @@
         <v>4.75</v>
       </c>
       <c r="Q488">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="R488">
         <v>-1.5</v>
       </c>
       <c r="S488">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T488">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U488">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V488">
+        <v>1.925</v>
+      </c>
+      <c r="W488">
         <v>1.875</v>
-      </c>
-      <c r="W488">
-        <v>1.925</v>
       </c>
       <c r="X488">
         <v>0.2849999999999999</v>
@@ -45868,13 +45868,13 @@
         <v>-1</v>
       </c>
       <c r="AA488">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB488">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC488">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD488">
         <v>-1</v>
@@ -46897,7 +46897,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>8059325</v>
+        <v>8059324</v>
       </c>
       <c r="C500" t="s">
         <v>29</v>
@@ -46906,55 +46906,55 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E500" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F500" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G500">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H500">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I500">
         <v>0</v>
       </c>
       <c r="J500">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K500" t="s">
         <v>219</v>
       </c>
       <c r="L500">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="M500">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N500">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="O500">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="P500">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q500">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="R500">
-        <v>-0.75</v>
+        <v>2</v>
       </c>
       <c r="S500">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T500">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U500">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V500">
         <v>1.9</v>
@@ -46969,19 +46969,19 @@
         <v>-1</v>
       </c>
       <c r="Z500">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA500">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB500">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC500">
+        <v>-1</v>
+      </c>
+      <c r="AD500">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD500">
-        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:30">
@@ -46989,7 +46989,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>8059324</v>
+        <v>8059325</v>
       </c>
       <c r="C501" t="s">
         <v>29</v>
@@ -46998,55 +46998,55 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E501" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F501" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G501">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I501">
         <v>0</v>
       </c>
       <c r="J501">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K501" t="s">
         <v>219</v>
       </c>
       <c r="L501">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="M501">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N501">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="O501">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="P501">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q501">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="R501">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="S501">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T501">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U501">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V501">
         <v>1.9</v>
@@ -47061,19 +47061,19 @@
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="AA501">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC501">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD501">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:30">
@@ -48271,7 +48271,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>8090077</v>
+        <v>8090078</v>
       </c>
       <c r="C515" t="s">
         <v>29</v>
@@ -48280,55 +48280,49 @@
         <v>45395.79166666666</v>
       </c>
       <c r="E515" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F515" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="G515">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H515">
-        <v>0</v>
-      </c>
-      <c r="I515">
-        <v>0</v>
-      </c>
-      <c r="J515">
         <v>0</v>
       </c>
       <c r="K515" t="s">
         <v>217</v>
       </c>
       <c r="L515">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="M515">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N515">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O515">
+        <v>1.062</v>
+      </c>
+      <c r="P515">
+        <v>8.5</v>
+      </c>
+      <c r="Q515">
+        <v>19</v>
+      </c>
+      <c r="R515">
+        <v>-1.75</v>
+      </c>
+      <c r="S515">
         <v>1.7</v>
       </c>
-      <c r="P515">
-        <v>3.2</v>
-      </c>
-      <c r="Q515">
-        <v>5</v>
-      </c>
-      <c r="R515">
-        <v>-0.5</v>
-      </c>
-      <c r="S515">
-        <v>1.8</v>
-      </c>
       <c r="T515">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U515">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V515">
         <v>2.025</v>
@@ -48337,25 +48331,25 @@
         <v>1.775</v>
       </c>
       <c r="X515">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Y515">
+        <v>-1</v>
+      </c>
+      <c r="Z515">
+        <v>-1</v>
+      </c>
+      <c r="AA515">
         <v>0.7</v>
       </c>
-      <c r="Y515">
-        <v>-1</v>
-      </c>
-      <c r="Z515">
-        <v>-1</v>
-      </c>
-      <c r="AA515">
-        <v>0.8</v>
-      </c>
       <c r="AB515">
         <v>-1</v>
       </c>
       <c r="AC515">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AD515">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="516" spans="1:30">
@@ -48363,7 +48357,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>8090078</v>
+        <v>8090077</v>
       </c>
       <c r="C516" t="s">
         <v>29</v>
@@ -48372,49 +48366,55 @@
         <v>45395.79166666666</v>
       </c>
       <c r="E516" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F516" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="G516">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
         <v>0</v>
       </c>
       <c r="K516" t="s">
         <v>217</v>
       </c>
       <c r="L516">
-        <v>1.2</v>
+        <v>1.615</v>
       </c>
       <c r="M516">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N516">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O516">
-        <v>1.062</v>
+        <v>1.7</v>
       </c>
       <c r="P516">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q516">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="R516">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S516">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T516">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U516">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="V516">
         <v>2.025</v>
@@ -48423,7 +48423,7 @@
         <v>1.775</v>
       </c>
       <c r="X516">
-        <v>0.06200000000000006</v>
+        <v>0.7</v>
       </c>
       <c r="Y516">
         <v>-1</v>
@@ -48432,16 +48432,16 @@
         <v>-1</v>
       </c>
       <c r="AA516">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB516">
         <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AD516">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="517" spans="1:30">
@@ -49185,7 +49185,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>8117198</v>
+        <v>8117197</v>
       </c>
       <c r="C525" t="s">
         <v>29</v>
@@ -49194,61 +49194,61 @@
         <v>45401.75</v>
       </c>
       <c r="E525" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F525" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="G525">
         <v>0</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525">
         <v>0</v>
       </c>
       <c r="J525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K525" t="s">
         <v>219</v>
       </c>
       <c r="L525">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M525">
         <v>3.3</v>
       </c>
       <c r="N525">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O525">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="P525">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q525">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="R525">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S525">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T525">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V525">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W525">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X525">
         <v>-1</v>
@@ -49257,19 +49257,19 @@
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>1.75</v>
+        <v>0.909</v>
       </c>
       <c r="AA525">
         <v>-1</v>
       </c>
       <c r="AB525">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC525">
         <v>-1</v>
       </c>
       <c r="AD525">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="526" spans="1:30">
@@ -49277,7 +49277,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>8117197</v>
+        <v>8117198</v>
       </c>
       <c r="C526" t="s">
         <v>29</v>
@@ -49286,61 +49286,61 @@
         <v>45401.75</v>
       </c>
       <c r="E526" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F526" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="G526">
         <v>0</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526">
         <v>0</v>
       </c>
       <c r="J526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K526" t="s">
         <v>219</v>
       </c>
       <c r="L526">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M526">
         <v>3.3</v>
       </c>
       <c r="N526">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O526">
+        <v>2.3</v>
+      </c>
+      <c r="P526">
         <v>3.3</v>
       </c>
-      <c r="P526">
-        <v>3.6</v>
-      </c>
       <c r="Q526">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="R526">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S526">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T526">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U526">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V526">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W526">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X526">
         <v>-1</v>
@@ -49349,19 +49349,19 @@
         <v>-1</v>
       </c>
       <c r="Z526">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="AA526">
         <v>-1</v>
       </c>
       <c r="AB526">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC526">
         <v>-1</v>
       </c>
       <c r="AD526">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="527" spans="1:30">
@@ -52589,7 +52589,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>8164786</v>
+        <v>8164795</v>
       </c>
       <c r="C562" t="s">
         <v>29</v>
@@ -52598,55 +52598,55 @@
         <v>45413.79166666666</v>
       </c>
       <c r="E562" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="F562" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="G562">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J562">
         <v>0</v>
       </c>
       <c r="K562" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L562">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M562">
         <v>3.5</v>
       </c>
       <c r="N562">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O562">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="P562">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q562">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="R562">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S562">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T562">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U562">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V562">
         <v>1.95</v>
@@ -52655,25 +52655,25 @@
         <v>1.85</v>
       </c>
       <c r="X562">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y562">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z562">
         <v>-1</v>
       </c>
       <c r="AA562">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB562">
         <v>-1</v>
       </c>
       <c r="AC562">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD562">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:30">
@@ -52681,7 +52681,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8164795</v>
+        <v>8164786</v>
       </c>
       <c r="C563" t="s">
         <v>29</v>
@@ -52690,55 +52690,55 @@
         <v>45413.79166666666</v>
       </c>
       <c r="E563" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F563" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="G563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J563">
         <v>0</v>
       </c>
       <c r="K563" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L563">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M563">
         <v>3.5</v>
       </c>
       <c r="N563">
+        <v>3</v>
+      </c>
+      <c r="O563">
+        <v>2</v>
+      </c>
+      <c r="P563">
+        <v>3.5</v>
+      </c>
+      <c r="Q563">
+        <v>3</v>
+      </c>
+      <c r="R563">
+        <v>-0.25</v>
+      </c>
+      <c r="S563">
         <v>1.8</v>
       </c>
-      <c r="O563">
-        <v>3.75</v>
-      </c>
-      <c r="P563">
-        <v>3.3</v>
-      </c>
-      <c r="Q563">
-        <v>1.85</v>
-      </c>
-      <c r="R563">
-        <v>0.5</v>
-      </c>
-      <c r="S563">
-        <v>1.95</v>
-      </c>
       <c r="T563">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U563">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V563">
         <v>1.95</v>
@@ -52747,25 +52747,25 @@
         <v>1.85</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y563">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB563">
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD563">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:30">

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -142,10 +142,10 @@
     <t>CD Novillos Neza</t>
   </si>
   <si>
-    <t>Corsarios de Campeche</t>
+    <t>CH Ftbol Club</t>
   </si>
   <si>
-    <t>CH Ftbol Club</t>
+    <t>Corsarios de Campeche</t>
   </si>
   <si>
     <t>Hroes de Zaci FC</t>
@@ -556,10 +556,10 @@
     <t>Aragon FC</t>
   </si>
   <si>
-    <t>Boston Cancun FC</t>
+    <t>Fuerza Mazahua FC</t>
   </si>
   <si>
-    <t>Fuerza Mazahua FC</t>
+    <t>Boston Cancun FC</t>
   </si>
   <si>
     <t>Tigres UANL II</t>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7214065</v>
+        <v>7214049</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2251,76 +2251,76 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>3.6</v>
-      </c>
-      <c r="N14">
-        <v>1.615</v>
-      </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q14">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD14">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7214049</v>
+        <v>7214065</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -2343,76 +2343,76 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L15">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="O15">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X15">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD15">
         <v>-1</v>
@@ -3251,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7242660</v>
+        <v>7242479</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -3260,82 +3260,82 @@
         <v>45191.75</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L25">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R25">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
+        <v>1.975</v>
+      </c>
+      <c r="U25">
+        <v>2.75</v>
+      </c>
+      <c r="V25">
+        <v>1.75</v>
+      </c>
+      <c r="W25">
         <v>1.95</v>
       </c>
-      <c r="U25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>1.925</v>
-      </c>
-      <c r="W25">
-        <v>1.875</v>
-      </c>
       <c r="X25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3343,7 +3343,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7242479</v>
+        <v>7242660</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -3352,82 +3352,82 @@
         <v>45191.75</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26">
+        <v>1.571</v>
+      </c>
+      <c r="M26">
+        <v>4.2</v>
+      </c>
+      <c r="N26">
+        <v>4.333</v>
+      </c>
+      <c r="O26">
+        <v>1.666</v>
+      </c>
+      <c r="P26">
         <v>4</v>
       </c>
-      <c r="K26" t="s">
-        <v>219</v>
-      </c>
-      <c r="L26">
-        <v>3.1</v>
-      </c>
-      <c r="M26">
-        <v>3.75</v>
-      </c>
-      <c r="N26">
-        <v>1.909</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>3.75</v>
-      </c>
       <c r="Q26">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -4091,7 +4091,7 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4539,7 +4539,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7249464</v>
+        <v>7249463</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4548,82 +4548,82 @@
         <v>45193.625</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L39">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M39">
         <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O39">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X39">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AD39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4631,7 +4631,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7249463</v>
+        <v>7249464</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4640,82 +4640,82 @@
         <v>45193.625</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L40">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O40">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -5376,7 +5376,7 @@
         <v>45198.75</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
         <v>99</v>
@@ -6750,7 +6750,7 @@
         <v>45205.75</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
         <v>46</v>
@@ -7765,7 +7765,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -8673,7 +8673,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8682,13 +8682,13 @@
         <v>45212.75</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8697,67 +8697,67 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M84">
         <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P84">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U84">
         <v>2.75</v>
       </c>
       <c r="V84">
+        <v>1.825</v>
+      </c>
+      <c r="W84">
         <v>1.975</v>
       </c>
-      <c r="W84">
-        <v>1.825</v>
-      </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
+        <v>1.05</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
+        <v>0.4125</v>
+      </c>
+      <c r="AD84">
         <v>-0.5</v>
-      </c>
-      <c r="AB84">
-        <v>0.4625</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
-      </c>
-      <c r="AD84">
-        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8765,7 +8765,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8774,13 +8774,13 @@
         <v>45212.75</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8789,67 +8789,67 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L85">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M85">
         <v>3.5</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q85">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U85">
         <v>2.75</v>
       </c>
       <c r="V85">
+        <v>1.975</v>
+      </c>
+      <c r="W85">
         <v>1.825</v>
       </c>
-      <c r="W85">
-        <v>1.975</v>
-      </c>
       <c r="X85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8949,7 +8949,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7336547</v>
+        <v>7336548</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8958,82 +8958,82 @@
         <v>45212.83333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O87">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P87">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="R87">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
         <v>1.8</v>
-      </c>
-      <c r="T87">
-        <v>2</v>
       </c>
       <c r="U87">
         <v>2.75</v>
       </c>
       <c r="V87">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X87">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
+        <v>0.8</v>
+      </c>
+      <c r="AC87">
+        <v>0.45</v>
+      </c>
+      <c r="AD87">
         <v>-0.5</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
-      </c>
-      <c r="AD87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -9041,7 +9041,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7336548</v>
+        <v>7336547</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -9050,82 +9050,82 @@
         <v>45212.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L88">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O88">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="R88">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U88">
         <v>2.75</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -9973,7 +9973,7 @@
         <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -10706,7 +10706,7 @@
         <v>45219.75</v>
       </c>
       <c r="E106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
         <v>45</v>
@@ -12077,7 +12077,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7393703</v>
+        <v>7393702</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -12086,82 +12086,82 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F121" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L121">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q121">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="R121">
         <v>-0.25</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="U121">
         <v>2.75</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
+        <v>0.875</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.4375</v>
+      </c>
+      <c r="AD121">
         <v>-0.5</v>
-      </c>
-      <c r="AB121">
-        <v>0.3625</v>
-      </c>
-      <c r="AC121">
-        <v>-1</v>
-      </c>
-      <c r="AD121">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -12169,7 +12169,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7393702</v>
+        <v>7393703</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -12178,82 +12178,82 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="R122">
         <v>-0.25</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="U122">
         <v>2.75</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X122">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC122">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -12445,7 +12445,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7394137</v>
+        <v>7394136</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -12454,13 +12454,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F125" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -12475,43 +12475,43 @@
         <v>217</v>
       </c>
       <c r="L125">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M125">
         <v>3.3</v>
       </c>
       <c r="N125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O125">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U125">
         <v>2.75</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X125">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
@@ -12520,16 +12520,16 @@
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AD125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12537,7 +12537,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7394136</v>
+        <v>7394137</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12546,13 +12546,13 @@
         <v>45226.83333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12567,43 +12567,43 @@
         <v>217</v>
       </c>
       <c r="L126">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M126">
         <v>3.3</v>
       </c>
       <c r="N126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O126">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q126">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U126">
         <v>2.75</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X126">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -12612,16 +12612,16 @@
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AD126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -13003,7 +13003,7 @@
         <v>70</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -14463,7 +14463,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7425936</v>
+        <v>7425963</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14475,13 +14475,13 @@
         <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -14493,40 +14493,40 @@
         <v>219</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="M147">
         <v>3.5</v>
       </c>
       <c r="N147">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="P147">
         <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="R147">
         <v>0.25</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U147">
         <v>2.75</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -14535,19 +14535,19 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
       </c>
       <c r="AD147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14567,7 +14567,7 @@
         <v>87</v>
       </c>
       <c r="F148" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -14647,7 +14647,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7425963</v>
+        <v>7425936</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14659,13 +14659,13 @@
         <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -14677,40 +14677,40 @@
         <v>219</v>
       </c>
       <c r="L149">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
         <v>3.5</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O149">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P149">
         <v>3.5</v>
       </c>
       <c r="Q149">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="R149">
         <v>0.25</v>
       </c>
       <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
         <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>2</v>
       </c>
       <c r="U149">
         <v>2.75</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14719,19 +14719,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -15015,7 +15015,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7425997</v>
+        <v>7430741</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -15024,10 +15024,10 @@
         <v>45233.95833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -15036,55 +15036,55 @@
         <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="s">
         <v>218</v>
       </c>
       <c r="L153">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O153">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="P153">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="R153">
         <v>0</v>
       </c>
       <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
         <v>1.8</v>
       </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
       <c r="U153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z153">
         <v>-1</v>
@@ -15099,7 +15099,7 @@
         <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -15107,7 +15107,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7430741</v>
+        <v>7425997</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -15116,10 +15116,10 @@
         <v>45233.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F154" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -15128,56 +15128,56 @@
         <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="s">
         <v>218</v>
       </c>
       <c r="L154">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154">
+        <v>2.375</v>
+      </c>
+      <c r="P154">
+        <v>3.3</v>
+      </c>
+      <c r="Q154">
+        <v>2.625</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>1.875</v>
+      </c>
+      <c r="W154">
+        <v>1.925</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
         <v>2.3</v>
       </c>
-      <c r="O154">
-        <v>2.55</v>
-      </c>
-      <c r="P154">
-        <v>3.5</v>
-      </c>
-      <c r="Q154">
-        <v>2.3</v>
-      </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>1.8</v>
-      </c>
-      <c r="U154">
-        <v>2.75</v>
-      </c>
-      <c r="V154">
-        <v>1.95</v>
-      </c>
-      <c r="W154">
-        <v>1.85</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>2.5</v>
-      </c>
       <c r="Z154">
         <v>-1</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>-1</v>
       </c>
       <c r="AD154">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -15475,7 +15475,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -15484,82 +15484,82 @@
         <v>45234.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L158">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N158">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O158">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P158">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="R158">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z158">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15567,7 +15567,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15576,82 +15576,82 @@
         <v>45234.79166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L159">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N159">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O159">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q159">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="R159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15659,7 +15659,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7425652</v>
+        <v>7429750</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15668,82 +15668,82 @@
         <v>45234.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>219</v>
+      </c>
+      <c r="L160">
         <v>4</v>
       </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>2</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160" t="s">
-        <v>217</v>
-      </c>
-      <c r="L160">
-        <v>1.3</v>
-      </c>
       <c r="M160">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N160">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="O160">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q160">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="R160">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X160">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15751,7 +15751,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7429750</v>
+        <v>7425652</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15760,82 +15760,82 @@
         <v>45234.83333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N161">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="O161">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="P161">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="R161">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U161">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -18244,7 +18244,7 @@
         <v>45240.75</v>
       </c>
       <c r="E188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F188" t="s">
         <v>44</v>
@@ -18695,7 +18695,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7459225</v>
+        <v>7462590</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18704,61 +18704,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F193" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K193" t="s">
         <v>219</v>
       </c>
       <c r="L193">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="M193">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="P193">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q193">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U193">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -18767,19 +18767,19 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.222</v>
+        <v>1.375</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AD193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18787,7 +18787,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7462590</v>
+        <v>7459225</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18796,61 +18796,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F194" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
         <v>219</v>
       </c>
       <c r="L194">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="M194">
+        <v>7.5</v>
+      </c>
+      <c r="N194">
+        <v>1.142</v>
+      </c>
+      <c r="O194">
+        <v>9</v>
+      </c>
+      <c r="P194">
+        <v>6.5</v>
+      </c>
+      <c r="Q194">
+        <v>1.222</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>1.95</v>
+      </c>
+      <c r="T194">
+        <v>1.85</v>
+      </c>
+      <c r="U194">
         <v>3.75</v>
       </c>
-      <c r="N194">
-        <v>2.15</v>
-      </c>
-      <c r="O194">
-        <v>2.375</v>
-      </c>
-      <c r="P194">
-        <v>3.6</v>
-      </c>
-      <c r="Q194">
-        <v>2.375</v>
-      </c>
-      <c r="R194">
-        <v>0</v>
-      </c>
-      <c r="S194">
-        <v>1.9</v>
-      </c>
-      <c r="T194">
-        <v>1.9</v>
-      </c>
-      <c r="U194">
-        <v>2.75</v>
-      </c>
       <c r="V194">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -18859,19 +18859,19 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1.375</v>
+        <v>0.222</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AD194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18879,7 +18879,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7462453</v>
+        <v>7457560</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18888,16 +18888,16 @@
         <v>45241.59027777778</v>
       </c>
       <c r="E195" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F195" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -18909,40 +18909,40 @@
         <v>219</v>
       </c>
       <c r="L195">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O195">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="P195">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q195">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="R195">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T195">
         <v>1.925</v>
       </c>
       <c r="U195">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -18951,7 +18951,7 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.3999999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="AA195">
         <v>-1</v>
@@ -18960,10 +18960,10 @@
         <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18971,7 +18971,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7457560</v>
+        <v>7462453</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18980,16 +18980,16 @@
         <v>45241.59027777778</v>
       </c>
       <c r="E196" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -19001,40 +19001,40 @@
         <v>219</v>
       </c>
       <c r="L196">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N196">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="P196">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q196">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="R196">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S196">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
         <v>1.925</v>
       </c>
       <c r="U196">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -19043,7 +19043,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>1.625</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -19052,10 +19052,10 @@
         <v>0.925</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -20176,7 +20176,7 @@
         <v>45245.75</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
         <v>166</v>
@@ -20443,7 +20443,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486567</v>
+        <v>7486113</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20452,10 +20452,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F212" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20473,43 +20473,43 @@
         <v>217</v>
       </c>
       <c r="L212">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N212">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O212">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q212">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="R212">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U212">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X212">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20518,16 +20518,16 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
         <v>-1</v>
       </c>
       <c r="AD212">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20535,7 +20535,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7486113</v>
+        <v>7486567</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20544,10 +20544,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -20565,43 +20565,43 @@
         <v>217</v>
       </c>
       <c r="L213">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="P213">
+        <v>4.75</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>-1.5</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>1.825</v>
+      </c>
+      <c r="U213">
         <v>3.25</v>
       </c>
-      <c r="Q213">
-        <v>2.1</v>
-      </c>
-      <c r="R213">
-        <v>0.25</v>
-      </c>
-      <c r="S213">
-        <v>1.875</v>
-      </c>
-      <c r="T213">
-        <v>1.925</v>
-      </c>
-      <c r="U213">
-        <v>2.5</v>
-      </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X213">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -20610,16 +20610,16 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC213">
         <v>-1</v>
       </c>
       <c r="AD213">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20823,7 +20823,7 @@
         <v>66</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -20995,7 +20995,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7486519</v>
+        <v>7486319</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -21004,52 +21004,46 @@
         <v>45247.75</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F218" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H218">
-        <v>3</v>
-      </c>
-      <c r="I218">
-        <v>1</v>
-      </c>
-      <c r="J218">
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
+        <v>2.9</v>
+      </c>
+      <c r="O218">
         <v>1.833</v>
       </c>
-      <c r="O218">
-        <v>3.3</v>
-      </c>
       <c r="P218">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q218">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="R218">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U218">
         <v>2.75</v>
@@ -21061,25 +21055,25 @@
         <v>1.9</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AD218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21087,7 +21081,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7486319</v>
+        <v>7486519</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -21096,46 +21090,52 @@
         <v>45247.75</v>
       </c>
       <c r="E219" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
         <v>3</v>
       </c>
-      <c r="H219">
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
         <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L219">
+        <v>3.25</v>
+      </c>
+      <c r="M219">
+        <v>3.75</v>
+      </c>
+      <c r="N219">
         <v>1.833</v>
       </c>
-      <c r="M219">
-        <v>4.5</v>
-      </c>
-      <c r="N219">
-        <v>2.9</v>
-      </c>
       <c r="O219">
+        <v>3.3</v>
+      </c>
+      <c r="P219">
+        <v>3.75</v>
+      </c>
+      <c r="Q219">
         <v>1.833</v>
       </c>
-      <c r="P219">
-        <v>4.5</v>
-      </c>
-      <c r="Q219">
-        <v>2.9</v>
-      </c>
       <c r="R219">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U219">
         <v>2.75</v>
@@ -21147,25 +21147,25 @@
         <v>1.9</v>
       </c>
       <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
         <v>0.833</v>
       </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>-1</v>
-      </c>
       <c r="AA219">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21461,7 +21461,7 @@
         <v>119</v>
       </c>
       <c r="F223" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -21719,7 +21719,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7486318</v>
+        <v>7490285</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21728,61 +21728,61 @@
         <v>45248.75</v>
       </c>
       <c r="E226" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F226" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K226" t="s">
         <v>219</v>
       </c>
       <c r="L226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="M226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O226">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q226">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -21791,19 +21791,19 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21811,7 +21811,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7490285</v>
+        <v>7486318</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21820,61 +21820,61 @@
         <v>45248.75</v>
       </c>
       <c r="E227" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="F227" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K227" t="s">
         <v>219</v>
       </c>
       <c r="L227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O227">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -21883,19 +21883,19 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21995,7 +21995,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7491749</v>
+        <v>7491751</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -22004,76 +22004,82 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
       <c r="K229" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L229">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M229">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O229">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="P229">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q229">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="R229">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U229">
         <v>2.75</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y229">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>0.475</v>
+      </c>
+      <c r="AD229">
         <v>-0.5</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
-      </c>
-      <c r="AD229">
-        <v>0.8</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -22081,7 +22087,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7491751</v>
+        <v>7491749</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -22090,82 +22096,76 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F230" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
-      <c r="J230">
-        <v>0</v>
-      </c>
       <c r="K230" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L230">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N230">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O230">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="P230">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q230">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="R230">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S230">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U230">
         <v>2.75</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD230">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -23930,7 +23930,7 @@
         <v>45254.75</v>
       </c>
       <c r="E250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F250" t="s">
         <v>136</v>
@@ -25577,7 +25577,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25586,82 +25586,82 @@
         <v>45261.75</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F268" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268" t="s">
         <v>218</v>
       </c>
       <c r="L268">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M268">
+        <v>4.5</v>
+      </c>
+      <c r="N268">
+        <v>6</v>
+      </c>
+      <c r="O268">
+        <v>1.4</v>
+      </c>
+      <c r="P268">
+        <v>4.5</v>
+      </c>
+      <c r="Q268">
+        <v>6</v>
+      </c>
+      <c r="R268">
+        <v>-1.25</v>
+      </c>
+      <c r="S268">
+        <v>1.85</v>
+      </c>
+      <c r="T268">
+        <v>1.95</v>
+      </c>
+      <c r="U268">
+        <v>2.75</v>
+      </c>
+      <c r="V268">
+        <v>1.8</v>
+      </c>
+      <c r="W268">
+        <v>2</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
         <v>3.5</v>
       </c>
-      <c r="N268">
-        <v>3.4</v>
-      </c>
-      <c r="O268">
-        <v>2.25</v>
-      </c>
-      <c r="P268">
-        <v>3.3</v>
-      </c>
-      <c r="Q268">
-        <v>2.75</v>
-      </c>
-      <c r="R268">
-        <v>-0.25</v>
-      </c>
-      <c r="S268">
-        <v>2</v>
-      </c>
-      <c r="T268">
-        <v>1.8</v>
-      </c>
-      <c r="U268">
-        <v>3</v>
-      </c>
-      <c r="V268">
-        <v>1.95</v>
-      </c>
-      <c r="W268">
-        <v>1.85</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>2.3</v>
-      </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25669,7 +25669,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25678,82 +25678,82 @@
         <v>45261.75</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F269" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
         <v>218</v>
       </c>
       <c r="L269">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O269">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="P269">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q269">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="R269">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S269">
+        <v>2</v>
+      </c>
+      <c r="T269">
+        <v>1.8</v>
+      </c>
+      <c r="U269">
+        <v>3</v>
+      </c>
+      <c r="V269">
+        <v>1.95</v>
+      </c>
+      <c r="W269">
         <v>1.85</v>
       </c>
-      <c r="T269">
-        <v>1.95</v>
-      </c>
-      <c r="U269">
-        <v>2.75</v>
-      </c>
-      <c r="V269">
-        <v>1.8</v>
-      </c>
-      <c r="W269">
-        <v>2</v>
-      </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC269">
         <v>-1</v>
       </c>
       <c r="AD269">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -26509,7 +26509,7 @@
         <v>83</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -27702,7 +27702,7 @@
         <v>45268.75</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F291" t="s">
         <v>163</v>
@@ -28061,7 +28061,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7568070</v>
+        <v>7571981</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -28070,46 +28070,46 @@
         <v>45269.75</v>
       </c>
       <c r="E295" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
         <v>1</v>
       </c>
       <c r="J295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L295">
-        <v>5</v>
+        <v>1.062</v>
       </c>
       <c r="M295">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N295">
-        <v>1.533</v>
+        <v>20</v>
       </c>
       <c r="O295">
-        <v>6.5</v>
+        <v>1.071</v>
       </c>
       <c r="P295">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q295">
-        <v>1.363</v>
+        <v>23</v>
       </c>
       <c r="R295">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="S295">
         <v>1.9</v>
@@ -28118,19 +28118,19 @@
         <v>1.9</v>
       </c>
       <c r="U295">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V295">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="Y295">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
         <v>-1</v>
@@ -28142,10 +28142,10 @@
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD295">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -28153,7 +28153,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7571981</v>
+        <v>7568070</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -28162,46 +28162,46 @@
         <v>45269.75</v>
       </c>
       <c r="E296" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F296" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>2</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296" t="s">
+        <v>218</v>
+      </c>
+      <c r="L296">
+        <v>5</v>
+      </c>
+      <c r="M296">
         <v>4</v>
       </c>
-      <c r="H296">
-        <v>0</v>
-      </c>
-      <c r="I296">
-        <v>1</v>
-      </c>
-      <c r="J296">
-        <v>0</v>
-      </c>
-      <c r="K296" t="s">
-        <v>217</v>
-      </c>
-      <c r="L296">
-        <v>1.062</v>
-      </c>
-      <c r="M296">
-        <v>11</v>
-      </c>
       <c r="N296">
-        <v>20</v>
+        <v>1.533</v>
       </c>
       <c r="O296">
-        <v>1.071</v>
+        <v>6.5</v>
       </c>
       <c r="P296">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q296">
-        <v>23</v>
+        <v>1.363</v>
       </c>
       <c r="R296">
-        <v>-3.25</v>
+        <v>1.5</v>
       </c>
       <c r="S296">
         <v>1.9</v>
@@ -28210,19 +28210,19 @@
         <v>1.9</v>
       </c>
       <c r="U296">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V296">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W296">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X296">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z296">
         <v>-1</v>
@@ -28234,10 +28234,10 @@
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD296">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:30">
@@ -28898,7 +28898,7 @@
         <v>45310.75</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F304" t="s">
         <v>123</v>
@@ -29257,7 +29257,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -29266,19 +29266,19 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F308" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="G308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H308">
         <v>1</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J308">
         <v>1</v>
@@ -29287,43 +29287,43 @@
         <v>217</v>
       </c>
       <c r="L308">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M308">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N308">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O308">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="P308">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q308">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="R308">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="S308">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T308">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U308">
         <v>3.25</v>
       </c>
       <c r="V308">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X308">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y308">
         <v>-1</v>
@@ -29332,16 +29332,16 @@
         <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD308">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -29349,7 +29349,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -29358,19 +29358,19 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F309" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="G309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -29379,43 +29379,43 @@
         <v>217</v>
       </c>
       <c r="L309">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M309">
+        <v>3.3</v>
+      </c>
+      <c r="N309">
         <v>4</v>
       </c>
-      <c r="N309">
-        <v>7</v>
-      </c>
       <c r="O309">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="P309">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q309">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="R309">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S309">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T309">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U309">
         <v>3.25</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W309">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X309">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -29424,16 +29424,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD309">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -30269,7 +30269,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7749257</v>
+        <v>7749009</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -30278,46 +30278,46 @@
         <v>45318.75</v>
       </c>
       <c r="E319" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F319" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319" t="s">
         <v>217</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="M319">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="N319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="O319">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="P319">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q319">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="R319">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S319">
         <v>1.8</v>
@@ -30326,16 +30326,16 @@
         <v>2</v>
       </c>
       <c r="U319">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V319">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X319">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="Y319">
         <v>-1</v>
@@ -30344,16 +30344,16 @@
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD319">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -30361,7 +30361,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7749009</v>
+        <v>7749257</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -30370,46 +30370,46 @@
         <v>45318.75</v>
       </c>
       <c r="E320" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F320" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="G320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K320" t="s">
         <v>217</v>
       </c>
       <c r="L320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="M320">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="N320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="O320">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="P320">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q320">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="R320">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="S320">
         <v>1.8</v>
@@ -30418,16 +30418,16 @@
         <v>2</v>
       </c>
       <c r="U320">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W320">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X320">
-        <v>0.181</v>
+        <v>3</v>
       </c>
       <c r="Y320">
         <v>-1</v>
@@ -30436,16 +30436,16 @@
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="321" spans="1:30">
@@ -30833,7 +30833,7 @@
         <v>129</v>
       </c>
       <c r="F325" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30925,7 +30925,7 @@
         <v>126</v>
       </c>
       <c r="F326" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G326">
         <v>3</v>
@@ -31281,7 +31281,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -31290,40 +31290,40 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E330" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F330" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330" t="s">
         <v>217</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M330">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N330">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O330">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P330">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q330">
         <v>1.5</v>
@@ -31332,22 +31332,22 @@
         <v>1</v>
       </c>
       <c r="S330">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U330">
         <v>3</v>
       </c>
       <c r="V330">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X330">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y330">
         <v>-1</v>
@@ -31356,16 +31356,16 @@
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
         <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -31373,7 +31373,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -31382,40 +31382,40 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E331" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="G331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K331" t="s">
         <v>217</v>
       </c>
       <c r="L331">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M331">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N331">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O331">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P331">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q331">
         <v>1.5</v>
@@ -31424,22 +31424,22 @@
         <v>1</v>
       </c>
       <c r="S331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T331">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U331">
         <v>3</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W331">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X331">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y331">
         <v>-1</v>
@@ -31448,16 +31448,16 @@
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB331">
         <v>-1</v>
       </c>
       <c r="AC331">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="332" spans="1:30">
@@ -31934,7 +31934,7 @@
         <v>45324.75</v>
       </c>
       <c r="E337" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F337" t="s">
         <v>57</v>
@@ -32569,7 +32569,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7781782</v>
+        <v>7781781</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32578,13 +32578,13 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F344" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="G344">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H344">
         <v>2</v>
@@ -32593,67 +32593,67 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K344" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L344">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="M344">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N344">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="O344">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="P344">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q344">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="R344">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T344">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U344">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V344">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W344">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X344">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC344">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD344">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32661,7 +32661,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7781781</v>
+        <v>7781782</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32670,13 +32670,13 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E345" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F345" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -32685,67 +32685,67 @@
         <v>0</v>
       </c>
       <c r="J345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K345" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L345">
+        <v>1.333</v>
+      </c>
+      <c r="M345">
         <v>4.5</v>
       </c>
-      <c r="M345">
-        <v>3.6</v>
-      </c>
       <c r="N345">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="O345">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="P345">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q345">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="R345">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S345">
+        <v>1.9</v>
+      </c>
+      <c r="T345">
+        <v>1.9</v>
+      </c>
+      <c r="U345">
+        <v>3</v>
+      </c>
+      <c r="V345">
+        <v>1.825</v>
+      </c>
+      <c r="W345">
         <v>1.975</v>
       </c>
-      <c r="T345">
-        <v>1.825</v>
-      </c>
-      <c r="U345">
-        <v>2.75</v>
-      </c>
-      <c r="V345">
-        <v>1.95</v>
-      </c>
-      <c r="W345">
-        <v>1.85</v>
-      </c>
       <c r="X345">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC345">
         <v>0.825</v>
       </c>
-      <c r="AC345">
-        <v>-1</v>
-      </c>
       <c r="AD345">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -33305,7 +33305,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -33314,82 +33314,82 @@
         <v>45331.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F352" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
         <v>4</v>
       </c>
-      <c r="I352">
-        <v>0</v>
-      </c>
       <c r="J352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L352">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="M352">
         <v>4</v>
       </c>
       <c r="N352">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O352">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="P352">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q352">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="R352">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T352">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U352">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W352">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AD352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -33397,7 +33397,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -33406,82 +33406,82 @@
         <v>45331.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="G353">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I353">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L353">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="M353">
         <v>4</v>
       </c>
       <c r="N353">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O353">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="P353">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q353">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="R353">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S353">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U353">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V353">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X353">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC353">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AD353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -35145,7 +35145,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7841948</v>
+        <v>7841950</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -35154,79 +35154,79 @@
         <v>45338.75</v>
       </c>
       <c r="E372" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F372" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372" t="s">
+        <v>217</v>
+      </c>
+      <c r="L372">
+        <v>1.615</v>
+      </c>
+      <c r="M372">
+        <v>3.5</v>
+      </c>
+      <c r="N372">
         <v>5</v>
       </c>
-      <c r="I372">
-        <v>1</v>
-      </c>
-      <c r="J372">
+      <c r="O372">
+        <v>1.363</v>
+      </c>
+      <c r="P372">
+        <v>4.333</v>
+      </c>
+      <c r="Q372">
+        <v>7.5</v>
+      </c>
+      <c r="R372">
+        <v>-1.25</v>
+      </c>
+      <c r="S372">
+        <v>1.75</v>
+      </c>
+      <c r="T372">
+        <v>2.05</v>
+      </c>
+      <c r="U372">
         <v>3</v>
       </c>
-      <c r="K372" t="s">
-        <v>219</v>
-      </c>
-      <c r="L372">
+      <c r="V372">
         <v>1.8</v>
       </c>
-      <c r="M372">
-        <v>3.3</v>
-      </c>
-      <c r="N372">
-        <v>4</v>
-      </c>
-      <c r="O372">
-        <v>1.615</v>
-      </c>
-      <c r="P372">
-        <v>3.5</v>
-      </c>
-      <c r="Q372">
-        <v>4.75</v>
-      </c>
-      <c r="R372">
-        <v>-0.75</v>
-      </c>
-      <c r="S372">
-        <v>1.8</v>
-      </c>
-      <c r="T372">
-        <v>2</v>
-      </c>
-      <c r="U372">
-        <v>2.75</v>
-      </c>
-      <c r="V372">
-        <v>1.75</v>
-      </c>
       <c r="W372">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB372">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AD372">
         <v>-1</v>
@@ -35237,7 +35237,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7841950</v>
+        <v>7841948</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -35246,79 +35246,79 @@
         <v>45338.75</v>
       </c>
       <c r="E373" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F373" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G373">
+        <v>2</v>
+      </c>
+      <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
         <v>3</v>
       </c>
-      <c r="H373">
-        <v>1</v>
-      </c>
-      <c r="I373">
-        <v>2</v>
-      </c>
-      <c r="J373">
-        <v>0</v>
-      </c>
       <c r="K373" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L373">
+        <v>1.8</v>
+      </c>
+      <c r="M373">
+        <v>3.3</v>
+      </c>
+      <c r="N373">
+        <v>4</v>
+      </c>
+      <c r="O373">
         <v>1.615</v>
       </c>
-      <c r="M373">
+      <c r="P373">
         <v>3.5</v>
       </c>
-      <c r="N373">
-        <v>5</v>
-      </c>
-      <c r="O373">
-        <v>1.363</v>
-      </c>
-      <c r="P373">
-        <v>4.333</v>
-      </c>
       <c r="Q373">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="R373">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S373">
+        <v>1.8</v>
+      </c>
+      <c r="T373">
+        <v>2</v>
+      </c>
+      <c r="U373">
+        <v>2.75</v>
+      </c>
+      <c r="V373">
         <v>1.75</v>
       </c>
-      <c r="T373">
-        <v>2.05</v>
-      </c>
-      <c r="U373">
-        <v>3</v>
-      </c>
-      <c r="V373">
-        <v>1.8</v>
-      </c>
       <c r="W373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X373">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA373">
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>1</v>
+      </c>
+      <c r="AC373">
         <v>0.75</v>
-      </c>
-      <c r="AB373">
-        <v>-1</v>
-      </c>
-      <c r="AC373">
-        <v>0.8</v>
       </c>
       <c r="AD373">
         <v>-1</v>
@@ -35513,7 +35513,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7846856</v>
+        <v>7847106</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -35522,82 +35522,82 @@
         <v>45339.70833333334</v>
       </c>
       <c r="E376" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="F376" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G376">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376">
         <v>0</v>
       </c>
       <c r="J376">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K376" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L376">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M376">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N376">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P376">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q376">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="R376">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S376">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U376">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V376">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W376">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z376">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB376">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD376">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -35605,7 +35605,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7847106</v>
+        <v>7846856</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35614,82 +35614,82 @@
         <v>45339.70833333334</v>
       </c>
       <c r="E377" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F377" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377">
         <v>0</v>
       </c>
       <c r="J377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K377" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M377">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N377">
+        <v>2.625</v>
+      </c>
+      <c r="O377">
+        <v>3</v>
+      </c>
+      <c r="P377">
+        <v>3.3</v>
+      </c>
+      <c r="Q377">
+        <v>2.15</v>
+      </c>
+      <c r="R377">
+        <v>0.25</v>
+      </c>
+      <c r="S377">
+        <v>1.875</v>
+      </c>
+      <c r="T377">
+        <v>1.925</v>
+      </c>
+      <c r="U377">
+        <v>2</v>
+      </c>
+      <c r="V377">
         <v>1.8</v>
       </c>
-      <c r="O377">
-        <v>4</v>
-      </c>
-      <c r="P377">
-        <v>3.2</v>
-      </c>
-      <c r="Q377">
-        <v>1.8</v>
-      </c>
-      <c r="R377">
-        <v>0.5</v>
-      </c>
-      <c r="S377">
-        <v>1.95</v>
-      </c>
-      <c r="T377">
-        <v>1.85</v>
-      </c>
-      <c r="U377">
-        <v>2.75</v>
-      </c>
-      <c r="V377">
-        <v>1.95</v>
-      </c>
       <c r="W377">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD377">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -36626,7 +36626,7 @@
         <v>45345.75</v>
       </c>
       <c r="E388" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F388" t="s">
         <v>72</v>
@@ -37365,7 +37365,7 @@
         <v>47</v>
       </c>
       <c r="F396" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G396">
         <v>3</v>
@@ -38006,7 +38006,7 @@
         <v>45352.75</v>
       </c>
       <c r="E403" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F403" t="s">
         <v>127</v>
@@ -39742,7 +39742,7 @@
         <v>45359.75</v>
       </c>
       <c r="E422" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F422" t="s">
         <v>70</v>
@@ -39917,7 +39917,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7930294</v>
+        <v>7930150</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -39926,82 +39926,82 @@
         <v>45359.79166666666</v>
       </c>
       <c r="E424" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F424" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="G424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I424">
         <v>0</v>
       </c>
       <c r="J424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K424" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L424">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="M424">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N424">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O424">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="P424">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q424">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="R424">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T424">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U424">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD424">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:30">
@@ -40009,7 +40009,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7930150</v>
+        <v>7930294</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -40018,82 +40018,82 @@
         <v>45359.79166666666</v>
       </c>
       <c r="E425" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="F425" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G425">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I425">
         <v>0</v>
       </c>
       <c r="J425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K425" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L425">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="M425">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N425">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O425">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="P425">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q425">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="R425">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="S425">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T425">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U425">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W425">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X425">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD425">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="426" spans="1:30">
@@ -41861,7 +41861,7 @@
         <v>125</v>
       </c>
       <c r="F445" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -43784,7 +43784,7 @@
         <v>45373.775</v>
       </c>
       <c r="E466" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F466" t="s">
         <v>129</v>
@@ -45069,7 +45069,7 @@
         <v>44</v>
       </c>
       <c r="F480" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -45713,7 +45713,7 @@
         <v>116</v>
       </c>
       <c r="F487" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G487">
         <v>2</v>
@@ -45885,7 +45885,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>8028224</v>
+        <v>8030092</v>
       </c>
       <c r="C489" t="s">
         <v>29</v>
@@ -45894,46 +45894,46 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E489" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F489" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G489">
         <v>1</v>
       </c>
       <c r="H489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K489" t="s">
         <v>219</v>
       </c>
       <c r="L489">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M489">
         <v>3.5</v>
       </c>
       <c r="N489">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O489">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P489">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q489">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="R489">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S489">
         <v>1.925</v>
@@ -45942,13 +45942,13 @@
         <v>1.875</v>
       </c>
       <c r="U489">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V489">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W489">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X489">
         <v>-1</v>
@@ -45957,19 +45957,19 @@
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="AA489">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB489">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC489">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD489">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:30">
@@ -45977,7 +45977,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>8030092</v>
+        <v>8028224</v>
       </c>
       <c r="C490" t="s">
         <v>29</v>
@@ -45986,46 +45986,46 @@
         <v>45381.83333333334</v>
       </c>
       <c r="E490" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F490" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="G490">
         <v>1</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K490" t="s">
         <v>219</v>
       </c>
       <c r="L490">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M490">
         <v>3.5</v>
       </c>
       <c r="N490">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O490">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P490">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q490">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="R490">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S490">
         <v>1.925</v>
@@ -46034,13 +46034,13 @@
         <v>1.875</v>
       </c>
       <c r="U490">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V490">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W490">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X490">
         <v>-1</v>
@@ -46049,19 +46049,19 @@
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="AA490">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC490">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD490">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:30">
@@ -46538,7 +46538,7 @@
         <v>45384.75</v>
       </c>
       <c r="E496" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F496" t="s">
         <v>110</v>
@@ -46722,7 +46722,7 @@
         <v>45387.75</v>
       </c>
       <c r="E498" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F498" t="s">
         <v>153</v>
@@ -47185,7 +47185,7 @@
         <v>136</v>
       </c>
       <c r="F503" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G503">
         <v>1</v>
@@ -47728,7 +47728,7 @@
         <v>45394.75</v>
       </c>
       <c r="E509" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F509" t="s">
         <v>83</v>
@@ -49185,7 +49185,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>8117198</v>
+        <v>8117199</v>
       </c>
       <c r="C525" t="s">
         <v>29</v>
@@ -49194,82 +49194,82 @@
         <v>45401.75</v>
       </c>
       <c r="E525" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F525" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G525">
         <v>0</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525">
         <v>0</v>
       </c>
       <c r="J525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K525" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L525">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="M525">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N525">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O525">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="P525">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q525">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="R525">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S525">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T525">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U525">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V525">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W525">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X525">
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z525">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA525">
         <v>-1</v>
       </c>
       <c r="AB525">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC525">
         <v>-1</v>
       </c>
       <c r="AD525">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:30">
@@ -49369,7 +49369,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>8117199</v>
+        <v>8117198</v>
       </c>
       <c r="C527" t="s">
         <v>29</v>
@@ -49378,82 +49378,82 @@
         <v>45401.75</v>
       </c>
       <c r="E527" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F527" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G527">
         <v>0</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527">
         <v>0</v>
       </c>
       <c r="J527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K527" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L527">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="M527">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N527">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O527">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="P527">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q527">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="R527">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S527">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T527">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U527">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V527">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W527">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X527">
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z527">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA527">
         <v>-1</v>
       </c>
       <c r="AB527">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC527">
         <v>-1</v>
       </c>
       <c r="AD527">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="528" spans="1:30">
@@ -49737,7 +49737,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>8121529</v>
+        <v>8123619</v>
       </c>
       <c r="C531" t="s">
         <v>29</v>
@@ -49746,13 +49746,13 @@
         <v>45402.79166666666</v>
       </c>
       <c r="E531" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="F531" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H531">
         <v>0</v>
@@ -49764,64 +49764,64 @@
         <v>0</v>
       </c>
       <c r="K531" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L531">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="M531">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="N531">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="O531">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="P531">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q531">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="R531">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S531">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T531">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U531">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V531">
+        <v>1.925</v>
+      </c>
+      <c r="W531">
         <v>1.875</v>
       </c>
-      <c r="W531">
-        <v>1.925</v>
-      </c>
       <c r="X531">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y531">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z531">
         <v>-1</v>
       </c>
       <c r="AA531">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB531">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC531">
         <v>-1</v>
       </c>
       <c r="AD531">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="532" spans="1:30">
@@ -49829,7 +49829,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>8123619</v>
+        <v>8121529</v>
       </c>
       <c r="C532" t="s">
         <v>29</v>
@@ -49838,13 +49838,13 @@
         <v>45402.79166666666</v>
       </c>
       <c r="E532" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F532" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0</v>
@@ -49856,64 +49856,64 @@
         <v>0</v>
       </c>
       <c r="K532" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L532">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="M532">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="N532">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="O532">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="P532">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q532">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="R532">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S532">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T532">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U532">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V532">
+        <v>1.875</v>
+      </c>
+      <c r="W532">
         <v>1.925</v>
       </c>
-      <c r="W532">
-        <v>1.875</v>
-      </c>
       <c r="X532">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y532">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB532">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC532">
         <v>-1</v>
       </c>
       <c r="AD532">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="533" spans="1:30">
@@ -50298,7 +50298,7 @@
         <v>45406.75</v>
       </c>
       <c r="E537" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F537" t="s">
         <v>53</v>
@@ -50565,7 +50565,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>8136732</v>
+        <v>8136728</v>
       </c>
       <c r="C540" t="s">
         <v>29</v>
@@ -50574,82 +50574,82 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E540" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="F540" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="G540">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H540">
         <v>2</v>
       </c>
       <c r="I540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K540" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L540">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M540">
         <v>3.5</v>
       </c>
       <c r="N540">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O540">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P540">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q540">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="R540">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S540">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T540">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U540">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V540">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W540">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X540">
         <v>-1</v>
       </c>
       <c r="Y540">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z540">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA540">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB540">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AC540">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD540">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="541" spans="1:30">
@@ -50657,7 +50657,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>8136728</v>
+        <v>8136727</v>
       </c>
       <c r="C541" t="s">
         <v>29</v>
@@ -50666,16 +50666,16 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E541" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F541" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G541">
         <v>0</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I541">
         <v>0</v>
@@ -50687,40 +50687,40 @@
         <v>219</v>
       </c>
       <c r="L541">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M541">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N541">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="O541">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="P541">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q541">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="R541">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S541">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T541">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U541">
         <v>3</v>
       </c>
       <c r="V541">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W541">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X541">
         <v>-1</v>
@@ -50729,19 +50729,19 @@
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>1.55</v>
+        <v>0.363</v>
       </c>
       <c r="AA541">
         <v>-1</v>
       </c>
       <c r="AB541">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC541">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD541">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:30">
@@ -50749,7 +50749,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>8136727</v>
+        <v>8136732</v>
       </c>
       <c r="C542" t="s">
         <v>29</v>
@@ -50758,79 +50758,79 @@
         <v>45406.79166666666</v>
       </c>
       <c r="E542" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F542" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="G542">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H542">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K542" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L542">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M542">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N542">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O542">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="P542">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q542">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="R542">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S542">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T542">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U542">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V542">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W542">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X542">
         <v>-1</v>
       </c>
       <c r="Y542">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z542">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA542">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB542">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC542">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD542">
         <v>-1</v>
@@ -51037,7 +51037,7 @@
         <v>54</v>
       </c>
       <c r="F545" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G545">
         <v>4</v>
@@ -51681,7 +51681,7 @@
         <v>53</v>
       </c>
       <c r="F552" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G552">
         <v>2</v>
@@ -53233,7 +53233,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>8181040</v>
+        <v>8181042</v>
       </c>
       <c r="C569" t="s">
         <v>29</v>
@@ -53242,19 +53242,19 @@
         <v>45416.91666666666</v>
       </c>
       <c r="E569" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F569" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G569">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H569">
         <v>0</v>
       </c>
       <c r="I569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569">
         <v>0</v>
@@ -53263,43 +53263,43 @@
         <v>217</v>
       </c>
       <c r="L569">
+        <v>1.727</v>
+      </c>
+      <c r="M569">
+        <v>3.5</v>
+      </c>
+      <c r="N569">
+        <v>4</v>
+      </c>
+      <c r="O569">
+        <v>1.85</v>
+      </c>
+      <c r="P569">
+        <v>3.2</v>
+      </c>
+      <c r="Q569">
+        <v>3.8</v>
+      </c>
+      <c r="R569">
+        <v>-0.5</v>
+      </c>
+      <c r="S569">
+        <v>1.85</v>
+      </c>
+      <c r="T569">
         <v>1.95</v>
-      </c>
-      <c r="M569">
-        <v>3.3</v>
-      </c>
-      <c r="N569">
-        <v>3.5</v>
-      </c>
-      <c r="O569">
-        <v>2.15</v>
-      </c>
-      <c r="P569">
-        <v>3.1</v>
-      </c>
-      <c r="Q569">
-        <v>3.3</v>
-      </c>
-      <c r="R569">
-        <v>-0.25</v>
-      </c>
-      <c r="S569">
-        <v>1.825</v>
-      </c>
-      <c r="T569">
-        <v>1.975</v>
       </c>
       <c r="U569">
         <v>2.5</v>
       </c>
       <c r="V569">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W569">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X569">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y569">
         <v>-1</v>
@@ -53308,7 +53308,7 @@
         <v>-1</v>
       </c>
       <c r="AA569">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB569">
         <v>-1</v>
@@ -53317,7 +53317,7 @@
         <v>-1</v>
       </c>
       <c r="AD569">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="570" spans="1:30">
@@ -53325,7 +53325,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>8181042</v>
+        <v>8181040</v>
       </c>
       <c r="C570" t="s">
         <v>29</v>
@@ -53334,19 +53334,19 @@
         <v>45416.91666666666</v>
       </c>
       <c r="E570" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F570" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H570">
         <v>0</v>
       </c>
       <c r="I570">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J570">
         <v>0</v>
@@ -53355,43 +53355,43 @@
         <v>217</v>
       </c>
       <c r="L570">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="M570">
+        <v>3.3</v>
+      </c>
+      <c r="N570">
         <v>3.5</v>
       </c>
-      <c r="N570">
-        <v>4</v>
-      </c>
       <c r="O570">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P570">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q570">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="R570">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S570">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T570">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U570">
         <v>2.5</v>
       </c>
       <c r="V570">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W570">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X570">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Y570">
         <v>-1</v>
@@ -53400,7 +53400,7 @@
         <v>-1</v>
       </c>
       <c r="AA570">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB570">
         <v>-1</v>
@@ -53409,7 +53409,7 @@
         <v>-1</v>
       </c>
       <c r="AD570">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="571" spans="1:30">

--- a/Mexico Liga TDP/Mexico Liga TDP.xlsx
+++ b/Mexico Liga TDP/Mexico Liga TDP.xlsx
@@ -142,10 +142,10 @@
     <t>CD Novillos Neza</t>
   </si>
   <si>
-    <t>CH Ftbol Club</t>
+    <t>Corsarios de Campeche</t>
   </si>
   <si>
-    <t>Corsarios de Campeche</t>
+    <t>CH Ftbol Club</t>
   </si>
   <si>
     <t>Hroes de Zaci FC</t>
@@ -190,10 +190,10 @@
     <t>Campeche FC Nueva Generacin</t>
   </si>
   <si>
-    <t>Promodep Central AC</t>
+    <t>FC San Jos del Arenal</t>
   </si>
   <si>
-    <t>FC San Jos del Arenal</t>
+    <t>Promodep Central AC</t>
   </si>
   <si>
     <t>Real San Cosme</t>
@@ -202,10 +202,10 @@
     <t>SK Sport Street Soccer FC</t>
   </si>
   <si>
-    <t>CD FC Cuervos Blancos</t>
+    <t>CF Pachuca III</t>
   </si>
   <si>
-    <t>CF Pachuca III</t>
+    <t>CD FC Cuervos Blancos</t>
   </si>
   <si>
     <t>Club Atltico San Juan de Aragn II</t>
@@ -331,10 +331,10 @@
     <t>Titanes de Queretaro</t>
   </si>
   <si>
-    <t>Delfines UGM</t>
+    <t>Club Deportivo guila Azteca</t>
   </si>
   <si>
-    <t>Club Deportivo guila Azteca</t>
+    <t>Delfines UGM</t>
   </si>
   <si>
     <t>Mineros Queretaro</t>
@@ -2067,7 +2067,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7214049</v>
+        <v>7214065</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2251,76 +2251,76 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="O14">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD14">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7214065</v>
+        <v>7214049</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -2343,76 +2343,76 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L15">
-        <v>4.5</v>
-      </c>
-      <c r="M15">
-        <v>3.6</v>
-      </c>
-      <c r="N15">
-        <v>1.615</v>
-      </c>
       <c r="O15">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD15">
         <v>-1</v>
@@ -3251,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7242479</v>
+        <v>7242660</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -3260,82 +3260,82 @@
         <v>45191.75</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25">
+        <v>1.571</v>
+      </c>
+      <c r="M25">
+        <v>4.2</v>
+      </c>
+      <c r="N25">
+        <v>4.333</v>
+      </c>
+      <c r="O25">
+        <v>1.666</v>
+      </c>
+      <c r="P25">
         <v>4</v>
       </c>
-      <c r="K25" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25">
-        <v>3.1</v>
-      </c>
-      <c r="M25">
-        <v>3.75</v>
-      </c>
-      <c r="N25">
-        <v>1.909</v>
-      </c>
-      <c r="O25">
-        <v>3.1</v>
-      </c>
-      <c r="P25">
-        <v>3.75</v>
-      </c>
       <c r="Q25">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3343,7 +3343,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7242660</v>
+        <v>7242479</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -3352,82 +3352,82 @@
         <v>45191.75</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R26">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
+        <v>1.975</v>
+      </c>
+      <c r="U26">
+        <v>2.75</v>
+      </c>
+      <c r="V26">
+        <v>1.75</v>
+      </c>
+      <c r="W26">
         <v>1.95</v>
       </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
-      <c r="W26">
-        <v>1.875</v>
-      </c>
       <c r="X26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA26">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3723,7 +3723,7 @@
         <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4171,7 +4171,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7246962</v>
+        <v>7246963</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -4183,59 +4183,59 @@
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>219</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O35">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q35">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>1.85</v>
+      </c>
+      <c r="U35">
+        <v>3.25</v>
+      </c>
+      <c r="V35">
         <v>1.9</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>1.9</v>
       </c>
-      <c r="U35">
-        <v>2.75</v>
-      </c>
-      <c r="V35">
-        <v>1.825</v>
-      </c>
-      <c r="W35">
-        <v>1.975</v>
-      </c>
       <c r="X35">
         <v>-1</v>
       </c>
@@ -4243,19 +4243,19 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD35">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -4263,7 +4263,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7246963</v>
+        <v>7246962</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -4275,58 +4275,58 @@
         <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>3</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>219</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P36">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -4335,19 +4335,19 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD36">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4735,7 +4735,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7273616</v>
+        <v>7273614</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4827,79 +4827,79 @@
         <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L42">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M42">
         <v>3.5</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="R42">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X42">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4907,7 +4907,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7273614</v>
+        <v>7273616</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4919,79 +4919,79 @@
         <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L43">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="M43">
         <v>3.5</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O43">
+        <v>1.615</v>
+      </c>
+      <c r="P43">
+        <v>3.6</v>
+      </c>
+      <c r="Q43">
+        <v>4.75</v>
+      </c>
+      <c r="R43">
+        <v>-0.75</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="P43">
-        <v>3.5</v>
-      </c>
-      <c r="Q43">
-        <v>3.75</v>
-      </c>
-      <c r="R43">
-        <v>-0.5</v>
-      </c>
-      <c r="S43">
-        <v>1.85</v>
-      </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -5103,7 +5103,7 @@
         <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -5376,7 +5376,7 @@
         <v>45198.75</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
         <v>99</v>
@@ -5919,7 +5919,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7278041</v>
+        <v>7278040</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5928,82 +5928,82 @@
         <v>45199.79166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L54">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="P54">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q54">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S54">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -6011,7 +6011,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7278040</v>
+        <v>7278041</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -6020,82 +6020,82 @@
         <v>45199.79166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L55">
+        <v>2.1</v>
+      </c>
+      <c r="M55">
+        <v>3.3</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>2.7</v>
+      </c>
+      <c r="P55">
+        <v>3.3</v>
+      </c>
+      <c r="Q55">
+        <v>2.25</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>2.075</v>
+      </c>
+      <c r="T55">
+        <v>1.725</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
         <v>1.8</v>
       </c>
-      <c r="M55">
-        <v>3.2</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
-      <c r="O55">
-        <v>1.8</v>
-      </c>
-      <c r="P55">
-        <v>3.2</v>
-      </c>
-      <c r="Q55">
-        <v>4</v>
-      </c>
-      <c r="R55">
+      <c r="W55">
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>1.25</v>
+      </c>
+      <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AC55">
+        <v>0.4</v>
+      </c>
+      <c r="AD55">
         <v>-0.5</v>
-      </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
-      <c r="T55">
-        <v>1.95</v>
-      </c>
-      <c r="U55">
-        <v>2.5</v>
-      </c>
-      <c r="V55">
-        <v>1.85</v>
-      </c>
-      <c r="W55">
-        <v>1.95</v>
-      </c>
-      <c r="X55">
-        <v>0.8</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
-      </c>
-      <c r="AD55">
-        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -6299,7 +6299,7 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6661,7 +6661,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6842,7 +6842,7 @@
         <v>45205.75</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
         <v>46</v>
@@ -6937,7 +6937,7 @@
         <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>56</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>45206.79166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
         <v>37</v>
@@ -7765,7 +7765,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -8038,7 +8038,7 @@
         <v>45207.67361111111</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
@@ -8406,7 +8406,7 @@
         <v>45212.55208333334</v>
       </c>
       <c r="E81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
         <v>61</v>
@@ -8673,7 +8673,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7335321</v>
+        <v>7335404</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8682,13 +8682,13 @@
         <v>45212.75</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8697,67 +8697,67 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L84">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M84">
         <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P84">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U84">
         <v>2.75</v>
       </c>
       <c r="V84">
+        <v>1.825</v>
+      </c>
+      <c r="W84">
         <v>1.975</v>
       </c>
-      <c r="W84">
-        <v>1.825</v>
-      </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
+        <v>1.05</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
+        <v>0.4125</v>
+      </c>
+      <c r="AD84">
         <v>-0.5</v>
-      </c>
-      <c r="AB84">
-        <v>0.4625</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
-      </c>
-      <c r="AD84">
-        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8765,7 +8765,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7335404</v>
+        <v>7335321</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8774,13 +8774,13 @@
         <v>45212.75</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8789,67 +8789,67 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L85">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M85">
         <v>3.5</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q85">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U85">
         <v>2.75</v>
       </c>
       <c r="V85">
+        <v>1.975</v>
+      </c>
+      <c r="W85">
         <v>1.825</v>
       </c>
-      <c r="W85">
-        <v>1.975</v>
-      </c>
       <c r="X85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8949,7 +8949,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7336548</v>
+        <v>7336547</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8958,82 +8958,82 @@
         <v>45212.83333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L87">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O87">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="R87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U87">
         <v>2.75</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -9041,7 +9041,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7336547</v>
+        <v>7336548</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -9050,82 +9050,82 @@
         <v>45212.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O88">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="R88">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
         <v>1.8</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
       </c>
       <c r="U88">
         <v>2.75</v>
       </c>
       <c r="V88">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X88">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA88">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
+        <v>0.8</v>
+      </c>
+      <c r="AC88">
+        <v>0.45</v>
+      </c>
+      <c r="AD88">
         <v>-0.5</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
-      </c>
-      <c r="AD88">
-        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -9881,7 +9881,7 @@
         <v>72</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         <v>73</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G102">
         <v>5</v>
@@ -10614,7 +10614,7 @@
         <v>45219.75</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
         <v>45</v>
@@ -11065,7 +11065,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7369154</v>
+        <v>7369105</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -11074,55 +11074,55 @@
         <v>45220.75</v>
       </c>
       <c r="E110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F110" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M110">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O110">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="P110">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q110">
+        <v>1.363</v>
+      </c>
+      <c r="R110">
+        <v>1.5</v>
+      </c>
+      <c r="S110">
+        <v>1.75</v>
+      </c>
+      <c r="T110">
+        <v>1.95</v>
+      </c>
+      <c r="U110">
         <v>2.75</v>
-      </c>
-      <c r="R110">
-        <v>-0.25</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>1.8</v>
-      </c>
-      <c r="U110">
-        <v>3</v>
       </c>
       <c r="V110">
         <v>1.8</v>
@@ -11131,19 +11131,19 @@
         <v>2</v>
       </c>
       <c r="X110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -11157,7 +11157,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7369117</v>
+        <v>7369154</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -11166,19 +11166,19 @@
         <v>45220.75</v>
       </c>
       <c r="E111" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F111" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="G111">
         <v>2</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -11187,43 +11187,43 @@
         <v>217</v>
       </c>
       <c r="L111">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M111">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q111">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="R111">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2</v>
-      </c>
       <c r="U111">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X111">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="Y111">
         <v>-1</v>
@@ -11232,16 +11232,16 @@
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD111">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -11249,7 +11249,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7369105</v>
+        <v>7369117</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -11258,82 +11258,82 @@
         <v>45220.75</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L112">
+        <v>1.615</v>
+      </c>
+      <c r="M112">
+        <v>3.6</v>
+      </c>
+      <c r="N112">
         <v>5</v>
       </c>
-      <c r="M112">
-        <v>4</v>
-      </c>
-      <c r="N112">
-        <v>1.533</v>
-      </c>
       <c r="O112">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="P112">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q112">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="R112">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>2.5</v>
+      </c>
+      <c r="V112">
+        <v>1.85</v>
+      </c>
+      <c r="W112">
         <v>1.95</v>
       </c>
-      <c r="U112">
-        <v>2.75</v>
-      </c>
-      <c r="V112">
-        <v>1.8</v>
-      </c>
-      <c r="W112">
-        <v>2</v>
-      </c>
       <c r="X112">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD112">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -12178,7 +12178,7 @@
         <v>45226.54166666666</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F122" t="s">
         <v>40</v>
@@ -12270,7 +12270,7 @@
         <v>45226.55902777778</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F123" t="s">
         <v>100</v>
@@ -13095,7 +13095,7 @@
         <v>70</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -13187,7 +13187,7 @@
         <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -14472,7 +14472,7 @@
         <v>45233.75</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
         <v>180</v>
@@ -14564,7 +14564,7 @@
         <v>45233.75</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
         <v>125</v>
@@ -15475,7 +15475,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7425473</v>
+        <v>7429969</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -15484,82 +15484,82 @@
         <v>45234.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q158">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="R158">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15567,7 +15567,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7429969</v>
+        <v>7425473</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15576,82 +15576,82 @@
         <v>45234.79166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L159">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="M159">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O159">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P159">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q159">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="R159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z159">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -16315,7 +16315,7 @@
         <v>77</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G167">
         <v>4</v>
@@ -16395,7 +16395,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7447277</v>
+        <v>7447275</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -16404,13 +16404,13 @@
         <v>45237.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -16425,43 +16425,43 @@
         <v>217</v>
       </c>
       <c r="L168">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="N168">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O168">
-        <v>1.333</v>
+        <v>1.035</v>
       </c>
       <c r="P168">
-        <v>4.333</v>
+        <v>19</v>
       </c>
       <c r="Q168">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="R168">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U168">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X168">
-        <v>0.333</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -16470,16 +16470,16 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD168">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16579,7 +16579,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7447275</v>
+        <v>7447277</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16588,13 +16588,13 @@
         <v>45237.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G170">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -16609,43 +16609,43 @@
         <v>217</v>
       </c>
       <c r="L170">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M170">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O170">
-        <v>1.035</v>
+        <v>1.333</v>
       </c>
       <c r="P170">
-        <v>19</v>
+        <v>4.333</v>
       </c>
       <c r="Q170">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="R170">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U170">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X170">
-        <v>0.03499999999999992</v>
+        <v>0.333</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -16654,16 +16654,16 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC170">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD170">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16855,7 +16855,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7450086</v>
+        <v>7448459</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16867,61 +16867,61 @@
         <v>105</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="s">
         <v>217</v>
       </c>
       <c r="L173">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="M173">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="N173">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="O173">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="P173">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="R173">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S173">
+        <v>1.875</v>
+      </c>
+      <c r="T173">
+        <v>1.925</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
         <v>1.9</v>
       </c>
-      <c r="T173">
+      <c r="W173">
         <v>1.9</v>
       </c>
-      <c r="U173">
-        <v>3.75</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>1.975</v>
-      </c>
       <c r="X173">
-        <v>0.1419999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -16930,16 +16930,16 @@
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.875</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
-      </c>
       <c r="AD173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -17039,7 +17039,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7448459</v>
+        <v>7450086</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -17051,61 +17051,61 @@
         <v>106</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="s">
         <v>217</v>
       </c>
       <c r="L175">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="M175">
+        <v>5.75</v>
+      </c>
+      <c r="N175">
+        <v>7</v>
+      </c>
+      <c r="O175">
+        <v>1.142</v>
+      </c>
+      <c r="P175">
+        <v>7.5</v>
+      </c>
+      <c r="Q175">
+        <v>13</v>
+      </c>
+      <c r="R175">
+        <v>-2.5</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
+        <v>1.9</v>
+      </c>
+      <c r="U175">
         <v>3.75</v>
       </c>
-      <c r="N175">
-        <v>3.75</v>
-      </c>
-      <c r="O175">
-        <v>1.666</v>
-      </c>
-      <c r="P175">
-        <v>3.8</v>
-      </c>
-      <c r="Q175">
-        <v>4</v>
-      </c>
-      <c r="R175">
-        <v>-0.75</v>
-      </c>
-      <c r="S175">
-        <v>1.875</v>
-      </c>
-      <c r="T175">
-        <v>1.925</v>
-      </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X175">
-        <v>0.6659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -17114,16 +17114,16 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -17131,7 +17131,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7448982</v>
+        <v>7447316</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -17140,19 +17140,19 @@
         <v>45237.79166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -17161,43 +17161,43 @@
         <v>217</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="M176">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O176">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="P176">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R176">
         <v>-2.25</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U176">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X176">
-        <v>0.1419999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -17206,16 +17206,16 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -17223,7 +17223,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7447316</v>
+        <v>7448982</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -17232,19 +17232,19 @@
         <v>45237.79166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F177" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -17253,43 +17253,43 @@
         <v>217</v>
       </c>
       <c r="L177">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="M177">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
+        <v>3.1</v>
+      </c>
+      <c r="O177">
+        <v>1.142</v>
+      </c>
+      <c r="P177">
         <v>7</v>
       </c>
-      <c r="O177">
-        <v>1.125</v>
-      </c>
-      <c r="P177">
-        <v>7.5</v>
-      </c>
       <c r="Q177">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R177">
         <v>-2.25</v>
       </c>
       <c r="S177">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X177">
-        <v>0.125</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -17298,16 +17298,16 @@
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17876,7 +17876,7 @@
         <v>45240.54166666666</v>
       </c>
       <c r="E184" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F184" t="s">
         <v>71</v>
@@ -17959,7 +17959,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7459226</v>
+        <v>7461148</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17968,82 +17968,82 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E185" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="F185" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L185">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="M185">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N185">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O185">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q185">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="R185">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U185">
         <v>3</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z185">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -18051,7 +18051,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7461148</v>
+        <v>7459226</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -18060,82 +18060,82 @@
         <v>45240.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186">
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="M186">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="O186">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="P186">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q186">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="R186">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S186">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U186">
         <v>3</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -18155,7 +18155,7 @@
         <v>98</v>
       </c>
       <c r="F187" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>45240.75</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
         <v>44</v>
@@ -20176,7 +20176,7 @@
         <v>45245.75</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
         <v>166</v>
@@ -20268,7 +20268,7 @@
         <v>45245.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F210" t="s">
         <v>127</v>
@@ -20443,7 +20443,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7486113</v>
+        <v>7486567</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20452,10 +20452,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20473,43 +20473,43 @@
         <v>217</v>
       </c>
       <c r="L212">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M212">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="P212">
+        <v>4.75</v>
+      </c>
+      <c r="Q212">
+        <v>6</v>
+      </c>
+      <c r="R212">
+        <v>-1.5</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>1.825</v>
+      </c>
+      <c r="U212">
         <v>3.25</v>
       </c>
-      <c r="Q212">
-        <v>2.1</v>
-      </c>
-      <c r="R212">
-        <v>0.25</v>
-      </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>1.925</v>
-      </c>
-      <c r="U212">
-        <v>2.5</v>
-      </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X212">
-        <v>2</v>
+        <v>0.363</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20518,16 +20518,16 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC212">
         <v>-1</v>
       </c>
       <c r="AD212">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20627,7 +20627,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7486567</v>
+        <v>7486113</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20636,10 +20636,10 @@
         <v>45247.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F214" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20657,43 +20657,43 @@
         <v>217</v>
       </c>
       <c r="L214">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O214">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q214">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="R214">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X214">
-        <v>0.363</v>
+        <v>2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -20702,16 +20702,16 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20823,7 +20823,7 @@
         <v>66</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -20903,7 +20903,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7486519</v>
+        <v>7486319</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20912,52 +20912,46 @@
         <v>45247.75</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F217" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217">
-        <v>3</v>
-      </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
-      <c r="J217">
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L217">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="M217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N217">
+        <v>2.9</v>
+      </c>
+      <c r="O217">
         <v>1.833</v>
       </c>
-      <c r="O217">
-        <v>3.3</v>
-      </c>
       <c r="P217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q217">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="R217">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S217">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
         <v>2.75</v>
@@ -20969,25 +20963,25 @@
         <v>1.9</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AD217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20995,7 +20989,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7486319</v>
+        <v>7486578</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -21004,76 +20998,82 @@
         <v>45247.75</v>
       </c>
       <c r="E218" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="G218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
       </c>
       <c r="K218" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L218">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N218">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="O218">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="P218">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q218">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="R218">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AA218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC218">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD218">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21081,7 +21081,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7486578</v>
+        <v>7486519</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -21090,61 +21090,61 @@
         <v>45247.75</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K219" t="s">
         <v>219</v>
       </c>
       <c r="L219">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N219">
-        <v>10</v>
+        <v>1.833</v>
       </c>
       <c r="O219">
-        <v>1.142</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="R219">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="S219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -21153,19 +21153,19 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>11</v>
+        <v>0.833</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD219">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -22090,7 +22090,7 @@
         <v>45248.79166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F230" t="s">
         <v>110</v>
@@ -22826,7 +22826,7 @@
         <v>45251.54166666666</v>
       </c>
       <c r="E238" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F238" t="s">
         <v>73</v>
@@ -23565,7 +23565,7 @@
         <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -23657,7 +23657,7 @@
         <v>50</v>
       </c>
       <c r="F247" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7515310</v>
+        <v>7515308</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23838,19 +23838,19 @@
         <v>45254.75</v>
       </c>
       <c r="E249" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F249" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
         <v>0</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -23859,43 +23859,43 @@
         <v>217</v>
       </c>
       <c r="L249">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M249">
+        <v>3.3</v>
+      </c>
+      <c r="N249">
+        <v>2.2</v>
+      </c>
+      <c r="O249">
+        <v>2.1</v>
+      </c>
+      <c r="P249">
         <v>3.4</v>
       </c>
-      <c r="N249">
-        <v>3.2</v>
-      </c>
-      <c r="O249">
-        <v>2.05</v>
-      </c>
-      <c r="P249">
-        <v>3.3</v>
-      </c>
       <c r="Q249">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="R249">
         <v>-0.25</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U249">
         <v>2.75</v>
       </c>
       <c r="V249">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W249">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X249">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23904,7 +23904,7 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB249">
         <v>-1</v>
@@ -23913,7 +23913,7 @@
         <v>-1</v>
       </c>
       <c r="AD249">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23921,7 +23921,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7515308</v>
+        <v>7515310</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23930,19 +23930,19 @@
         <v>45254.75</v>
       </c>
       <c r="E250" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F250" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -23951,43 +23951,43 @@
         <v>217</v>
       </c>
       <c r="L250">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M250">
+        <v>3.4</v>
+      </c>
+      <c r="N250">
+        <v>3.2</v>
+      </c>
+      <c r="O250">
+        <v>2.05</v>
+      </c>
+      <c r="P250">
         <v>3.3</v>
       </c>
-      <c r="N250">
-        <v>2.2</v>
-      </c>
-      <c r="O250">
-        <v>2.1</v>
-      </c>
-      <c r="P250">
-        <v>3.4</v>
-      </c>
       <c r="Q250">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R250">
         <v>-0.25</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U250">
         <v>2.75</v>
       </c>
       <c r="V250">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W250">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X250">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y250">
         <v>-1</v>
@@ -23996,7 +23996,7 @@
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
         <v>-1</v>
@@ -24005,7 +24005,7 @@
         <v>-1</v>
       </c>
       <c r="AD250">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -24482,7 +24482,7 @@
         <v>45255.79861111111</v>
       </c>
       <c r="E256" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F256" t="s">
         <v>49</v>
@@ -25402,7 +25402,7 @@
         <v>45261.55555555555</v>
       </c>
       <c r="E266" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F266" t="s">
         <v>68</v>
@@ -25577,7 +25577,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7544686</v>
+        <v>7542356</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25586,82 +25586,82 @@
         <v>45261.75</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F268" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268" t="s">
         <v>218</v>
       </c>
       <c r="L268">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M268">
+        <v>4.5</v>
+      </c>
+      <c r="N268">
+        <v>6</v>
+      </c>
+      <c r="O268">
+        <v>1.4</v>
+      </c>
+      <c r="P268">
+        <v>4.5</v>
+      </c>
+      <c r="Q268">
+        <v>6</v>
+      </c>
+      <c r="R268">
+        <v>-1.25</v>
+      </c>
+      <c r="S268">
+        <v>1.85</v>
+      </c>
+      <c r="T268">
+        <v>1.95</v>
+      </c>
+      <c r="U268">
+        <v>2.75</v>
+      </c>
+      <c r="V268">
+        <v>1.8</v>
+      </c>
+      <c r="W268">
+        <v>2</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
         <v>3.5</v>
       </c>
-      <c r="N268">
-        <v>3.4</v>
-      </c>
-      <c r="O268">
-        <v>2.25</v>
-      </c>
-      <c r="P268">
-        <v>3.3</v>
-      </c>
-      <c r="Q268">
-        <v>2.75</v>
-      </c>
-      <c r="R268">
-        <v>-0.25</v>
-      </c>
-      <c r="S268">
-        <v>2</v>
-      </c>
-      <c r="T268">
-        <v>1.8</v>
-      </c>
-      <c r="U268">
-        <v>3</v>
-      </c>
-      <c r="V268">
-        <v>1.95</v>
-      </c>
-      <c r="W268">
-        <v>1.85</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>2.3</v>
-      </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25669,7 +25669,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7542356</v>
+        <v>7544686</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25678,82 +25678,82 @@
         <v>45261.75</v>
       </c>
       <c r="E269" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F269" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
         <v>218</v>
       </c>
       <c r="L269">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M269">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O269">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="P269">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q269">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="R269">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S269">
+        <v>2</v>
+      </c>
+      <c r="T269">
+        <v>1.8</v>
+      </c>
+      <c r="U269">
+        <v>3</v>
+      </c>
+      <c r="V269">
+        <v>1.95</v>
+      </c>
+      <c r="W269">
         <v>1.85</v>
       </c>
-      <c r="T269">
-        <v>1.95</v>
-      </c>
-      <c r="U269">
-        <v>2.75</v>
-      </c>
-      <c r="V269">
-        <v>1.8</v>
-      </c>
-      <c r="W269">
-        <v>2</v>
-      </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC269">
         <v>-1</v>
       </c>
       <c r="AD269">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -26313,7 +26313,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7542357</v>
+        <v>7542355</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -26322,10 +26322,10 @@
         <v>45262.79166666666</v>
       </c>
       <c r="E276" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F276" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -26343,40 +26343,40 @@
         <v>219</v>
       </c>
       <c r="L276">
+        <v>3.4</v>
+      </c>
+      <c r="M276">
+        <v>3.4</v>
+      </c>
+      <c r="N276">
+        <v>1.909</v>
+      </c>
+      <c r="O276">
+        <v>4</v>
+      </c>
+      <c r="P276">
         <v>3.5</v>
       </c>
-      <c r="M276">
-        <v>3.75</v>
-      </c>
-      <c r="N276">
-        <v>1.8</v>
-      </c>
-      <c r="O276">
-        <v>4.5</v>
-      </c>
-      <c r="P276">
-        <v>4.333</v>
-      </c>
       <c r="Q276">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="R276">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S276">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T276">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U276">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -26385,16 +26385,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.55</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC276">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD276">
         <v>-1</v>
@@ -26405,7 +26405,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7542652</v>
+        <v>7542357</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -26414,16 +26414,16 @@
         <v>45262.79166666666</v>
       </c>
       <c r="E277" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F277" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="G277">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -26432,61 +26432,61 @@
         <v>0</v>
       </c>
       <c r="K277" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L277">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N277">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="O277">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="P277">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q277">
-        <v>8.5</v>
+        <v>1.55</v>
       </c>
       <c r="R277">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U277">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X277">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC277">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD277">
         <v>-1</v>
@@ -26497,7 +26497,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7542355</v>
+        <v>7542652</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -26506,16 +26506,16 @@
         <v>45262.79166666666</v>
       </c>
       <c r="E278" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -26524,61 +26524,61 @@
         <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L278">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="M278">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N278">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="P278">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q278">
-        <v>1.727</v>
+        <v>8.5</v>
       </c>
       <c r="R278">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T278">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U278">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V278">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
         <v>1.95</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD278">
         <v>-1</v>
@@ -27150,7 +27150,7 @@
         <v>45268.54166666666</v>
       </c>
       <c r="E285" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F285" t="s">
         <v>64</v>
@@ -27429,7 +27429,7 @@
         <v>97</v>
       </c>
       <c r="F288" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -27702,7 +27702,7 @@
         <v>45268.75</v>
       </c>
       <c r="E291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
         <v>163</v>
@@ -28245,7 +28245,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7571983</v>
+        <v>7568065</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -28254,46 +28254,46 @@
         <v>45269.79166666666</v>
       </c>
       <c r="E297" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F297" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H297">
         <v>2</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K297" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="M297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N297">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="O297">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="P297">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q297">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="R297">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S297">
         <v>1.9</v>
@@ -28302,34 +28302,34 @@
         <v>1.9</v>
       </c>
       <c r="U297">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -28337,7 +28337,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7568065</v>
+        <v>7571983</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -28346,46 +28346,46 @@
         <v>45269.79166666666</v>
       </c>
       <c r="E298" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F298" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="G298">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H298">
         <v>2</v>
       </c>
       <c r="I298">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K298" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="M298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N298">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="P298">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q298">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="R298">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S298">
         <v>1.9</v>
@@ -28394,34 +28394,34 @@
         <v>1.9</v>
       </c>
       <c r="U298">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W298">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X298">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA298">
+        <v>-1</v>
+      </c>
+      <c r="AB298">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB298">
-        <v>-1</v>
-      </c>
       <c r="AC298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:30">
@@ -28898,7 +28898,7 @@
         <v>45310.75</v>
       </c>
       <c r="E304" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F304" t="s">
         <v>123</v>
@@ -28990,7 +28990,7 @@
         <v>45310.77083333334</v>
       </c>
       <c r="E305" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F305" t="s">
         <v>78</v>
@@ -29257,7 +29257,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7722020</v>
+        <v>7717830</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -29266,19 +29266,19 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F308" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="G308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H308">
         <v>1</v>
       </c>
       <c r="I308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J308">
         <v>1</v>
@@ -29287,43 +29287,43 @@
         <v>217</v>
       </c>
       <c r="L308">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M308">
+        <v>3.3</v>
+      </c>
+      <c r="N308">
         <v>4</v>
       </c>
-      <c r="N308">
-        <v>7</v>
-      </c>
       <c r="O308">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="P308">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q308">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="R308">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T308">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U308">
         <v>3.25</v>
       </c>
       <c r="V308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W308">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X308">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Y308">
         <v>-1</v>
@@ -29332,16 +29332,16 @@
         <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC308">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD308">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -29349,7 +29349,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7717830</v>
+        <v>7722020</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -29358,19 +29358,19 @@
         <v>45311.79166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F309" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -29379,43 +29379,43 @@
         <v>217</v>
       </c>
       <c r="L309">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N309">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O309">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="P309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q309">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="R309">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="S309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T309">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U309">
         <v>3.25</v>
       </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X309">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -29424,16 +29424,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -30646,7 +30646,7 @@
         <v>45318.79166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F323" t="s">
         <v>40</v>
@@ -30925,7 +30925,7 @@
         <v>126</v>
       </c>
       <c r="F326" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G326">
         <v>3</v>
@@ -31017,7 +31017,7 @@
         <v>37</v>
       </c>
       <c r="F327" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -31281,7 +31281,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7776423</v>
+        <v>7776677</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -31290,40 +31290,40 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E330" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F330" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="G330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K330" t="s">
         <v>217</v>
       </c>
       <c r="L330">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M330">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N330">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P330">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q330">
         <v>1.5</v>
@@ -31332,22 +31332,22 @@
         <v>1</v>
       </c>
       <c r="S330">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T330">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U330">
         <v>3</v>
       </c>
       <c r="V330">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W330">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X330">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y330">
         <v>-1</v>
@@ -31356,16 +31356,16 @@
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB330">
         <v>-1</v>
       </c>
       <c r="AC330">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -31373,7 +31373,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7776677</v>
+        <v>7776423</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -31382,40 +31382,40 @@
         <v>45324.54166666666</v>
       </c>
       <c r="E331" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F331" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="G331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K331" t="s">
         <v>217</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M331">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N331">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O331">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P331">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q331">
         <v>1.5</v>
@@ -31424,22 +31424,22 @@
         <v>1</v>
       </c>
       <c r="S331">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U331">
         <v>3</v>
       </c>
       <c r="V331">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W331">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X331">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y331">
         <v>-1</v>
@@ -31448,16 +31448,16 @@
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB331">
         <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:30">
@@ -31569,7 +31569,7 @@
         <v>78</v>
       </c>
       <c r="F333" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G333">
         <v>4</v>
@@ -31934,7 +31934,7 @@
         <v>45324.75</v>
       </c>
       <c r="E337" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F337" t="s">
         <v>57</v>
@@ -32845,7 +32845,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7785551</v>
+        <v>7785550</v>
       </c>
       <c r="C347" t="s">
         <v>29</v>
@@ -32854,13 +32854,13 @@
         <v>45326.79166666666</v>
       </c>
       <c r="E347" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F347" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -32872,64 +32872,64 @@
         <v>0</v>
       </c>
       <c r="K347" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="M347">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N347">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O347">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="P347">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q347">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="R347">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y347">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
         <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB347">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
         <v>-1</v>
       </c>
       <c r="AD347">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -32937,7 +32937,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7785550</v>
+        <v>7785551</v>
       </c>
       <c r="C348" t="s">
         <v>29</v>
@@ -32946,13 +32946,13 @@
         <v>45326.79166666666</v>
       </c>
       <c r="E348" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F348" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="G348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -32964,64 +32964,64 @@
         <v>0</v>
       </c>
       <c r="K348" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="M348">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N348">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O348">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="P348">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q348">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="R348">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S348">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W348">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X348">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z348">
         <v>-1</v>
       </c>
       <c r="AA348">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC348">
         <v>-1</v>
       </c>
       <c r="AD348">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:30">
@@ -33305,7 +33305,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7806890</v>
+        <v>7806889</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -33314,82 +33314,82 @@
         <v>45331.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F352" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
         <v>4</v>
       </c>
-      <c r="I352">
-        <v>0</v>
-      </c>
       <c r="J352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L352">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="M352">
         <v>4</v>
       </c>
       <c r="N352">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O352">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="P352">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q352">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="R352">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T352">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U352">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W352">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AD352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -33397,7 +33397,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7806889</v>
+        <v>7806890</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -33406,82 +33406,82 @@
         <v>45331.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="G353">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I353">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L353">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="M353">
         <v>4</v>
       </c>
       <c r="N353">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O353">
-        <v>1.333</v>
+        <v>8</v>
       </c>
       <c r="P353">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q353">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="R353">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S353">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U353">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V353">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X353">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA353">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC353">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AD353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -33501,7 +33501,7 @@
         <v>33</v>
       </c>
       <c r="F354" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G354">
         <v>1</v>
@@ -34041,7 +34041,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7809187</v>
+        <v>7809266</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -34050,82 +34050,82 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F360" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>2</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360" t="s">
+        <v>219</v>
+      </c>
+      <c r="L360">
+        <v>4.2</v>
+      </c>
+      <c r="M360">
         <v>4</v>
       </c>
-      <c r="H360">
-        <v>1</v>
-      </c>
-      <c r="I360">
-        <v>2</v>
-      </c>
-      <c r="J360">
-        <v>1</v>
-      </c>
-      <c r="K360" t="s">
-        <v>217</v>
-      </c>
-      <c r="L360">
-        <v>1.181</v>
-      </c>
-      <c r="M360">
+      <c r="N360">
+        <v>1.6</v>
+      </c>
+      <c r="O360">
+        <v>7.5</v>
+      </c>
+      <c r="P360">
         <v>5.5</v>
       </c>
-      <c r="N360">
-        <v>13</v>
-      </c>
-      <c r="O360">
-        <v>1.166</v>
-      </c>
-      <c r="P360">
-        <v>6</v>
-      </c>
       <c r="Q360">
-        <v>13</v>
+        <v>1.25</v>
       </c>
       <c r="R360">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="S360">
+        <v>1.825</v>
+      </c>
+      <c r="T360">
         <v>1.975</v>
       </c>
-      <c r="T360">
-        <v>1.825</v>
-      </c>
       <c r="U360">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V360">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="W360">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="X360">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA360">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC360">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD360">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:30">
@@ -34133,7 +34133,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7809266</v>
+        <v>7809267</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -34145,58 +34145,58 @@
         <v>58</v>
       </c>
       <c r="F361" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I361">
         <v>0</v>
       </c>
       <c r="J361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K361" t="s">
         <v>219</v>
       </c>
       <c r="L361">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M361">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N361">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O361">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="P361">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q361">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="R361">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S361">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T361">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U361">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V361">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="X361">
         <v>-1</v>
@@ -34205,19 +34205,19 @@
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="AA361">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD361">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -34225,7 +34225,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7809267</v>
+        <v>7809187</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -34234,79 +34234,79 @@
         <v>45332.79166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F362" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H362">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K362" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L362">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="M362">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N362">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="O362">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="P362">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q362">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="R362">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="S362">
+        <v>1.975</v>
+      </c>
+      <c r="T362">
+        <v>1.825</v>
+      </c>
+      <c r="U362">
+        <v>3.25</v>
+      </c>
+      <c r="V362">
+        <v>1.875</v>
+      </c>
+      <c r="W362">
         <v>1.925</v>
       </c>
-      <c r="T362">
-        <v>1.875</v>
-      </c>
-      <c r="U362">
-        <v>3.5</v>
-      </c>
-      <c r="V362">
-        <v>1.925</v>
-      </c>
-      <c r="W362">
-        <v>1.775</v>
-      </c>
       <c r="X362">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB362">
+        <v>-1</v>
+      </c>
+      <c r="AC362">
         <v>0.875</v>
-      </c>
-      <c r="AC362">
-        <v>0.925</v>
       </c>
       <c r="AD362">
         <v>-1</v>
@@ -35246,7 +35246,7 @@
         <v>45338.75</v>
       </c>
       <c r="E373" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F373" t="s">
         <v>76</v>
@@ -35338,7 +35338,7 @@
         <v>45338.77083333334</v>
       </c>
       <c r="E374" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F374" t="s">
         <v>128</v>
@@ -36445,7 +36445,7 @@
         <v>49</v>
       </c>
       <c r="F386" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G386">
         <v>1</v>
@@ -36525,7 +36525,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7872945</v>
+        <v>7872941</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -36534,16 +36534,16 @@
         <v>45345.75</v>
       </c>
       <c r="E387" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F387" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387">
         <v>0</v>
@@ -36552,64 +36552,64 @@
         <v>0</v>
       </c>
       <c r="K387" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L387">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="M387">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N387">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O387">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P387">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q387">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="R387">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T387">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U387">
         <v>2.75</v>
       </c>
       <c r="V387">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W387">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X387">
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA387">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD387">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="388" spans="1:30">
@@ -36617,7 +36617,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7872941</v>
+        <v>7872945</v>
       </c>
       <c r="C388" t="s">
         <v>29</v>
@@ -36626,16 +36626,16 @@
         <v>45345.75</v>
       </c>
       <c r="E388" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F388" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388">
         <v>0</v>
@@ -36644,64 +36644,64 @@
         <v>0</v>
       </c>
       <c r="K388" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L388">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="M388">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N388">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O388">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P388">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q388">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="R388">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S388">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T388">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U388">
         <v>2.75</v>
       </c>
       <c r="V388">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W388">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X388">
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z388">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA388">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB388">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD388">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:30">
@@ -37169,7 +37169,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7877572</v>
+        <v>7877570</v>
       </c>
       <c r="C394" t="s">
         <v>29</v>
@@ -37178,19 +37178,19 @@
         <v>45346.79166666666</v>
       </c>
       <c r="E394" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F394" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H394">
         <v>0</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394">
         <v>0</v>
@@ -37199,25 +37199,25 @@
         <v>217</v>
       </c>
       <c r="L394">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M394">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N394">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O394">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P394">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q394">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R394">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S394">
         <v>1.9</v>
@@ -37226,16 +37226,16 @@
         <v>1.9</v>
       </c>
       <c r="U394">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V394">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W394">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X394">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Y394">
         <v>-1</v>
@@ -37250,10 +37250,10 @@
         <v>-1</v>
       </c>
       <c r="AC394">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD394">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="395" spans="1:30">
@@ -37261,7 +37261,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7877570</v>
+        <v>7877575</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -37270,19 +37270,19 @@
         <v>45346.79166666666</v>
       </c>
       <c r="E395" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F395" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="G395">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395">
         <v>0</v>
@@ -37294,41 +37294,41 @@
         <v>2.1</v>
       </c>
       <c r="M395">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N395">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O395">
+        <v>2.8</v>
+      </c>
+      <c r="P395">
+        <v>3.5</v>
+      </c>
+      <c r="Q395">
         <v>2.15</v>
       </c>
-      <c r="P395">
-        <v>3.2</v>
-      </c>
-      <c r="Q395">
-        <v>3</v>
-      </c>
       <c r="R395">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S395">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U395">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V395">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W395">
+        <v>1.975</v>
+      </c>
+      <c r="X395">
         <v>1.8</v>
       </c>
-      <c r="X395">
-        <v>1.15</v>
-      </c>
       <c r="Y395">
         <v>-1</v>
       </c>
@@ -37336,16 +37336,16 @@
         <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB395">
         <v>-1</v>
       </c>
       <c r="AC395">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AD395">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="396" spans="1:30">
@@ -37353,7 +37353,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7877575</v>
+        <v>7877572</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -37362,16 +37362,16 @@
         <v>45346.79166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F396" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G396">
         <v>2</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -37383,43 +37383,43 @@
         <v>217</v>
       </c>
       <c r="L396">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M396">
         <v>3.5</v>
       </c>
       <c r="N396">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O396">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="P396">
+        <v>3.4</v>
+      </c>
+      <c r="Q396">
         <v>3.5</v>
       </c>
-      <c r="Q396">
-        <v>2.15</v>
-      </c>
       <c r="R396">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S396">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T396">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U396">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V396">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W396">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X396">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y396">
         <v>-1</v>
@@ -37428,16 +37428,16 @@
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB396">
         <v>-1</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD396">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -38006,7 +38006,7 @@
         <v>45352.75</v>
       </c>
       <c r="E403" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F403" t="s">
         <v>127</v>
@@ -38190,7 +38190,7 @@
         <v>45352.77083333334</v>
       </c>
       <c r="E405" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F405" t="s">
         <v>97</v>
@@ -39377,7 +39377,7 @@
         <v>61</v>
       </c>
       <c r="F418" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <v>1</v>
@@ -39742,7 +39742,7 @@
         <v>45359.75</v>
       </c>
       <c r="E422" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F422" t="s">
         <v>70</v>
@@ -40846,7 +40846,7 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E434" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F434" t="s">
         <v>83</v>
@@ -41214,7 +41214,7 @@
         <v>45363.54166666666</v>
       </c>
       <c r="E438" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F438" t="s">
         <v>65</v>
@@ -41757,7 +41757,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7948055</v>
+        <v>7948057</v>
       </c>
       <c r="C444" t="s">
         <v>29</v>
@@ -41766,61 +41766,67 @@
         <v>45363.79166666666</v>
       </c>
       <c r="E444" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="F444" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H444">
         <v>0</v>
       </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
       <c r="K444" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L444">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="M444">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N444">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O444">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="P444">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q444">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="R444">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S444">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T444">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U444">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V444">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W444">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X444">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y444">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
         <v>-1</v>
@@ -41829,13 +41835,13 @@
         <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.8999999